--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">Marinette Dupain-Cheng</t>
   </si>
   <si>
-    <t xml:space="preserve">She is a student in Miss Bustier's class at Collège Françoise Dupont in Paris, France, and a budding fashion designer who wants to have her own brand one day.</t>
+    <t xml:space="preserve">#FFFFFF</t>
   </si>
   <si>
     <t xml:space="preserve">SourceID</t>
@@ -440,8 +440,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ948"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="G2:G3 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -900,18 +900,15 @@
       <c r="B22" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A22&amp;""", ""name"": """&amp;B22&amp;""", ""description"": """&amp;C22&amp;""", ""imageFilename"": """&amp;A22&amp;".webp"", ""color"": """&amp;D22&amp;""", ""group"": """&amp;E22&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "She is a student in Miss Bustier's class at Collège Françoise Dupont in Paris, France, and a budding fashion designer who wants to have her own brand one day.", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#000080", "group": "CHARACTER"},</v>
+        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -278,13 +278,205 @@
     <t xml:space="preserve">#FF2400</t>
   </si>
   <si>
+    <t xml:space="preserve">AKUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFFFFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARINETTE_DUPAIN-CHENG</t>
   </si>
   <si>
     <t xml:space="preserve">Marinette Dupain-Cheng</t>
   </si>
   <si>
-    <t xml:space="preserve">#FFFFFF</t>
+    <t xml:space="preserve">LADYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladybug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_NOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Noire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMOUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIFOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multifox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTINOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multibug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAGON_BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_BEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGABUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegabug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennybug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIEN_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrien Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTER_BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mister Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAKE_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_WALKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_BLANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Blanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHEMERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALYA_CÉSAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alya Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_ROUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_FURTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Furtive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARABELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_WIFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_RAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Rage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBLIVIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oblivio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAWK_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawk Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHADOW_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARLET_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHADOWNOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadownoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_COLLECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Collector</t>
   </si>
   <si>
     <t xml:space="preserve">SourceID</t>
@@ -441,7 +633,7 @@
   <dimension ref="A1:AMJ948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G2:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -894,7 +1086,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -908,396 +1100,700 @@
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A22&amp;""", ""name"": """&amp;B22&amp;""", ""description"": """&amp;C22&amp;""", ""imageFilename"": """&amp;A22&amp;".webp"", ""color"": """&amp;D22&amp;""", ""group"": """&amp;E22&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A23&amp;""", ""name"": """&amp;B23&amp;""", ""description"": """&amp;C23&amp;""", ""imageFilename"": """&amp;A23&amp;".webp"", ""color"": """&amp;D23&amp;""", ""group"": """&amp;E23&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A24&amp;""", ""name"": """&amp;B24&amp;""", ""description"": """&amp;C24&amp;""", ""imageFilename"": """&amp;A24&amp;".webp"", ""color"": """&amp;D24&amp;""", ""group"": """&amp;E24&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A26&amp;""", ""name"": """&amp;B26&amp;""", ""description"": """&amp;C26&amp;""", ""imageFilename"": """&amp;A26&amp;".webp"", ""color"": """&amp;D26&amp;""", ""group"": """&amp;E26&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A27&amp;""", ""name"": """&amp;B27&amp;""", ""description"": """&amp;C27&amp;""", ""imageFilename"": """&amp;A27&amp;".webp"", ""color"": """&amp;D27&amp;""", ""group"": """&amp;E27&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A28&amp;""", ""name"": """&amp;B28&amp;""", ""description"": """&amp;C28&amp;""", ""imageFilename"": """&amp;A28&amp;".webp"", ""color"": """&amp;D28&amp;""", ""group"": """&amp;E28&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A29&amp;""", ""name"": """&amp;B29&amp;""", ""description"": """&amp;C29&amp;""", ""imageFilename"": """&amp;A29&amp;".webp"", ""color"": """&amp;D29&amp;""", ""group"": """&amp;E29&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>103</v>
+      </c>
       <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A30&amp;""", ""name"": """&amp;B30&amp;""", ""description"": """&amp;C30&amp;""", ""imageFilename"": """&amp;A30&amp;".webp"", ""color"": """&amp;D30&amp;""", ""group"": """&amp;E30&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7"/>
+      <c r="A31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A31&amp;""", ""name"": """&amp;B31&amp;""", ""description"": """&amp;C31&amp;""", ""imageFilename"": """&amp;A31&amp;".webp"", ""color"": """&amp;D31&amp;""", ""group"": """&amp;E31&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7"/>
+      <c r="A32" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A34&amp;""", ""name"": """&amp;B34&amp;""", ""description"": """&amp;C34&amp;""", ""imageFilename"": """&amp;A34&amp;".webp"", ""color"": """&amp;D34&amp;""", ""group"": """&amp;E34&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A35&amp;""", ""name"": """&amp;B35&amp;""", ""description"": """&amp;C35&amp;""", ""imageFilename"": """&amp;A35&amp;".webp"", ""color"": """&amp;D35&amp;""", ""group"": """&amp;E35&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A36&amp;""", ""name"": """&amp;B36&amp;""", ""description"": """&amp;C36&amp;""", ""imageFilename"": """&amp;A36&amp;".webp"", ""color"": """&amp;D36&amp;""", ""group"": """&amp;E36&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CÉSAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CÉSAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
       <c r="C44" s="6"/>
+      <c r="D44" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="C45" s="6"/>
+      <c r="D45" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="6"/>
+      <c r="D55" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="6"/>
+      <c r="D56" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="6"/>
+      <c r="D57" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="6"/>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="6"/>
+      <c r="D59" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="6"/>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "", "group": "CHARACTER"},</v>
+        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,7 +1836,7 @@
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G2:G54 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1356,34 +1852,34 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(C2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
@@ -1392,16 +1888,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(C3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="215">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -287,6 +287,12 @@
     <t xml:space="preserve">#FFFFFF</t>
   </si>
   <si>
+    <t xml:space="preserve">PLACEHOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARINETTE_DUPAIN-CHENG</t>
   </si>
   <si>
@@ -477,6 +483,168 @@
   </si>
   <si>
     <t xml:space="preserve">The Collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHLOÉ_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloé Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_BEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_WASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Wasp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACLE_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miracle Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_BANANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENALTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOÉ_LEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoé Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VESPERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vesperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLE_CRUSHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sole Crusher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANG_FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADE_TURTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEACOCK_MIRACULOUS_HOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peacock Miraculous holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURIOUS_FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furious Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINO_LAHIFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nino Lahiffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARAPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carapace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_BUBBLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bubbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELL_SHOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCKETEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocketear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTININO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTICARAPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senticarapace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILIE_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilie Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATHALIE_SANCOEUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie Sancoeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATALYST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FÉLIX_GRAHAM_DE_VANILY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Félix Graham de Vanily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAIRMIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flairmidable</t>
   </si>
   <si>
     <t xml:space="preserve">SourceID</t>
@@ -630,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ948"/>
+  <dimension ref="A1:AMJ949"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G2:G54"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,7 +1272,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1118,11 +1286,11 @@
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A23&amp;""", ""name"": """&amp;B23&amp;""", ""description"": """&amp;C23&amp;""", ""imageFilename"": """&amp;A23&amp;".webp"", ""color"": """&amp;D23&amp;""", ""group"": """&amp;E23&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PLACEHOLDER", "name": "Placeholder", "description": "", "imageFilename": "PLACEHOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -1136,11 +1304,11 @@
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A24&amp;""", ""name"": """&amp;B24&amp;""", ""description"": """&amp;C24&amp;""", ""imageFilename"": """&amp;A24&amp;".webp"", ""color"": """&amp;D24&amp;""", ""group"": """&amp;E24&amp;"""},"</f>
-        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -1154,7 +1322,7 @@
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,11 +1340,11 @@
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A26&amp;""", ""name"": """&amp;B26&amp;""", ""description"": """&amp;C26&amp;""", ""imageFilename"": """&amp;A26&amp;".webp"", ""color"": """&amp;D26&amp;""", ""group"": """&amp;E26&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -1190,7 +1358,7 @@
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A27&amp;""", ""name"": """&amp;B27&amp;""", ""description"": """&amp;C27&amp;""", ""imageFilename"": """&amp;A27&amp;".webp"", ""color"": """&amp;D27&amp;""", ""group"": """&amp;E27&amp;"""},"</f>
-        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,11 +1376,11 @@
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A28&amp;""", ""name"": """&amp;B28&amp;""", ""description"": """&amp;C28&amp;""", ""imageFilename"": """&amp;A28&amp;".webp"", ""color"": """&amp;D28&amp;""", ""group"": """&amp;E28&amp;"""},"</f>
-        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1226,7 +1394,7 @@
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A29&amp;""", ""name"": """&amp;B29&amp;""", ""description"": """&amp;C29&amp;""", ""imageFilename"": """&amp;A29&amp;".webp"", ""color"": """&amp;D29&amp;""", ""group"": """&amp;E29&amp;"""},"</f>
-        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1404,6 @@
       <c r="B30" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1245,16 +1412,17 @@
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A30&amp;""", ""name"": """&amp;B30&amp;""", ""description"": """&amp;C30&amp;""", ""imageFilename"": """&amp;A30&amp;".webp"", ""color"": """&amp;D30&amp;""", ""group"": """&amp;E30&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1431,7 @@
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A31&amp;""", ""name"": """&amp;B31&amp;""", ""description"": """&amp;C31&amp;""", ""imageFilename"": """&amp;A31&amp;".webp"", ""color"": """&amp;D31&amp;""", ""group"": """&amp;E31&amp;"""},"</f>
-        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,14 +1449,14 @@
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
-        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1299,11 +1467,11 @@
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
-        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="0" t="s">
         <v>110</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -1317,7 +1485,7 @@
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A34&amp;""", ""name"": """&amp;B34&amp;""", ""description"": """&amp;C34&amp;""", ""imageFilename"": """&amp;A34&amp;".webp"", ""color"": """&amp;D34&amp;""", ""group"": """&amp;E34&amp;"""},"</f>
-        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,11 +1503,11 @@
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A35&amp;""", ""name"": """&amp;B35&amp;""", ""description"": """&amp;C35&amp;""", ""imageFilename"": """&amp;A35&amp;".webp"", ""color"": """&amp;D35&amp;""", ""group"": """&amp;E35&amp;"""},"</f>
-        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -1353,7 +1521,7 @@
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A36&amp;""", ""name"": """&amp;B36&amp;""", ""description"": """&amp;C36&amp;""", ""imageFilename"": """&amp;A36&amp;".webp"", ""color"": """&amp;D36&amp;""", ""group"": """&amp;E36&amp;"""},"</f>
-        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1539,7 @@
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
-        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,7 +1557,7 @@
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,11 +1575,11 @@
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="0" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -1425,7 +1593,7 @@
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1611,7 @@
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,11 +1629,11 @@
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "ALYA_CÉSAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CÉSAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -1479,7 +1647,7 @@
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CÉSAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CÉSAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,7 +1657,6 @@
       <c r="B44" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="6"/>
       <c r="D44" s="1" t="s">
         <v>87</v>
       </c>
@@ -1498,7 +1665,7 @@
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1684,7 @@
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,6 +1694,7 @@
       <c r="B46" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="1" t="s">
         <v>87</v>
       </c>
@@ -1535,7 +1703,7 @@
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1721,7 @@
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1739,7 @@
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,7 +1757,7 @@
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,7 +1775,7 @@
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1793,7 @@
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,7 +1811,7 @@
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1829,7 @@
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,11 +1847,16 @@
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="6"/>
+      <c r="A55" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>153</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>87</v>
       </c>
@@ -1692,10 +1865,16 @@
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>155</v>
+      </c>
       <c r="C56" s="6"/>
       <c r="D56" s="1" t="s">
         <v>87</v>
@@ -1705,10 +1884,16 @@
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CHLOÉ_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOÉ_BOURGEOIS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>157</v>
+      </c>
       <c r="C57" s="6"/>
       <c r="D57" s="1" t="s">
         <v>87</v>
@@ -1718,10 +1903,16 @@
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="C58" s="6"/>
       <c r="D58" s="1" t="s">
         <v>87</v>
@@ -1731,10 +1922,16 @@
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>161</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
         <v>87</v>
@@ -1744,10 +1941,16 @@
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>163</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="1" t="s">
         <v>87</v>
@@ -1757,10 +1960,17 @@
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="1" t="s">
         <v>87</v>
       </c>
@@ -1769,10 +1979,16 @@
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>167</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>87</v>
       </c>
@@ -1781,10 +1997,16 @@
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>169</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>87</v>
       </c>
@@ -1793,11 +2015,350 @@
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "", "name": "", "description": "", "imageFilename": ".webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="6"/>
+        <v>{"id": "ZOÉ_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOÉ_LEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A64&amp;""", ""name"": """&amp;B64&amp;""", ""description"": """&amp;C64&amp;""", ""imageFilename"": """&amp;A64&amp;".webp"", ""color"": """&amp;D64&amp;""", ""group"": """&amp;E64&amp;"""},"</f>
+        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A65&amp;""", ""name"": """&amp;B65&amp;""", ""description"": """&amp;C65&amp;""", ""imageFilename"": """&amp;A65&amp;".webp"", ""color"": """&amp;D65&amp;""", ""group"": """&amp;E65&amp;"""},"</f>
+        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A66&amp;""", ""name"": """&amp;B66&amp;""", ""description"": """&amp;C66&amp;""", ""imageFilename"": """&amp;A66&amp;".webp"", ""color"": """&amp;D66&amp;""", ""group"": """&amp;E66&amp;"""},"</f>
+        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A67&amp;""", ""name"": """&amp;B67&amp;""", ""description"": """&amp;C67&amp;""", ""imageFilename"": """&amp;A67&amp;".webp"", ""color"": """&amp;D67&amp;""", ""group"": """&amp;E67&amp;"""},"</f>
+        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A68&amp;""", ""name"": """&amp;B68&amp;""", ""description"": """&amp;C68&amp;""", ""imageFilename"": """&amp;A68&amp;".webp"", ""color"": """&amp;D68&amp;""", ""group"": """&amp;E68&amp;"""},"</f>
+        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A69&amp;""", ""name"": """&amp;B69&amp;""", ""description"": """&amp;C69&amp;""", ""imageFilename"": """&amp;A69&amp;".webp"", ""color"": """&amp;D69&amp;""", ""group"": """&amp;E69&amp;"""},"</f>
+        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A70&amp;""", ""name"": """&amp;B70&amp;""", ""description"": """&amp;C70&amp;""", ""imageFilename"": """&amp;A70&amp;".webp"", ""color"": """&amp;D70&amp;""", ""group"": """&amp;E70&amp;"""},"</f>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A71&amp;""", ""name"": """&amp;B71&amp;""", ""description"": """&amp;C71&amp;""", ""imageFilename"": """&amp;A71&amp;".webp"", ""color"": """&amp;D71&amp;""", ""group"": """&amp;E71&amp;"""},"</f>
+        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A72&amp;""", ""name"": """&amp;B72&amp;""", ""description"": """&amp;C72&amp;""", ""imageFilename"": """&amp;A72&amp;".webp"", ""color"": """&amp;D72&amp;""", ""group"": """&amp;E72&amp;"""},"</f>
+        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A73&amp;""", ""name"": """&amp;B73&amp;""", ""description"": """&amp;C73&amp;""", ""imageFilename"": """&amp;A73&amp;".webp"", ""color"": """&amp;D73&amp;""", ""group"": """&amp;E73&amp;"""},"</f>
+        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A74&amp;""", ""name"": """&amp;B74&amp;""", ""description"": """&amp;C74&amp;""", ""imageFilename"": """&amp;A74&amp;".webp"", ""color"": """&amp;D74&amp;""", ""group"": """&amp;E74&amp;"""},"</f>
+        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A75&amp;""", ""name"": """&amp;B75&amp;""", ""description"": """&amp;C75&amp;""", ""imageFilename"": """&amp;A75&amp;".webp"", ""color"": """&amp;D75&amp;""", ""group"": """&amp;E75&amp;"""},"</f>
+        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A76&amp;""", ""name"": """&amp;B76&amp;""", ""description"": """&amp;C76&amp;""", ""imageFilename"": """&amp;A76&amp;".webp"", ""color"": """&amp;D76&amp;""", ""group"": """&amp;E76&amp;"""},"</f>
+        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A77&amp;""", ""name"": """&amp;B77&amp;""", ""description"": """&amp;C77&amp;""", ""imageFilename"": """&amp;A77&amp;".webp"", ""color"": """&amp;D77&amp;""", ""group"": """&amp;E77&amp;"""},"</f>
+        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A78&amp;""", ""name"": """&amp;B78&amp;""", ""description"": """&amp;C78&amp;""", ""imageFilename"": """&amp;A78&amp;".webp"", ""color"": """&amp;D78&amp;""", ""group"": """&amp;E78&amp;"""},"</f>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A79&amp;""", ""name"": """&amp;B79&amp;""", ""description"": """&amp;C79&amp;""", ""imageFilename"": """&amp;A79&amp;".webp"", ""color"": """&amp;D79&amp;""", ""group"": """&amp;E79&amp;"""},"</f>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A80&amp;""", ""name"": """&amp;B80&amp;""", ""description"": """&amp;C80&amp;""", ""imageFilename"": """&amp;A80&amp;".webp"", ""color"": """&amp;D80&amp;""", ""group"": """&amp;E80&amp;"""},"</f>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
+        <v>{"id": "FÉLIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FÉLIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A82&amp;""", ""name"": """&amp;B82&amp;""", ""description"": """&amp;C82&amp;""", ""imageFilename"": """&amp;A82&amp;".webp"", ""color"": """&amp;D82&amp;""", ""group"": """&amp;E82&amp;"""},"</f>
+        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C943" s="6"/>
@@ -1816,6 +2377,9 @@
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C948" s="6"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1836,7 +2400,7 @@
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="G2:G54 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1852,34 +2416,34 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(C2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
@@ -1888,16 +2452,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(C3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="305">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -266,6 +266,621 @@
     <t xml:space="preserve">#FFD0E7</t>
   </si>
   <si>
+    <t xml:space="preserve">AKUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEANNE_D_ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanne d'Arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARINETTE_DUPAIN_CHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marinette Dupain-Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladybug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_NOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Noire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMOUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIFOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multifox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTINOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multibug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAGON_BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_BEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGABUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegabug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennybug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIEN_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrien Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTER_BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mister Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAKE_NOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_WALKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT_BLANC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Blanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHEMERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ephemeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALYA_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alya Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_ROUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_FURTIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Furtive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARABELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADY_WIFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENA_RAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rena Rage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBLIVIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oblivio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAWK_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawk Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHADOW_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARLET_MOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet Moth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHADOWNOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadownoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_COLLECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHLOE_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloé Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_BEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_WASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Wasp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACLE_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miracle Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN_BANANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENALTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOE_LEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoé Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VESPERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vesperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLE_CRUSHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sole Crusher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANG_FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADE_TURTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEACOCK_MIRACULOUS_HOLDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peacock Miraculous holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURIOUS_FU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furious Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINO_LAHIFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nino Lahiffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARAPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carapace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_BUBBLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bubbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELL_SHOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCKETEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocketear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTININO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTICARAPACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senticarapace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILIE_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilie Agreste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATHALIE_SANCOEUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie Sancoeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATALYST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIX_GRAHAM_DE_VANILY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Félix Graham de Vanily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAIRMIDABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flairmidable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYLENE_HAPRELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylène Haprèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLYMOUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORRIFICATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrificator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN_BRUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Bruel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINOTAUROX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minotaurox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STONEHEART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoneheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULEKA_COUFFAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juleka Couffaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURPLE_TIGRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Tigress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLEKTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflekta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIX_KUBDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alix Kubdel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIX_KUBDEL_ADULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alix Kubdel (adult)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNNYX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunnyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMEBREAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timebreaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAGAMI_TSURUGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagami Tsurugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYUKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryuko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPOSTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riposte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONI_CHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oni-Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUKA_COUFFAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luka Couffaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIPERION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viperion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILENCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX_KANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Kanté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEGASUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATHANIEL_KURTZBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel Kurtzberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPRIKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caprikid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_EVILLUSTRATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Evillustrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE_CHIEN_KIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Chiến Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING_MONKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Monkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK_CUPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Cupid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC_ANCIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Anciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOSTER_BOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooster Bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABRINA_RAINCOMPRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina Raincomprix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISS_HOUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANISHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRACULER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraculer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSE_LAVILLANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Lavillant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIGELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCESS_FRAGRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Fragrance</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIIRI</t>
   </si>
   <si>
@@ -278,388 +893,43 @@
     <t xml:space="preserve">#FF2400</t>
   </si>
   <si>
-    <t xml:space="preserve">AKUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FFFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACEHOLDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholder</t>
+    <t xml:space="preserve">Mike Rochip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techno-Pirate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techlonizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miraclonizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Keynes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SourceID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShortDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Description HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
   </si>
   <si>
     <t xml:space="preserve">MARINETTE_DUPAIN-CHENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marinette Dupain-Cheng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADYBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladybug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_NOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Noire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMOUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multimouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIFOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multifox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTINOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multibug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRAGON_BUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon Bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_BEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Bee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEGABUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pegabug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENNYBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pennybug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRIEN_AGRESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrien Agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT_NOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat Noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTER_BUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mister Bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNAKE_NOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake Noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT_WALKER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT_BLANC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cat Blanc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPHEMERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephemeral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALYA_CÉSAIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alya Césaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENA_ROUGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rena Rouge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENA_FURTIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rena Furtive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCARABELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarabella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY_WIFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lady Wifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENA_RAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rena Rage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBLIVIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oblivio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL_AGRESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAWK_MOTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawk Moth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHADOW_MOTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Moth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCARLET_MOTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarlet Moth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHADOWNOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadownoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_COLLECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Collector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHLOÉ_BOURGEOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloé Bourgeois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEEN_BEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen Bee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIBUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antibug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEEN_WASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen Wasp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRACLE_QUEEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miracle Queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEEN_BANANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen Banana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENALTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOÉ_LEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoé Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VESPERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vesperia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLE_CRUSHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sole Crusher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WANG_FU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang Fu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JADE_TURTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jade Turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEACOCK_MIRACULOUS_HOLDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peacock Miraculous holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FURIOUS_FU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Furious Fu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NINO_LAHIFFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nino Lahiffe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARAPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carapace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE_BUBBLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Bubbler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHELL_SHOCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell Shock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCKETEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocketear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENTININO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentinino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENTICARAPACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senticarapace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMILIE_AGRESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilie Agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATHALIE_SANCOEUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathalie Sancoeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAYURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALYST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FÉLIX_GRAHAM_DE_VANILY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Félix Graham de Vanily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAIRMIDABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flairmidable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SourceID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShortDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Description HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
   </si>
   <si>
     <t xml:space="preserve">TEMP</t>
@@ -798,10 +1068,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ949"/>
+  <dimension ref="A1:AMJ985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,1154 +1502,1969 @@
         <v>{"id": "DAIZZI", "name": "Daizzi", "description": "The Kwami of Jubilation.", "imageFilename": "DAIZZI.webp", "color": "#FFD0E7", "group": "CHARACTER"},</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A21&amp;""", ""name"": """&amp;B21&amp;""", ""description"": """&amp;C21&amp;""", ""imageFilename"": """&amp;A21&amp;".webp"", ""color"": """&amp;D21&amp;""", ""group"": """&amp;E21&amp;"""},"</f>
-        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A22&amp;""", ""name"": """&amp;B22&amp;""", ""description"": """&amp;C22&amp;""", ""imageFilename"": """&amp;A22&amp;".webp"", ""color"": """&amp;D22&amp;""", ""group"": """&amp;E22&amp;"""},"</f>
-        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A23&amp;""", ""name"": """&amp;B23&amp;""", ""description"": """&amp;C23&amp;""", ""imageFilename"": """&amp;A23&amp;".webp"", ""color"": """&amp;D23&amp;""", ""group"": """&amp;E23&amp;"""},"</f>
-        <v>{"id": "PLACEHOLDER", "name": "Placeholder", "description": "", "imageFilename": "PLACEHOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A24&amp;""", ""name"": """&amp;B24&amp;""", ""description"": """&amp;C24&amp;""", ""imageFilename"": """&amp;A24&amp;".webp"", ""color"": """&amp;D24&amp;""", ""group"": """&amp;E24&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN-CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN-CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
-        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A26&amp;""", ""name"": """&amp;B26&amp;""", ""description"": """&amp;C26&amp;""", ""imageFilename"": """&amp;A26&amp;".webp"", ""color"": """&amp;D26&amp;""", ""group"": """&amp;E26&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A27&amp;""", ""name"": """&amp;B27&amp;""", ""description"": """&amp;C27&amp;""", ""imageFilename"": """&amp;A27&amp;".webp"", ""color"": """&amp;D27&amp;""", ""group"": """&amp;E27&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A28&amp;""", ""name"": """&amp;B28&amp;""", ""description"": """&amp;C28&amp;""", ""imageFilename"": """&amp;A28&amp;".webp"", ""color"": """&amp;D28&amp;""", ""group"": """&amp;E28&amp;"""},"</f>
-        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A29&amp;""", ""name"": """&amp;B29&amp;""", ""description"": """&amp;C29&amp;""", ""imageFilename"": """&amp;A29&amp;".webp"", ""color"": """&amp;D29&amp;""", ""group"": """&amp;E29&amp;"""},"</f>
-        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>102</v>
+      <c r="A30" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A30&amp;""", ""name"": """&amp;B30&amp;""", ""description"": """&amp;C30&amp;""", ""imageFilename"": """&amp;A30&amp;".webp"", ""color"": """&amp;D30&amp;""", ""group"": """&amp;E30&amp;"""},"</f>
-        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A31&amp;""", ""name"": """&amp;B31&amp;""", ""description"": """&amp;C31&amp;""", ""imageFilename"": """&amp;A31&amp;".webp"", ""color"": """&amp;D31&amp;""", ""group"": """&amp;E31&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
-        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
-        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A34&amp;""", ""name"": """&amp;B34&amp;""", ""description"": """&amp;C34&amp;""", ""imageFilename"": """&amp;A34&amp;".webp"", ""color"": """&amp;D34&amp;""", ""group"": """&amp;E34&amp;"""},"</f>
-        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A35&amp;""", ""name"": """&amp;B35&amp;""", ""description"": """&amp;C35&amp;""", ""imageFilename"": """&amp;A35&amp;".webp"", ""color"": """&amp;D35&amp;""", ""group"": """&amp;E35&amp;"""},"</f>
-        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A36&amp;""", ""name"": """&amp;B36&amp;""", ""description"": """&amp;C36&amp;""", ""imageFilename"": """&amp;A36&amp;".webp"", ""color"": """&amp;D36&amp;""", ""group"": """&amp;E36&amp;"""},"</f>
-        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
-        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>120</v>
+      <c r="A39" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>124</v>
+      <c r="A41" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "ALYA_CÉSAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CÉSAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>137</v>
+        <v>104</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>140</v>
+      <c r="A49" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>142</v>
+      <c r="A50" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>152</v>
+      <c r="A55" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>154</v>
+      <c r="A56" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="6"/>
+        <v>123</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "CHLOÉ_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOÉ_BOURGEOIS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>156</v>
+      <c r="A57" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="6"/>
+        <v>125</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>127</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="6"/>
+        <v>133</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "ZOÉ_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOÉ_LEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A64&amp;""", ""name"": """&amp;B64&amp;""", ""description"": """&amp;C64&amp;""", ""imageFilename"": """&amp;A64&amp;".webp"", ""color"": """&amp;D64&amp;""", ""group"": """&amp;E64&amp;"""},"</f>
-        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A65&amp;""", ""name"": """&amp;B65&amp;""", ""description"": """&amp;C65&amp;""", ""imageFilename"": """&amp;A65&amp;".webp"", ""color"": """&amp;D65&amp;""", ""group"": """&amp;E65&amp;"""},"</f>
-        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A66&amp;""", ""name"": """&amp;B66&amp;""", ""description"": """&amp;C66&amp;""", ""imageFilename"": """&amp;A66&amp;".webp"", ""color"": """&amp;D66&amp;""", ""group"": """&amp;E66&amp;"""},"</f>
-        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A67&amp;""", ""name"": """&amp;B67&amp;""", ""description"": """&amp;C67&amp;""", ""imageFilename"": """&amp;A67&amp;".webp"", ""color"": """&amp;D67&amp;""", ""group"": """&amp;E67&amp;"""},"</f>
-        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A68&amp;""", ""name"": """&amp;B68&amp;""", ""description"": """&amp;C68&amp;""", ""imageFilename"": """&amp;A68&amp;".webp"", ""color"": """&amp;D68&amp;""", ""group"": """&amp;E68&amp;"""},"</f>
-        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A69&amp;""", ""name"": """&amp;B69&amp;""", ""description"": """&amp;C69&amp;""", ""imageFilename"": """&amp;A69&amp;".webp"", ""color"": """&amp;D69&amp;""", ""group"": """&amp;E69&amp;"""},"</f>
-        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>183</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C70" s="6"/>
       <c r="D70" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A70&amp;""", ""name"": """&amp;B70&amp;""", ""description"": """&amp;C70&amp;""", ""imageFilename"": """&amp;A70&amp;".webp"", ""color"": """&amp;D70&amp;""", ""group"": """&amp;E70&amp;"""},"</f>
-        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>185</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A71&amp;""", ""name"": """&amp;B71&amp;""", ""description"": """&amp;C71&amp;""", ""imageFilename"": """&amp;A71&amp;".webp"", ""color"": """&amp;D71&amp;""", ""group"": """&amp;E71&amp;"""},"</f>
-        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>187</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C72" s="6"/>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A72&amp;""", ""name"": """&amp;B72&amp;""", ""description"": """&amp;C72&amp;""", ""imageFilename"": """&amp;A72&amp;".webp"", ""color"": """&amp;D72&amp;""", ""group"": """&amp;E72&amp;"""},"</f>
-        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>189</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A73&amp;""", ""name"": """&amp;B73&amp;""", ""description"": """&amp;C73&amp;""", ""imageFilename"": """&amp;A73&amp;".webp"", ""color"": """&amp;D73&amp;""", ""group"": """&amp;E73&amp;"""},"</f>
-        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>191</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C74" s="6"/>
       <c r="D74" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A74&amp;""", ""name"": """&amp;B74&amp;""", ""description"": """&amp;C74&amp;""", ""imageFilename"": """&amp;A74&amp;".webp"", ""color"": """&amp;D74&amp;""", ""group"": """&amp;E74&amp;"""},"</f>
-        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>193</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A75&amp;""", ""name"": """&amp;B75&amp;""", ""description"": """&amp;C75&amp;""", ""imageFilename"": """&amp;A75&amp;".webp"", ""color"": """&amp;D75&amp;""", ""group"": """&amp;E75&amp;"""},"</f>
-        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A76&amp;""", ""name"": """&amp;B76&amp;""", ""description"": """&amp;C76&amp;""", ""imageFilename"": """&amp;A76&amp;".webp"", ""color"": """&amp;D76&amp;""", ""group"": """&amp;E76&amp;"""},"</f>
-        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A77&amp;""", ""name"": """&amp;B77&amp;""", ""description"": """&amp;C77&amp;""", ""imageFilename"": """&amp;A77&amp;".webp"", ""color"": """&amp;D77&amp;""", ""group"": """&amp;E77&amp;"""},"</f>
-        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A78&amp;""", ""name"": """&amp;B78&amp;""", ""description"": """&amp;C78&amp;""", ""imageFilename"": """&amp;A78&amp;".webp"", ""color"": """&amp;D78&amp;""", ""group"": """&amp;E78&amp;"""},"</f>
-        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A79&amp;""", ""name"": """&amp;B79&amp;""", ""description"": """&amp;C79&amp;""", ""imageFilename"": """&amp;A79&amp;".webp"", ""color"": """&amp;D79&amp;""", ""group"": """&amp;E79&amp;"""},"</f>
-        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A80&amp;""", ""name"": """&amp;B80&amp;""", ""description"": """&amp;C80&amp;""", ""imageFilename"": """&amp;A80&amp;".webp"", ""color"": """&amp;D80&amp;""", ""group"": """&amp;E80&amp;"""},"</f>
-        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
-        <v>{"id": "FÉLIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FÉLIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A82&amp;""", ""name"": """&amp;B82&amp;""", ""description"": """&amp;C82&amp;""", ""imageFilename"": """&amp;A82&amp;".webp"", ""color"": """&amp;D82&amp;""", ""group"": """&amp;E82&amp;"""},"</f>
+        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A83&amp;""", ""name"": """&amp;B83&amp;""", ""description"": """&amp;C83&amp;""", ""imageFilename"": """&amp;A83&amp;".webp"", ""color"": """&amp;D83&amp;""", ""group"": """&amp;E83&amp;"""},"</f>
+        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A84&amp;""", ""name"": """&amp;B84&amp;""", ""description"": """&amp;C84&amp;""", ""imageFilename"": """&amp;A84&amp;".webp"", ""color"": """&amp;D84&amp;""", ""group"": """&amp;E84&amp;"""},"</f>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A85&amp;""", ""name"": """&amp;B85&amp;""", ""description"": """&amp;C85&amp;""", ""imageFilename"": """&amp;A85&amp;".webp"", ""color"": """&amp;D85&amp;""", ""group"": """&amp;E85&amp;"""},"</f>
+        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A86&amp;""", ""name"": """&amp;B86&amp;""", ""description"": """&amp;C86&amp;""", ""imageFilename"": """&amp;A86&amp;".webp"", ""color"": """&amp;D86&amp;""", ""group"": """&amp;E86&amp;"""},"</f>
+        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A87&amp;""", ""name"": """&amp;B87&amp;""", ""description"": """&amp;C87&amp;""", ""imageFilename"": """&amp;A87&amp;".webp"", ""color"": """&amp;D87&amp;""", ""group"": """&amp;E87&amp;"""},"</f>
+        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A88&amp;""", ""name"": """&amp;B88&amp;""", ""description"": """&amp;C88&amp;""", ""imageFilename"": """&amp;A88&amp;".webp"", ""color"": """&amp;D88&amp;""", ""group"": """&amp;E88&amp;"""},"</f>
+        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A89&amp;""", ""name"": """&amp;B89&amp;""", ""description"": """&amp;C89&amp;""", ""imageFilename"": """&amp;A89&amp;".webp"", ""color"": """&amp;D89&amp;""", ""group"": """&amp;E89&amp;"""},"</f>
+        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A90&amp;""", ""name"": """&amp;B90&amp;""", ""description"": """&amp;C90&amp;""", ""imageFilename"": """&amp;A90&amp;".webp"", ""color"": """&amp;D90&amp;""", ""group"": """&amp;E90&amp;"""},"</f>
+        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A91&amp;""", ""name"": """&amp;B91&amp;""", ""description"": """&amp;C91&amp;""", ""imageFilename"": """&amp;A91&amp;".webp"", ""color"": """&amp;D91&amp;""", ""group"": """&amp;E91&amp;"""},"</f>
+        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A92&amp;""", ""name"": """&amp;B92&amp;""", ""description"": """&amp;C92&amp;""", ""imageFilename"": """&amp;A92&amp;".webp"", ""color"": """&amp;D92&amp;""", ""group"": """&amp;E92&amp;"""},"</f>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A93&amp;""", ""name"": """&amp;B93&amp;""", ""description"": """&amp;C93&amp;""", ""imageFilename"": """&amp;A93&amp;".webp"", ""color"": """&amp;D93&amp;""", ""group"": """&amp;E93&amp;"""},"</f>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A94&amp;""", ""name"": """&amp;B94&amp;""", ""description"": """&amp;C94&amp;""", ""imageFilename"": """&amp;A94&amp;".webp"", ""color"": """&amp;D94&amp;""", ""group"": """&amp;E94&amp;"""},"</f>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A95&amp;""", ""name"": """&amp;B95&amp;""", ""description"": """&amp;C95&amp;""", ""imageFilename"": """&amp;A95&amp;".webp"", ""color"": """&amp;D95&amp;""", ""group"": """&amp;E95&amp;"""},"</f>
+        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A96&amp;""", ""name"": """&amp;B96&amp;""", ""description"": """&amp;C96&amp;""", ""imageFilename"": """&amp;A96&amp;".webp"", ""color"": """&amp;D96&amp;""", ""group"": """&amp;E96&amp;"""},"</f>
         <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
-    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="6"/>
-    </row>
-    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="6"/>
-    </row>
-    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="6"/>
-    </row>
-    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="6"/>
-    </row>
-    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="6"/>
-    </row>
-    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="6"/>
-    </row>
-    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="6"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A97&amp;""", ""name"": """&amp;B97&amp;""", ""description"": """&amp;C97&amp;""", ""imageFilename"": """&amp;A97&amp;".webp"", ""color"": """&amp;D97&amp;""", ""group"": """&amp;E97&amp;"""},"</f>
+        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A98&amp;""", ""name"": """&amp;B98&amp;""", ""description"": """&amp;C98&amp;""", ""imageFilename"": """&amp;A98&amp;".webp"", ""color"": """&amp;D98&amp;""", ""group"": """&amp;E98&amp;"""},"</f>
+        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A99&amp;""", ""name"": """&amp;B99&amp;""", ""description"": """&amp;C99&amp;""", ""imageFilename"": """&amp;A99&amp;".webp"", ""color"": """&amp;D99&amp;""", ""group"": """&amp;E99&amp;"""},"</f>
+        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A100&amp;""", ""name"": """&amp;B100&amp;""", ""description"": """&amp;C100&amp;""", ""imageFilename"": """&amp;A100&amp;".webp"", ""color"": """&amp;D100&amp;""", ""group"": """&amp;E100&amp;"""},"</f>
+        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
+        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A102&amp;""", ""name"": """&amp;B102&amp;""", ""description"": """&amp;C102&amp;""", ""imageFilename"": """&amp;A102&amp;".webp"", ""color"": """&amp;D102&amp;""", ""group"": """&amp;E102&amp;"""},"</f>
+        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A103&amp;""", ""name"": """&amp;B103&amp;""", ""description"": """&amp;C103&amp;""", ""imageFilename"": """&amp;A103&amp;".webp"", ""color"": """&amp;D103&amp;""", ""group"": """&amp;E103&amp;"""},"</f>
+        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A104&amp;""", ""name"": """&amp;B104&amp;""", ""description"": """&amp;C104&amp;""", ""imageFilename"": """&amp;A104&amp;".webp"", ""color"": """&amp;D104&amp;""", ""group"": """&amp;E104&amp;"""},"</f>
+        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A105&amp;""", ""name"": """&amp;B105&amp;""", ""description"": """&amp;C105&amp;""", ""imageFilename"": """&amp;A105&amp;".webp"", ""color"": """&amp;D105&amp;""", ""group"": """&amp;E105&amp;"""},"</f>
+        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A106&amp;""", ""name"": """&amp;B106&amp;""", ""description"": """&amp;C106&amp;""", ""imageFilename"": """&amp;A106&amp;".webp"", ""color"": """&amp;D106&amp;""", ""group"": """&amp;E106&amp;"""},"</f>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A107&amp;""", ""name"": """&amp;B107&amp;""", ""description"": """&amp;C107&amp;""", ""imageFilename"": """&amp;A107&amp;".webp"", ""color"": """&amp;D107&amp;""", ""group"": """&amp;E107&amp;"""},"</f>
+        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A108&amp;""", ""name"": """&amp;B108&amp;""", ""description"": """&amp;C108&amp;""", ""imageFilename"": """&amp;A108&amp;".webp"", ""color"": """&amp;D108&amp;""", ""group"": """&amp;E108&amp;"""},"</f>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A109&amp;""", ""name"": """&amp;B109&amp;""", ""description"": """&amp;C109&amp;""", ""imageFilename"": """&amp;A109&amp;".webp"", ""color"": """&amp;D109&amp;""", ""group"": """&amp;E109&amp;"""},"</f>
+        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A110&amp;""", ""name"": """&amp;B110&amp;""", ""description"": """&amp;C110&amp;""", ""imageFilename"": """&amp;A110&amp;".webp"", ""color"": """&amp;D110&amp;""", ""group"": """&amp;E110&amp;"""},"</f>
+        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A111&amp;""", ""name"": """&amp;B111&amp;""", ""description"": """&amp;C111&amp;""", ""imageFilename"": """&amp;A111&amp;".webp"", ""color"": """&amp;D111&amp;""", ""group"": """&amp;E111&amp;"""},"</f>
+        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A112&amp;""", ""name"": """&amp;B112&amp;""", ""description"": """&amp;C112&amp;""", ""imageFilename"": """&amp;A112&amp;".webp"", ""color"": """&amp;D112&amp;""", ""group"": """&amp;E112&amp;"""},"</f>
+        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A113&amp;""", ""name"": """&amp;B113&amp;""", ""description"": """&amp;C113&amp;""", ""imageFilename"": """&amp;A113&amp;".webp"", ""color"": """&amp;D113&amp;""", ""group"": """&amp;E113&amp;"""},"</f>
+        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A114&amp;""", ""name"": """&amp;B114&amp;""", ""description"": """&amp;C114&amp;""", ""imageFilename"": """&amp;A114&amp;".webp"", ""color"": """&amp;D114&amp;""", ""group"": """&amp;E114&amp;"""},"</f>
+        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A115&amp;""", ""name"": """&amp;B115&amp;""", ""description"": """&amp;C115&amp;""", ""imageFilename"": """&amp;A115&amp;".webp"", ""color"": """&amp;D115&amp;""", ""group"": """&amp;E115&amp;"""},"</f>
+        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A116&amp;""", ""name"": """&amp;B116&amp;""", ""description"": """&amp;C116&amp;""", ""imageFilename"": """&amp;A116&amp;".webp"", ""color"": """&amp;D116&amp;""", ""group"": """&amp;E116&amp;"""},"</f>
+        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A117&amp;""", ""name"": """&amp;B117&amp;""", ""description"": """&amp;C117&amp;""", ""imageFilename"": """&amp;A117&amp;".webp"", ""color"": """&amp;D117&amp;""", ""group"": """&amp;E117&amp;"""},"</f>
+        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A118&amp;""", ""name"": """&amp;B118&amp;""", ""description"": """&amp;C118&amp;""", ""imageFilename"": """&amp;A118&amp;".webp"", ""color"": """&amp;D118&amp;""", ""group"": """&amp;E118&amp;"""},"</f>
+        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A119&amp;""", ""name"": """&amp;B119&amp;""", ""description"": """&amp;C119&amp;""", ""imageFilename"": """&amp;A119&amp;".webp"", ""color"": """&amp;D119&amp;""", ""group"": """&amp;E119&amp;"""},"</f>
+        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A120&amp;""", ""name"": """&amp;B120&amp;""", ""description"": """&amp;C120&amp;""", ""imageFilename"": """&amp;A120&amp;".webp"", ""color"": """&amp;D120&amp;""", ""group"": """&amp;E120&amp;"""},"</f>
+        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A121&amp;""", ""name"": """&amp;B121&amp;""", ""description"": """&amp;C121&amp;""", ""imageFilename"": """&amp;A121&amp;".webp"", ""color"": """&amp;D121&amp;""", ""group"": """&amp;E121&amp;"""},"</f>
+        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
+        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A123&amp;""", ""name"": """&amp;B123&amp;""", ""description"": """&amp;C123&amp;""", ""imageFilename"": """&amp;A123&amp;".webp"", ""color"": """&amp;D123&amp;""", ""group"": """&amp;E123&amp;"""},"</f>
+        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
+        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A125&amp;""", ""name"": """&amp;B125&amp;""", ""description"": """&amp;C125&amp;""", ""imageFilename"": """&amp;A125&amp;".webp"", ""color"": """&amp;D125&amp;""", ""group"": """&amp;E125&amp;"""},"</f>
+        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A126&amp;""", ""name"": """&amp;B126&amp;""", ""description"": """&amp;C126&amp;""", ""imageFilename"": """&amp;A126&amp;".webp"", ""color"": """&amp;D126&amp;""", ""group"": """&amp;E126&amp;"""},"</f>
+        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A127&amp;""", ""name"": """&amp;B127&amp;""", ""description"": """&amp;C127&amp;""", ""imageFilename"": """&amp;A127&amp;".webp"", ""color"": """&amp;D127&amp;""", ""group"": """&amp;E127&amp;"""},"</f>
+        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A128&amp;""", ""name"": """&amp;B128&amp;""", ""description"": """&amp;C128&amp;""", ""imageFilename"": """&amp;A128&amp;".webp"", ""color"": """&amp;D128&amp;""", ""group"": """&amp;E128&amp;"""},"</f>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A129&amp;""", ""name"": """&amp;B129&amp;""", ""description"": """&amp;C129&amp;""", ""imageFilename"": """&amp;A129&amp;".webp"", ""color"": """&amp;D129&amp;""", ""group"": """&amp;E129&amp;"""},"</f>
+        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A130&amp;""", ""name"": """&amp;B130&amp;""", ""description"": """&amp;C130&amp;""", ""imageFilename"": """&amp;A130&amp;".webp"", ""color"": """&amp;D130&amp;""", ""group"": """&amp;E130&amp;"""},"</f>
+        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A131&amp;""", ""name"": """&amp;B131&amp;""", ""description"": """&amp;C131&amp;""", ""imageFilename"": """&amp;A131&amp;".webp"", ""color"": """&amp;D131&amp;""", ""group"": """&amp;E131&amp;"""},"</f>
+        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A132&amp;""", ""name"": """&amp;B132&amp;""", ""description"": """&amp;C132&amp;""", ""imageFilename"": """&amp;A132&amp;".webp"", ""color"": """&amp;D132&amp;""", ""group"": """&amp;E132&amp;"""},"</f>
+        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A133&amp;""", ""name"": """&amp;B133&amp;""", ""description"": """&amp;C133&amp;""", ""imageFilename"": """&amp;A133&amp;".webp"", ""color"": """&amp;D133&amp;""", ""group"": """&amp;E133&amp;"""},"</f>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A134&amp;""", ""name"": """&amp;B134&amp;""", ""description"": """&amp;C134&amp;""", ""imageFilename"": """&amp;A134&amp;".webp"", ""color"": """&amp;D134&amp;""", ""group"": """&amp;E134&amp;"""},"</f>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A135&amp;""", ""name"": """&amp;B135&amp;""", ""description"": """&amp;C135&amp;""", ""imageFilename"": """&amp;A135&amp;".webp"", ""color"": """&amp;D135&amp;""", ""group"": """&amp;E135&amp;"""},"</f>
+        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A136&amp;""", ""name"": """&amp;B136&amp;""", ""description"": """&amp;C136&amp;""", ""imageFilename"": """&amp;A136&amp;".webp"", ""color"": """&amp;D136&amp;""", ""group"": """&amp;E136&amp;"""},"</f>
+        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A137&amp;""", ""name"": """&amp;B137&amp;""", ""description"": """&amp;C137&amp;""", ""imageFilename"": """&amp;A137&amp;".webp"", ""color"": """&amp;D137&amp;""", ""group"": """&amp;E137&amp;"""},"</f>
+        <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A146&amp;""", ""name"": """&amp;B146&amp;""", ""description"": """&amp;C146&amp;""", ""imageFilename"": """&amp;A146&amp;".webp"", ""color"": """&amp;D146&amp;""", ""group"": """&amp;E146&amp;"""},"</f>
+        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="6"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="6"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="6"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="6"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="6"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="6"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2399,7 +3484,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2416,34 +3501,34 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(C2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
@@ -2452,16 +3537,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(C3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="304">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -927,9 +927,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARINETTE_DUPAIN-CHENG</t>
   </si>
   <si>
     <t xml:space="preserve">TEMP</t>
@@ -1070,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3484,8 +3481,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3519,38 +3516,38 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(C2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN-CHENG", "targetId": "TIKKI", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "TIKKI", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(C3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN-CHENG", "targetId": "PLAGG", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "PLAGG", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="304">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -281,6 +281,12 @@
     <t xml:space="preserve">Jeanne d'Arc</t>
   </si>
   <si>
+    <t xml:space="preserve">EMILIE_AGRESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilie Agreste</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARINETTE_DUPAIN_CHENG</t>
   </si>
   <si>
@@ -599,12 +605,6 @@
     <t xml:space="preserve">Senticarapace</t>
   </si>
   <si>
-    <t xml:space="preserve">EMILIE_AGRESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilie Agreste</t>
-  </si>
-  <si>
     <t xml:space="preserve">NATHALIE_SANCOEUR</t>
   </si>
   <si>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">Direction</t>
   </si>
   <si>
-    <t xml:space="preserve">TEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTED</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ985"/>
+  <dimension ref="A1:AMJ984"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G136" activeCellId="0" sqref="G2:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1563,7 +1563,22 @@
       <c r="A32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
+        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -1579,10 +1594,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>83</v>
@@ -1597,10 +1612,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>83</v>
@@ -1615,10 +1630,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>83</v>
@@ -1633,10 +1648,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>83</v>
@@ -1651,10 +1666,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>83</v>
@@ -1669,10 +1684,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>83</v>
@@ -1687,10 +1702,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>83</v>
@@ -1705,10 +1720,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="1" t="s">
@@ -1724,10 +1739,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>83</v>
@@ -1742,10 +1757,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -1760,10 +1775,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>83</v>
@@ -1778,10 +1793,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>83</v>
@@ -1796,10 +1811,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>83</v>
@@ -1814,10 +1829,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>83</v>
@@ -1832,10 +1847,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>83</v>
@@ -1850,10 +1865,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>83</v>
@@ -1868,10 +1883,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>83</v>
@@ -1886,10 +1901,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>83</v>
@@ -1904,10 +1919,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>83</v>
@@ -1922,10 +1937,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>83</v>
@@ -1940,10 +1955,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>83</v>
@@ -1958,10 +1973,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
@@ -1977,10 +1992,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="1" t="s">
@@ -1996,10 +2011,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>83</v>
@@ -2014,10 +2029,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>83</v>
@@ -2032,10 +2047,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>83</v>
@@ -2050,10 +2065,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>83</v>
@@ -2068,10 +2083,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>83</v>
@@ -2086,10 +2101,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>83</v>
@@ -2104,10 +2119,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>83</v>
@@ -2122,10 +2137,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>83</v>
@@ -2140,10 +2155,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>83</v>
@@ -2158,10 +2173,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="1" t="s">
@@ -2177,10 +2192,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
@@ -2196,10 +2211,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="1" t="s">
@@ -2215,10 +2230,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="1" t="s">
@@ -2234,10 +2249,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="1" t="s">
@@ -2253,10 +2268,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="1" t="s">
@@ -2272,10 +2287,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>83</v>
@@ -2290,10 +2305,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>83</v>
@@ -2308,10 +2323,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>83</v>
@@ -2326,10 +2341,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>83</v>
@@ -2344,10 +2359,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>83</v>
@@ -2362,10 +2377,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>83</v>
@@ -2380,10 +2395,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>83</v>
@@ -2398,10 +2413,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>83</v>
@@ -2416,10 +2431,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>83</v>
@@ -2434,10 +2449,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>83</v>
@@ -2452,10 +2467,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>83</v>
@@ -2470,10 +2485,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>83</v>
@@ -2488,10 +2503,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>83</v>
@@ -2506,10 +2521,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>83</v>
@@ -2524,10 +2539,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>83</v>
@@ -2542,10 +2557,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>83</v>
@@ -2555,15 +2570,15 @@
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A91&amp;""", ""name"": """&amp;B91&amp;""", ""description"": """&amp;C91&amp;""", ""imageFilename"": """&amp;A91&amp;".webp"", ""color"": """&amp;D91&amp;""", ""group"": """&amp;E91&amp;"""},"</f>
-        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>83</v>
@@ -2573,15 +2588,15 @@
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A92&amp;""", ""name"": """&amp;B92&amp;""", ""description"": """&amp;C92&amp;""", ""imageFilename"": """&amp;A92&amp;".webp"", ""color"": """&amp;D92&amp;""", ""group"": """&amp;E92&amp;"""},"</f>
-        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>83</v>
@@ -2591,15 +2606,15 @@
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A93&amp;""", ""name"": """&amp;B93&amp;""", ""description"": """&amp;C93&amp;""", ""imageFilename"": """&amp;A93&amp;".webp"", ""color"": """&amp;D93&amp;""", ""group"": """&amp;E93&amp;"""},"</f>
-        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>83</v>
@@ -2609,15 +2624,15 @@
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A94&amp;""", ""name"": """&amp;B94&amp;""", ""description"": """&amp;C94&amp;""", ""imageFilename"": """&amp;A94&amp;".webp"", ""color"": """&amp;D94&amp;""", ""group"": """&amp;E94&amp;"""},"</f>
-        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>83</v>
@@ -2627,15 +2642,15 @@
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A95&amp;""", ""name"": """&amp;B95&amp;""", ""description"": """&amp;C95&amp;""", ""imageFilename"": """&amp;A95&amp;".webp"", ""color"": """&amp;D95&amp;""", ""group"": """&amp;E95&amp;"""},"</f>
-        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>83</v>
@@ -2645,15 +2660,15 @@
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A96&amp;""", ""name"": """&amp;B96&amp;""", ""description"": """&amp;C96&amp;""", ""imageFilename"": """&amp;A96&amp;".webp"", ""color"": """&amp;D96&amp;""", ""group"": """&amp;E96&amp;"""},"</f>
-        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>83</v>
@@ -2663,15 +2678,15 @@
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A97&amp;""", ""name"": """&amp;B97&amp;""", ""description"": """&amp;C97&amp;""", ""imageFilename"": """&amp;A97&amp;".webp"", ""color"": """&amp;D97&amp;""", ""group"": """&amp;E97&amp;"""},"</f>
-        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>83</v>
@@ -2681,15 +2696,15 @@
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A98&amp;""", ""name"": """&amp;B98&amp;""", ""description"": """&amp;C98&amp;""", ""imageFilename"": """&amp;A98&amp;".webp"", ""color"": """&amp;D98&amp;""", ""group"": """&amp;E98&amp;"""},"</f>
-        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>83</v>
@@ -2699,15 +2714,15 @@
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A99&amp;""", ""name"": """&amp;B99&amp;""", ""description"": """&amp;C99&amp;""", ""imageFilename"": """&amp;A99&amp;".webp"", ""color"": """&amp;D99&amp;""", ""group"": """&amp;E99&amp;"""},"</f>
-        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>83</v>
@@ -2717,15 +2732,15 @@
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A100&amp;""", ""name"": """&amp;B100&amp;""", ""description"": """&amp;C100&amp;""", ""imageFilename"": """&amp;A100&amp;".webp"", ""color"": """&amp;D100&amp;""", ""group"": """&amp;E100&amp;"""},"</f>
-        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>83</v>
@@ -2735,15 +2750,15 @@
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
-        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>83</v>
@@ -2753,15 +2768,15 @@
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A102&amp;""", ""name"": """&amp;B102&amp;""", ""description"": """&amp;C102&amp;""", ""imageFilename"": """&amp;A102&amp;".webp"", ""color"": """&amp;D102&amp;""", ""group"": """&amp;E102&amp;"""},"</f>
-        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>83</v>
@@ -2771,15 +2786,15 @@
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A103&amp;""", ""name"": """&amp;B103&amp;""", ""description"": """&amp;C103&amp;""", ""imageFilename"": """&amp;A103&amp;".webp"", ""color"": """&amp;D103&amp;""", ""group"": """&amp;E103&amp;"""},"</f>
-        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>83</v>
@@ -2789,15 +2804,15 @@
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A104&amp;""", ""name"": """&amp;B104&amp;""", ""description"": """&amp;C104&amp;""", ""imageFilename"": """&amp;A104&amp;".webp"", ""color"": """&amp;D104&amp;""", ""group"": """&amp;E104&amp;"""},"</f>
-        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>83</v>
@@ -2807,15 +2822,15 @@
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A105&amp;""", ""name"": """&amp;B105&amp;""", ""description"": """&amp;C105&amp;""", ""imageFilename"": """&amp;A105&amp;".webp"", ""color"": """&amp;D105&amp;""", ""group"": """&amp;E105&amp;"""},"</f>
-        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>83</v>
@@ -2825,15 +2840,15 @@
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A106&amp;""", ""name"": """&amp;B106&amp;""", ""description"": """&amp;C106&amp;""", ""imageFilename"": """&amp;A106&amp;".webp"", ""color"": """&amp;D106&amp;""", ""group"": """&amp;E106&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>83</v>
@@ -2843,15 +2858,15 @@
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A107&amp;""", ""name"": """&amp;B107&amp;""", ""description"": """&amp;C107&amp;""", ""imageFilename"": """&amp;A107&amp;".webp"", ""color"": """&amp;D107&amp;""", ""group"": """&amp;E107&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>83</v>
@@ -2861,15 +2876,15 @@
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A108&amp;""", ""name"": """&amp;B108&amp;""", ""description"": """&amp;C108&amp;""", ""imageFilename"": """&amp;A108&amp;".webp"", ""color"": """&amp;D108&amp;""", ""group"": """&amp;E108&amp;"""},"</f>
-        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>83</v>
@@ -2879,15 +2894,15 @@
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A109&amp;""", ""name"": """&amp;B109&amp;""", ""description"": """&amp;C109&amp;""", ""imageFilename"": """&amp;A109&amp;".webp"", ""color"": """&amp;D109&amp;""", ""group"": """&amp;E109&amp;"""},"</f>
-        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>83</v>
@@ -2897,15 +2912,15 @@
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A110&amp;""", ""name"": """&amp;B110&amp;""", ""description"": """&amp;C110&amp;""", ""imageFilename"": """&amp;A110&amp;".webp"", ""color"": """&amp;D110&amp;""", ""group"": """&amp;E110&amp;"""},"</f>
-        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>83</v>
@@ -2915,15 +2930,15 @@
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A111&amp;""", ""name"": """&amp;B111&amp;""", ""description"": """&amp;C111&amp;""", ""imageFilename"": """&amp;A111&amp;".webp"", ""color"": """&amp;D111&amp;""", ""group"": """&amp;E111&amp;"""},"</f>
-        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>83</v>
@@ -2933,15 +2948,15 @@
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A112&amp;""", ""name"": """&amp;B112&amp;""", ""description"": """&amp;C112&amp;""", ""imageFilename"": """&amp;A112&amp;".webp"", ""color"": """&amp;D112&amp;""", ""group"": """&amp;E112&amp;"""},"</f>
-        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>83</v>
@@ -2951,15 +2966,15 @@
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A113&amp;""", ""name"": """&amp;B113&amp;""", ""description"": """&amp;C113&amp;""", ""imageFilename"": """&amp;A113&amp;".webp"", ""color"": """&amp;D113&amp;""", ""group"": """&amp;E113&amp;"""},"</f>
-        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>83</v>
@@ -2969,15 +2984,15 @@
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A114&amp;""", ""name"": """&amp;B114&amp;""", ""description"": """&amp;C114&amp;""", ""imageFilename"": """&amp;A114&amp;".webp"", ""color"": """&amp;D114&amp;""", ""group"": """&amp;E114&amp;"""},"</f>
-        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>83</v>
@@ -2987,15 +3002,15 @@
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A115&amp;""", ""name"": """&amp;B115&amp;""", ""description"": """&amp;C115&amp;""", ""imageFilename"": """&amp;A115&amp;".webp"", ""color"": """&amp;D115&amp;""", ""group"": """&amp;E115&amp;"""},"</f>
-        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>83</v>
@@ -3005,15 +3020,15 @@
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A116&amp;""", ""name"": """&amp;B116&amp;""", ""description"": """&amp;C116&amp;""", ""imageFilename"": """&amp;A116&amp;".webp"", ""color"": """&amp;D116&amp;""", ""group"": """&amp;E116&amp;"""},"</f>
-        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>83</v>
@@ -3023,15 +3038,15 @@
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A117&amp;""", ""name"": """&amp;B117&amp;""", ""description"": """&amp;C117&amp;""", ""imageFilename"": """&amp;A117&amp;".webp"", ""color"": """&amp;D117&amp;""", ""group"": """&amp;E117&amp;"""},"</f>
-        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>83</v>
@@ -3041,15 +3056,15 @@
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A118&amp;""", ""name"": """&amp;B118&amp;""", ""description"": """&amp;C118&amp;""", ""imageFilename"": """&amp;A118&amp;".webp"", ""color"": """&amp;D118&amp;""", ""group"": """&amp;E118&amp;"""},"</f>
-        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>83</v>
@@ -3059,15 +3074,15 @@
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A119&amp;""", ""name"": """&amp;B119&amp;""", ""description"": """&amp;C119&amp;""", ""imageFilename"": """&amp;A119&amp;".webp"", ""color"": """&amp;D119&amp;""", ""group"": """&amp;E119&amp;"""},"</f>
-        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>83</v>
@@ -3077,15 +3092,15 @@
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A120&amp;""", ""name"": """&amp;B120&amp;""", ""description"": """&amp;C120&amp;""", ""imageFilename"": """&amp;A120&amp;".webp"", ""color"": """&amp;D120&amp;""", ""group"": """&amp;E120&amp;"""},"</f>
-        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>83</v>
@@ -3095,15 +3110,15 @@
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A121&amp;""", ""name"": """&amp;B121&amp;""", ""description"": """&amp;C121&amp;""", ""imageFilename"": """&amp;A121&amp;".webp"", ""color"": """&amp;D121&amp;""", ""group"": """&amp;E121&amp;"""},"</f>
-        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>83</v>
@@ -3113,15 +3128,15 @@
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
-        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>83</v>
@@ -3131,15 +3146,15 @@
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A123&amp;""", ""name"": """&amp;B123&amp;""", ""description"": """&amp;C123&amp;""", ""imageFilename"": """&amp;A123&amp;".webp"", ""color"": """&amp;D123&amp;""", ""group"": """&amp;E123&amp;"""},"</f>
-        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>83</v>
@@ -3149,15 +3164,15 @@
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
-        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>83</v>
@@ -3167,15 +3182,15 @@
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A125&amp;""", ""name"": """&amp;B125&amp;""", ""description"": """&amp;C125&amp;""", ""imageFilename"": """&amp;A125&amp;".webp"", ""color"": """&amp;D125&amp;""", ""group"": """&amp;E125&amp;"""},"</f>
-        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>83</v>
@@ -3185,15 +3200,15 @@
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A126&amp;""", ""name"": """&amp;B126&amp;""", ""description"": """&amp;C126&amp;""", ""imageFilename"": """&amp;A126&amp;".webp"", ""color"": """&amp;D126&amp;""", ""group"": """&amp;E126&amp;"""},"</f>
-        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>83</v>
@@ -3203,15 +3218,15 @@
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A127&amp;""", ""name"": """&amp;B127&amp;""", ""description"": """&amp;C127&amp;""", ""imageFilename"": """&amp;A127&amp;".webp"", ""color"": """&amp;D127&amp;""", ""group"": """&amp;E127&amp;"""},"</f>
-        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>83</v>
@@ -3221,15 +3236,15 @@
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A128&amp;""", ""name"": """&amp;B128&amp;""", ""description"": """&amp;C128&amp;""", ""imageFilename"": """&amp;A128&amp;".webp"", ""color"": """&amp;D128&amp;""", ""group"": """&amp;E128&amp;"""},"</f>
-        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>83</v>
@@ -3239,15 +3254,15 @@
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A129&amp;""", ""name"": """&amp;B129&amp;""", ""description"": """&amp;C129&amp;""", ""imageFilename"": """&amp;A129&amp;".webp"", ""color"": """&amp;D129&amp;""", ""group"": """&amp;E129&amp;"""},"</f>
-        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>83</v>
@@ -3257,15 +3272,15 @@
       </c>
       <c r="G130" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A130&amp;""", ""name"": """&amp;B130&amp;""", ""description"": """&amp;C130&amp;""", ""imageFilename"": """&amp;A130&amp;".webp"", ""color"": """&amp;D130&amp;""", ""group"": """&amp;E130&amp;"""},"</f>
-        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>83</v>
@@ -3275,15 +3290,15 @@
       </c>
       <c r="G131" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A131&amp;""", ""name"": """&amp;B131&amp;""", ""description"": """&amp;C131&amp;""", ""imageFilename"": """&amp;A131&amp;".webp"", ""color"": """&amp;D131&amp;""", ""group"": """&amp;E131&amp;"""},"</f>
-        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>83</v>
@@ -3293,15 +3308,15 @@
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A132&amp;""", ""name"": """&amp;B132&amp;""", ""description"": """&amp;C132&amp;""", ""imageFilename"": """&amp;A132&amp;".webp"", ""color"": """&amp;D132&amp;""", ""group"": """&amp;E132&amp;"""},"</f>
-        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>83</v>
@@ -3311,15 +3326,15 @@
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A133&amp;""", ""name"": """&amp;B133&amp;""", ""description"": """&amp;C133&amp;""", ""imageFilename"": """&amp;A133&amp;".webp"", ""color"": """&amp;D133&amp;""", ""group"": """&amp;E133&amp;"""},"</f>
-        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>83</v>
@@ -3329,15 +3344,15 @@
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A134&amp;""", ""name"": """&amp;B134&amp;""", ""description"": """&amp;C134&amp;""", ""imageFilename"": """&amp;A134&amp;".webp"", ""color"": """&amp;D134&amp;""", ""group"": """&amp;E134&amp;"""},"</f>
-        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>83</v>
@@ -3347,15 +3362,15 @@
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A135&amp;""", ""name"": """&amp;B135&amp;""", ""description"": """&amp;C135&amp;""", ""imageFilename"": """&amp;A135&amp;".webp"", ""color"": """&amp;D135&amp;""", ""group"": """&amp;E135&amp;"""},"</f>
-        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>83</v>
@@ -3365,82 +3380,67 @@
       </c>
       <c r="G136" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A136&amp;""", ""name"": """&amp;B136&amp;""", ""description"": """&amp;C136&amp;""", ""imageFilename"": """&amp;A136&amp;".webp"", ""color"": """&amp;D136&amp;""", ""group"": """&amp;E136&amp;"""},"</f>
-        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A137&amp;""", ""name"": """&amp;B137&amp;""", ""description"": """&amp;C137&amp;""", ""imageFilename"": """&amp;A137&amp;".webp"", ""color"": """&amp;D137&amp;""", ""group"": """&amp;E137&amp;"""},"</f>
         <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
       </c>
     </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A145&amp;""", ""name"": """&amp;B145&amp;""", ""description"": """&amp;C145&amp;""", ""imageFilename"": """&amp;A145&amp;".webp"", ""color"": """&amp;D145&amp;""", ""group"": """&amp;E145&amp;"""},"</f>
+        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
+      </c>
+    </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="B146" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A146&amp;""", ""name"": """&amp;B146&amp;""", ""description"": """&amp;C146&amp;""", ""imageFilename"": """&amp;A146&amp;".webp"", ""color"": """&amp;D146&amp;""", ""group"": """&amp;E146&amp;"""},"</f>
-        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
         <v>296</v>
       </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="6"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C979" s="6"/>
@@ -3459,9 +3459,6 @@
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C984" s="6"/>
-    </row>
-    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3479,10 +3476,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMJ97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3516,10 +3513,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>302</v>
@@ -3528,231 +3525,1202 @@
         <v>303</v>
       </c>
       <c r="G2" s="0" t="str">
-        <f aca="false">IF(C2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "TIKKI", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <f aca="false">IF(E2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "LADYBUG", "shortDescription": "s", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>303</v>
       </c>
       <c r="G3" s="0" t="str">
-        <f aca="false">IF(C3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "PLAGG", "shortDescription": "TEMP", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <f aca="false">IF(E3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "LADY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G4" s="0" t="str">
-        <f aca="false">IF(C4="","","{""sourceId"": """&amp;A4&amp;""", ""targetId"": """&amp;B4&amp;""", ""shortDescription"": """&amp;C4&amp;""", ""fullDescriptionHtml"": """&amp;D4&amp;""", ""direction"": """&amp;E4&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E4="","","{""sourceId"": """&amp;A4&amp;""", ""targetId"": """&amp;B4&amp;""", ""shortDescription"": """&amp;C4&amp;""", ""fullDescriptionHtml"": """&amp;D4&amp;""", ""direction"": """&amp;E4&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "MULTIMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G5" s="0" t="str">
-        <f aca="false">IF(C5="","","{""sourceId"": """&amp;A5&amp;""", ""targetId"": """&amp;B5&amp;""", ""shortDescription"": """&amp;C5&amp;""", ""fullDescriptionHtml"": """&amp;D5&amp;""", ""direction"": """&amp;E5&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E5="","","{""sourceId"": """&amp;A5&amp;""", ""targetId"": """&amp;B5&amp;""", ""shortDescription"": """&amp;C5&amp;""", ""fullDescriptionHtml"": """&amp;D5&amp;""", ""direction"": """&amp;E5&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G6" s="0" t="str">
-        <f aca="false">IF(C6="","","{""sourceId"": """&amp;A6&amp;""", ""targetId"": """&amp;B6&amp;""", ""shortDescription"": """&amp;C6&amp;""", ""fullDescriptionHtml"": """&amp;D6&amp;""", ""direction"": """&amp;E6&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E6="","","{""sourceId"": """&amp;A6&amp;""", ""targetId"": """&amp;B6&amp;""", ""shortDescription"": """&amp;C6&amp;""", ""fullDescriptionHtml"": """&amp;D6&amp;""", ""direction"": """&amp;E6&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G7" s="0" t="str">
-        <f aca="false">IF(C7="","","{""sourceId"": """&amp;A7&amp;""", ""targetId"": """&amp;B7&amp;""", ""shortDescription"": """&amp;C7&amp;""", ""fullDescriptionHtml"": """&amp;D7&amp;""", ""direction"": """&amp;E7&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E7="","","{""sourceId"": """&amp;A7&amp;""", ""targetId"": """&amp;B7&amp;""", ""shortDescription"": """&amp;C7&amp;""", ""fullDescriptionHtml"": """&amp;D7&amp;""", ""direction"": """&amp;E7&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">IF(C8="","","{""sourceId"": """&amp;A8&amp;""", ""targetId"": """&amp;B8&amp;""", ""shortDescription"": """&amp;C8&amp;""", ""fullDescriptionHtml"": """&amp;D8&amp;""", ""direction"": """&amp;E8&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E8="","","{""sourceId"": """&amp;A8&amp;""", ""targetId"": """&amp;B8&amp;""", ""shortDescription"": """&amp;C8&amp;""", ""fullDescriptionHtml"": """&amp;D8&amp;""", ""direction"": """&amp;E8&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">IF(C9="","","{""sourceId"": """&amp;A9&amp;""", ""targetId"": """&amp;B9&amp;""", ""shortDescription"": """&amp;C9&amp;""", ""fullDescriptionHtml"": """&amp;D9&amp;""", ""direction"": """&amp;E9&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E9="","","{""sourceId"": """&amp;A9&amp;""", ""targetId"": """&amp;B9&amp;""", ""shortDescription"": """&amp;C9&amp;""", ""fullDescriptionHtml"": """&amp;D9&amp;""", ""direction"": """&amp;E9&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">IF(C10="","","{""sourceId"": """&amp;A10&amp;""", ""targetId"": """&amp;B10&amp;""", ""shortDescription"": """&amp;C10&amp;""", ""fullDescriptionHtml"": """&amp;D10&amp;""", ""direction"": """&amp;E10&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E10="","","{""sourceId"": """&amp;A10&amp;""", ""targetId"": """&amp;B10&amp;""", ""shortDescription"": """&amp;C10&amp;""", ""fullDescriptionHtml"": """&amp;D10&amp;""", ""direction"": """&amp;E10&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">IF(C11="","","{""sourceId"": """&amp;A11&amp;""", ""targetId"": """&amp;B11&amp;""", ""shortDescription"": """&amp;C11&amp;""", ""fullDescriptionHtml"": """&amp;D11&amp;""", ""direction"": """&amp;E11&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E11="","","{""sourceId"": """&amp;A11&amp;""", ""targetId"": """&amp;B11&amp;""", ""shortDescription"": """&amp;C11&amp;""", ""fullDescriptionHtml"": """&amp;D11&amp;""", ""direction"": """&amp;E11&amp;"""},")</f>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G12" s="0" t="str">
-        <f aca="false">IF(C12="","","{""sourceId"": """&amp;A12&amp;""", ""targetId"": """&amp;B12&amp;""", ""shortDescription"": """&amp;C12&amp;""", ""fullDescriptionHtml"": """&amp;D12&amp;""", ""direction"": """&amp;E12&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E12="","","{""sourceId"": """&amp;A12&amp;""", ""targetId"": """&amp;B12&amp;""", ""shortDescription"": """&amp;C12&amp;""", ""fullDescriptionHtml"": """&amp;D12&amp;""", ""direction"": """&amp;E12&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G13" s="0" t="str">
-        <f aca="false">IF(C13="","","{""sourceId"": """&amp;A13&amp;""", ""targetId"": """&amp;B13&amp;""", ""shortDescription"": """&amp;C13&amp;""", ""fullDescriptionHtml"": """&amp;D13&amp;""", ""direction"": """&amp;E13&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E13="","","{""sourceId"": """&amp;A13&amp;""", ""targetId"": """&amp;B13&amp;""", ""shortDescription"": """&amp;C13&amp;""", ""fullDescriptionHtml"": """&amp;D13&amp;""", ""direction"": """&amp;E13&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "MISTER_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G14" s="0" t="str">
-        <f aca="false">IF(C14="","","{""sourceId"": """&amp;A14&amp;""", ""targetId"": """&amp;B14&amp;""", ""shortDescription"": """&amp;C14&amp;""", ""fullDescriptionHtml"": """&amp;D14&amp;""", ""direction"": """&amp;E14&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E14="","","{""sourceId"": """&amp;A14&amp;""", ""targetId"": """&amp;B14&amp;""", ""shortDescription"": """&amp;C14&amp;""", ""fullDescriptionHtml"": """&amp;D14&amp;""", ""direction"": """&amp;E14&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "ASPIK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">IF(C15="","","{""sourceId"": """&amp;A15&amp;""", ""targetId"": """&amp;B15&amp;""", ""shortDescription"": """&amp;C15&amp;""", ""fullDescriptionHtml"": """&amp;D15&amp;""", ""direction"": """&amp;E15&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E15="","","{""sourceId"": """&amp;A15&amp;""", ""targetId"": """&amp;B15&amp;""", ""shortDescription"": """&amp;C15&amp;""", ""fullDescriptionHtml"": """&amp;D15&amp;""", ""direction"": """&amp;E15&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G16" s="0" t="str">
-        <f aca="false">IF(C16="","","{""sourceId"": """&amp;A16&amp;""", ""targetId"": """&amp;B16&amp;""", ""shortDescription"": """&amp;C16&amp;""", ""fullDescriptionHtml"": """&amp;D16&amp;""", ""direction"": """&amp;E16&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E16="","","{""sourceId"": """&amp;A16&amp;""", ""targetId"": """&amp;B16&amp;""", ""shortDescription"": """&amp;C16&amp;""", ""fullDescriptionHtml"": """&amp;D16&amp;""", ""direction"": """&amp;E16&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_WALKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">IF(C17="","","{""sourceId"": """&amp;A17&amp;""", ""targetId"": """&amp;B17&amp;""", ""shortDescription"": """&amp;C17&amp;""", ""fullDescriptionHtml"": """&amp;D17&amp;""", ""direction"": """&amp;E17&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E17="","","{""sourceId"": """&amp;A17&amp;""", ""targetId"": """&amp;B17&amp;""", ""shortDescription"": """&amp;C17&amp;""", ""fullDescriptionHtml"": """&amp;D17&amp;""", ""direction"": """&amp;E17&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G18" s="0" t="str">
-        <f aca="false">IF(C18="","","{""sourceId"": """&amp;A18&amp;""", ""targetId"": """&amp;B18&amp;""", ""shortDescription"": """&amp;C18&amp;""", ""fullDescriptionHtml"": """&amp;D18&amp;""", ""direction"": """&amp;E18&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E18="","","{""sourceId"": """&amp;A18&amp;""", ""targetId"": """&amp;B18&amp;""", ""shortDescription"": """&amp;C18&amp;""", ""fullDescriptionHtml"": """&amp;D18&amp;""", ""direction"": """&amp;E18&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G19" s="0" t="str">
-        <f aca="false">IF(C19="","","{""sourceId"": """&amp;A19&amp;""", ""targetId"": """&amp;B19&amp;""", ""shortDescription"": """&amp;C19&amp;""", ""fullDescriptionHtml"": """&amp;D19&amp;""", ""direction"": """&amp;E19&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E19="","","{""sourceId"": """&amp;A19&amp;""", ""targetId"": """&amp;B19&amp;""", ""shortDescription"": """&amp;C19&amp;""", ""fullDescriptionHtml"": """&amp;D19&amp;""", ""direction"": """&amp;E19&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_ROUGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G20" s="0" t="str">
-        <f aca="false">IF(C20="","","{""sourceId"": """&amp;A20&amp;""", ""targetId"": """&amp;B20&amp;""", ""shortDescription"": """&amp;C20&amp;""", ""fullDescriptionHtml"": """&amp;D20&amp;""", ""direction"": """&amp;E20&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E20="","","{""sourceId"": """&amp;A20&amp;""", ""targetId"": """&amp;B20&amp;""", ""shortDescription"": """&amp;C20&amp;""", ""fullDescriptionHtml"": """&amp;D20&amp;""", ""direction"": """&amp;E20&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_FURTIVE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G21" s="0" t="str">
-        <f aca="false">IF(C21="","","{""sourceId"": """&amp;A21&amp;""", ""targetId"": """&amp;B21&amp;""", ""shortDescription"": """&amp;C21&amp;""", ""fullDescriptionHtml"": """&amp;D21&amp;""", ""direction"": """&amp;E21&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E21="","","{""sourceId"": """&amp;A21&amp;""", ""targetId"": """&amp;B21&amp;""", ""shortDescription"": """&amp;C21&amp;""", ""fullDescriptionHtml"": """&amp;D21&amp;""", ""direction"": """&amp;E21&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "SCARABELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G22" s="0" t="str">
-        <f aca="false">IF(C22="","","{""sourceId"": """&amp;A22&amp;""", ""targetId"": """&amp;B22&amp;""", ""shortDescription"": """&amp;C22&amp;""", ""fullDescriptionHtml"": """&amp;D22&amp;""", ""direction"": """&amp;E22&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E22="","","{""sourceId"": """&amp;A22&amp;""", ""targetId"": """&amp;B22&amp;""", ""shortDescription"": """&amp;C22&amp;""", ""fullDescriptionHtml"": """&amp;D22&amp;""", ""direction"": """&amp;E22&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G23" s="0" t="str">
-        <f aca="false">IF(C23="","","{""sourceId"": """&amp;A23&amp;""", ""targetId"": """&amp;B23&amp;""", ""shortDescription"": """&amp;C23&amp;""", ""fullDescriptionHtml"": """&amp;D23&amp;""", ""direction"": """&amp;E23&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E23="","","{""sourceId"": """&amp;A23&amp;""", ""targetId"": """&amp;B23&amp;""", ""shortDescription"": """&amp;C23&amp;""", ""fullDescriptionHtml"": """&amp;D23&amp;""", ""direction"": """&amp;E23&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G24" s="0" t="str">
-        <f aca="false">IF(C24="","","{""sourceId"": """&amp;A24&amp;""", ""targetId"": """&amp;B24&amp;""", ""shortDescription"": """&amp;C24&amp;""", ""fullDescriptionHtml"": """&amp;D24&amp;""", ""direction"": """&amp;E24&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E24="","","{""sourceId"": """&amp;A24&amp;""", ""targetId"": """&amp;B24&amp;""", ""shortDescription"": """&amp;C24&amp;""", ""fullDescriptionHtml"": """&amp;D24&amp;""", ""direction"": """&amp;E24&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G25" s="0" t="str">
-        <f aca="false">IF(C25="","","{""sourceId"": """&amp;A25&amp;""", ""targetId"": """&amp;B25&amp;""", ""shortDescription"": """&amp;C25&amp;""", ""fullDescriptionHtml"": """&amp;D25&amp;""", ""direction"": """&amp;E25&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E25="","","{""sourceId"": """&amp;A25&amp;""", ""targetId"": """&amp;B25&amp;""", ""shortDescription"": """&amp;C25&amp;""", ""fullDescriptionHtml"": """&amp;D25&amp;""", ""direction"": """&amp;E25&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "HAWK_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">IF(C26="","","{""sourceId"": """&amp;A26&amp;""", ""targetId"": """&amp;B26&amp;""", ""shortDescription"": """&amp;C26&amp;""", ""fullDescriptionHtml"": """&amp;D26&amp;""", ""direction"": """&amp;E26&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E26="","","{""sourceId"": """&amp;A26&amp;""", ""targetId"": """&amp;B26&amp;""", ""shortDescription"": """&amp;C26&amp;""", ""fullDescriptionHtml"": """&amp;D26&amp;""", ""direction"": """&amp;E26&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G27" s="0" t="str">
-        <f aca="false">IF(C27="","","{""sourceId"": """&amp;A27&amp;""", ""targetId"": """&amp;B27&amp;""", ""shortDescription"": """&amp;C27&amp;""", ""fullDescriptionHtml"": """&amp;D27&amp;""", ""direction"": """&amp;E27&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E27="","","{""sourceId"": """&amp;A27&amp;""", ""targetId"": """&amp;B27&amp;""", ""shortDescription"": """&amp;C27&amp;""", ""fullDescriptionHtml"": """&amp;D27&amp;""", ""direction"": """&amp;E27&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "SCARLET_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G28" s="0" t="str">
-        <f aca="false">IF(C28="","","{""sourceId"": """&amp;A28&amp;""", ""targetId"": """&amp;B28&amp;""", ""shortDescription"": """&amp;C28&amp;""", ""fullDescriptionHtml"": """&amp;D28&amp;""", ""direction"": """&amp;E28&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E28="","","{""sourceId"": """&amp;A28&amp;""", ""targetId"": """&amp;B28&amp;""", ""shortDescription"": """&amp;C28&amp;""", ""fullDescriptionHtml"": """&amp;D28&amp;""", ""direction"": """&amp;E28&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G29" s="0" t="str">
-        <f aca="false">IF(C29="","","{""sourceId"": """&amp;A29&amp;""", ""targetId"": """&amp;B29&amp;""", ""shortDescription"": """&amp;C29&amp;""", ""fullDescriptionHtml"": """&amp;D29&amp;""", ""direction"": """&amp;E29&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E29="","","{""sourceId"": """&amp;A29&amp;""", ""targetId"": """&amp;B29&amp;""", ""shortDescription"": """&amp;C29&amp;""", ""fullDescriptionHtml"": """&amp;D29&amp;""", ""direction"": """&amp;E29&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G30" s="0" t="str">
-        <f aca="false">IF(C30="","","{""sourceId"": """&amp;A30&amp;""", ""targetId"": """&amp;B30&amp;""", ""shortDescription"": """&amp;C30&amp;""", ""fullDescriptionHtml"": """&amp;D30&amp;""", ""direction"": """&amp;E30&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E30="","","{""sourceId"": """&amp;A30&amp;""", ""targetId"": """&amp;B30&amp;""", ""shortDescription"": """&amp;C30&amp;""", ""fullDescriptionHtml"": """&amp;D30&amp;""", ""direction"": """&amp;E30&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">IF(C31="","","{""sourceId"": """&amp;A31&amp;""", ""targetId"": """&amp;B31&amp;""", ""shortDescription"": """&amp;C31&amp;""", ""fullDescriptionHtml"": """&amp;D31&amp;""", ""direction"": """&amp;E31&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E31="","","{""sourceId"": """&amp;A31&amp;""", ""targetId"": """&amp;B31&amp;""", ""shortDescription"": """&amp;C31&amp;""", ""fullDescriptionHtml"": """&amp;D31&amp;""", ""direction"": """&amp;E31&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">IF(C32="","","{""sourceId"": """&amp;A32&amp;""", ""targetId"": """&amp;B32&amp;""", ""shortDescription"": """&amp;C32&amp;""", ""fullDescriptionHtml"": """&amp;D32&amp;""", ""direction"": """&amp;E32&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E32="","","{""sourceId"": """&amp;A32&amp;""", ""targetId"": """&amp;B32&amp;""", ""shortDescription"": """&amp;C32&amp;""", ""fullDescriptionHtml"": """&amp;D32&amp;""", ""direction"": """&amp;E32&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">IF(C33="","","{""sourceId"": """&amp;A33&amp;""", ""targetId"": """&amp;B33&amp;""", ""shortDescription"": """&amp;C33&amp;""", ""fullDescriptionHtml"": """&amp;D33&amp;""", ""direction"": """&amp;E33&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E33="","","{""sourceId"": """&amp;A33&amp;""", ""targetId"": """&amp;B33&amp;""", ""shortDescription"": """&amp;C33&amp;""", ""fullDescriptionHtml"": """&amp;D33&amp;""", ""direction"": """&amp;E33&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">IF(C34="","","{""sourceId"": """&amp;A34&amp;""", ""targetId"": """&amp;B34&amp;""", ""shortDescription"": """&amp;C34&amp;""", ""fullDescriptionHtml"": """&amp;D34&amp;""", ""direction"": """&amp;E34&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E34="","","{""sourceId"": """&amp;A34&amp;""", ""targetId"": """&amp;B34&amp;""", ""shortDescription"": """&amp;C34&amp;""", ""fullDescriptionHtml"": """&amp;D34&amp;""", ""direction"": """&amp;E34&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G35" s="0" t="str">
-        <f aca="false">IF(C35="","","{""sourceId"": """&amp;A35&amp;""", ""targetId"": """&amp;B35&amp;""", ""shortDescription"": """&amp;C35&amp;""", ""fullDescriptionHtml"": """&amp;D35&amp;""", ""direction"": """&amp;E35&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E35="","","{""sourceId"": """&amp;A35&amp;""", ""targetId"": """&amp;B35&amp;""", ""shortDescription"": """&amp;C35&amp;""", ""fullDescriptionHtml"": """&amp;D35&amp;""", ""direction"": """&amp;E35&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G36" s="0" t="str">
-        <f aca="false">IF(C36="","","{""sourceId"": """&amp;A36&amp;""", ""targetId"": """&amp;B36&amp;""", ""shortDescription"": """&amp;C36&amp;""", ""fullDescriptionHtml"": """&amp;D36&amp;""", ""direction"": """&amp;E36&amp;"""},")</f>
-        <v/>
+        <f aca="false">IF(E36="","","{""sourceId"": """&amp;A36&amp;""", ""targetId"": """&amp;B36&amp;""", ""shortDescription"": """&amp;C36&amp;""", ""fullDescriptionHtml"": """&amp;D36&amp;""", ""direction"": """&amp;E36&amp;"""},")</f>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "VESPERIA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G37" s="0" t="str">
-        <f aca="false">IF(C37="","","{""sourceId"": """&amp;A37&amp;""", ""targetId"": """&amp;B37&amp;""", ""shortDescription"": """&amp;C37&amp;""", ""fullDescriptionHtml"": """&amp;D37&amp;""", ""direction"": """&amp;E37&amp;"""},")</f>
-        <v/>
-      </c>
+        <f aca="false">IF(E37="","","{""sourceId"": """&amp;A37&amp;""", ""targetId"": """&amp;B37&amp;""", ""shortDescription"": """&amp;C37&amp;""", ""fullDescriptionHtml"": """&amp;D37&amp;""", ""direction"": """&amp;E37&amp;"""},")</f>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">IF(E38="","","{""sourceId"": """&amp;A38&amp;""", ""targetId"": """&amp;B38&amp;""", ""shortDescription"": """&amp;C38&amp;""", ""fullDescriptionHtml"": """&amp;D38&amp;""", ""direction"": """&amp;E38&amp;"""},")</f>
+        <v>{"sourceId": "WANG_FU", "targetId": "JADE_TURTLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">IF(E39="","","{""sourceId"": """&amp;A39&amp;""", ""targetId"": """&amp;B39&amp;""", ""shortDescription"": """&amp;C39&amp;""", ""fullDescriptionHtml"": """&amp;D39&amp;""", ""direction"": """&amp;E39&amp;"""},")</f>
+        <v>{"sourceId": "WANG_FU", "targetId": "PEACOCK_MIRACULOUS_HOLDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">IF(E40="","","{""sourceId"": """&amp;A40&amp;""", ""targetId"": """&amp;B40&amp;""", ""shortDescription"": """&amp;C40&amp;""", ""fullDescriptionHtml"": """&amp;D40&amp;""", ""direction"": """&amp;E40&amp;"""},")</f>
+        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">IF(E41="","","{""sourceId"": """&amp;A41&amp;""", ""targetId"": """&amp;B41&amp;""", ""shortDescription"": """&amp;C41&amp;""", ""fullDescriptionHtml"": """&amp;D41&amp;""", ""direction"": """&amp;E41&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "CARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">IF(E42="","","{""sourceId"": """&amp;A42&amp;""", ""targetId"": """&amp;B42&amp;""", ""shortDescription"": """&amp;C42&amp;""", ""fullDescriptionHtml"": """&amp;D42&amp;""", ""direction"": """&amp;E42&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">IF(E43="","","{""sourceId"": """&amp;A43&amp;""", ""targetId"": """&amp;B43&amp;""", ""shortDescription"": """&amp;C43&amp;""", ""fullDescriptionHtml"": """&amp;D43&amp;""", ""direction"": """&amp;E43&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">IF(E44="","","{""sourceId"": """&amp;A44&amp;""", ""targetId"": """&amp;B44&amp;""", ""shortDescription"": """&amp;C44&amp;""", ""fullDescriptionHtml"": """&amp;D44&amp;""", ""direction"": """&amp;E44&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">IF(E45="","","{""sourceId"": """&amp;A45&amp;""", ""targetId"": """&amp;B45&amp;""", ""shortDescription"": """&amp;C45&amp;""", ""fullDescriptionHtml"": """&amp;D45&amp;""", ""direction"": """&amp;E45&amp;"""},")</f>
+        <v>{"sourceId": "SENTININO", "targetId": "SENTICARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">IF(E46="","","{""sourceId"": """&amp;A46&amp;""", ""targetId"": """&amp;B46&amp;""", ""shortDescription"": """&amp;C46&amp;""", ""fullDescriptionHtml"": """&amp;D46&amp;""", ""direction"": """&amp;E46&amp;"""},")</f>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "MAYURA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">IF(E47="","","{""sourceId"": """&amp;A47&amp;""", ""targetId"": """&amp;B47&amp;""", ""shortDescription"": """&amp;C47&amp;""", ""fullDescriptionHtml"": """&amp;D47&amp;""", ""direction"": """&amp;E47&amp;"""},")</f>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">IF(E48="","","{""sourceId"": """&amp;A48&amp;""", ""targetId"": """&amp;B48&amp;""", ""shortDescription"": """&amp;C48&amp;""", ""fullDescriptionHtml"": """&amp;D48&amp;""", ""direction"": """&amp;E48&amp;"""},")</f>
+        <v>{"sourceId": "FELIX_GRAHAM_DE_VANILY", "targetId": "FLAIRMIDABLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">IF(E49="","","{""sourceId"": """&amp;A49&amp;""", ""targetId"": """&amp;B49&amp;""", ""shortDescription"": """&amp;C49&amp;""", ""fullDescriptionHtml"": """&amp;D49&amp;""", ""direction"": """&amp;E49&amp;"""},")</f>
+        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "POLYMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">IF(E50="","","{""sourceId"": """&amp;A50&amp;""", ""targetId"": """&amp;B50&amp;""", ""shortDescription"": """&amp;C50&amp;""", ""fullDescriptionHtml"": """&amp;D50&amp;""", ""direction"": """&amp;E50&amp;"""},")</f>
+        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">IF(E51="","","{""sourceId"": """&amp;A51&amp;""", ""targetId"": """&amp;B51&amp;""", ""shortDescription"": """&amp;C51&amp;""", ""fullDescriptionHtml"": """&amp;D51&amp;""", ""direction"": """&amp;E51&amp;"""},")</f>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "MINOTAUROX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">IF(E52="","","{""sourceId"": """&amp;A52&amp;""", ""targetId"": """&amp;B52&amp;""", ""shortDescription"": """&amp;C52&amp;""", ""fullDescriptionHtml"": """&amp;D52&amp;""", ""direction"": """&amp;E52&amp;"""},")</f>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">IF(E53="","","{""sourceId"": """&amp;A53&amp;""", ""targetId"": """&amp;B53&amp;""", ""shortDescription"": """&amp;C53&amp;""", ""fullDescriptionHtml"": """&amp;D53&amp;""", ""direction"": """&amp;E53&amp;"""},")</f>
+        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "PURPLE_TIGRESS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">IF(E54="","","{""sourceId"": """&amp;A54&amp;""", ""targetId"": """&amp;B54&amp;""", ""shortDescription"": """&amp;C54&amp;""", ""fullDescriptionHtml"": """&amp;D54&amp;""", ""direction"": """&amp;E54&amp;"""},")</f>
+        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">IF(E55="","","{""sourceId"": """&amp;A55&amp;""", ""targetId"": """&amp;B55&amp;""", ""shortDescription"": """&amp;C55&amp;""", ""fullDescriptionHtml"": """&amp;D55&amp;""", ""direction"": """&amp;E55&amp;"""},")</f>
+        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">IF(E56="","","{""sourceId"": """&amp;A56&amp;""", ""targetId"": """&amp;B56&amp;""", ""shortDescription"": """&amp;C56&amp;""", ""fullDescriptionHtml"": """&amp;D56&amp;""", ""direction"": """&amp;E56&amp;"""},")</f>
+        <v>{"sourceId": "ALIX_KUBDEL_ADULT", "targetId": "BUNNYX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">IF(E57="","","{""sourceId"": """&amp;A57&amp;""", ""targetId"": """&amp;B57&amp;""", ""shortDescription"": """&amp;C57&amp;""", ""fullDescriptionHtml"": """&amp;D57&amp;""", ""direction"": """&amp;E57&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RYUKO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "VIPERION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "PEGASUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
+        <v>{"sourceId": "NATHANIEL_KURTZBERG", "targetId": "CAPRIKID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
+        <v>{"sourceId": "NATHANIEL_KURTZBERG", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
+        <v>{"sourceId": "LE_CHIEN_KIM", "targetId": "KING_MONKEY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
+        <v>{"sourceId": "LE_CHIEN_KIM", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "ROOSTER_BOLD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MISS_HOUND", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
+        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "PIGELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
+        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0"/>
+      <c r="B83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
+      <c r="B84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
+      <c r="B85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
+      <c r="B86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0"/>
+      <c r="B87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="302">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -77,6 +77,30 @@
     <t xml:space="preserve">#A020F0</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trixx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kwami of Illusion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#F78E21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kwami of Subjection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DAA520</t>
+  </si>
+  <si>
     <t xml:space="preserve">WAYZZ</t>
   </si>
   <si>
@@ -89,30 +113,6 @@
     <t xml:space="preserve">#51C561</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trixx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kwami of Illusion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#F78E21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pollen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kwami of Subjection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#DAA520</t>
-  </si>
-  <si>
     <t xml:space="preserve">DUUSU</t>
   </si>
   <si>
@@ -230,6 +230,18 @@
     <t xml:space="preserve">#BB9977</t>
   </si>
   <si>
+    <t xml:space="preserve">ORIKKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orikko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kwami of Pretension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#CC3300</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARKK</t>
   </si>
   <si>
@@ -242,18 +254,6 @@
     <t xml:space="preserve">#CC6633</t>
   </si>
   <si>
-    <t xml:space="preserve">ORIKKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orikko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kwami of Pretension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CC3300</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAIZZI</t>
   </si>
   <si>
@@ -272,9 +272,6 @@
     <t xml:space="preserve">Akuma</t>
   </si>
   <si>
-    <t xml:space="preserve">#FFFFFF</t>
-  </si>
-  <si>
     <t xml:space="preserve">JEANNE_D_ARC</t>
   </si>
   <si>
@@ -927,9 +924,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">DIRECTED</t>
@@ -1065,10 +1059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ984"/>
+  <dimension ref="A1:AMJ983"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G136" activeCellId="0" sqref="G2:G136"/>
+      <selection pane="topLeft" activeCell="G135" activeCellId="0" sqref="G2:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,7 +1158,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1181,11 +1175,11 @@
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A5&amp;""", ""name"": """&amp;B5&amp;""", ""description"": """&amp;C5&amp;""", ""imageFilename"": """&amp;A5&amp;".webp"", ""color"": """&amp;D5&amp;""", ""group"": """&amp;E5&amp;"""},"</f>
-        <v>{"id": "WAYZZ", "name": "Wayzz", "description": "The Kwami of Protection.", "imageFilename": "WAYZZ.webp", "color": "#51C561", "group": "CHARACTER"},</v>
+        <v>{"id": "TRIXX", "name": "Trixx", "description": "The Kwami of Illusion.", "imageFilename": "TRIXX.webp", "color": "#F78E21", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -1202,7 +1196,7 @@
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A6&amp;""", ""name"": """&amp;B6&amp;""", ""description"": """&amp;C6&amp;""", ""imageFilename"": """&amp;A6&amp;".webp"", ""color"": """&amp;D6&amp;""", ""group"": """&amp;E6&amp;"""},"</f>
-        <v>{"id": "TRIXX", "name": "Trixx", "description": "The Kwami of Illusion.", "imageFilename": "TRIXX.webp", "color": "#F78E21", "group": "CHARACTER"},</v>
+        <v>{"id": "POLLEN", "name": "Pollen", "description": "The Kwami of Subjection.", "imageFilename": "POLLEN.webp", "color": "#DAA520", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1223,7 +1217,7 @@
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A7&amp;""", ""name"": """&amp;B7&amp;""", ""description"": """&amp;C7&amp;""", ""imageFilename"": """&amp;A7&amp;".webp"", ""color"": """&amp;D7&amp;""", ""group"": """&amp;E7&amp;"""},"</f>
-        <v>{"id": "POLLEN", "name": "Pollen", "description": "The Kwami of Subjection.", "imageFilename": "POLLEN.webp", "color": "#DAA520", "group": "CHARACTER"},</v>
+        <v>{"id": "WAYZZ", "name": "Wayzz", "description": "The Kwami of Protection.", "imageFilename": "WAYZZ.webp", "color": "#51C561", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,7 +1448,7 @@
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A18&amp;""", ""name"": """&amp;B18&amp;""", ""description"": """&amp;C18&amp;""", ""imageFilename"": """&amp;A18&amp;".webp"", ""color"": """&amp;D18&amp;""", ""group"": """&amp;E18&amp;"""},"</f>
-        <v>{"id": "BARKK", "name": "Barkk", "description": "The Kwami of Adoration.", "imageFilename": "BARKK.webp", "color": "#CC6633", "group": "CHARACTER"},</v>
+        <v>{"id": "ORIKKO", "name": "Orikko", "description": "The Kwami of Pretension.", "imageFilename": "ORIKKO.webp", "color": "#CC3300", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1469,7 @@
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A19&amp;""", ""name"": """&amp;B19&amp;""", ""description"": """&amp;C19&amp;""", ""imageFilename"": """&amp;A19&amp;".webp"", ""color"": """&amp;D19&amp;""", ""group"": """&amp;E19&amp;"""},"</f>
-        <v>{"id": "ORIKKO", "name": "Orikko", "description": "The Kwami of Pretension.", "imageFilename": "ORIKKO.webp", "color": "#CC3300", "group": "CHARACTER"},</v>
+        <v>{"id": "BARKK", "name": "Barkk", "description": "The Kwami of Adoration.", "imageFilename": "BARKK.webp", "color": "#CC6633", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,25 +1503,25 @@
       <c r="A24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
+        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A26&amp;""", ""name"": """&amp;B26&amp;""", ""description"": """&amp;C26&amp;""", ""imageFilename"": """&amp;A26&amp;".webp"", ""color"": """&amp;D26&amp;""", ""group"": """&amp;E26&amp;"""},"</f>
-        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
@@ -1536,49 +1530,49 @@
       <c r="A28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A29&amp;""", ""name"": """&amp;B29&amp;""", ""description"": """&amp;C29&amp;""", ""imageFilename"": """&amp;A29&amp;".webp"", ""color"": """&amp;D29&amp;""", ""group"": """&amp;E29&amp;"""},"</f>
+        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A30&amp;""", ""name"": """&amp;B30&amp;""", ""description"": """&amp;C30&amp;""", ""imageFilename"": """&amp;A30&amp;".webp"", ""color"": """&amp;D30&amp;""", ""group"": """&amp;E30&amp;"""},"</f>
-        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
+        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
-        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
@@ -1590,1818 +1584,1820 @@
       <c r="A36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
+        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>88</v>
+      <c r="A38" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>90</v>
+      <c r="A39" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>94</v>
+      <c r="A41" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>98</v>
+      <c r="A43" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="B47" s="0" t="s">
+        <v>108</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>108</v>
+      <c r="A48" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>112</v>
+      <c r="A50" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>120</v>
+      <c r="A54" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>126</v>
+      <c r="A57" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="6"/>
+        <v>134</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A64&amp;""", ""name"": """&amp;B64&amp;""", ""description"": """&amp;C64&amp;""", ""imageFilename"": """&amp;A64&amp;".webp"", ""color"": """&amp;D64&amp;""", ""group"": """&amp;E64&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A65&amp;""", ""name"": """&amp;B65&amp;""", ""description"": """&amp;C65&amp;""", ""imageFilename"": """&amp;A65&amp;".webp"", ""color"": """&amp;D65&amp;""", ""group"": """&amp;E65&amp;"""},"</f>
-        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A66&amp;""", ""name"": """&amp;B66&amp;""", ""description"": """&amp;C66&amp;""", ""imageFilename"": """&amp;A66&amp;".webp"", ""color"": """&amp;D66&amp;""", ""group"": """&amp;E66&amp;"""},"</f>
-        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A67&amp;""", ""name"": """&amp;B67&amp;""", ""description"": """&amp;C67&amp;""", ""imageFilename"": """&amp;A67&amp;".webp"", ""color"": """&amp;D67&amp;""", ""group"": """&amp;E67&amp;"""},"</f>
-        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A68&amp;""", ""name"": """&amp;B68&amp;""", ""description"": """&amp;C68&amp;""", ""imageFilename"": """&amp;A68&amp;".webp"", ""color"": """&amp;D68&amp;""", ""group"": """&amp;E68&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>151</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A69&amp;""", ""name"": """&amp;B69&amp;""", ""description"": """&amp;C69&amp;""", ""imageFilename"": """&amp;A69&amp;".webp"", ""color"": """&amp;D69&amp;""", ""group"": """&amp;E69&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A70&amp;""", ""name"": """&amp;B70&amp;""", ""description"": """&amp;C70&amp;""", ""imageFilename"": """&amp;A70&amp;".webp"", ""color"": """&amp;D70&amp;""", ""group"": """&amp;E70&amp;"""},"</f>
-        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A71&amp;""", ""name"": """&amp;B71&amp;""", ""description"": """&amp;C71&amp;""", ""imageFilename"": """&amp;A71&amp;".webp"", ""color"": """&amp;D71&amp;""", ""group"": """&amp;E71&amp;"""},"</f>
-        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A72&amp;""", ""name"": """&amp;B72&amp;""", ""description"": """&amp;C72&amp;""", ""imageFilename"": """&amp;A72&amp;".webp"", ""color"": """&amp;D72&amp;""", ""group"": """&amp;E72&amp;"""},"</f>
-        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A73&amp;""", ""name"": """&amp;B73&amp;""", ""description"": """&amp;C73&amp;""", ""imageFilename"": """&amp;A73&amp;".webp"", ""color"": """&amp;D73&amp;""", ""group"": """&amp;E73&amp;"""},"</f>
-        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A74&amp;""", ""name"": """&amp;B74&amp;""", ""description"": """&amp;C74&amp;""", ""imageFilename"": """&amp;A74&amp;".webp"", ""color"": """&amp;D74&amp;""", ""group"": """&amp;E74&amp;"""},"</f>
-        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="6"/>
+        <v>164</v>
+      </c>
       <c r="D75" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A75&amp;""", ""name"": """&amp;B75&amp;""", ""description"": """&amp;C75&amp;""", ""imageFilename"": """&amp;A75&amp;".webp"", ""color"": """&amp;D75&amp;""", ""group"": """&amp;E75&amp;"""},"</f>
-        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A76&amp;""", ""name"": """&amp;B76&amp;""", ""description"": """&amp;C76&amp;""", ""imageFilename"": """&amp;A76&amp;".webp"", ""color"": """&amp;D76&amp;""", ""group"": """&amp;E76&amp;"""},"</f>
-        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A77&amp;""", ""name"": """&amp;B77&amp;""", ""description"": """&amp;C77&amp;""", ""imageFilename"": """&amp;A77&amp;".webp"", ""color"": """&amp;D77&amp;""", ""group"": """&amp;E77&amp;"""},"</f>
-        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A78&amp;""", ""name"": """&amp;B78&amp;""", ""description"": """&amp;C78&amp;""", ""imageFilename"": """&amp;A78&amp;".webp"", ""color"": """&amp;D78&amp;""", ""group"": """&amp;E78&amp;"""},"</f>
-        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A79&amp;""", ""name"": """&amp;B79&amp;""", ""description"": """&amp;C79&amp;""", ""imageFilename"": """&amp;A79&amp;".webp"", ""color"": """&amp;D79&amp;""", ""group"": """&amp;E79&amp;"""},"</f>
-        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A80&amp;""", ""name"": """&amp;B80&amp;""", ""description"": """&amp;C80&amp;""", ""imageFilename"": """&amp;A80&amp;".webp"", ""color"": """&amp;D80&amp;""", ""group"": """&amp;E80&amp;"""},"</f>
-        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
-        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A82&amp;""", ""name"": """&amp;B82&amp;""", ""description"": """&amp;C82&amp;""", ""imageFilename"": """&amp;A82&amp;".webp"", ""color"": """&amp;D82&amp;""", ""group"": """&amp;E82&amp;"""},"</f>
-        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A83&amp;""", ""name"": """&amp;B83&amp;""", ""description"": """&amp;C83&amp;""", ""imageFilename"": """&amp;A83&amp;".webp"", ""color"": """&amp;D83&amp;""", ""group"": """&amp;E83&amp;"""},"</f>
-        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A84&amp;""", ""name"": """&amp;B84&amp;""", ""description"": """&amp;C84&amp;""", ""imageFilename"": """&amp;A84&amp;".webp"", ""color"": """&amp;D84&amp;""", ""group"": """&amp;E84&amp;"""},"</f>
-        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A85&amp;""", ""name"": """&amp;B85&amp;""", ""description"": """&amp;C85&amp;""", ""imageFilename"": """&amp;A85&amp;".webp"", ""color"": """&amp;D85&amp;""", ""group"": """&amp;E85&amp;"""},"</f>
-        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A86&amp;""", ""name"": """&amp;B86&amp;""", ""description"": """&amp;C86&amp;""", ""imageFilename"": """&amp;A86&amp;".webp"", ""color"": """&amp;D86&amp;""", ""group"": """&amp;E86&amp;"""},"</f>
-        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A87&amp;""", ""name"": """&amp;B87&amp;""", ""description"": """&amp;C87&amp;""", ""imageFilename"": """&amp;A87&amp;".webp"", ""color"": """&amp;D87&amp;""", ""group"": """&amp;E87&amp;"""},"</f>
-        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A88&amp;""", ""name"": """&amp;B88&amp;""", ""description"": """&amp;C88&amp;""", ""imageFilename"": """&amp;A88&amp;".webp"", ""color"": """&amp;D88&amp;""", ""group"": """&amp;E88&amp;"""},"</f>
-        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A89&amp;""", ""name"": """&amp;B89&amp;""", ""description"": """&amp;C89&amp;""", ""imageFilename"": """&amp;A89&amp;".webp"", ""color"": """&amp;D89&amp;""", ""group"": """&amp;E89&amp;"""},"</f>
-        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A90&amp;""", ""name"": """&amp;B90&amp;""", ""description"": """&amp;C90&amp;""", ""imageFilename"": """&amp;A90&amp;".webp"", ""color"": """&amp;D90&amp;""", ""group"": """&amp;E90&amp;"""},"</f>
-        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A91&amp;""", ""name"": """&amp;B91&amp;""", ""description"": """&amp;C91&amp;""", ""imageFilename"": """&amp;A91&amp;".webp"", ""color"": """&amp;D91&amp;""", ""group"": """&amp;E91&amp;"""},"</f>
-        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A92&amp;""", ""name"": """&amp;B92&amp;""", ""description"": """&amp;C92&amp;""", ""imageFilename"": """&amp;A92&amp;".webp"", ""color"": """&amp;D92&amp;""", ""group"": """&amp;E92&amp;"""},"</f>
-        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A93&amp;""", ""name"": """&amp;B93&amp;""", ""description"": """&amp;C93&amp;""", ""imageFilename"": """&amp;A93&amp;".webp"", ""color"": """&amp;D93&amp;""", ""group"": """&amp;E93&amp;"""},"</f>
-        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A94&amp;""", ""name"": """&amp;B94&amp;""", ""description"": """&amp;C94&amp;""", ""imageFilename"": """&amp;A94&amp;".webp"", ""color"": """&amp;D94&amp;""", ""group"": """&amp;E94&amp;"""},"</f>
-        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A95&amp;""", ""name"": """&amp;B95&amp;""", ""description"": """&amp;C95&amp;""", ""imageFilename"": """&amp;A95&amp;".webp"", ""color"": """&amp;D95&amp;""", ""group"": """&amp;E95&amp;"""},"</f>
-        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A96&amp;""", ""name"": """&amp;B96&amp;""", ""description"": """&amp;C96&amp;""", ""imageFilename"": """&amp;A96&amp;".webp"", ""color"": """&amp;D96&amp;""", ""group"": """&amp;E96&amp;"""},"</f>
-        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A97&amp;""", ""name"": """&amp;B97&amp;""", ""description"": """&amp;C97&amp;""", ""imageFilename"": """&amp;A97&amp;".webp"", ""color"": """&amp;D97&amp;""", ""group"": """&amp;E97&amp;"""},"</f>
-        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A98&amp;""", ""name"": """&amp;B98&amp;""", ""description"": """&amp;C98&amp;""", ""imageFilename"": """&amp;A98&amp;".webp"", ""color"": """&amp;D98&amp;""", ""group"": """&amp;E98&amp;"""},"</f>
-        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A99&amp;""", ""name"": """&amp;B99&amp;""", ""description"": """&amp;C99&amp;""", ""imageFilename"": """&amp;A99&amp;".webp"", ""color"": """&amp;D99&amp;""", ""group"": """&amp;E99&amp;"""},"</f>
-        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A100&amp;""", ""name"": """&amp;B100&amp;""", ""description"": """&amp;C100&amp;""", ""imageFilename"": """&amp;A100&amp;".webp"", ""color"": """&amp;D100&amp;""", ""group"": """&amp;E100&amp;"""},"</f>
-        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
-        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A102&amp;""", ""name"": """&amp;B102&amp;""", ""description"": """&amp;C102&amp;""", ""imageFilename"": """&amp;A102&amp;".webp"", ""color"": """&amp;D102&amp;""", ""group"": """&amp;E102&amp;"""},"</f>
-        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A103&amp;""", ""name"": """&amp;B103&amp;""", ""description"": """&amp;C103&amp;""", ""imageFilename"": """&amp;A103&amp;".webp"", ""color"": """&amp;D103&amp;""", ""group"": """&amp;E103&amp;"""},"</f>
-        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A104&amp;""", ""name"": """&amp;B104&amp;""", ""description"": """&amp;C104&amp;""", ""imageFilename"": """&amp;A104&amp;".webp"", ""color"": """&amp;D104&amp;""", ""group"": """&amp;E104&amp;"""},"</f>
-        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A105&amp;""", ""name"": """&amp;B105&amp;""", ""description"": """&amp;C105&amp;""", ""imageFilename"": """&amp;A105&amp;".webp"", ""color"": """&amp;D105&amp;""", ""group"": """&amp;E105&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A106&amp;""", ""name"": """&amp;B106&amp;""", ""description"": """&amp;C106&amp;""", ""imageFilename"": """&amp;A106&amp;".webp"", ""color"": """&amp;D106&amp;""", ""group"": """&amp;E106&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A107&amp;""", ""name"": """&amp;B107&amp;""", ""description"": """&amp;C107&amp;""", ""imageFilename"": """&amp;A107&amp;".webp"", ""color"": """&amp;D107&amp;""", ""group"": """&amp;E107&amp;"""},"</f>
-        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A108&amp;""", ""name"": """&amp;B108&amp;""", ""description"": """&amp;C108&amp;""", ""imageFilename"": """&amp;A108&amp;".webp"", ""color"": """&amp;D108&amp;""", ""group"": """&amp;E108&amp;"""},"</f>
-        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A109&amp;""", ""name"": """&amp;B109&amp;""", ""description"": """&amp;C109&amp;""", ""imageFilename"": """&amp;A109&amp;".webp"", ""color"": """&amp;D109&amp;""", ""group"": """&amp;E109&amp;"""},"</f>
-        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A110&amp;""", ""name"": """&amp;B110&amp;""", ""description"": """&amp;C110&amp;""", ""imageFilename"": """&amp;A110&amp;".webp"", ""color"": """&amp;D110&amp;""", ""group"": """&amp;E110&amp;"""},"</f>
-        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A111&amp;""", ""name"": """&amp;B111&amp;""", ""description"": """&amp;C111&amp;""", ""imageFilename"": """&amp;A111&amp;".webp"", ""color"": """&amp;D111&amp;""", ""group"": """&amp;E111&amp;"""},"</f>
-        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A112&amp;""", ""name"": """&amp;B112&amp;""", ""description"": """&amp;C112&amp;""", ""imageFilename"": """&amp;A112&amp;".webp"", ""color"": """&amp;D112&amp;""", ""group"": """&amp;E112&amp;"""},"</f>
-        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A113&amp;""", ""name"": """&amp;B113&amp;""", ""description"": """&amp;C113&amp;""", ""imageFilename"": """&amp;A113&amp;".webp"", ""color"": """&amp;D113&amp;""", ""group"": """&amp;E113&amp;"""},"</f>
-        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A114&amp;""", ""name"": """&amp;B114&amp;""", ""description"": """&amp;C114&amp;""", ""imageFilename"": """&amp;A114&amp;".webp"", ""color"": """&amp;D114&amp;""", ""group"": """&amp;E114&amp;"""},"</f>
-        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A115&amp;""", ""name"": """&amp;B115&amp;""", ""description"": """&amp;C115&amp;""", ""imageFilename"": """&amp;A115&amp;".webp"", ""color"": """&amp;D115&amp;""", ""group"": """&amp;E115&amp;"""},"</f>
-        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A116&amp;""", ""name"": """&amp;B116&amp;""", ""description"": """&amp;C116&amp;""", ""imageFilename"": """&amp;A116&amp;".webp"", ""color"": """&amp;D116&amp;""", ""group"": """&amp;E116&amp;"""},"</f>
-        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A117&amp;""", ""name"": """&amp;B117&amp;""", ""description"": """&amp;C117&amp;""", ""imageFilename"": """&amp;A117&amp;".webp"", ""color"": """&amp;D117&amp;""", ""group"": """&amp;E117&amp;"""},"</f>
-        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A118&amp;""", ""name"": """&amp;B118&amp;""", ""description"": """&amp;C118&amp;""", ""imageFilename"": """&amp;A118&amp;".webp"", ""color"": """&amp;D118&amp;""", ""group"": """&amp;E118&amp;"""},"</f>
-        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A119&amp;""", ""name"": """&amp;B119&amp;""", ""description"": """&amp;C119&amp;""", ""imageFilename"": """&amp;A119&amp;".webp"", ""color"": """&amp;D119&amp;""", ""group"": """&amp;E119&amp;"""},"</f>
-        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A120&amp;""", ""name"": """&amp;B120&amp;""", ""description"": """&amp;C120&amp;""", ""imageFilename"": """&amp;A120&amp;".webp"", ""color"": """&amp;D120&amp;""", ""group"": """&amp;E120&amp;"""},"</f>
-        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A121&amp;""", ""name"": """&amp;B121&amp;""", ""description"": """&amp;C121&amp;""", ""imageFilename"": """&amp;A121&amp;".webp"", ""color"": """&amp;D121&amp;""", ""group"": """&amp;E121&amp;"""},"</f>
-        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
-        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A123&amp;""", ""name"": """&amp;B123&amp;""", ""description"": """&amp;C123&amp;""", ""imageFilename"": """&amp;A123&amp;".webp"", ""color"": """&amp;D123&amp;""", ""group"": """&amp;E123&amp;"""},"</f>
-        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
-        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A125&amp;""", ""name"": """&amp;B125&amp;""", ""description"": """&amp;C125&amp;""", ""imageFilename"": """&amp;A125&amp;".webp"", ""color"": """&amp;D125&amp;""", ""group"": """&amp;E125&amp;"""},"</f>
-        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A126&amp;""", ""name"": """&amp;B126&amp;""", ""description"": """&amp;C126&amp;""", ""imageFilename"": """&amp;A126&amp;".webp"", ""color"": """&amp;D126&amp;""", ""group"": """&amp;E126&amp;"""},"</f>
-        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A127&amp;""", ""name"": """&amp;B127&amp;""", ""description"": """&amp;C127&amp;""", ""imageFilename"": """&amp;A127&amp;".webp"", ""color"": """&amp;D127&amp;""", ""group"": """&amp;E127&amp;"""},"</f>
-        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A128&amp;""", ""name"": """&amp;B128&amp;""", ""description"": """&amp;C128&amp;""", ""imageFilename"": """&amp;A128&amp;".webp"", ""color"": """&amp;D128&amp;""", ""group"": """&amp;E128&amp;"""},"</f>
-        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A129&amp;""", ""name"": """&amp;B129&amp;""", ""description"": """&amp;C129&amp;""", ""imageFilename"": """&amp;A129&amp;".webp"", ""color"": """&amp;D129&amp;""", ""group"": """&amp;E129&amp;"""},"</f>
-        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A130&amp;""", ""name"": """&amp;B130&amp;""", ""description"": """&amp;C130&amp;""", ""imageFilename"": """&amp;A130&amp;".webp"", ""color"": """&amp;D130&amp;""", ""group"": """&amp;E130&amp;"""},"</f>
-        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G131" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A131&amp;""", ""name"": """&amp;B131&amp;""", ""description"": """&amp;C131&amp;""", ""imageFilename"": """&amp;A131&amp;".webp"", ""color"": """&amp;D131&amp;""", ""group"": """&amp;E131&amp;"""},"</f>
-        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A132&amp;""", ""name"": """&amp;B132&amp;""", ""description"": """&amp;C132&amp;""", ""imageFilename"": """&amp;A132&amp;".webp"", ""color"": """&amp;D132&amp;""", ""group"": """&amp;E132&amp;"""},"</f>
-        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A133&amp;""", ""name"": """&amp;B133&amp;""", ""description"": """&amp;C133&amp;""", ""imageFilename"": """&amp;A133&amp;".webp"", ""color"": """&amp;D133&amp;""", ""group"": """&amp;E133&amp;"""},"</f>
-        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A134&amp;""", ""name"": """&amp;B134&amp;""", ""description"": """&amp;C134&amp;""", ""imageFilename"": """&amp;A134&amp;".webp"", ""color"": """&amp;D134&amp;""", ""group"": """&amp;E134&amp;"""},"</f>
-        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A135&amp;""", ""name"": """&amp;B135&amp;""", ""description"": """&amp;C135&amp;""", ""imageFilename"": """&amp;A135&amp;".webp"", ""color"": """&amp;D135&amp;""", ""group"": """&amp;E135&amp;"""},"</f>
-        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B136" s="0" t="s">
+        <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A136&amp;""", ""name"": """&amp;B136&amp;""", ""description"": """&amp;C136&amp;""", ""imageFilename"": """&amp;A136&amp;".webp"", ""color"": """&amp;D136&amp;""", ""group"": """&amp;E136&amp;"""},"</f>
-        <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#FFFFFF", "group": "CHARACTER"},</v>
+      <c r="B144" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A144&amp;""", ""name"": """&amp;B144&amp;""", ""description"": """&amp;C144&amp;""", ""imageFilename"": """&amp;A144&amp;".webp"", ""color"": """&amp;D144&amp;""", ""group"": """&amp;E144&amp;"""},"</f>
+        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="B145" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D145" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A145&amp;""", ""name"": """&amp;B145&amp;""", ""description"": """&amp;C145&amp;""", ""imageFilename"": """&amp;A145&amp;".webp"", ""color"": """&amp;D145&amp;""", ""group"": """&amp;E145&amp;"""},"</f>
-        <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,10 +3430,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
-        <v>296</v>
-      </c>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="6"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C978" s="6"/>
@@ -3456,9 +3450,6 @@
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="6"/>
-    </row>
-    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3476,10 +3467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ97"/>
+  <dimension ref="A1:AMJ137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G136"/>
+      <selection pane="topLeft" activeCell="G130" activeCellId="0" sqref="G2:G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3495,49 +3486,46 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(E2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
-        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "LADYBUG", "shortDescription": "s", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARINETTE_DUPAIN_CHENG", "targetId": "LADYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(E3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
@@ -3546,13 +3534,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">IF(E4="","","{""sourceId"": """&amp;A4&amp;""", ""targetId"": """&amp;B4&amp;""", ""shortDescription"": """&amp;C4&amp;""", ""fullDescriptionHtml"": """&amp;D4&amp;""", ""direction"": """&amp;E4&amp;"""},")</f>
@@ -3561,13 +3549,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">IF(E5="","","{""sourceId"": """&amp;A5&amp;""", ""targetId"": """&amp;B5&amp;""", ""shortDescription"": """&amp;C5&amp;""", ""fullDescriptionHtml"": """&amp;D5&amp;""", ""direction"": """&amp;E5&amp;"""},")</f>
@@ -3576,13 +3564,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">IF(E6="","","{""sourceId"": """&amp;A6&amp;""", ""targetId"": """&amp;B6&amp;""", ""shortDescription"": """&amp;C6&amp;""", ""fullDescriptionHtml"": """&amp;D6&amp;""", ""direction"": """&amp;E6&amp;"""},")</f>
@@ -3591,13 +3579,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">IF(E7="","","{""sourceId"": """&amp;A7&amp;""", ""targetId"": """&amp;B7&amp;""", ""shortDescription"": """&amp;C7&amp;""", ""fullDescriptionHtml"": """&amp;D7&amp;""", ""direction"": """&amp;E7&amp;"""},")</f>
@@ -3606,13 +3594,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">IF(E8="","","{""sourceId"": """&amp;A8&amp;""", ""targetId"": """&amp;B8&amp;""", ""shortDescription"": """&amp;C8&amp;""", ""fullDescriptionHtml"": """&amp;D8&amp;""", ""direction"": """&amp;E8&amp;"""},")</f>
@@ -3621,13 +3609,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">IF(E9="","","{""sourceId"": """&amp;A9&amp;""", ""targetId"": """&amp;B9&amp;""", ""shortDescription"": """&amp;C9&amp;""", ""fullDescriptionHtml"": """&amp;D9&amp;""", ""direction"": """&amp;E9&amp;"""},")</f>
@@ -3636,13 +3624,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">IF(E10="","","{""sourceId"": """&amp;A10&amp;""", ""targetId"": """&amp;B10&amp;""", ""shortDescription"": """&amp;C10&amp;""", ""fullDescriptionHtml"": """&amp;D10&amp;""", ""direction"": """&amp;E10&amp;"""},")</f>
@@ -3651,13 +3639,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">IF(E11="","","{""sourceId"": """&amp;A11&amp;""", ""targetId"": """&amp;B11&amp;""", ""shortDescription"": """&amp;C11&amp;""", ""fullDescriptionHtml"": """&amp;D11&amp;""", ""direction"": """&amp;E11&amp;"""},")</f>
@@ -3666,13 +3654,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">IF(E12="","","{""sourceId"": """&amp;A12&amp;""", ""targetId"": """&amp;B12&amp;""", ""shortDescription"": """&amp;C12&amp;""", ""fullDescriptionHtml"": """&amp;D12&amp;""", ""direction"": """&amp;E12&amp;"""},")</f>
@@ -3681,13 +3669,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">IF(E13="","","{""sourceId"": """&amp;A13&amp;""", ""targetId"": """&amp;B13&amp;""", ""shortDescription"": """&amp;C13&amp;""", ""fullDescriptionHtml"": """&amp;D13&amp;""", ""direction"": """&amp;E13&amp;"""},")</f>
@@ -3696,13 +3684,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">IF(E14="","","{""sourceId"": """&amp;A14&amp;""", ""targetId"": """&amp;B14&amp;""", ""shortDescription"": """&amp;C14&amp;""", ""fullDescriptionHtml"": """&amp;D14&amp;""", ""direction"": """&amp;E14&amp;"""},")</f>
@@ -3711,13 +3699,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(E15="","","{""sourceId"": """&amp;A15&amp;""", ""targetId"": """&amp;B15&amp;""", ""shortDescription"": """&amp;C15&amp;""", ""fullDescriptionHtml"": """&amp;D15&amp;""", ""direction"": """&amp;E15&amp;"""},")</f>
@@ -3726,13 +3714,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(E16="","","{""sourceId"": """&amp;A16&amp;""", ""targetId"": """&amp;B16&amp;""", ""shortDescription"": """&amp;C16&amp;""", ""fullDescriptionHtml"": """&amp;D16&amp;""", ""direction"": """&amp;E16&amp;"""},")</f>
@@ -3741,13 +3729,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">IF(E17="","","{""sourceId"": """&amp;A17&amp;""", ""targetId"": """&amp;B17&amp;""", ""shortDescription"": """&amp;C17&amp;""", ""fullDescriptionHtml"": """&amp;D17&amp;""", ""direction"": """&amp;E17&amp;"""},")</f>
@@ -3756,13 +3744,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">IF(E18="","","{""sourceId"": """&amp;A18&amp;""", ""targetId"": """&amp;B18&amp;""", ""shortDescription"": """&amp;C18&amp;""", ""fullDescriptionHtml"": """&amp;D18&amp;""", ""direction"": """&amp;E18&amp;"""},")</f>
@@ -3771,13 +3759,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">IF(E19="","","{""sourceId"": """&amp;A19&amp;""", ""targetId"": """&amp;B19&amp;""", ""shortDescription"": """&amp;C19&amp;""", ""fullDescriptionHtml"": """&amp;D19&amp;""", ""direction"": """&amp;E19&amp;"""},")</f>
@@ -3786,13 +3774,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">IF(E20="","","{""sourceId"": """&amp;A20&amp;""", ""targetId"": """&amp;B20&amp;""", ""shortDescription"": """&amp;C20&amp;""", ""fullDescriptionHtml"": """&amp;D20&amp;""", ""direction"": """&amp;E20&amp;"""},")</f>
@@ -3801,13 +3789,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">IF(E21="","","{""sourceId"": """&amp;A21&amp;""", ""targetId"": """&amp;B21&amp;""", ""shortDescription"": """&amp;C21&amp;""", ""fullDescriptionHtml"": """&amp;D21&amp;""", ""direction"": """&amp;E21&amp;"""},")</f>
@@ -3816,13 +3804,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">IF(E22="","","{""sourceId"": """&amp;A22&amp;""", ""targetId"": """&amp;B22&amp;""", ""shortDescription"": """&amp;C22&amp;""", ""fullDescriptionHtml"": """&amp;D22&amp;""", ""direction"": """&amp;E22&amp;"""},")</f>
@@ -3831,13 +3819,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">IF(E23="","","{""sourceId"": """&amp;A23&amp;""", ""targetId"": """&amp;B23&amp;""", ""shortDescription"": """&amp;C23&amp;""", ""fullDescriptionHtml"": """&amp;D23&amp;""", ""direction"": """&amp;E23&amp;"""},")</f>
@@ -3846,13 +3834,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">IF(E24="","","{""sourceId"": """&amp;A24&amp;""", ""targetId"": """&amp;B24&amp;""", ""shortDescription"": """&amp;C24&amp;""", ""fullDescriptionHtml"": """&amp;D24&amp;""", ""direction"": """&amp;E24&amp;"""},")</f>
@@ -3861,13 +3849,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">IF(E25="","","{""sourceId"": """&amp;A25&amp;""", ""targetId"": """&amp;B25&amp;""", ""shortDescription"": """&amp;C25&amp;""", ""fullDescriptionHtml"": """&amp;D25&amp;""", ""direction"": """&amp;E25&amp;"""},")</f>
@@ -3876,13 +3864,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">IF(E26="","","{""sourceId"": """&amp;A26&amp;""", ""targetId"": """&amp;B26&amp;""", ""shortDescription"": """&amp;C26&amp;""", ""fullDescriptionHtml"": """&amp;D26&amp;""", ""direction"": """&amp;E26&amp;"""},")</f>
@@ -3891,13 +3879,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">IF(E27="","","{""sourceId"": """&amp;A27&amp;""", ""targetId"": """&amp;B27&amp;""", ""shortDescription"": """&amp;C27&amp;""", ""fullDescriptionHtml"": """&amp;D27&amp;""", ""direction"": """&amp;E27&amp;"""},")</f>
@@ -3906,13 +3894,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">IF(E28="","","{""sourceId"": """&amp;A28&amp;""", ""targetId"": """&amp;B28&amp;""", ""shortDescription"": """&amp;C28&amp;""", ""fullDescriptionHtml"": """&amp;D28&amp;""", ""direction"": """&amp;E28&amp;"""},")</f>
@@ -3921,13 +3909,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">IF(E29="","","{""sourceId"": """&amp;A29&amp;""", ""targetId"": """&amp;B29&amp;""", ""shortDescription"": """&amp;C29&amp;""", ""fullDescriptionHtml"": """&amp;D29&amp;""", ""direction"": """&amp;E29&amp;"""},")</f>
@@ -3936,13 +3924,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">IF(E30="","","{""sourceId"": """&amp;A30&amp;""", ""targetId"": """&amp;B30&amp;""", ""shortDescription"": """&amp;C30&amp;""", ""fullDescriptionHtml"": """&amp;D30&amp;""", ""direction"": """&amp;E30&amp;"""},")</f>
@@ -3951,13 +3939,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">IF(E31="","","{""sourceId"": """&amp;A31&amp;""", ""targetId"": """&amp;B31&amp;""", ""shortDescription"": """&amp;C31&amp;""", ""fullDescriptionHtml"": """&amp;D31&amp;""", ""direction"": """&amp;E31&amp;"""},")</f>
@@ -3966,13 +3954,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(E32="","","{""sourceId"": """&amp;A32&amp;""", ""targetId"": """&amp;B32&amp;""", ""shortDescription"": """&amp;C32&amp;""", ""fullDescriptionHtml"": """&amp;D32&amp;""", ""direction"": """&amp;E32&amp;"""},")</f>
@@ -3981,13 +3969,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">IF(E33="","","{""sourceId"": """&amp;A33&amp;""", ""targetId"": """&amp;B33&amp;""", ""shortDescription"": """&amp;C33&amp;""", ""fullDescriptionHtml"": """&amp;D33&amp;""", ""direction"": """&amp;E33&amp;"""},")</f>
@@ -3996,13 +3984,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">IF(E34="","","{""sourceId"": """&amp;A34&amp;""", ""targetId"": """&amp;B34&amp;""", ""shortDescription"": """&amp;C34&amp;""", ""fullDescriptionHtml"": """&amp;D34&amp;""", ""direction"": """&amp;E34&amp;"""},")</f>
@@ -4011,13 +3999,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">IF(E35="","","{""sourceId"": """&amp;A35&amp;""", ""targetId"": """&amp;B35&amp;""", ""shortDescription"": """&amp;C35&amp;""", ""fullDescriptionHtml"": """&amp;D35&amp;""", ""direction"": """&amp;E35&amp;"""},")</f>
@@ -4026,13 +4014,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">IF(E36="","","{""sourceId"": """&amp;A36&amp;""", ""targetId"": """&amp;B36&amp;""", ""shortDescription"": """&amp;C36&amp;""", ""fullDescriptionHtml"": """&amp;D36&amp;""", ""direction"": """&amp;E36&amp;"""},")</f>
@@ -4041,13 +4029,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">IF(E37="","","{""sourceId"": """&amp;A37&amp;""", ""targetId"": """&amp;B37&amp;""", ""shortDescription"": """&amp;C37&amp;""", ""fullDescriptionHtml"": """&amp;D37&amp;""", ""direction"": """&amp;E37&amp;"""},")</f>
@@ -4056,13 +4044,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">IF(E38="","","{""sourceId"": """&amp;A38&amp;""", ""targetId"": """&amp;B38&amp;""", ""shortDescription"": """&amp;C38&amp;""", ""fullDescriptionHtml"": """&amp;D38&amp;""", ""direction"": """&amp;E38&amp;"""},")</f>
@@ -4071,13 +4059,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">IF(E39="","","{""sourceId"": """&amp;A39&amp;""", ""targetId"": """&amp;B39&amp;""", ""shortDescription"": """&amp;C39&amp;""", ""fullDescriptionHtml"": """&amp;D39&amp;""", ""direction"": """&amp;E39&amp;"""},")</f>
@@ -4086,13 +4074,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">IF(E40="","","{""sourceId"": """&amp;A40&amp;""", ""targetId"": """&amp;B40&amp;""", ""shortDescription"": """&amp;C40&amp;""", ""fullDescriptionHtml"": """&amp;D40&amp;""", ""direction"": """&amp;E40&amp;"""},")</f>
@@ -4101,13 +4089,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">IF(E41="","","{""sourceId"": """&amp;A41&amp;""", ""targetId"": """&amp;B41&amp;""", ""shortDescription"": """&amp;C41&amp;""", ""fullDescriptionHtml"": """&amp;D41&amp;""", ""direction"": """&amp;E41&amp;"""},")</f>
@@ -4116,13 +4104,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">IF(E42="","","{""sourceId"": """&amp;A42&amp;""", ""targetId"": """&amp;B42&amp;""", ""shortDescription"": """&amp;C42&amp;""", ""fullDescriptionHtml"": """&amp;D42&amp;""", ""direction"": """&amp;E42&amp;"""},")</f>
@@ -4131,13 +4119,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">IF(E43="","","{""sourceId"": """&amp;A43&amp;""", ""targetId"": """&amp;B43&amp;""", ""shortDescription"": """&amp;C43&amp;""", ""fullDescriptionHtml"": """&amp;D43&amp;""", ""direction"": """&amp;E43&amp;"""},")</f>
@@ -4146,13 +4134,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">IF(E44="","","{""sourceId"": """&amp;A44&amp;""", ""targetId"": """&amp;B44&amp;""", ""shortDescription"": """&amp;C44&amp;""", ""fullDescriptionHtml"": """&amp;D44&amp;""", ""direction"": """&amp;E44&amp;"""},")</f>
@@ -4161,13 +4149,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">IF(E45="","","{""sourceId"": """&amp;A45&amp;""", ""targetId"": """&amp;B45&amp;""", ""shortDescription"": """&amp;C45&amp;""", ""fullDescriptionHtml"": """&amp;D45&amp;""", ""direction"": """&amp;E45&amp;"""},")</f>
@@ -4176,13 +4164,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">IF(E46="","","{""sourceId"": """&amp;A46&amp;""", ""targetId"": """&amp;B46&amp;""", ""shortDescription"": """&amp;C46&amp;""", ""fullDescriptionHtml"": """&amp;D46&amp;""", ""direction"": """&amp;E46&amp;"""},")</f>
@@ -4191,13 +4179,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">IF(E47="","","{""sourceId"": """&amp;A47&amp;""", ""targetId"": """&amp;B47&amp;""", ""shortDescription"": """&amp;C47&amp;""", ""fullDescriptionHtml"": """&amp;D47&amp;""", ""direction"": """&amp;E47&amp;"""},")</f>
@@ -4206,13 +4194,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">IF(E48="","","{""sourceId"": """&amp;A48&amp;""", ""targetId"": """&amp;B48&amp;""", ""shortDescription"": """&amp;C48&amp;""", ""fullDescriptionHtml"": """&amp;D48&amp;""", ""direction"": """&amp;E48&amp;"""},")</f>
@@ -4221,13 +4209,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">IF(E49="","","{""sourceId"": """&amp;A49&amp;""", ""targetId"": """&amp;B49&amp;""", ""shortDescription"": """&amp;C49&amp;""", ""fullDescriptionHtml"": """&amp;D49&amp;""", ""direction"": """&amp;E49&amp;"""},")</f>
@@ -4236,13 +4224,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">IF(E50="","","{""sourceId"": """&amp;A50&amp;""", ""targetId"": """&amp;B50&amp;""", ""shortDescription"": """&amp;C50&amp;""", ""fullDescriptionHtml"": """&amp;D50&amp;""", ""direction"": """&amp;E50&amp;"""},")</f>
@@ -4251,13 +4239,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">IF(E51="","","{""sourceId"": """&amp;A51&amp;""", ""targetId"": """&amp;B51&amp;""", ""shortDescription"": """&amp;C51&amp;""", ""fullDescriptionHtml"": """&amp;D51&amp;""", ""direction"": """&amp;E51&amp;"""},")</f>
@@ -4266,13 +4254,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">IF(E52="","","{""sourceId"": """&amp;A52&amp;""", ""targetId"": """&amp;B52&amp;""", ""shortDescription"": """&amp;C52&amp;""", ""fullDescriptionHtml"": """&amp;D52&amp;""", ""direction"": """&amp;E52&amp;"""},")</f>
@@ -4281,13 +4269,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(E53="","","{""sourceId"": """&amp;A53&amp;""", ""targetId"": """&amp;B53&amp;""", ""shortDescription"": """&amp;C53&amp;""", ""fullDescriptionHtml"": """&amp;D53&amp;""", ""direction"": """&amp;E53&amp;"""},")</f>
@@ -4296,13 +4284,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(E54="","","{""sourceId"": """&amp;A54&amp;""", ""targetId"": """&amp;B54&amp;""", ""shortDescription"": """&amp;C54&amp;""", ""fullDescriptionHtml"": """&amp;D54&amp;""", ""direction"": """&amp;E54&amp;"""},")</f>
@@ -4311,13 +4299,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(E55="","","{""sourceId"": """&amp;A55&amp;""", ""targetId"": """&amp;B55&amp;""", ""shortDescription"": """&amp;C55&amp;""", ""fullDescriptionHtml"": """&amp;D55&amp;""", ""direction"": """&amp;E55&amp;"""},")</f>
@@ -4326,13 +4314,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(E56="","","{""sourceId"": """&amp;A56&amp;""", ""targetId"": """&amp;B56&amp;""", ""shortDescription"": """&amp;C56&amp;""", ""fullDescriptionHtml"": """&amp;D56&amp;""", ""direction"": """&amp;E56&amp;"""},")</f>
@@ -4341,13 +4329,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">IF(E57="","","{""sourceId"": """&amp;A57&amp;""", ""targetId"": """&amp;B57&amp;""", ""shortDescription"": """&amp;C57&amp;""", ""fullDescriptionHtml"": """&amp;D57&amp;""", ""direction"": """&amp;E57&amp;"""},")</f>
@@ -4356,13 +4344,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -4371,13 +4359,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -4386,13 +4374,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -4401,13 +4389,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -4416,13 +4404,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -4431,13 +4419,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -4446,13 +4434,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -4461,13 +4449,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -4476,13 +4464,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -4491,13 +4479,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -4506,13 +4494,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -4521,13 +4509,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -4536,13 +4524,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -4551,13 +4539,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -4566,13 +4554,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -4581,13 +4569,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -4596,13 +4584,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -4611,13 +4599,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -4626,13 +4614,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -4640,87 +4628,837 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
+      <c r="A77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "LADYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
+      <c r="A78" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
+      <c r="A80" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
+      <c r="A81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
+      <c r="A82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
+      <c r="A83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "MISTER_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
+      <c r="A84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "SCARABELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
+      <c r="A85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
+        <v>{"sourceId": "TIKKI", "targetId": "JEANNE_D_ARC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0"/>
+      <c r="A86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "CAT_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0"/>
-      <c r="B87" s="0"/>
+      <c r="A87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
+      <c r="A88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "CAT_WALKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
-      <c r="B89" s="0"/>
+      <c r="A89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "LADY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="0"/>
+      <c r="A90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
+      <c r="A91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
+        <v>{"sourceId": "PLAGG", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
+      <c r="A92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
+        <v>{"sourceId": "NOOROO", "targetId": "HAWK_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0"/>
-      <c r="B93" s="0"/>
+      <c r="A93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
+        <v>{"sourceId": "NOOROO", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
+      <c r="A94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
+        <v>{"sourceId": "NOOROO", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
+      <c r="A95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
+        <v>{"sourceId": "TRIXX", "targetId": "RENA_ROUGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
+      <c r="A96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
+        <v>{"sourceId": "TRIXX", "targetId": "RENA_FURTIVE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
+      <c r="A97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
+        <v>{"sourceId": "TRIXX", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
+        <v>{"sourceId": "POLLEN", "targetId": "QUEEN_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
+        <v>{"sourceId": "POLLEN", "targetId": "VESPERIA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
+        <v>{"sourceId": "POLLEN", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101" s="0" t="str">
+        <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
+        <v>{"sourceId": "WAYZZ", "targetId": "JADE_TURTLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G102" s="0" t="str">
+        <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
+        <v>{"sourceId": "WAYZZ", "targetId": "CARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G103" s="0" t="str">
+        <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
+        <v>{"sourceId": "WAYZZ", "targetId": "SENTICARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G104" s="0" t="str">
+        <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
+        <v>{"sourceId": "DUUSU", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G105" s="0" t="str">
+        <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
+        <v>{"sourceId": "DUUSU", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G106" s="0" t="str">
+        <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
+        <v>{"sourceId": "DUUSU", "targetId": "PEACOCK_MIRACULOUS_HOLDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G107" s="0" t="str">
+        <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
+        <v>{"sourceId": "DUUSU", "targetId": "MAYURA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G108" s="0" t="str">
+        <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
+        <v>{"sourceId": "MULLO", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G111" s="0" t="str">
+        <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G112" s="0" t="str">
+        <f aca="false">IF(E112="","","{""sourceId"": """&amp;A112&amp;""", ""targetId"": """&amp;B112&amp;""", ""shortDescription"": """&amp;C112&amp;""", ""fullDescriptionHtml"": """&amp;D112&amp;""", ""direction"": """&amp;E112&amp;"""},")</f>
+        <v>{"sourceId": "MULLO", "targetId": "POLYMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G113" s="0" t="str">
+        <f aca="false">IF(E113="","","{""sourceId"": """&amp;A113&amp;""", ""targetId"": """&amp;B113&amp;""", ""shortDescription"": """&amp;C113&amp;""", ""fullDescriptionHtml"": """&amp;D113&amp;""", ""direction"": """&amp;E113&amp;"""},")</f>
+        <v>{"sourceId": "STOMPP", "targetId": "MINOTAUROX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G114" s="0" t="str">
+        <f aca="false">IF(E114="","","{""sourceId"": """&amp;A114&amp;""", ""targetId"": """&amp;B114&amp;""", ""shortDescription"": """&amp;C114&amp;""", ""fullDescriptionHtml"": """&amp;D114&amp;""", ""direction"": """&amp;E114&amp;"""},")</f>
+        <v>{"sourceId": "ROAAR", "targetId": "PURPLE_TIGRESS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G115" s="0" t="str">
+        <f aca="false">IF(E115="","","{""sourceId"": """&amp;A115&amp;""", ""targetId"": """&amp;B115&amp;""", ""shortDescription"": """&amp;C115&amp;""", ""fullDescriptionHtml"": """&amp;D115&amp;""", ""direction"": """&amp;E115&amp;"""},")</f>
+        <v>{"sourceId": "FLUFF", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G116" s="0" t="str">
+        <f aca="false">IF(E116="","","{""sourceId"": """&amp;A116&amp;""", ""targetId"": """&amp;B116&amp;""", ""shortDescription"": """&amp;C116&amp;""", ""fullDescriptionHtml"": """&amp;D116&amp;""", ""direction"": """&amp;E116&amp;"""},")</f>
+        <v>{"sourceId": "FLUFF", "targetId": "BUNNYX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G117" s="0" t="str">
+        <f aca="false">IF(E117="","","{""sourceId"": """&amp;A117&amp;""", ""targetId"": """&amp;B117&amp;""", ""shortDescription"": """&amp;C117&amp;""", ""fullDescriptionHtml"": """&amp;D117&amp;""", ""direction"": """&amp;E117&amp;"""},")</f>
+        <v>{"sourceId": "LONGG", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118" s="0" t="str">
+        <f aca="false">IF(E118="","","{""sourceId"": """&amp;A118&amp;""", ""targetId"": """&amp;B118&amp;""", ""shortDescription"": """&amp;C118&amp;""", ""fullDescriptionHtml"": """&amp;D118&amp;""", ""direction"": """&amp;E118&amp;"""},")</f>
+        <v>{"sourceId": "LONGG", "targetId": "RYUKO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G119" s="0" t="str">
+        <f aca="false">IF(E119="","","{""sourceId"": """&amp;A119&amp;""", ""targetId"": """&amp;B119&amp;""", ""shortDescription"": """&amp;C119&amp;""", ""fullDescriptionHtml"": """&amp;D119&amp;""", ""direction"": """&amp;E119&amp;"""},")</f>
+        <v>{"sourceId": "SASS", "targetId": "ASPIK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G120" s="0" t="str">
+        <f aca="false">IF(E120="","","{""sourceId"": """&amp;A120&amp;""", ""targetId"": """&amp;B120&amp;""", ""shortDescription"": """&amp;C120&amp;""", ""fullDescriptionHtml"": """&amp;D120&amp;""", ""direction"": """&amp;E120&amp;"""},")</f>
+        <v>{"sourceId": "SASS", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G121" s="0" t="str">
+        <f aca="false">IF(E121="","","{""sourceId"": """&amp;A121&amp;""", ""targetId"": """&amp;B121&amp;""", ""shortDescription"": """&amp;C121&amp;""", ""fullDescriptionHtml"": """&amp;D121&amp;""", ""direction"": """&amp;E121&amp;"""},")</f>
+        <v>{"sourceId": "SASS", "targetId": "VIPERION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122" s="0" t="str">
+        <f aca="false">IF(E122="","","{""sourceId"": """&amp;A122&amp;""", ""targetId"": """&amp;B122&amp;""", ""shortDescription"": """&amp;C122&amp;""", ""fullDescriptionHtml"": """&amp;D122&amp;""", ""direction"": """&amp;E122&amp;"""},")</f>
+        <v>{"sourceId": "KAALKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G123" s="0" t="str">
+        <f aca="false">IF(E123="","","{""sourceId"": """&amp;A123&amp;""", ""targetId"": """&amp;B123&amp;""", ""shortDescription"": """&amp;C123&amp;""", ""fullDescriptionHtml"": """&amp;D123&amp;""", ""direction"": """&amp;E123&amp;"""},")</f>
+        <v>{"sourceId": "KAALKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124" s="0" t="str">
+        <f aca="false">IF(E124="","","{""sourceId"": """&amp;A124&amp;""", ""targetId"": """&amp;B124&amp;""", ""shortDescription"": """&amp;C124&amp;""", ""fullDescriptionHtml"": """&amp;D124&amp;""", ""direction"": """&amp;E124&amp;"""},")</f>
+        <v>{"sourceId": "KAALKI", "targetId": "PEGASUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125" s="0" t="str">
+        <f aca="false">IF(E125="","","{""sourceId"": """&amp;A125&amp;""", ""targetId"": """&amp;B125&amp;""", ""shortDescription"": """&amp;C125&amp;""", ""fullDescriptionHtml"": """&amp;D125&amp;""", ""direction"": """&amp;E125&amp;"""},")</f>
+        <v>{"sourceId": "ZIGGY", "targetId": "CAPRIKID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G126" s="0" t="str">
+        <f aca="false">IF(E126="","","{""sourceId"": """&amp;A126&amp;""", ""targetId"": """&amp;B126&amp;""", ""shortDescription"": """&amp;C126&amp;""", ""fullDescriptionHtml"": """&amp;D126&amp;""", ""direction"": """&amp;E126&amp;"""},")</f>
+        <v>{"sourceId": "XUPPU", "targetId": "KING_MONKEY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G127" s="0" t="str">
+        <f aca="false">IF(E127="","","{""sourceId"": """&amp;A127&amp;""", ""targetId"": """&amp;B127&amp;""", ""shortDescription"": """&amp;C127&amp;""", ""fullDescriptionHtml"": """&amp;D127&amp;""", ""direction"": """&amp;E127&amp;"""},")</f>
+        <v>{"sourceId": "ORIKKO", "targetId": "ROOSTER_BOLD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" s="0" t="str">
+        <f aca="false">IF(E128="","","{""sourceId"": """&amp;A128&amp;""", ""targetId"": """&amp;B128&amp;""", ""shortDescription"": """&amp;C128&amp;""", ""fullDescriptionHtml"": """&amp;D128&amp;""", ""direction"": """&amp;E128&amp;"""},")</f>
+        <v>{"sourceId": "BARKK", "targetId": "FLAIRMIDABLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G129" s="0" t="str">
+        <f aca="false">IF(E129="","","{""sourceId"": """&amp;A129&amp;""", ""targetId"": """&amp;B129&amp;""", ""shortDescription"": """&amp;C129&amp;""", ""fullDescriptionHtml"": """&amp;D129&amp;""", ""direction"": """&amp;E129&amp;"""},")</f>
+        <v>{"sourceId": "BARKK", "targetId": "MISS_HOUND", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G130" s="0" t="str">
+        <f aca="false">IF(E130="","","{""sourceId"": """&amp;A130&amp;""", ""targetId"": """&amp;B130&amp;""", ""shortDescription"": """&amp;C130&amp;""", ""fullDescriptionHtml"": """&amp;D130&amp;""", ""direction"": """&amp;E130&amp;"""},")</f>
+        <v>{"sourceId": "DAIZZI", "targetId": "PIGELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="520">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">ALIX_KUBDEL_ADULT</t>
   </si>
   <si>
-    <t xml:space="preserve">Alix Kubdel (adult)</t>
+    <t xml:space="preserve">Alix Kubdel (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">BUNNYX</t>
@@ -876,6 +876,660 @@
   </si>
   <si>
     <t xml:space="preserve">Princess Fragrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURORE_BEAUREAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurore Beauréal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORMY_WEATHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormy Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEAN_DUPARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Duparc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGICIAN_OF_MISFORTUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magician of Misfortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAVIER_RAMIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier Ramier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR__PIGEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pigeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINCENT_AZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Aza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIXELATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixelator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEO_BARBOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théo Barbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPYCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copycat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON_GRIMAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Grimault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMON_SAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Says</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGER_RAINCOMPRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Raincomprix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGERCOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogercop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIS_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otis Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMAND_D_ARGENCOURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armand D'Argencourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARKBLADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darkblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JALIL_KUBDEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalil Kubdel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_PHARAOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pharaoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANON_CHAMACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manon Chamack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_PUPPETEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Puppeteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRED_HAPRELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Haprèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_MIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGGED_STONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagged Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUITAR_VILLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar Villain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANG_CHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUNG_FOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kung Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILA_ROSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lila Rossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLPINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volpina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMELEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chameleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADJA_CHAMACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadja Chamack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIME_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLACIATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaciator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTLER_JEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butler Jean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPAIR_BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despair Bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENNY_ROLLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penny Rolling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TROUBLEMAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troublemaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUGUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGANTITAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GINA_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEFANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLARA_NIGHTINGALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Nightingale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIGHTNINGALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frightningale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIEN_S_BODYGUARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrien's Bodyguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORIZILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorizilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBOSTUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robostus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELLA_AND_ETTA_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella and Etta Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPOTIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR__DAMOCLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Damocles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK_OWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONDINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALINE_BUSTIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caline Bustier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOMBIZOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zombizou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANARKA_COUFFAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarka Couffaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPTAIN_HARDROCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captain Hardrock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILIPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDREY_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audrey Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STYLE_QUEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Style Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEART_HUNTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORA_CESAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nora Césaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anansi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE_BOURGEOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André Bourgeois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALEDIKTATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malediktator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNNAMED_BOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDBOY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA_CLAUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Claus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA_CLAWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Claws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS_ASTRUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Astruc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAESTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLLAND_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolland Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAKERIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakerix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMPLEMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIANNE_LENOIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianne Lenoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACKWARDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backwarder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOM_DUPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Dupain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEREDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weredad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPERADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desperada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS_LAHIFFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Lahiffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRIS_LAHIFFE_ADULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Lahiffe (Adult)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTMASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMETAGGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timetagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIE_KANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudie Kanté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS__MENDELEIEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Mendeleiev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWAMIBUSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwamibuster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DORMANT_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormant Sentimonster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMOE_TSURUGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomoe Tsurugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKARI_GOZEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikari Gozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAYHEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayhem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTY_CRASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Crasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARRY_CLOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYCOMEDIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psycomedian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL_AGRESTE_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Agreste (Sentimonster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE_COLLECTOR_SENTIMONSTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Collector (Sentimonster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEC_CATALDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alec Cataldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISHMAKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wishmaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABINE_CHENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabine Cheng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QILIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qilin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOB_ROTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Roth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOLAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moolak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROGGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Froggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk</t>
   </si>
   <si>
     <t xml:space="preserve">LIIRI</t>
@@ -1059,10 +1713,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ983"/>
+  <dimension ref="A1:AMJ1094"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G135" activeCellId="0" sqref="G2:G135"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,72 +2147,105 @@
         <v>{"id": "DAIZZI", "name": "Daizzi", "description": "The Kwami of Jubilation.", "imageFilename": "DAIZZI.webp", "color": "#FFD0E7", "group": "CHARACTER"},</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A22&amp;""", ""name"": """&amp;B22&amp;""", ""description"": """&amp;C22&amp;""", ""imageFilename"": """&amp;A22&amp;".webp"", ""color"": """&amp;D22&amp;""", ""group"": """&amp;E22&amp;"""},"</f>
+        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A24&amp;""", ""name"": """&amp;B24&amp;""", ""description"": """&amp;C24&amp;""", ""imageFilename"": """&amp;A24&amp;".webp"", ""color"": """&amp;D24&amp;""", ""group"": """&amp;E24&amp;"""},"</f>
+        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
-        <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#000000", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A27&amp;""", ""name"": """&amp;B27&amp;""", ""description"": """&amp;C27&amp;""", ""imageFilename"": """&amp;A27&amp;".webp"", ""color"": """&amp;D27&amp;""", ""group"": """&amp;E27&amp;"""},"</f>
+        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A29&amp;""", ""name"": """&amp;B29&amp;""", ""description"": """&amp;C29&amp;""", ""imageFilename"": """&amp;A29&amp;".webp"", ""color"": """&amp;D29&amp;""", ""group"": """&amp;E29&amp;"""},"</f>
-        <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A31&amp;""", ""name"": """&amp;B31&amp;""", ""description"": """&amp;C31&amp;""", ""imageFilename"": """&amp;A31&amp;".webp"", ""color"": """&amp;D31&amp;""", ""group"": """&amp;E31&amp;"""},"</f>
+        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>85</v>
+      <c r="A32" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -1568,27 +2255,87 @@
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
-        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A34&amp;""", ""name"": """&amp;B34&amp;""", ""description"": """&amp;C34&amp;""", ""imageFilename"": """&amp;A34&amp;".webp"", ""color"": """&amp;D34&amp;""", ""group"": """&amp;E34&amp;"""},"</f>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A35&amp;""", ""name"": """&amp;B35&amp;""", ""description"": """&amp;C35&amp;""", ""imageFilename"": """&amp;A35&amp;".webp"", ""color"": """&amp;D35&amp;""", ""group"": """&amp;E35&amp;"""},"</f>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A36&amp;""", ""name"": """&amp;B36&amp;""", ""description"": """&amp;C36&amp;""", ""imageFilename"": """&amp;A36&amp;".webp"", ""color"": """&amp;D36&amp;""", ""group"": """&amp;E36&amp;"""},"</f>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1598,16 +2345,17 @@
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>89</v>
+      <c r="A38" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>90</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,15 +2364,15 @@
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -1634,15 +2382,15 @@
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -1652,15 +2400,15 @@
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>95</v>
+      <c r="A41" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -1670,15 +2418,15 @@
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -1688,15 +2436,15 @@
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>99</v>
+      <c r="A43" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -1706,17 +2454,16 @@
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>114</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1725,15 +2472,15 @@
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -1743,15 +2490,15 @@
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -1761,15 +2508,15 @@
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -1779,15 +2526,15 @@
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -1797,15 +2544,15 @@
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -1815,15 +2562,15 @@
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>113</v>
+      <c r="A50" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -1833,15 +2580,15 @@
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -1851,16 +2598,17 @@
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>118</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
@@ -1869,16 +2617,17 @@
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>120</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C53" s="6"/>
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1887,15 +2636,15 @@
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>121</v>
+      <c r="A54" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -1905,15 +2654,15 @@
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>123</v>
+      <c r="A55" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -1923,15 +2672,15 @@
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>125</v>
+      <c r="A56" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -1941,15 +2690,15 @@
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -1959,17 +2708,16 @@
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="6"/>
+        <v>142</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
@@ -1978,17 +2726,16 @@
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>144</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1997,15 +2744,15 @@
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -2015,15 +2762,15 @@
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -2033,15 +2780,15 @@
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -2051,16 +2798,17 @@
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>140</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C63" s="6"/>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
@@ -2069,16 +2817,17 @@
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>142</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C64" s="6"/>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
@@ -2087,16 +2836,17 @@
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A64&amp;""", ""name"": """&amp;B64&amp;""", ""description"": """&amp;C64&amp;""", ""imageFilename"": """&amp;A64&amp;".webp"", ""color"": """&amp;D64&amp;""", ""group"": """&amp;E64&amp;"""},"</f>
-        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>144</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C65" s="6"/>
       <c r="D65" s="1" t="s">
         <v>13</v>
       </c>
@@ -2105,16 +2855,17 @@
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A65&amp;""", ""name"": """&amp;B65&amp;""", ""description"": """&amp;C65&amp;""", ""imageFilename"": """&amp;A65&amp;".webp"", ""color"": """&amp;D65&amp;""", ""group"": """&amp;E65&amp;"""},"</f>
-        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>146</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C66" s="6"/>
       <c r="D66" s="1" t="s">
         <v>13</v>
       </c>
@@ -2123,16 +2874,17 @@
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A66&amp;""", ""name"": """&amp;B66&amp;""", ""description"": """&amp;C66&amp;""", ""imageFilename"": """&amp;A66&amp;".webp"", ""color"": """&amp;D66&amp;""", ""group"": """&amp;E66&amp;"""},"</f>
-        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>148</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C67" s="6"/>
       <c r="D67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2141,16 +2893,17 @@
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A67&amp;""", ""name"": """&amp;B67&amp;""", ""description"": """&amp;C67&amp;""", ""imageFilename"": """&amp;A67&amp;".webp"", ""color"": """&amp;D67&amp;""", ""group"": """&amp;E67&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>150</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C68" s="6"/>
       <c r="D68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2159,17 +2912,16 @@
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A68&amp;""", ""name"": """&amp;B68&amp;""", ""description"": """&amp;C68&amp;""", ""imageFilename"": """&amp;A68&amp;".webp"", ""color"": """&amp;D68&amp;""", ""group"": """&amp;E68&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="6"/>
+        <v>164</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2178,17 +2930,16 @@
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A69&amp;""", ""name"": """&amp;B69&amp;""", ""description"": """&amp;C69&amp;""", ""imageFilename"": """&amp;A69&amp;".webp"", ""color"": """&amp;D69&amp;""", ""group"": """&amp;E69&amp;"""},"</f>
-        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="6"/>
+        <v>166</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
       </c>
@@ -2197,17 +2948,16 @@
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A70&amp;""", ""name"": """&amp;B70&amp;""", ""description"": """&amp;C70&amp;""", ""imageFilename"": """&amp;A70&amp;".webp"", ""color"": """&amp;D70&amp;""", ""group"": """&amp;E70&amp;"""},"</f>
-        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="6"/>
+        <v>168</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
@@ -2216,17 +2966,16 @@
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A71&amp;""", ""name"": """&amp;B71&amp;""", ""description"": """&amp;C71&amp;""", ""imageFilename"": """&amp;A71&amp;".webp"", ""color"": """&amp;D71&amp;""", ""group"": """&amp;E71&amp;"""},"</f>
-        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="6"/>
+        <v>170</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
       </c>
@@ -2235,17 +2984,16 @@
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A72&amp;""", ""name"": """&amp;B72&amp;""", ""description"": """&amp;C72&amp;""", ""imageFilename"": """&amp;A72&amp;".webp"", ""color"": """&amp;D72&amp;""", ""group"": """&amp;E72&amp;"""},"</f>
-        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>172</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
@@ -2254,17 +3002,16 @@
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A73&amp;""", ""name"": """&amp;B73&amp;""", ""description"": """&amp;C73&amp;""", ""imageFilename"": """&amp;A73&amp;".webp"", ""color"": """&amp;D73&amp;""", ""group"": """&amp;E73&amp;"""},"</f>
-        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="6"/>
+        <v>174</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
@@ -2273,15 +3020,15 @@
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A74&amp;""", ""name"": """&amp;B74&amp;""", ""description"": """&amp;C74&amp;""", ""imageFilename"": """&amp;A74&amp;".webp"", ""color"": """&amp;D74&amp;""", ""group"": """&amp;E74&amp;"""},"</f>
-        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -2291,15 +3038,15 @@
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A75&amp;""", ""name"": """&amp;B75&amp;""", ""description"": """&amp;C75&amp;""", ""imageFilename"": """&amp;A75&amp;".webp"", ""color"": """&amp;D75&amp;""", ""group"": """&amp;E75&amp;"""},"</f>
-        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -2309,15 +3056,15 @@
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A76&amp;""", ""name"": """&amp;B76&amp;""", ""description"": """&amp;C76&amp;""", ""imageFilename"": """&amp;A76&amp;".webp"", ""color"": """&amp;D76&amp;""", ""group"": """&amp;E76&amp;"""},"</f>
-        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -2327,15 +3074,15 @@
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A77&amp;""", ""name"": """&amp;B77&amp;""", ""description"": """&amp;C77&amp;""", ""imageFilename"": """&amp;A77&amp;".webp"", ""color"": """&amp;D77&amp;""", ""group"": """&amp;E77&amp;"""},"</f>
-        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -2345,15 +3092,15 @@
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A78&amp;""", ""name"": """&amp;B78&amp;""", ""description"": """&amp;C78&amp;""", ""imageFilename"": """&amp;A78&amp;".webp"", ""color"": """&amp;D78&amp;""", ""group"": """&amp;E78&amp;"""},"</f>
-        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -2363,15 +3110,15 @@
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A79&amp;""", ""name"": """&amp;B79&amp;""", ""description"": """&amp;C79&amp;""", ""imageFilename"": """&amp;A79&amp;".webp"", ""color"": """&amp;D79&amp;""", ""group"": """&amp;E79&amp;"""},"</f>
-        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -2381,15 +3128,15 @@
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A80&amp;""", ""name"": """&amp;B80&amp;""", ""description"": """&amp;C80&amp;""", ""imageFilename"": """&amp;A80&amp;".webp"", ""color"": """&amp;D80&amp;""", ""group"": """&amp;E80&amp;"""},"</f>
-        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -2399,15 +3146,15 @@
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
-        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -2417,15 +3164,15 @@
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A82&amp;""", ""name"": """&amp;B82&amp;""", ""description"": """&amp;C82&amp;""", ""imageFilename"": """&amp;A82&amp;".webp"", ""color"": """&amp;D82&amp;""", ""group"": """&amp;E82&amp;"""},"</f>
-        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -2435,15 +3182,15 @@
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A83&amp;""", ""name"": """&amp;B83&amp;""", ""description"": """&amp;C83&amp;""", ""imageFilename"": """&amp;A83&amp;".webp"", ""color"": """&amp;D83&amp;""", ""group"": """&amp;E83&amp;"""},"</f>
-        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -2453,15 +3200,15 @@
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A84&amp;""", ""name"": """&amp;B84&amp;""", ""description"": """&amp;C84&amp;""", ""imageFilename"": """&amp;A84&amp;".webp"", ""color"": """&amp;D84&amp;""", ""group"": """&amp;E84&amp;"""},"</f>
-        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -2471,15 +3218,15 @@
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A85&amp;""", ""name"": """&amp;B85&amp;""", ""description"": """&amp;C85&amp;""", ""imageFilename"": """&amp;A85&amp;".webp"", ""color"": """&amp;D85&amp;""", ""group"": """&amp;E85&amp;"""},"</f>
-        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -2489,15 +3236,15 @@
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A86&amp;""", ""name"": """&amp;B86&amp;""", ""description"": """&amp;C86&amp;""", ""imageFilename"": """&amp;A86&amp;".webp"", ""color"": """&amp;D86&amp;""", ""group"": """&amp;E86&amp;"""},"</f>
-        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -2507,15 +3254,15 @@
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A87&amp;""", ""name"": """&amp;B87&amp;""", ""description"": """&amp;C87&amp;""", ""imageFilename"": """&amp;A87&amp;".webp"", ""color"": """&amp;D87&amp;""", ""group"": """&amp;E87&amp;"""},"</f>
-        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -2525,15 +3272,15 @@
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A88&amp;""", ""name"": """&amp;B88&amp;""", ""description"": """&amp;C88&amp;""", ""imageFilename"": """&amp;A88&amp;".webp"", ""color"": """&amp;D88&amp;""", ""group"": """&amp;E88&amp;"""},"</f>
-        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -2543,15 +3290,15 @@
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A89&amp;""", ""name"": """&amp;B89&amp;""", ""description"": """&amp;C89&amp;""", ""imageFilename"": """&amp;A89&amp;".webp"", ""color"": """&amp;D89&amp;""", ""group"": """&amp;E89&amp;"""},"</f>
-        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -2561,15 +3308,15 @@
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A90&amp;""", ""name"": """&amp;B90&amp;""", ""description"": """&amp;C90&amp;""", ""imageFilename"": """&amp;A90&amp;".webp"", ""color"": """&amp;D90&amp;""", ""group"": """&amp;E90&amp;"""},"</f>
-        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -2579,15 +3326,15 @@
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A91&amp;""", ""name"": """&amp;B91&amp;""", ""description"": """&amp;C91&amp;""", ""imageFilename"": """&amp;A91&amp;".webp"", ""color"": """&amp;D91&amp;""", ""group"": """&amp;E91&amp;"""},"</f>
-        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -2597,15 +3344,15 @@
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A92&amp;""", ""name"": """&amp;B92&amp;""", ""description"": """&amp;C92&amp;""", ""imageFilename"": """&amp;A92&amp;".webp"", ""color"": """&amp;D92&amp;""", ""group"": """&amp;E92&amp;"""},"</f>
-        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -2615,15 +3362,15 @@
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A93&amp;""", ""name"": """&amp;B93&amp;""", ""description"": """&amp;C93&amp;""", ""imageFilename"": """&amp;A93&amp;".webp"", ""color"": """&amp;D93&amp;""", ""group"": """&amp;E93&amp;"""},"</f>
-        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -2633,15 +3380,15 @@
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A94&amp;""", ""name"": """&amp;B94&amp;""", ""description"": """&amp;C94&amp;""", ""imageFilename"": """&amp;A94&amp;".webp"", ""color"": """&amp;D94&amp;""", ""group"": """&amp;E94&amp;"""},"</f>
-        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -2651,15 +3398,15 @@
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A95&amp;""", ""name"": """&amp;B95&amp;""", ""description"": """&amp;C95&amp;""", ""imageFilename"": """&amp;A95&amp;".webp"", ""color"": """&amp;D95&amp;""", ""group"": """&amp;E95&amp;"""},"</f>
-        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -2669,15 +3416,15 @@
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A96&amp;""", ""name"": """&amp;B96&amp;""", ""description"": """&amp;C96&amp;""", ""imageFilename"": """&amp;A96&amp;".webp"", ""color"": """&amp;D96&amp;""", ""group"": """&amp;E96&amp;"""},"</f>
-        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -2687,15 +3434,15 @@
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A97&amp;""", ""name"": """&amp;B97&amp;""", ""description"": """&amp;C97&amp;""", ""imageFilename"": """&amp;A97&amp;".webp"", ""color"": """&amp;D97&amp;""", ""group"": """&amp;E97&amp;"""},"</f>
-        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -2705,15 +3452,15 @@
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A98&amp;""", ""name"": """&amp;B98&amp;""", ""description"": """&amp;C98&amp;""", ""imageFilename"": """&amp;A98&amp;".webp"", ""color"": """&amp;D98&amp;""", ""group"": """&amp;E98&amp;"""},"</f>
-        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -2723,15 +3470,15 @@
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A99&amp;""", ""name"": """&amp;B99&amp;""", ""description"": """&amp;C99&amp;""", ""imageFilename"": """&amp;A99&amp;".webp"", ""color"": """&amp;D99&amp;""", ""group"": """&amp;E99&amp;"""},"</f>
-        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (Adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -2741,15 +3488,15 @@
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A100&amp;""", ""name"": """&amp;B100&amp;""", ""description"": """&amp;C100&amp;""", ""imageFilename"": """&amp;A100&amp;".webp"", ""color"": """&amp;D100&amp;""", ""group"": """&amp;E100&amp;"""},"</f>
-        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -2759,15 +3506,15 @@
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
-        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -2777,15 +3524,15 @@
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A102&amp;""", ""name"": """&amp;B102&amp;""", ""description"": """&amp;C102&amp;""", ""imageFilename"": """&amp;A102&amp;".webp"", ""color"": """&amp;D102&amp;""", ""group"": """&amp;E102&amp;"""},"</f>
-        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -2795,15 +3542,15 @@
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A103&amp;""", ""name"": """&amp;B103&amp;""", ""description"": """&amp;C103&amp;""", ""imageFilename"": """&amp;A103&amp;".webp"", ""color"": """&amp;D103&amp;""", ""group"": """&amp;E103&amp;"""},"</f>
-        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -2813,15 +3560,15 @@
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A104&amp;""", ""name"": """&amp;B104&amp;""", ""description"": """&amp;C104&amp;""", ""imageFilename"": """&amp;A104&amp;".webp"", ""color"": """&amp;D104&amp;""", ""group"": """&amp;E104&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -2831,15 +3578,15 @@
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A105&amp;""", ""name"": """&amp;B105&amp;""", ""description"": """&amp;C105&amp;""", ""imageFilename"": """&amp;A105&amp;".webp"", ""color"": """&amp;D105&amp;""", ""group"": """&amp;E105&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -2849,15 +3596,15 @@
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A106&amp;""", ""name"": """&amp;B106&amp;""", ""description"": """&amp;C106&amp;""", ""imageFilename"": """&amp;A106&amp;".webp"", ""color"": """&amp;D106&amp;""", ""group"": """&amp;E106&amp;"""},"</f>
-        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -2867,15 +3614,15 @@
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A107&amp;""", ""name"": """&amp;B107&amp;""", ""description"": """&amp;C107&amp;""", ""imageFilename"": """&amp;A107&amp;".webp"", ""color"": """&amp;D107&amp;""", ""group"": """&amp;E107&amp;"""},"</f>
-        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -2885,15 +3632,15 @@
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A108&amp;""", ""name"": """&amp;B108&amp;""", ""description"": """&amp;C108&amp;""", ""imageFilename"": """&amp;A108&amp;".webp"", ""color"": """&amp;D108&amp;""", ""group"": """&amp;E108&amp;"""},"</f>
-        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -2903,15 +3650,15 @@
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A109&amp;""", ""name"": """&amp;B109&amp;""", ""description"": """&amp;C109&amp;""", ""imageFilename"": """&amp;A109&amp;".webp"", ""color"": """&amp;D109&amp;""", ""group"": """&amp;E109&amp;"""},"</f>
-        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -2921,15 +3668,15 @@
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A110&amp;""", ""name"": """&amp;B110&amp;""", ""description"": """&amp;C110&amp;""", ""imageFilename"": """&amp;A110&amp;".webp"", ""color"": """&amp;D110&amp;""", ""group"": """&amp;E110&amp;"""},"</f>
-        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -2939,15 +3686,15 @@
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A111&amp;""", ""name"": """&amp;B111&amp;""", ""description"": """&amp;C111&amp;""", ""imageFilename"": """&amp;A111&amp;".webp"", ""color"": """&amp;D111&amp;""", ""group"": """&amp;E111&amp;"""},"</f>
-        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -2957,15 +3704,15 @@
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A112&amp;""", ""name"": """&amp;B112&amp;""", ""description"": """&amp;C112&amp;""", ""imageFilename"": """&amp;A112&amp;".webp"", ""color"": """&amp;D112&amp;""", ""group"": """&amp;E112&amp;"""},"</f>
-        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -2975,15 +3722,15 @@
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A113&amp;""", ""name"": """&amp;B113&amp;""", ""description"": """&amp;C113&amp;""", ""imageFilename"": """&amp;A113&amp;".webp"", ""color"": """&amp;D113&amp;""", ""group"": """&amp;E113&amp;"""},"</f>
-        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -2993,15 +3740,15 @@
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A114&amp;""", ""name"": """&amp;B114&amp;""", ""description"": """&amp;C114&amp;""", ""imageFilename"": """&amp;A114&amp;".webp"", ""color"": """&amp;D114&amp;""", ""group"": """&amp;E114&amp;"""},"</f>
-        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -3011,15 +3758,15 @@
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A115&amp;""", ""name"": """&amp;B115&amp;""", ""description"": """&amp;C115&amp;""", ""imageFilename"": """&amp;A115&amp;".webp"", ""color"": """&amp;D115&amp;""", ""group"": """&amp;E115&amp;"""},"</f>
-        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -3029,15 +3776,15 @@
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A116&amp;""", ""name"": """&amp;B116&amp;""", ""description"": """&amp;C116&amp;""", ""imageFilename"": """&amp;A116&amp;".webp"", ""color"": """&amp;D116&amp;""", ""group"": """&amp;E116&amp;"""},"</f>
-        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -3047,15 +3794,15 @@
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A117&amp;""", ""name"": """&amp;B117&amp;""", ""description"": """&amp;C117&amp;""", ""imageFilename"": """&amp;A117&amp;".webp"", ""color"": """&amp;D117&amp;""", ""group"": """&amp;E117&amp;"""},"</f>
-        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -3065,15 +3812,15 @@
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A118&amp;""", ""name"": """&amp;B118&amp;""", ""description"": """&amp;C118&amp;""", ""imageFilename"": """&amp;A118&amp;".webp"", ""color"": """&amp;D118&amp;""", ""group"": """&amp;E118&amp;"""},"</f>
-        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -3083,15 +3830,15 @@
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A119&amp;""", ""name"": """&amp;B119&amp;""", ""description"": """&amp;C119&amp;""", ""imageFilename"": """&amp;A119&amp;".webp"", ""color"": """&amp;D119&amp;""", ""group"": """&amp;E119&amp;"""},"</f>
-        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -3101,15 +3848,15 @@
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A120&amp;""", ""name"": """&amp;B120&amp;""", ""description"": """&amp;C120&amp;""", ""imageFilename"": """&amp;A120&amp;".webp"", ""color"": """&amp;D120&amp;""", ""group"": """&amp;E120&amp;"""},"</f>
-        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -3119,15 +3866,15 @@
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A121&amp;""", ""name"": """&amp;B121&amp;""", ""description"": """&amp;C121&amp;""", ""imageFilename"": """&amp;A121&amp;".webp"", ""color"": """&amp;D121&amp;""", ""group"": """&amp;E121&amp;"""},"</f>
-        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -3137,15 +3884,15 @@
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
-        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -3155,15 +3902,15 @@
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A123&amp;""", ""name"": """&amp;B123&amp;""", ""description"": """&amp;C123&amp;""", ""imageFilename"": """&amp;A123&amp;".webp"", ""color"": """&amp;D123&amp;""", ""group"": """&amp;E123&amp;"""},"</f>
-        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -3173,15 +3920,15 @@
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
-        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
@@ -3191,15 +3938,15 @@
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A125&amp;""", ""name"": """&amp;B125&amp;""", ""description"": """&amp;C125&amp;""", ""imageFilename"": """&amp;A125&amp;".webp"", ""color"": """&amp;D125&amp;""", ""group"": """&amp;E125&amp;"""},"</f>
-        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
@@ -3209,15 +3956,15 @@
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A126&amp;""", ""name"": """&amp;B126&amp;""", ""description"": """&amp;C126&amp;""", ""imageFilename"": """&amp;A126&amp;".webp"", ""color"": """&amp;D126&amp;""", ""group"": """&amp;E126&amp;"""},"</f>
-        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -3227,15 +3974,15 @@
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A127&amp;""", ""name"": """&amp;B127&amp;""", ""description"": """&amp;C127&amp;""", ""imageFilename"": """&amp;A127&amp;".webp"", ""color"": """&amp;D127&amp;""", ""group"": """&amp;E127&amp;"""},"</f>
-        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -3245,15 +3992,15 @@
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A128&amp;""", ""name"": """&amp;B128&amp;""", ""description"": """&amp;C128&amp;""", ""imageFilename"": """&amp;A128&amp;".webp"", ""color"": """&amp;D128&amp;""", ""group"": """&amp;E128&amp;"""},"</f>
-        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -3263,33 +4010,15 @@
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A129&amp;""", ""name"": """&amp;B129&amp;""", ""description"": """&amp;C129&amp;""", ""imageFilename"": """&amp;A129&amp;".webp"", ""color"": """&amp;D129&amp;""", ""group"": """&amp;E129&amp;"""},"</f>
-        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A130&amp;""", ""name"": """&amp;B130&amp;""", ""description"": """&amp;C130&amp;""", ""imageFilename"": """&amp;A130&amp;".webp"", ""color"": """&amp;D130&amp;""", ""group"": """&amp;E130&amp;"""},"</f>
-        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -3299,15 +4028,15 @@
       </c>
       <c r="G131" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A131&amp;""", ""name"": """&amp;B131&amp;""", ""description"": """&amp;C131&amp;""", ""imageFilename"": """&amp;A131&amp;".webp"", ""color"": """&amp;D131&amp;""", ""group"": """&amp;E131&amp;"""},"</f>
-        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "AURORE_BEAUREAL", "name": "Aurore Beauréal", "description": "", "imageFilename": "AURORE_BEAUREAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -3317,15 +4046,15 @@
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A132&amp;""", ""name"": """&amp;B132&amp;""", ""description"": """&amp;C132&amp;""", ""imageFilename"": """&amp;A132&amp;".webp"", ""color"": """&amp;D132&amp;""", ""group"": """&amp;E132&amp;"""},"</f>
-        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STORMY_WEATHER", "name": "Stormy Weather", "description": "", "imageFilename": "STORMY_WEATHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -3335,15 +4064,15 @@
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A133&amp;""", ""name"": """&amp;B133&amp;""", ""description"": """&amp;C133&amp;""", ""imageFilename"": """&amp;A133&amp;".webp"", ""color"": """&amp;D133&amp;""", ""group"": """&amp;E133&amp;"""},"</f>
-        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JEAN_DUPARC", "name": "Jean Duparc", "description": "", "imageFilename": "JEAN_DUPARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -3353,15 +4082,15 @@
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A134&amp;""", ""name"": """&amp;B134&amp;""", ""description"": """&amp;C134&amp;""", ""imageFilename"": """&amp;A134&amp;".webp"", ""color"": """&amp;D134&amp;""", ""group"": """&amp;E134&amp;"""},"</f>
-        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAGICIAN_OF_MISFORTUNE", "name": "Magician of Misfortune", "description": "", "imageFilename": "MAGICIAN_OF_MISFORTUNE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -3371,85 +4100,1975 @@
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A135&amp;""", ""name"": """&amp;B135&amp;""", ""description"": """&amp;C135&amp;""", ""imageFilename"": """&amp;A135&amp;".webp"", ""color"": """&amp;D135&amp;""", ""group"": """&amp;E135&amp;"""},"</f>
-        <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "XAVIER_RAMIER", "name": "Xavier Ramier", "description": "", "imageFilename": "XAVIER_RAMIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A136&amp;""", ""name"": """&amp;B136&amp;""", ""description"": """&amp;C136&amp;""", ""imageFilename"": """&amp;A136&amp;".webp"", ""color"": """&amp;D136&amp;""", ""group"": """&amp;E136&amp;"""},"</f>
+        <v>{"id": "MR__PIGEON", "name": "Mr. Pigeon", "description": "", "imageFilename": "MR__PIGEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A137&amp;""", ""name"": """&amp;B137&amp;""", ""description"": """&amp;C137&amp;""", ""imageFilename"": """&amp;A137&amp;".webp"", ""color"": """&amp;D137&amp;""", ""group"": """&amp;E137&amp;"""},"</f>
+        <v>{"id": "VINCENT_AZA", "name": "Vincent Aza", "description": "", "imageFilename": "VINCENT_AZA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A138&amp;""", ""name"": """&amp;B138&amp;""", ""description"": """&amp;C138&amp;""", ""imageFilename"": """&amp;A138&amp;".webp"", ""color"": """&amp;D138&amp;""", ""group"": """&amp;E138&amp;"""},"</f>
+        <v>{"id": "PIXELATOR", "name": "Pixelator", "description": "", "imageFilename": "PIXELATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A139&amp;""", ""name"": """&amp;B139&amp;""", ""description"": """&amp;C139&amp;""", ""imageFilename"": """&amp;A139&amp;".webp"", ""color"": """&amp;D139&amp;""", ""group"": """&amp;E139&amp;"""},"</f>
+        <v>{"id": "THEO_BARBOT", "name": "Théo Barbot", "description": "", "imageFilename": "THEO_BARBOT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A140&amp;""", ""name"": """&amp;B140&amp;""", ""description"": """&amp;C140&amp;""", ""imageFilename"": """&amp;A140&amp;".webp"", ""color"": """&amp;D140&amp;""", ""group"": """&amp;E140&amp;"""},"</f>
+        <v>{"id": "COPYCAT", "name": "Copycat", "description": "", "imageFilename": "COPYCAT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A141&amp;""", ""name"": """&amp;B141&amp;""", ""description"": """&amp;C141&amp;""", ""imageFilename"": """&amp;A141&amp;".webp"", ""color"": """&amp;D141&amp;""", ""group"": """&amp;E141&amp;"""},"</f>
+        <v>{"id": "SIMON_GRIMAULT", "name": "Simon Grimault", "description": "", "imageFilename": "SIMON_GRIMAULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A142&amp;""", ""name"": """&amp;B142&amp;""", ""description"": """&amp;C142&amp;""", ""imageFilename"": """&amp;A142&amp;".webp"", ""color"": """&amp;D142&amp;""", ""group"": """&amp;E142&amp;"""},"</f>
+        <v>{"id": "SIMON_SAYS", "name": "Simon Says", "description": "", "imageFilename": "SIMON_SAYS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A143&amp;""", ""name"": """&amp;B143&amp;""", ""description"": """&amp;C143&amp;""", ""imageFilename"": """&amp;A143&amp;".webp"", ""color"": """&amp;D143&amp;""", ""group"": """&amp;E143&amp;"""},"</f>
+        <v>{"id": "ROGER_RAINCOMPRIX", "name": "Roger Raincomprix", "description": "", "imageFilename": "ROGER_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>285</v>
+      <c r="A144" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A144&amp;""", ""name"": """&amp;B144&amp;""", ""description"": """&amp;C144&amp;""", ""imageFilename"": """&amp;A144&amp;".webp"", ""color"": """&amp;D144&amp;""", ""group"": """&amp;E144&amp;"""},"</f>
+        <v>{"id": "ROGERCOP", "name": "Rogercop", "description": "", "imageFilename": "ROGERCOP.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A145&amp;""", ""name"": """&amp;B145&amp;""", ""description"": """&amp;C145&amp;""", ""imageFilename"": """&amp;A145&amp;".webp"", ""color"": """&amp;D145&amp;""", ""group"": """&amp;E145&amp;"""},"</f>
+        <v>{"id": "OTIS_CESAIRE", "name": "Otis Césaire", "description": "", "imageFilename": "OTIS_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A146&amp;""", ""name"": """&amp;B146&amp;""", ""description"": """&amp;C146&amp;""", ""imageFilename"": """&amp;A146&amp;".webp"", ""color"": """&amp;D146&amp;""", ""group"": """&amp;E146&amp;"""},"</f>
+        <v>{"id": "ANIMAN", "name": "Animan", "description": "", "imageFilename": "ANIMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A147&amp;""", ""name"": """&amp;B147&amp;""", ""description"": """&amp;C147&amp;""", ""imageFilename"": """&amp;A147&amp;".webp"", ""color"": """&amp;D147&amp;""", ""group"": """&amp;E147&amp;"""},"</f>
+        <v>{"id": "ARMAND_D_ARGENCOURT", "name": "Armand D'Argencourt", "description": "", "imageFilename": "ARMAND_D_ARGENCOURT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A148&amp;""", ""name"": """&amp;B148&amp;""", ""description"": """&amp;C148&amp;""", ""imageFilename"": """&amp;A148&amp;".webp"", ""color"": """&amp;D148&amp;""", ""group"": """&amp;E148&amp;"""},"</f>
+        <v>{"id": "DARKBLADE", "name": "Darkblade", "description": "", "imageFilename": "DARKBLADE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A149&amp;""", ""name"": """&amp;B149&amp;""", ""description"": """&amp;C149&amp;""", ""imageFilename"": """&amp;A149&amp;".webp"", ""color"": """&amp;D149&amp;""", ""group"": """&amp;E149&amp;"""},"</f>
+        <v>{"id": "JALIL_KUBDEL", "name": "Jalil Kubdel", "description": "", "imageFilename": "JALIL_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A150&amp;""", ""name"": """&amp;B150&amp;""", ""description"": """&amp;C150&amp;""", ""imageFilename"": """&amp;A150&amp;".webp"", ""color"": """&amp;D150&amp;""", ""group"": """&amp;E150&amp;"""},"</f>
+        <v>{"id": "THE_PHARAOH", "name": "The Pharaoh", "description": "", "imageFilename": "THE_PHARAOH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A151&amp;""", ""name"": """&amp;B151&amp;""", ""description"": """&amp;C151&amp;""", ""imageFilename"": """&amp;A151&amp;".webp"", ""color"": """&amp;D151&amp;""", ""group"": """&amp;E151&amp;"""},"</f>
+        <v>{"id": "MANON_CHAMACK", "name": "Manon Chamack", "description": "", "imageFilename": "MANON_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A152&amp;""", ""name"": """&amp;B152&amp;""", ""description"": """&amp;C152&amp;""", ""imageFilename"": """&amp;A152&amp;".webp"", ""color"": """&amp;D152&amp;""", ""group"": """&amp;E152&amp;"""},"</f>
+        <v>{"id": "THE_PUPPETEER", "name": "The Puppeteer", "description": "", "imageFilename": "THE_PUPPETEER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A153&amp;""", ""name"": """&amp;B153&amp;""", ""description"": """&amp;C153&amp;""", ""imageFilename"": """&amp;A153&amp;".webp"", ""color"": """&amp;D153&amp;""", ""group"": """&amp;E153&amp;"""},"</f>
+        <v>{"id": "FRED_HAPRELE", "name": "Fred Haprèle", "description": "", "imageFilename": "FRED_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A154&amp;""", ""name"": """&amp;B154&amp;""", ""description"": """&amp;C154&amp;""", ""imageFilename"": """&amp;A154&amp;".webp"", ""color"": """&amp;D154&amp;""", ""group"": """&amp;E154&amp;"""},"</f>
+        <v>{"id": "THE_MIME", "name": "The Mime", "description": "", "imageFilename": "THE_MIME.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A155&amp;""", ""name"": """&amp;B155&amp;""", ""description"": """&amp;C155&amp;""", ""imageFilename"": """&amp;A155&amp;".webp"", ""color"": """&amp;D155&amp;""", ""group"": """&amp;E155&amp;"""},"</f>
+        <v>{"id": "JAGGED_STONE", "name": "Jagged Stone", "description": "", "imageFilename": "JAGGED_STONE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A156&amp;""", ""name"": """&amp;B156&amp;""", ""description"": """&amp;C156&amp;""", ""imageFilename"": """&amp;A156&amp;".webp"", ""color"": """&amp;D156&amp;""", ""group"": """&amp;E156&amp;"""},"</f>
+        <v>{"id": "GUITAR_VILLAIN", "name": "Guitar Villain", "description": "", "imageFilename": "GUITAR_VILLAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A157&amp;""", ""name"": """&amp;B157&amp;""", ""description"": """&amp;C157&amp;""", ""imageFilename"": """&amp;A157&amp;".webp"", ""color"": """&amp;D157&amp;""", ""group"": """&amp;E157&amp;"""},"</f>
+        <v>{"id": "WANG_CHENG", "name": "Wang Cheng", "description": "", "imageFilename": "WANG_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A158&amp;""", ""name"": """&amp;B158&amp;""", ""description"": """&amp;C158&amp;""", ""imageFilename"": """&amp;A158&amp;".webp"", ""color"": """&amp;D158&amp;""", ""group"": """&amp;E158&amp;"""},"</f>
+        <v>{"id": "KUNG_FOOD", "name": "Kung Food", "description": "", "imageFilename": "KUNG_FOOD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A159&amp;""", ""name"": """&amp;B159&amp;""", ""description"": """&amp;C159&amp;""", ""imageFilename"": """&amp;A159&amp;".webp"", ""color"": """&amp;D159&amp;""", ""group"": """&amp;E159&amp;"""},"</f>
+        <v>{"id": "LILA_ROSSI", "name": "Lila Rossi", "description": "", "imageFilename": "LILA_ROSSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A160&amp;""", ""name"": """&amp;B160&amp;""", ""description"": """&amp;C160&amp;""", ""imageFilename"": """&amp;A160&amp;".webp"", ""color"": """&amp;D160&amp;""", ""group"": """&amp;E160&amp;"""},"</f>
+        <v>{"id": "VOLPINA", "name": "Volpina", "description": "", "imageFilename": "VOLPINA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A161&amp;""", ""name"": """&amp;B161&amp;""", ""description"": """&amp;C161&amp;""", ""imageFilename"": """&amp;A161&amp;".webp"", ""color"": """&amp;D161&amp;""", ""group"": """&amp;E161&amp;"""},"</f>
+        <v>{"id": "CHAMELEON", "name": "Chameleon", "description": "", "imageFilename": "CHAMELEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A162&amp;""", ""name"": """&amp;B162&amp;""", ""description"": """&amp;C162&amp;""", ""imageFilename"": """&amp;A162&amp;".webp"", ""color"": """&amp;D162&amp;""", ""group"": """&amp;E162&amp;"""},"</f>
+        <v>{"id": "NADJA_CHAMACK", "name": "Nadja Chamack", "description": "", "imageFilename": "NADJA_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A163&amp;""", ""name"": """&amp;B163&amp;""", ""description"": """&amp;C163&amp;""", ""imageFilename"": """&amp;A163&amp;".webp"", ""color"": """&amp;D163&amp;""", ""group"": """&amp;E163&amp;"""},"</f>
+        <v>{"id": "PRIME_QUEEN", "name": "Prime Queen", "description": "", "imageFilename": "PRIME_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A164&amp;""", ""name"": """&amp;B164&amp;""", ""description"": """&amp;C164&amp;""", ""imageFilename"": """&amp;A164&amp;".webp"", ""color"": """&amp;D164&amp;""", ""group"": """&amp;E164&amp;"""},"</f>
+        <v>{"id": "ANDRE", "name": "André", "description": "", "imageFilename": "ANDRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A165&amp;""", ""name"": """&amp;B165&amp;""", ""description"": """&amp;C165&amp;""", ""imageFilename"": """&amp;A165&amp;".webp"", ""color"": """&amp;D165&amp;""", ""group"": """&amp;E165&amp;"""},"</f>
+        <v>{"id": "GLACIATOR", "name": "Glaciator", "description": "", "imageFilename": "GLACIATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A166&amp;""", ""name"": """&amp;B166&amp;""", ""description"": """&amp;C166&amp;""", ""imageFilename"": """&amp;A166&amp;".webp"", ""color"": """&amp;D166&amp;""", ""group"": """&amp;E166&amp;"""},"</f>
+        <v>{"id": "BUTLER_JEAN", "name": "Butler Jean", "description": "", "imageFilename": "BUTLER_JEAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A167&amp;""", ""name"": """&amp;B167&amp;""", ""description"": """&amp;C167&amp;""", ""imageFilename"": """&amp;A167&amp;".webp"", ""color"": """&amp;D167&amp;""", ""group"": """&amp;E167&amp;"""},"</f>
+        <v>{"id": "DESPAIR_BEAR", "name": "Despair Bear", "description": "", "imageFilename": "DESPAIR_BEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A168&amp;""", ""name"": """&amp;B168&amp;""", ""description"": """&amp;C168&amp;""", ""imageFilename"": """&amp;A168&amp;".webp"", ""color"": """&amp;D168&amp;""", ""group"": """&amp;E168&amp;"""},"</f>
+        <v>{"id": "PENNY_ROLLING", "name": "Penny Rolling", "description": "", "imageFilename": "PENNY_ROLLING.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A169&amp;""", ""name"": """&amp;B169&amp;""", ""description"": """&amp;C169&amp;""", ""imageFilename"": """&amp;A169&amp;".webp"", ""color"": """&amp;D169&amp;""", ""group"": """&amp;E169&amp;"""},"</f>
+        <v>{"id": "TROUBLEMAKER", "name": "Troublemaker", "description": "", "imageFilename": "TROUBLEMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A170&amp;""", ""name"": """&amp;B170&amp;""", ""description"": """&amp;C170&amp;""", ""imageFilename"": """&amp;A170&amp;".webp"", ""color"": """&amp;D170&amp;""", ""group"": """&amp;E170&amp;"""},"</f>
+        <v>{"id": "AUGUST", "name": "August", "description": "", "imageFilename": "AUGUST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A171&amp;""", ""name"": """&amp;B171&amp;""", ""description"": """&amp;C171&amp;""", ""imageFilename"": """&amp;A171&amp;".webp"", ""color"": """&amp;D171&amp;""", ""group"": """&amp;E171&amp;"""},"</f>
+        <v>{"id": "GIGANTITAN", "name": "Gigantitan", "description": "", "imageFilename": "GIGANTITAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A172&amp;""", ""name"": """&amp;B172&amp;""", ""description"": """&amp;C172&amp;""", ""imageFilename"": """&amp;A172&amp;".webp"", ""color"": """&amp;D172&amp;""", ""group"": """&amp;E172&amp;"""},"</f>
+        <v>{"id": "GINA_DUPAIN", "name": "Gina Dupain", "description": "", "imageFilename": "GINA_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A173&amp;""", ""name"": """&amp;B173&amp;""", ""description"": """&amp;C173&amp;""", ""imageFilename"": """&amp;A173&amp;".webp"", ""color"": """&amp;D173&amp;""", ""group"": """&amp;E173&amp;"""},"</f>
+        <v>{"id": "BEFANA", "name": "Befana", "description": "", "imageFilename": "BEFANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A174&amp;""", ""name"": """&amp;B174&amp;""", ""description"": """&amp;C174&amp;""", ""imageFilename"": """&amp;A174&amp;".webp"", ""color"": """&amp;D174&amp;""", ""group"": """&amp;E174&amp;"""},"</f>
+        <v>{"id": "CLARA_NIGHTINGALE", "name": "Clara Nightingale", "description": "", "imageFilename": "CLARA_NIGHTINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A175&amp;""", ""name"": """&amp;B175&amp;""", ""description"": """&amp;C175&amp;""", ""imageFilename"": """&amp;A175&amp;".webp"", ""color"": """&amp;D175&amp;""", ""group"": """&amp;E175&amp;"""},"</f>
+        <v>{"id": "FRIGHTNINGALE", "name": "Frightningale", "description": "", "imageFilename": "FRIGHTNINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A176&amp;""", ""name"": """&amp;B176&amp;""", ""description"": """&amp;C176&amp;""", ""imageFilename"": """&amp;A176&amp;".webp"", ""color"": """&amp;D176&amp;""", ""group"": """&amp;E176&amp;"""},"</f>
+        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A177&amp;""", ""name"": """&amp;B177&amp;""", ""description"": """&amp;C177&amp;""", ""imageFilename"": """&amp;A177&amp;".webp"", ""color"": """&amp;D177&amp;""", ""group"": """&amp;E177&amp;"""},"</f>
+        <v>{"id": "GORIZILLA", "name": "Gorizilla", "description": "", "imageFilename": "GORIZILLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A178&amp;""", ""name"": """&amp;B178&amp;""", ""description"": """&amp;C178&amp;""", ""imageFilename"": """&amp;A178&amp;".webp"", ""color"": """&amp;D178&amp;""", ""group"": """&amp;E178&amp;"""},"</f>
+        <v>{"id": "MARKOV", "name": "Markov", "description": "", "imageFilename": "MARKOV.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A179&amp;""", ""name"": """&amp;B179&amp;""", ""description"": """&amp;C179&amp;""", ""imageFilename"": """&amp;A179&amp;".webp"", ""color"": """&amp;D179&amp;""", ""group"": """&amp;E179&amp;"""},"</f>
+        <v>{"id": "ROBOSTUS", "name": "Robostus", "description": "", "imageFilename": "ROBOSTUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A180&amp;""", ""name"": """&amp;B180&amp;""", ""description"": """&amp;C180&amp;""", ""imageFilename"": """&amp;A180&amp;".webp"", ""color"": """&amp;D180&amp;""", ""group"": """&amp;E180&amp;"""},"</f>
+        <v>{"id": "ELLA_AND_ETTA_CESAIRE", "name": "Ella and Etta Césaire", "description": "", "imageFilename": "ELLA_AND_ETTA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A181&amp;""", ""name"": """&amp;B181&amp;""", ""description"": """&amp;C181&amp;""", ""imageFilename"": """&amp;A181&amp;".webp"", ""color"": """&amp;D181&amp;""", ""group"": """&amp;E181&amp;"""},"</f>
+        <v>{"id": "SAPOTIS", "name": "Sapotis", "description": "", "imageFilename": "SAPOTIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A182&amp;""", ""name"": """&amp;B182&amp;""", ""description"": """&amp;C182&amp;""", ""imageFilename"": """&amp;A182&amp;".webp"", ""color"": """&amp;D182&amp;""", ""group"": """&amp;E182&amp;"""},"</f>
+        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A183&amp;""", ""name"": """&amp;B183&amp;""", ""description"": """&amp;C183&amp;""", ""imageFilename"": """&amp;A183&amp;".webp"", ""color"": """&amp;D183&amp;""", ""group"": """&amp;E183&amp;"""},"</f>
+        <v>{"id": "DARK_OWL", "name": "Dark Owl", "description": "", "imageFilename": "DARK_OWL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A184&amp;""", ""name"": """&amp;B184&amp;""", ""description"": """&amp;C184&amp;""", ""imageFilename"": """&amp;A184&amp;".webp"", ""color"": """&amp;D184&amp;""", ""group"": """&amp;E184&amp;"""},"</f>
+        <v>{"id": "ONDINE", "name": "Ondine", "description": "", "imageFilename": "ONDINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A185&amp;""", ""name"": """&amp;B185&amp;""", ""description"": """&amp;C185&amp;""", ""imageFilename"": """&amp;A185&amp;".webp"", ""color"": """&amp;D185&amp;""", ""group"": """&amp;E185&amp;"""},"</f>
+        <v>{"id": "SYREN", "name": "Syren", "description": "", "imageFilename": "SYREN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A186&amp;""", ""name"": """&amp;B186&amp;""", ""description"": """&amp;C186&amp;""", ""imageFilename"": """&amp;A186&amp;".webp"", ""color"": """&amp;D186&amp;""", ""group"": """&amp;E186&amp;"""},"</f>
+        <v>{"id": "CALINE_BUSTIER", "name": "Caline Bustier", "description": "", "imageFilename": "CALINE_BUSTIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A187&amp;""", ""name"": """&amp;B187&amp;""", ""description"": """&amp;C187&amp;""", ""imageFilename"": """&amp;A187&amp;".webp"", ""color"": """&amp;D187&amp;""", ""group"": """&amp;E187&amp;"""},"</f>
+        <v>{"id": "ZOMBIZOU", "name": "Zombizou", "description": "", "imageFilename": "ZOMBIZOU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A188&amp;""", ""name"": """&amp;B188&amp;""", ""description"": """&amp;C188&amp;""", ""imageFilename"": """&amp;A188&amp;".webp"", ""color"": """&amp;D188&amp;""", ""group"": """&amp;E188&amp;"""},"</f>
+        <v>{"id": "ANARKA_COUFFAINE", "name": "Anarka Couffaine", "description": "", "imageFilename": "ANARKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A189&amp;""", ""name"": """&amp;B189&amp;""", ""description"": """&amp;C189&amp;""", ""imageFilename"": """&amp;A189&amp;".webp"", ""color"": """&amp;D189&amp;""", ""group"": """&amp;E189&amp;"""},"</f>
+        <v>{"id": "CAPTAIN_HARDROCK", "name": "Captain Hardrock", "description": "", "imageFilename": "CAPTAIN_HARDROCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A190&amp;""", ""name"": """&amp;B190&amp;""", ""description"": """&amp;C190&amp;""", ""imageFilename"": """&amp;A190&amp;".webp"", ""color"": """&amp;D190&amp;""", ""group"": """&amp;E190&amp;"""},"</f>
+        <v>{"id": "PHILIPPE", "name": "Philippe", "description": "", "imageFilename": "PHILIPPE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A191&amp;""", ""name"": """&amp;B191&amp;""", ""description"": """&amp;C191&amp;""", ""imageFilename"": """&amp;A191&amp;".webp"", ""color"": """&amp;D191&amp;""", ""group"": """&amp;E191&amp;"""},"</f>
+        <v>{"id": "FROZER", "name": "Frozer", "description": "", "imageFilename": "FROZER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A192&amp;""", ""name"": """&amp;B192&amp;""", ""description"": """&amp;C192&amp;""", ""imageFilename"": """&amp;A192&amp;".webp"", ""color"": """&amp;D192&amp;""", ""group"": """&amp;E192&amp;"""},"</f>
+        <v>{"id": "AUDREY_BOURGEOIS", "name": "Audrey Bourgeois", "description": "", "imageFilename": "AUDREY_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A193&amp;""", ""name"": """&amp;B193&amp;""", ""description"": """&amp;C193&amp;""", ""imageFilename"": """&amp;A193&amp;".webp"", ""color"": """&amp;D193&amp;""", ""group"": """&amp;E193&amp;"""},"</f>
+        <v>{"id": "STYLE_QUEEN", "name": "Style Queen", "description": "", "imageFilename": "STYLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A194&amp;""", ""name"": """&amp;B194&amp;""", ""description"": """&amp;C194&amp;""", ""imageFilename"": """&amp;A194&amp;".webp"", ""color"": """&amp;D194&amp;""", ""group"": """&amp;E194&amp;"""},"</f>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A195&amp;""", ""name"": """&amp;B195&amp;""", ""description"": """&amp;C195&amp;""", ""imageFilename"": """&amp;A195&amp;".webp"", ""color"": """&amp;D195&amp;""", ""group"": """&amp;E195&amp;"""},"</f>
+        <v>{"id": "NORA_CESAIRE", "name": "Nora Césaire", "description": "", "imageFilename": "NORA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A196&amp;""", ""name"": """&amp;B196&amp;""", ""description"": """&amp;C196&amp;""", ""imageFilename"": """&amp;A196&amp;".webp"", ""color"": """&amp;D196&amp;""", ""group"": """&amp;E196&amp;"""},"</f>
+        <v>{"id": "ANANSI", "name": "Anansi", "description": "", "imageFilename": "ANANSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A197&amp;""", ""name"": """&amp;B197&amp;""", ""description"": """&amp;C197&amp;""", ""imageFilename"": """&amp;A197&amp;".webp"", ""color"": """&amp;D197&amp;""", ""group"": """&amp;E197&amp;"""},"</f>
+        <v>{"id": "ANDRE_BOURGEOIS", "name": "André Bourgeois", "description": "", "imageFilename": "ANDRE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A198&amp;""", ""name"": """&amp;B198&amp;""", ""description"": """&amp;C198&amp;""", ""imageFilename"": """&amp;A198&amp;".webp"", ""color"": """&amp;D198&amp;""", ""group"": """&amp;E198&amp;"""},"</f>
+        <v>{"id": "MALEDIKTATOR", "name": "Malediktator", "description": "", "imageFilename": "MALEDIKTATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A199&amp;""", ""name"": """&amp;B199&amp;""", ""description"": """&amp;C199&amp;""", ""imageFilename"": """&amp;A199&amp;".webp"", ""color"": """&amp;D199&amp;""", ""group"": """&amp;E199&amp;"""},"</f>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A200&amp;""", ""name"": """&amp;B200&amp;""", ""description"": """&amp;C200&amp;""", ""imageFilename"": """&amp;A200&amp;".webp"", ""color"": """&amp;D200&amp;""", ""group"": """&amp;E200&amp;"""},"</f>
+        <v>{"id": "UNNAMED_BOY", "name": "Unnamed Boy", "description": "", "imageFilename": "UNNAMED_BOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A201&amp;""", ""name"": """&amp;B201&amp;""", ""description"": """&amp;C201&amp;""", ""imageFilename"": """&amp;A201&amp;".webp"", ""color"": """&amp;D201&amp;""", ""group"": """&amp;E201&amp;"""},"</f>
+        <v>{"id": "SANDBOY", "name": "Sandboy", "description": "", "imageFilename": "SANDBOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A202&amp;""", ""name"": """&amp;B202&amp;""", ""description"": """&amp;C202&amp;""", ""imageFilename"": """&amp;A202&amp;".webp"", ""color"": """&amp;D202&amp;""", ""group"": """&amp;E202&amp;"""},"</f>
+        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A203&amp;""", ""name"": """&amp;B203&amp;""", ""description"": """&amp;C203&amp;""", ""imageFilename"": """&amp;A203&amp;".webp"", ""color"": """&amp;D203&amp;""", ""group"": """&amp;E203&amp;"""},"</f>
+        <v>{"id": "SANTA_CLAWS", "name": "Santa Claws", "description": "", "imageFilename": "SANTA_CLAWS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A204&amp;""", ""name"": """&amp;B204&amp;""", ""description"": """&amp;C204&amp;""", ""imageFilename"": """&amp;A204&amp;".webp"", ""color"": """&amp;D204&amp;""", ""group"": """&amp;E204&amp;"""},"</f>
+        <v>{"id": "THOMAS_ASTRUC", "name": "Thomas Astruc", "description": "", "imageFilename": "THOMAS_ASTRUC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A205&amp;""", ""name"": """&amp;B205&amp;""", ""description"": """&amp;C205&amp;""", ""imageFilename"": """&amp;A205&amp;".webp"", ""color"": """&amp;D205&amp;""", ""group"": """&amp;E205&amp;"""},"</f>
+        <v>{"id": "ANIMAESTRO", "name": "Animaestro", "description": "", "imageFilename": "ANIMAESTRO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A206&amp;""", ""name"": """&amp;B206&amp;""", ""description"": """&amp;C206&amp;""", ""imageFilename"": """&amp;A206&amp;".webp"", ""color"": """&amp;D206&amp;""", ""group"": """&amp;E206&amp;"""},"</f>
+        <v>{"id": "ROLLAND_DUPAIN", "name": "Rolland Dupain", "description": "", "imageFilename": "ROLLAND_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A207&amp;""", ""name"": """&amp;B207&amp;""", ""description"": """&amp;C207&amp;""", ""imageFilename"": """&amp;A207&amp;".webp"", ""color"": """&amp;D207&amp;""", ""group"": """&amp;E207&amp;"""},"</f>
+        <v>{"id": "BAKERIX", "name": "Bakerix", "description": "", "imageFilename": "BAKERIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A208&amp;""", ""name"": """&amp;B208&amp;""", ""description"": """&amp;C208&amp;""", ""imageFilename"": """&amp;A208&amp;".webp"", ""color"": """&amp;D208&amp;""", ""group"": """&amp;E208&amp;"""},"</f>
+        <v>{"id": "SIMPLEMAN", "name": "Simpleman", "description": "", "imageFilename": "SIMPLEMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A209&amp;""", ""name"": """&amp;B209&amp;""", ""description"": """&amp;C209&amp;""", ""imageFilename"": """&amp;A209&amp;".webp"", ""color"": """&amp;D209&amp;""", ""group"": """&amp;E209&amp;"""},"</f>
+        <v>{"id": "MARIANNE_LENOIR", "name": "Marianne Lenoir", "description": "", "imageFilename": "MARIANNE_LENOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A210&amp;""", ""name"": """&amp;B210&amp;""", ""description"": """&amp;C210&amp;""", ""imageFilename"": """&amp;A210&amp;".webp"", ""color"": """&amp;D210&amp;""", ""group"": """&amp;E210&amp;"""},"</f>
+        <v>{"id": "BACKWARDER", "name": "Backwarder", "description": "", "imageFilename": "BACKWARDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A211&amp;""", ""name"": """&amp;B211&amp;""", ""description"": """&amp;C211&amp;""", ""imageFilename"": """&amp;A211&amp;".webp"", ""color"": """&amp;D211&amp;""", ""group"": """&amp;E211&amp;"""},"</f>
+        <v>{"id": "TOM_DUPAIN", "name": "Tom Dupain", "description": "", "imageFilename": "TOM_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A212&amp;""", ""name"": """&amp;B212&amp;""", ""description"": """&amp;C212&amp;""", ""imageFilename"": """&amp;A212&amp;".webp"", ""color"": """&amp;D212&amp;""", ""group"": """&amp;E212&amp;"""},"</f>
+        <v>{"id": "WEREDAD", "name": "Weredad", "description": "", "imageFilename": "WEREDAD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A213&amp;""", ""name"": """&amp;B213&amp;""", ""description"": """&amp;C213&amp;""", ""imageFilename"": """&amp;A213&amp;".webp"", ""color"": """&amp;D213&amp;""", ""group"": """&amp;E213&amp;"""},"</f>
+        <v>{"id": "VIVICA", "name": "Vivica", "description": "", "imageFilename": "VIVICA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A214&amp;""", ""name"": """&amp;B214&amp;""", ""description"": """&amp;C214&amp;""", ""imageFilename"": """&amp;A214&amp;".webp"", ""color"": """&amp;D214&amp;""", ""group"": """&amp;E214&amp;"""},"</f>
+        <v>{"id": "DESPERADA", "name": "Desperada", "description": "", "imageFilename": "DESPERADA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A215&amp;""", ""name"": """&amp;B215&amp;""", ""description"": """&amp;C215&amp;""", ""imageFilename"": """&amp;A215&amp;".webp"", ""color"": """&amp;D215&amp;""", ""group"": """&amp;E215&amp;"""},"</f>
+        <v>{"id": "CHRIS_LAHIFFE", "name": "Chris Lahiffe", "description": "", "imageFilename": "CHRIS_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A216&amp;""", ""name"": """&amp;B216&amp;""", ""description"": """&amp;C216&amp;""", ""imageFilename"": """&amp;A216&amp;".webp"", ""color"": """&amp;D216&amp;""", ""group"": """&amp;E216&amp;"""},"</f>
+        <v>{"id": "CHRIS_LAHIFFE_ADULT", "name": "Chris Lahiffe (Adult)", "description": "", "imageFilename": "CHRIS_LAHIFFE_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A217&amp;""", ""name"": """&amp;B217&amp;""", ""description"": """&amp;C217&amp;""", ""imageFilename"": """&amp;A217&amp;".webp"", ""color"": """&amp;D217&amp;""", ""group"": """&amp;E217&amp;"""},"</f>
+        <v>{"id": "CHRISTMASTER", "name": "Christmaster", "description": "", "imageFilename": "CHRISTMASTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A218&amp;""", ""name"": """&amp;B218&amp;""", ""description"": """&amp;C218&amp;""", ""imageFilename"": """&amp;A218&amp;".webp"", ""color"": """&amp;D218&amp;""", ""group"": """&amp;E218&amp;"""},"</f>
+        <v>{"id": "TIMETAGGER", "name": "Timetagger", "description": "", "imageFilename": "TIMETAGGER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A219&amp;""", ""name"": """&amp;B219&amp;""", ""description"": """&amp;C219&amp;""", ""imageFilename"": """&amp;A219&amp;".webp"", ""color"": """&amp;D219&amp;""", ""group"": """&amp;E219&amp;"""},"</f>
+        <v>{"id": "CLAUDIE_KANTE", "name": "Claudie Kanté", "description": "", "imageFilename": "CLAUDIE_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A220&amp;""", ""name"": """&amp;B220&amp;""", ""description"": """&amp;C220&amp;""", ""imageFilename"": """&amp;A220&amp;".webp"", ""color"": """&amp;D220&amp;""", ""group"": """&amp;E220&amp;"""},"</f>
+        <v>{"id": "STARTRAIN", "name": "Startrain", "description": "", "imageFilename": "STARTRAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A221&amp;""", ""name"": """&amp;B221&amp;""", ""description"": """&amp;C221&amp;""", ""imageFilename"": """&amp;A221&amp;".webp"", ""color"": """&amp;D221&amp;""", ""group"": """&amp;E221&amp;"""},"</f>
+        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A222&amp;""", ""name"": """&amp;B222&amp;""", ""description"": """&amp;C222&amp;""", ""imageFilename"": """&amp;A222&amp;".webp"", ""color"": """&amp;D222&amp;""", ""group"": """&amp;E222&amp;"""},"</f>
+        <v>{"id": "KWAMIBUSTER", "name": "Kwamibuster", "description": "", "imageFilename": "KWAMIBUSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A223&amp;""", ""name"": """&amp;B223&amp;""", ""description"": """&amp;C223&amp;""", ""imageFilename"": """&amp;A223&amp;".webp"", ""color"": """&amp;D223&amp;""", ""group"": """&amp;E223&amp;"""},"</f>
+        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A224&amp;""", ""name"": """&amp;B224&amp;""", ""description"": """&amp;C224&amp;""", ""imageFilename"": """&amp;A224&amp;".webp"", ""color"": """&amp;D224&amp;""", ""group"": """&amp;E224&amp;"""},"</f>
+        <v>{"id": "FEAST", "name": "Feast", "description": "", "imageFilename": "FEAST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A225&amp;""", ""name"": """&amp;B225&amp;""", ""description"": """&amp;C225&amp;""", ""imageFilename"": """&amp;A225&amp;".webp"", ""color"": """&amp;D225&amp;""", ""group"": """&amp;E225&amp;"""},"</f>
+        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A226&amp;""", ""name"": """&amp;B226&amp;""", ""description"": """&amp;C226&amp;""", ""imageFilename"": """&amp;A226&amp;".webp"", ""color"": """&amp;D226&amp;""", ""group"": """&amp;E226&amp;"""},"</f>
+        <v>{"id": "IKARI_GOZEN", "name": "Ikari Gozen", "description": "", "imageFilename": "IKARI_GOZEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A227&amp;""", ""name"": """&amp;B227&amp;""", ""description"": """&amp;C227&amp;""", ""imageFilename"": """&amp;A227&amp;".webp"", ""color"": """&amp;D227&amp;""", ""group"": """&amp;E227&amp;"""},"</f>
+        <v>{"id": "WAYHEM", "name": "Wayhem", "description": "", "imageFilename": "WAYHEM.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A228&amp;""", ""name"": """&amp;B228&amp;""", ""description"": """&amp;C228&amp;""", ""imageFilename"": """&amp;A228&amp;".webp"", ""color"": """&amp;D228&amp;""", ""group"": """&amp;E228&amp;"""},"</f>
+        <v>{"id": "PARTY_CRASHER", "name": "Party Crasher", "description": "", "imageFilename": "PARTY_CRASHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A229&amp;""", ""name"": """&amp;B229&amp;""", ""description"": """&amp;C229&amp;""", ""imageFilename"": """&amp;A229&amp;".webp"", ""color"": """&amp;D229&amp;""", ""group"": """&amp;E229&amp;"""},"</f>
+        <v>{"id": "HARRY_CLOWN", "name": "Harry Clown", "description": "", "imageFilename": "HARRY_CLOWN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A230&amp;""", ""name"": """&amp;B230&amp;""", ""description"": """&amp;C230&amp;""", ""imageFilename"": """&amp;A230&amp;".webp"", ""color"": """&amp;D230&amp;""", ""group"": """&amp;E230&amp;"""},"</f>
+        <v>{"id": "PSYCOMEDIAN", "name": "Psycomedian", "description": "", "imageFilename": "PSYCOMEDIAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A231&amp;""", ""name"": """&amp;B231&amp;""", ""description"": """&amp;C231&amp;""", ""imageFilename"": """&amp;A231&amp;".webp"", ""color"": """&amp;D231&amp;""", ""group"": """&amp;E231&amp;"""},"</f>
+        <v>{"id": "GABRIEL_AGRESTE_SENTIMONSTER", "name": "Gabriel Agreste (Sentimonster)", "description": "", "imageFilename": "GABRIEL_AGRESTE_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A232&amp;""", ""name"": """&amp;B232&amp;""", ""description"": """&amp;C232&amp;""", ""imageFilename"": """&amp;A232&amp;".webp"", ""color"": """&amp;D232&amp;""", ""group"": """&amp;E232&amp;"""},"</f>
+        <v>{"id": "THE_COLLECTOR_SENTIMONSTER", "name": "The Collector (Sentimonster)", "description": "", "imageFilename": "THE_COLLECTOR_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A233&amp;""", ""name"": """&amp;B233&amp;""", ""description"": """&amp;C233&amp;""", ""imageFilename"": """&amp;A233&amp;".webp"", ""color"": """&amp;D233&amp;""", ""group"": """&amp;E233&amp;"""},"</f>
+        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A234&amp;""", ""name"": """&amp;B234&amp;""", ""description"": """&amp;C234&amp;""", ""imageFilename"": """&amp;A234&amp;".webp"", ""color"": """&amp;D234&amp;""", ""group"": """&amp;E234&amp;"""},"</f>
+        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A235&amp;""", ""name"": """&amp;B235&amp;""", ""description"": """&amp;C235&amp;""", ""imageFilename"": """&amp;A235&amp;".webp"", ""color"": """&amp;D235&amp;""", ""group"": """&amp;E235&amp;"""},"</f>
+        <v>{"id": "SABINE_CHENG", "name": "Sabine Cheng", "description": "", "imageFilename": "SABINE_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A236&amp;""", ""name"": """&amp;B236&amp;""", ""description"": """&amp;C236&amp;""", ""imageFilename"": """&amp;A236&amp;".webp"", ""color"": """&amp;D236&amp;""", ""group"": """&amp;E236&amp;"""},"</f>
+        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A237&amp;""", ""name"": """&amp;B237&amp;""", ""description"": """&amp;C237&amp;""", ""imageFilename"": """&amp;A237&amp;".webp"", ""color"": """&amp;D237&amp;""", ""group"": """&amp;E237&amp;"""},"</f>
+        <v>{"id": "BOB_ROTH", "name": "Bob Roth", "description": "", "imageFilename": "BOB_ROTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A238&amp;""", ""name"": """&amp;B238&amp;""", ""description"": """&amp;C238&amp;""", ""imageFilename"": """&amp;A238&amp;".webp"", ""color"": """&amp;D238&amp;""", ""group"": """&amp;E238&amp;"""},"</f>
+        <v>{"id": "MOOLAK", "name": "Moolak", "description": "", "imageFilename": "MOOLAK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A239&amp;""", ""name"": """&amp;B239&amp;""", ""description"": """&amp;C239&amp;""", ""imageFilename"": """&amp;A239&amp;".webp"", ""color"": """&amp;D239&amp;""", ""group"": """&amp;E239&amp;"""},"</f>
+        <v>{"id": "FROGGY", "name": "Froggy", "description": "", "imageFilename": "FROGGY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A240&amp;""", ""name"": """&amp;B240&amp;""", ""description"": """&amp;C240&amp;""", ""imageFilename"": """&amp;A240&amp;".webp"", ""color"": """&amp;D240&amp;""", ""group"": """&amp;E240&amp;"""},"</f>
+        <v>{"id": "RISK", "name": "Risk", "description": "", "imageFilename": "RISK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A255&amp;""", ""name"": """&amp;B255&amp;""", ""description"": """&amp;C255&amp;""", ""imageFilename"": """&amp;A255&amp;".webp"", ""color"": """&amp;D255&amp;""", ""group"": """&amp;E255&amp;"""},"</f>
         <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="6"/>
-    </row>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="6"/>
-    </row>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="6"/>
-    </row>
-    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="6"/>
-    </row>
-    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="6"/>
-    </row>
-    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="6"/>
-    </row>
-    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="6"/>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1088" s="6"/>
+    </row>
+    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1089" s="6"/>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1090" s="6"/>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1091" s="6"/>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1092" s="6"/>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1093" s="6"/>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1094" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3467,10 +6086,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ137"/>
+  <dimension ref="A1:AMJ263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G130" activeCellId="0" sqref="G2:G135"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G226" activeCellId="0" sqref="G2:G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3486,19 +6105,19 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>296</v>
+        <v>514</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>297</v>
+        <v>515</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>298</v>
+        <v>516</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>299</v>
+        <v>517</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>300</v>
+        <v>518</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
@@ -3510,7 +6129,7 @@
         <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(E2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
@@ -3525,7 +6144,7 @@
         <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(E3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
@@ -3540,7 +6159,7 @@
         <v>93</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">IF(E4="","","{""sourceId"": """&amp;A4&amp;""", ""targetId"": """&amp;B4&amp;""", ""shortDescription"": """&amp;C4&amp;""", ""fullDescriptionHtml"": """&amp;D4&amp;""", ""direction"": """&amp;E4&amp;"""},")</f>
@@ -3555,7 +6174,7 @@
         <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">IF(E5="","","{""sourceId"": """&amp;A5&amp;""", ""targetId"": """&amp;B5&amp;""", ""shortDescription"": """&amp;C5&amp;""", ""fullDescriptionHtml"": """&amp;D5&amp;""", ""direction"": """&amp;E5&amp;"""},")</f>
@@ -3570,7 +6189,7 @@
         <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">IF(E6="","","{""sourceId"": """&amp;A6&amp;""", ""targetId"": """&amp;B6&amp;""", ""shortDescription"": """&amp;C6&amp;""", ""fullDescriptionHtml"": """&amp;D6&amp;""", ""direction"": """&amp;E6&amp;"""},")</f>
@@ -3585,7 +6204,7 @@
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">IF(E7="","","{""sourceId"": """&amp;A7&amp;""", ""targetId"": """&amp;B7&amp;""", ""shortDescription"": """&amp;C7&amp;""", ""fullDescriptionHtml"": """&amp;D7&amp;""", ""direction"": """&amp;E7&amp;"""},")</f>
@@ -3600,7 +6219,7 @@
         <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">IF(E8="","","{""sourceId"": """&amp;A8&amp;""", ""targetId"": """&amp;B8&amp;""", ""shortDescription"": """&amp;C8&amp;""", ""fullDescriptionHtml"": """&amp;D8&amp;""", ""direction"": """&amp;E8&amp;"""},")</f>
@@ -3615,7 +6234,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">IF(E9="","","{""sourceId"": """&amp;A9&amp;""", ""targetId"": """&amp;B9&amp;""", ""shortDescription"": """&amp;C9&amp;""", ""fullDescriptionHtml"": """&amp;D9&amp;""", ""direction"": """&amp;E9&amp;"""},")</f>
@@ -3630,7 +6249,7 @@
         <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">IF(E10="","","{""sourceId"": """&amp;A10&amp;""", ""targetId"": """&amp;B10&amp;""", ""shortDescription"": """&amp;C10&amp;""", ""fullDescriptionHtml"": """&amp;D10&amp;""", ""direction"": """&amp;E10&amp;"""},")</f>
@@ -3645,7 +6264,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">IF(E11="","","{""sourceId"": """&amp;A11&amp;""", ""targetId"": """&amp;B11&amp;""", ""shortDescription"": """&amp;C11&amp;""", ""fullDescriptionHtml"": """&amp;D11&amp;""", ""direction"": """&amp;E11&amp;"""},")</f>
@@ -3660,7 +6279,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">IF(E12="","","{""sourceId"": """&amp;A12&amp;""", ""targetId"": """&amp;B12&amp;""", ""shortDescription"": """&amp;C12&amp;""", ""fullDescriptionHtml"": """&amp;D12&amp;""", ""direction"": """&amp;E12&amp;"""},")</f>
@@ -3675,7 +6294,7 @@
         <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">IF(E13="","","{""sourceId"": """&amp;A13&amp;""", ""targetId"": """&amp;B13&amp;""", ""shortDescription"": """&amp;C13&amp;""", ""fullDescriptionHtml"": """&amp;D13&amp;""", ""direction"": """&amp;E13&amp;"""},")</f>
@@ -3690,7 +6309,7 @@
         <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">IF(E14="","","{""sourceId"": """&amp;A14&amp;""", ""targetId"": """&amp;B14&amp;""", ""shortDescription"": """&amp;C14&amp;""", ""fullDescriptionHtml"": """&amp;D14&amp;""", ""direction"": """&amp;E14&amp;"""},")</f>
@@ -3705,7 +6324,7 @@
         <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(E15="","","{""sourceId"": """&amp;A15&amp;""", ""targetId"": """&amp;B15&amp;""", ""shortDescription"": """&amp;C15&amp;""", ""fullDescriptionHtml"": """&amp;D15&amp;""", ""direction"": """&amp;E15&amp;"""},")</f>
@@ -3720,7 +6339,7 @@
         <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(E16="","","{""sourceId"": """&amp;A16&amp;""", ""targetId"": """&amp;B16&amp;""", ""shortDescription"": """&amp;C16&amp;""", ""fullDescriptionHtml"": """&amp;D16&amp;""", ""direction"": """&amp;E16&amp;"""},")</f>
@@ -3735,7 +6354,7 @@
         <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">IF(E17="","","{""sourceId"": """&amp;A17&amp;""", ""targetId"": """&amp;B17&amp;""", ""shortDescription"": """&amp;C17&amp;""", ""fullDescriptionHtml"": """&amp;D17&amp;""", ""direction"": """&amp;E17&amp;"""},")</f>
@@ -3750,7 +6369,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">IF(E18="","","{""sourceId"": """&amp;A18&amp;""", ""targetId"": """&amp;B18&amp;""", ""shortDescription"": """&amp;C18&amp;""", ""fullDescriptionHtml"": """&amp;D18&amp;""", ""direction"": """&amp;E18&amp;"""},")</f>
@@ -3765,7 +6384,7 @@
         <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">IF(E19="","","{""sourceId"": """&amp;A19&amp;""", ""targetId"": """&amp;B19&amp;""", ""shortDescription"": """&amp;C19&amp;""", ""fullDescriptionHtml"": """&amp;D19&amp;""", ""direction"": """&amp;E19&amp;"""},")</f>
@@ -3780,7 +6399,7 @@
         <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">IF(E20="","","{""sourceId"": """&amp;A20&amp;""", ""targetId"": """&amp;B20&amp;""", ""shortDescription"": """&amp;C20&amp;""", ""fullDescriptionHtml"": """&amp;D20&amp;""", ""direction"": """&amp;E20&amp;"""},")</f>
@@ -3795,7 +6414,7 @@
         <v>131</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">IF(E21="","","{""sourceId"": """&amp;A21&amp;""", ""targetId"": """&amp;B21&amp;""", ""shortDescription"": """&amp;C21&amp;""", ""fullDescriptionHtml"": """&amp;D21&amp;""", ""direction"": """&amp;E21&amp;"""},")</f>
@@ -3810,7 +6429,7 @@
         <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">IF(E22="","","{""sourceId"": """&amp;A22&amp;""", ""targetId"": """&amp;B22&amp;""", ""shortDescription"": """&amp;C22&amp;""", ""fullDescriptionHtml"": """&amp;D22&amp;""", ""direction"": """&amp;E22&amp;"""},")</f>
@@ -3825,7 +6444,7 @@
         <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">IF(E23="","","{""sourceId"": """&amp;A23&amp;""", ""targetId"": """&amp;B23&amp;""", ""shortDescription"": """&amp;C23&amp;""", ""fullDescriptionHtml"": """&amp;D23&amp;""", ""direction"": """&amp;E23&amp;"""},")</f>
@@ -3840,7 +6459,7 @@
         <v>137</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">IF(E24="","","{""sourceId"": """&amp;A24&amp;""", ""targetId"": """&amp;B24&amp;""", ""shortDescription"": """&amp;C24&amp;""", ""fullDescriptionHtml"": """&amp;D24&amp;""", ""direction"": """&amp;E24&amp;"""},")</f>
@@ -3855,7 +6474,7 @@
         <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">IF(E25="","","{""sourceId"": """&amp;A25&amp;""", ""targetId"": """&amp;B25&amp;""", ""shortDescription"": """&amp;C25&amp;""", ""fullDescriptionHtml"": """&amp;D25&amp;""", ""direction"": """&amp;E25&amp;"""},")</f>
@@ -3870,7 +6489,7 @@
         <v>143</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">IF(E26="","","{""sourceId"": """&amp;A26&amp;""", ""targetId"": """&amp;B26&amp;""", ""shortDescription"": """&amp;C26&amp;""", ""fullDescriptionHtml"": """&amp;D26&amp;""", ""direction"": """&amp;E26&amp;"""},")</f>
@@ -3885,7 +6504,7 @@
         <v>145</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">IF(E27="","","{""sourceId"": """&amp;A27&amp;""", ""targetId"": """&amp;B27&amp;""", ""shortDescription"": """&amp;C27&amp;""", ""fullDescriptionHtml"": """&amp;D27&amp;""", ""direction"": """&amp;E27&amp;"""},")</f>
@@ -3900,7 +6519,7 @@
         <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">IF(E28="","","{""sourceId"": """&amp;A28&amp;""", ""targetId"": """&amp;B28&amp;""", ""shortDescription"": """&amp;C28&amp;""", ""fullDescriptionHtml"": """&amp;D28&amp;""", ""direction"": """&amp;E28&amp;"""},")</f>
@@ -3915,7 +6534,7 @@
         <v>149</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">IF(E29="","","{""sourceId"": """&amp;A29&amp;""", ""targetId"": """&amp;B29&amp;""", ""shortDescription"": """&amp;C29&amp;""", ""fullDescriptionHtml"": """&amp;D29&amp;""", ""direction"": """&amp;E29&amp;"""},")</f>
@@ -3930,7 +6549,7 @@
         <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">IF(E30="","","{""sourceId"": """&amp;A30&amp;""", ""targetId"": """&amp;B30&amp;""", ""shortDescription"": """&amp;C30&amp;""", ""fullDescriptionHtml"": """&amp;D30&amp;""", ""direction"": """&amp;E30&amp;"""},")</f>
@@ -3945,7 +6564,7 @@
         <v>155</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">IF(E31="","","{""sourceId"": """&amp;A31&amp;""", ""targetId"": """&amp;B31&amp;""", ""shortDescription"": """&amp;C31&amp;""", ""fullDescriptionHtml"": """&amp;D31&amp;""", ""direction"": """&amp;E31&amp;"""},")</f>
@@ -3960,7 +6579,7 @@
         <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(E32="","","{""sourceId"": """&amp;A32&amp;""", ""targetId"": """&amp;B32&amp;""", ""shortDescription"": """&amp;C32&amp;""", ""fullDescriptionHtml"": """&amp;D32&amp;""", ""direction"": """&amp;E32&amp;"""},")</f>
@@ -3975,7 +6594,7 @@
         <v>159</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">IF(E33="","","{""sourceId"": """&amp;A33&amp;""", ""targetId"": """&amp;B33&amp;""", ""shortDescription"": """&amp;C33&amp;""", ""fullDescriptionHtml"": """&amp;D33&amp;""", ""direction"": """&amp;E33&amp;"""},")</f>
@@ -3990,7 +6609,7 @@
         <v>161</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">IF(E34="","","{""sourceId"": """&amp;A34&amp;""", ""targetId"": """&amp;B34&amp;""", ""shortDescription"": """&amp;C34&amp;""", ""fullDescriptionHtml"": """&amp;D34&amp;""", ""direction"": """&amp;E34&amp;"""},")</f>
@@ -4005,7 +6624,7 @@
         <v>163</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">IF(E35="","","{""sourceId"": """&amp;A35&amp;""", ""targetId"": """&amp;B35&amp;""", ""shortDescription"": """&amp;C35&amp;""", ""fullDescriptionHtml"": """&amp;D35&amp;""", ""direction"": """&amp;E35&amp;"""},")</f>
@@ -4020,7 +6639,7 @@
         <v>167</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">IF(E36="","","{""sourceId"": """&amp;A36&amp;""", ""targetId"": """&amp;B36&amp;""", ""shortDescription"": """&amp;C36&amp;""", ""fullDescriptionHtml"": """&amp;D36&amp;""", ""direction"": """&amp;E36&amp;"""},")</f>
@@ -4035,7 +6654,7 @@
         <v>169</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">IF(E37="","","{""sourceId"": """&amp;A37&amp;""", ""targetId"": """&amp;B37&amp;""", ""shortDescription"": """&amp;C37&amp;""", ""fullDescriptionHtml"": """&amp;D37&amp;""", ""direction"": """&amp;E37&amp;"""},")</f>
@@ -4050,7 +6669,7 @@
         <v>173</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">IF(E38="","","{""sourceId"": """&amp;A38&amp;""", ""targetId"": """&amp;B38&amp;""", ""shortDescription"": """&amp;C38&amp;""", ""fullDescriptionHtml"": """&amp;D38&amp;""", ""direction"": """&amp;E38&amp;"""},")</f>
@@ -4065,7 +6684,7 @@
         <v>175</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">IF(E39="","","{""sourceId"": """&amp;A39&amp;""", ""targetId"": """&amp;B39&amp;""", ""shortDescription"": """&amp;C39&amp;""", ""fullDescriptionHtml"": """&amp;D39&amp;""", ""direction"": """&amp;E39&amp;"""},")</f>
@@ -4080,7 +6699,7 @@
         <v>177</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">IF(E40="","","{""sourceId"": """&amp;A40&amp;""", ""targetId"": """&amp;B40&amp;""", ""shortDescription"": """&amp;C40&amp;""", ""fullDescriptionHtml"": """&amp;D40&amp;""", ""direction"": """&amp;E40&amp;"""},")</f>
@@ -4095,7 +6714,7 @@
         <v>181</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">IF(E41="","","{""sourceId"": """&amp;A41&amp;""", ""targetId"": """&amp;B41&amp;""", ""shortDescription"": """&amp;C41&amp;""", ""fullDescriptionHtml"": """&amp;D41&amp;""", ""direction"": """&amp;E41&amp;"""},")</f>
@@ -4110,7 +6729,7 @@
         <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">IF(E42="","","{""sourceId"": """&amp;A42&amp;""", ""targetId"": """&amp;B42&amp;""", ""shortDescription"": """&amp;C42&amp;""", ""fullDescriptionHtml"": """&amp;D42&amp;""", ""direction"": """&amp;E42&amp;"""},")</f>
@@ -4125,7 +6744,7 @@
         <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">IF(E43="","","{""sourceId"": """&amp;A43&amp;""", ""targetId"": """&amp;B43&amp;""", ""shortDescription"": """&amp;C43&amp;""", ""fullDescriptionHtml"": """&amp;D43&amp;""", ""direction"": """&amp;E43&amp;"""},")</f>
@@ -4140,7 +6759,7 @@
         <v>187</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">IF(E44="","","{""sourceId"": """&amp;A44&amp;""", ""targetId"": """&amp;B44&amp;""", ""shortDescription"": """&amp;C44&amp;""", ""fullDescriptionHtml"": """&amp;D44&amp;""", ""direction"": """&amp;E44&amp;"""},")</f>
@@ -4155,7 +6774,7 @@
         <v>191</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">IF(E45="","","{""sourceId"": """&amp;A45&amp;""", ""targetId"": """&amp;B45&amp;""", ""shortDescription"": """&amp;C45&amp;""", ""fullDescriptionHtml"": """&amp;D45&amp;""", ""direction"": """&amp;E45&amp;"""},")</f>
@@ -4170,7 +6789,7 @@
         <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">IF(E46="","","{""sourceId"": """&amp;A46&amp;""", ""targetId"": """&amp;B46&amp;""", ""shortDescription"": """&amp;C46&amp;""", ""fullDescriptionHtml"": """&amp;D46&amp;""", ""direction"": """&amp;E46&amp;"""},")</f>
@@ -4185,7 +6804,7 @@
         <v>197</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">IF(E47="","","{""sourceId"": """&amp;A47&amp;""", ""targetId"": """&amp;B47&amp;""", ""shortDescription"": """&amp;C47&amp;""", ""fullDescriptionHtml"": """&amp;D47&amp;""", ""direction"": """&amp;E47&amp;"""},")</f>
@@ -4200,7 +6819,7 @@
         <v>201</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">IF(E48="","","{""sourceId"": """&amp;A48&amp;""", ""targetId"": """&amp;B48&amp;""", ""shortDescription"": """&amp;C48&amp;""", ""fullDescriptionHtml"": """&amp;D48&amp;""", ""direction"": """&amp;E48&amp;"""},")</f>
@@ -4215,7 +6834,7 @@
         <v>205</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">IF(E49="","","{""sourceId"": """&amp;A49&amp;""", ""targetId"": """&amp;B49&amp;""", ""shortDescription"": """&amp;C49&amp;""", ""fullDescriptionHtml"": """&amp;D49&amp;""", ""direction"": """&amp;E49&amp;"""},")</f>
@@ -4230,7 +6849,7 @@
         <v>207</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">IF(E50="","","{""sourceId"": """&amp;A50&amp;""", ""targetId"": """&amp;B50&amp;""", ""shortDescription"": """&amp;C50&amp;""", ""fullDescriptionHtml"": """&amp;D50&amp;""", ""direction"": """&amp;E50&amp;"""},")</f>
@@ -4245,7 +6864,7 @@
         <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">IF(E51="","","{""sourceId"": """&amp;A51&amp;""", ""targetId"": """&amp;B51&amp;""", ""shortDescription"": """&amp;C51&amp;""", ""fullDescriptionHtml"": """&amp;D51&amp;""", ""direction"": """&amp;E51&amp;"""},")</f>
@@ -4260,7 +6879,7 @@
         <v>213</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">IF(E52="","","{""sourceId"": """&amp;A52&amp;""", ""targetId"": """&amp;B52&amp;""", ""shortDescription"": """&amp;C52&amp;""", ""fullDescriptionHtml"": """&amp;D52&amp;""", ""direction"": """&amp;E52&amp;"""},")</f>
@@ -4275,7 +6894,7 @@
         <v>217</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(E53="","","{""sourceId"": """&amp;A53&amp;""", ""targetId"": """&amp;B53&amp;""", ""shortDescription"": """&amp;C53&amp;""", ""fullDescriptionHtml"": """&amp;D53&amp;""", ""direction"": """&amp;E53&amp;"""},")</f>
@@ -4290,7 +6909,7 @@
         <v>219</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(E54="","","{""sourceId"": """&amp;A54&amp;""", ""targetId"": """&amp;B54&amp;""", ""shortDescription"": """&amp;C54&amp;""", ""fullDescriptionHtml"": """&amp;D54&amp;""", ""direction"": """&amp;E54&amp;"""},")</f>
@@ -4305,7 +6924,7 @@
         <v>227</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(E55="","","{""sourceId"": """&amp;A55&amp;""", ""targetId"": """&amp;B55&amp;""", ""shortDescription"": """&amp;C55&amp;""", ""fullDescriptionHtml"": """&amp;D55&amp;""", ""direction"": """&amp;E55&amp;"""},")</f>
@@ -4320,7 +6939,7 @@
         <v>225</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(E56="","","{""sourceId"": """&amp;A56&amp;""", ""targetId"": """&amp;B56&amp;""", ""shortDescription"": """&amp;C56&amp;""", ""fullDescriptionHtml"": """&amp;D56&amp;""", ""direction"": """&amp;E56&amp;"""},")</f>
@@ -4335,7 +6954,7 @@
         <v>231</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">IF(E57="","","{""sourceId"": """&amp;A57&amp;""", ""targetId"": """&amp;B57&amp;""", ""shortDescription"": """&amp;C57&amp;""", ""fullDescriptionHtml"": """&amp;D57&amp;""", ""direction"": """&amp;E57&amp;"""},")</f>
@@ -4350,7 +6969,7 @@
         <v>233</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -4365,7 +6984,7 @@
         <v>235</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -4380,7 +6999,7 @@
         <v>237</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -4395,7 +7014,7 @@
         <v>241</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -4410,7 +7029,7 @@
         <v>243</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -4425,7 +7044,7 @@
         <v>245</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -4440,7 +7059,7 @@
         <v>249</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -4455,7 +7074,7 @@
         <v>251</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -4470,7 +7089,7 @@
         <v>255</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -4485,7 +7104,7 @@
         <v>257</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -4500,7 +7119,7 @@
         <v>261</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -4515,7 +7134,7 @@
         <v>263</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -4530,7 +7149,7 @@
         <v>267</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -4545,7 +7164,7 @@
         <v>269</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -4560,7 +7179,7 @@
         <v>273</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -4575,7 +7194,7 @@
         <v>275</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -4590,7 +7209,7 @@
         <v>277</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -4605,7 +7224,7 @@
         <v>281</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -4620,7 +7239,7 @@
         <v>283</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -4635,7 +7254,7 @@
         <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
@@ -4650,7 +7269,7 @@
         <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
@@ -4665,7 +7284,7 @@
         <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
@@ -4680,7 +7299,7 @@
         <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
@@ -4695,7 +7314,7 @@
         <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
@@ -4710,7 +7329,7 @@
         <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
@@ -4725,7 +7344,7 @@
         <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
@@ -4740,7 +7359,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
@@ -4755,7 +7374,7 @@
         <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
@@ -4770,7 +7389,7 @@
         <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
@@ -4785,7 +7404,7 @@
         <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
@@ -4800,7 +7419,7 @@
         <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
@@ -4815,7 +7434,7 @@
         <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
@@ -4830,7 +7449,7 @@
         <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
@@ -4845,7 +7464,7 @@
         <v>147</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
@@ -4860,7 +7479,7 @@
         <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
@@ -4875,7 +7494,7 @@
         <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
@@ -4890,7 +7509,7 @@
         <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
@@ -4905,7 +7524,7 @@
         <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
@@ -4920,7 +7539,7 @@
         <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
@@ -4935,7 +7554,7 @@
         <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
@@ -4950,7 +7569,7 @@
         <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
@@ -4965,7 +7584,7 @@
         <v>167</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
@@ -4980,7 +7599,7 @@
         <v>103</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
@@ -4995,7 +7614,7 @@
         <v>173</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
@@ -5010,7 +7629,7 @@
         <v>181</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
@@ -5025,7 +7644,7 @@
         <v>191</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
@@ -5040,7 +7659,7 @@
         <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
@@ -5055,7 +7674,7 @@
         <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
@@ -5070,7 +7689,7 @@
         <v>175</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
@@ -5085,7 +7704,7 @@
         <v>195</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
@@ -5100,7 +7719,7 @@
         <v>93</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
@@ -5115,7 +7734,7 @@
         <v>95</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
@@ -5130,7 +7749,7 @@
         <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
@@ -5145,7 +7764,7 @@
         <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
@@ -5160,7 +7779,7 @@
         <v>205</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">IF(E112="","","{""sourceId"": """&amp;A112&amp;""", ""targetId"": """&amp;B112&amp;""", ""shortDescription"": """&amp;C112&amp;""", ""fullDescriptionHtml"": """&amp;D112&amp;""", ""direction"": """&amp;E112&amp;"""},")</f>
@@ -5175,7 +7794,7 @@
         <v>211</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">IF(E113="","","{""sourceId"": """&amp;A113&amp;""", ""targetId"": """&amp;B113&amp;""", ""shortDescription"": """&amp;C113&amp;""", ""fullDescriptionHtml"": """&amp;D113&amp;""", ""direction"": """&amp;E113&amp;"""},")</f>
@@ -5190,7 +7809,7 @@
         <v>217</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">IF(E114="","","{""sourceId"": """&amp;A114&amp;""", ""targetId"": """&amp;B114&amp;""", ""shortDescription"": """&amp;C114&amp;""", ""fullDescriptionHtml"": """&amp;D114&amp;""", ""direction"": """&amp;E114&amp;"""},")</f>
@@ -5205,7 +7824,7 @@
         <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">IF(E115="","","{""sourceId"": """&amp;A115&amp;""", ""targetId"": """&amp;B115&amp;""", ""shortDescription"": """&amp;C115&amp;""", ""fullDescriptionHtml"": """&amp;D115&amp;""", ""direction"": """&amp;E115&amp;"""},")</f>
@@ -5220,7 +7839,7 @@
         <v>225</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">IF(E116="","","{""sourceId"": """&amp;A116&amp;""", ""targetId"": """&amp;B116&amp;""", ""shortDescription"": """&amp;C116&amp;""", ""fullDescriptionHtml"": """&amp;D116&amp;""", ""direction"": """&amp;E116&amp;"""},")</f>
@@ -5235,7 +7854,7 @@
         <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">IF(E117="","","{""sourceId"": """&amp;A117&amp;""", ""targetId"": """&amp;B117&amp;""", ""shortDescription"": """&amp;C117&amp;""", ""fullDescriptionHtml"": """&amp;D117&amp;""", ""direction"": """&amp;E117&amp;"""},")</f>
@@ -5250,7 +7869,7 @@
         <v>231</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">IF(E118="","","{""sourceId"": """&amp;A118&amp;""", ""targetId"": """&amp;B118&amp;""", ""shortDescription"": """&amp;C118&amp;""", ""fullDescriptionHtml"": """&amp;D118&amp;""", ""direction"": """&amp;E118&amp;"""},")</f>
@@ -5265,7 +7884,7 @@
         <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">IF(E119="","","{""sourceId"": """&amp;A119&amp;""", ""targetId"": """&amp;B119&amp;""", ""shortDescription"": """&amp;C119&amp;""", ""fullDescriptionHtml"": """&amp;D119&amp;""", ""direction"": """&amp;E119&amp;"""},")</f>
@@ -5280,7 +7899,7 @@
         <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">IF(E120="","","{""sourceId"": """&amp;A120&amp;""", ""targetId"": """&amp;B120&amp;""", ""shortDescription"": """&amp;C120&amp;""", ""fullDescriptionHtml"": """&amp;D120&amp;""", ""direction"": """&amp;E120&amp;"""},")</f>
@@ -5295,7 +7914,7 @@
         <v>241</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">IF(E121="","","{""sourceId"": """&amp;A121&amp;""", ""targetId"": """&amp;B121&amp;""", ""shortDescription"": """&amp;C121&amp;""", ""fullDescriptionHtml"": """&amp;D121&amp;""", ""direction"": """&amp;E121&amp;"""},")</f>
@@ -5310,7 +7929,7 @@
         <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">IF(E122="","","{""sourceId"": """&amp;A122&amp;""", ""targetId"": """&amp;B122&amp;""", ""shortDescription"": """&amp;C122&amp;""", ""fullDescriptionHtml"": """&amp;D122&amp;""", ""direction"": """&amp;E122&amp;"""},")</f>
@@ -5325,7 +7944,7 @@
         <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">IF(E123="","","{""sourceId"": """&amp;A123&amp;""", ""targetId"": """&amp;B123&amp;""", ""shortDescription"": """&amp;C123&amp;""", ""fullDescriptionHtml"": """&amp;D123&amp;""", ""direction"": """&amp;E123&amp;"""},")</f>
@@ -5340,7 +7959,7 @@
         <v>249</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">IF(E124="","","{""sourceId"": """&amp;A124&amp;""", ""targetId"": """&amp;B124&amp;""", ""shortDescription"": """&amp;C124&amp;""", ""fullDescriptionHtml"": """&amp;D124&amp;""", ""direction"": """&amp;E124&amp;"""},")</f>
@@ -5355,7 +7974,7 @@
         <v>255</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">IF(E125="","","{""sourceId"": """&amp;A125&amp;""", ""targetId"": """&amp;B125&amp;""", ""shortDescription"": """&amp;C125&amp;""", ""fullDescriptionHtml"": """&amp;D125&amp;""", ""direction"": """&amp;E125&amp;"""},")</f>
@@ -5370,7 +7989,7 @@
         <v>261</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">IF(E126="","","{""sourceId"": """&amp;A126&amp;""", ""targetId"": """&amp;B126&amp;""", ""shortDescription"": """&amp;C126&amp;""", ""fullDescriptionHtml"": """&amp;D126&amp;""", ""direction"": """&amp;E126&amp;"""},")</f>
@@ -5385,7 +8004,7 @@
         <v>267</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">IF(E127="","","{""sourceId"": """&amp;A127&amp;""", ""targetId"": """&amp;B127&amp;""", ""shortDescription"": """&amp;C127&amp;""", ""fullDescriptionHtml"": """&amp;D127&amp;""", ""direction"": """&amp;E127&amp;"""},")</f>
@@ -5400,7 +8019,7 @@
         <v>201</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">IF(E128="","","{""sourceId"": """&amp;A128&amp;""", ""targetId"": """&amp;B128&amp;""", ""shortDescription"": """&amp;C128&amp;""", ""fullDescriptionHtml"": """&amp;D128&amp;""", ""direction"": """&amp;E128&amp;"""},")</f>
@@ -5415,7 +8034,7 @@
         <v>273</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">IF(E129="","","{""sourceId"": """&amp;A129&amp;""", ""targetId"": """&amp;B129&amp;""", ""shortDescription"": """&amp;C129&amp;""", ""fullDescriptionHtml"": """&amp;D129&amp;""", ""direction"": """&amp;E129&amp;"""},")</f>
@@ -5430,7 +8049,7 @@
         <v>281</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="G130" s="0" t="str">
         <f aca="false">IF(E130="","","{""sourceId"": """&amp;A130&amp;""", ""targetId"": """&amp;B130&amp;""", ""shortDescription"": """&amp;C130&amp;""", ""fullDescriptionHtml"": """&amp;D130&amp;""", ""direction"": """&amp;E130&amp;"""},")</f>
@@ -5447,18 +8066,1581 @@
       <c r="A133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
+      <c r="A134" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G134" s="0" t="str">
+        <f aca="false">IF(E134="","","{""sourceId"": """&amp;A134&amp;""", ""targetId"": """&amp;B134&amp;""", ""shortDescription"": """&amp;C134&amp;""", ""fullDescriptionHtml"": """&amp;D134&amp;""", ""direction"": """&amp;E134&amp;"""},")</f>
+        <v>{"sourceId": "AURORE_BEAUREAL", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
+      <c r="A135" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G135" s="0" t="str">
+        <f aca="false">IF(E135="","","{""sourceId"": """&amp;A135&amp;""", ""targetId"": """&amp;B135&amp;""", ""shortDescription"": """&amp;C135&amp;""", ""fullDescriptionHtml"": """&amp;D135&amp;""", ""direction"": """&amp;E135&amp;"""},")</f>
+        <v>{"sourceId": "NATHANIEL_KURTZBERG", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G136" s="0" t="str">
+        <f aca="false">IF(E136="","","{""sourceId"": """&amp;A136&amp;""", ""targetId"": """&amp;B136&amp;""", ""shortDescription"": """&amp;C136&amp;""", ""fullDescriptionHtml"": """&amp;D136&amp;""", ""direction"": """&amp;E136&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G137" s="0" t="str">
+        <f aca="false">IF(E137="","","{""sourceId"": """&amp;A137&amp;""", ""targetId"": """&amp;B137&amp;""", ""shortDescription"": """&amp;C137&amp;""", ""fullDescriptionHtml"": """&amp;D137&amp;""", ""direction"": """&amp;E137&amp;"""},")</f>
+        <v>{"sourceId": "JEAN_DUPARC", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G138" s="0" t="str">
+        <f aca="false">IF(E138="","","{""sourceId"": """&amp;A138&amp;""", ""targetId"": """&amp;B138&amp;""", ""shortDescription"": """&amp;C138&amp;""", ""fullDescriptionHtml"": """&amp;D138&amp;""", ""direction"": """&amp;E138&amp;"""},")</f>
+        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G139" s="0" t="str">
+        <f aca="false">IF(E139="","","{""sourceId"": """&amp;A139&amp;""", ""targetId"": """&amp;B139&amp;""", ""shortDescription"": """&amp;C139&amp;""", ""fullDescriptionHtml"": """&amp;D139&amp;""", ""direction"": """&amp;E139&amp;"""},")</f>
+        <v>{"sourceId": "LE_CHIEN_KIM", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G140" s="0" t="str">
+        <f aca="false">IF(E140="","","{""sourceId"": """&amp;A140&amp;""", ""targetId"": """&amp;B140&amp;""", ""shortDescription"": """&amp;C140&amp;""", ""fullDescriptionHtml"": """&amp;D140&amp;""", ""direction"": """&amp;E140&amp;"""},")</f>
+        <v>{"sourceId": "XAVIER_RAMIER", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G141" s="0" t="str">
+        <f aca="false">IF(E141="","","{""sourceId"": """&amp;A141&amp;""", ""targetId"": """&amp;B141&amp;""", ""shortDescription"": """&amp;C141&amp;""", ""fullDescriptionHtml"": """&amp;D141&amp;""", ""direction"": """&amp;E141&amp;"""},")</f>
+        <v>{"sourceId": "VINCENT_AZA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G142" s="0" t="str">
+        <f aca="false">IF(E142="","","{""sourceId"": """&amp;A142&amp;""", ""targetId"": """&amp;B142&amp;""", ""shortDescription"": """&amp;C142&amp;""", ""fullDescriptionHtml"": """&amp;D142&amp;""", ""direction"": """&amp;E142&amp;"""},")</f>
+        <v>{"sourceId": "THEO_BARBOT", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G143" s="0" t="str">
+        <f aca="false">IF(E143="","","{""sourceId"": """&amp;A143&amp;""", ""targetId"": """&amp;B143&amp;""", ""shortDescription"": """&amp;C143&amp;""", ""fullDescriptionHtml"": """&amp;D143&amp;""", ""direction"": """&amp;E143&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G144" s="0" t="str">
+        <f aca="false">IF(E144="","","{""sourceId"": """&amp;A144&amp;""", ""targetId"": """&amp;B144&amp;""", ""shortDescription"": """&amp;C144&amp;""", ""fullDescriptionHtml"": """&amp;D144&amp;""", ""direction"": """&amp;E144&amp;"""},")</f>
+        <v>{"sourceId": "SIMON_GRIMAULT", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G145" s="0" t="str">
+        <f aca="false">IF(E145="","","{""sourceId"": """&amp;A145&amp;""", ""targetId"": """&amp;B145&amp;""", ""shortDescription"": """&amp;C145&amp;""", ""fullDescriptionHtml"": """&amp;D145&amp;""", ""direction"": """&amp;E145&amp;"""},")</f>
+        <v>{"sourceId": "ROGER_RAINCOMPRIX", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="0"/>
+      <c r="D146" s="0"/>
+      <c r="E146" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G146" s="0" t="str">
+        <f aca="false">IF(E146="","","{""sourceId"": """&amp;A146&amp;""", ""targetId"": """&amp;B146&amp;""", ""shortDescription"": """&amp;C146&amp;""", ""fullDescriptionHtml"": """&amp;D146&amp;""", ""direction"": """&amp;E146&amp;"""},")</f>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G147" s="0" t="str">
+        <f aca="false">IF(E147="","","{""sourceId"": """&amp;A147&amp;""", ""targetId"": """&amp;B147&amp;""", ""shortDescription"": """&amp;C147&amp;""", ""fullDescriptionHtml"": """&amp;D147&amp;""", ""direction"": """&amp;E147&amp;"""},")</f>
+        <v>{"sourceId": "OTIS_CESAIRE", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="0"/>
+      <c r="D148" s="0"/>
+      <c r="E148" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G148" s="0" t="str">
+        <f aca="false">IF(E148="","","{""sourceId"": """&amp;A148&amp;""", ""targetId"": """&amp;B148&amp;""", ""shortDescription"": """&amp;C148&amp;""", ""fullDescriptionHtml"": """&amp;D148&amp;""", ""direction"": """&amp;E148&amp;"""},")</f>
+        <v>{"sourceId": "ARMAND_D_ARGENCOURT", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G149" s="0" t="str">
+        <f aca="false">IF(E149="","","{""sourceId"": """&amp;A149&amp;""", ""targetId"": """&amp;B149&amp;""", ""shortDescription"": """&amp;C149&amp;""", ""fullDescriptionHtml"": """&amp;D149&amp;""", ""direction"": """&amp;E149&amp;"""},")</f>
+        <v>{"sourceId": "JALIL_KUBDEL", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G150" s="0" t="str">
+        <f aca="false">IF(E150="","","{""sourceId"": """&amp;A150&amp;""", ""targetId"": """&amp;B150&amp;""", ""shortDescription"": """&amp;C150&amp;""", ""fullDescriptionHtml"": """&amp;D150&amp;""", ""direction"": """&amp;E150&amp;"""},")</f>
+        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G151" s="0" t="str">
+        <f aca="false">IF(E151="","","{""sourceId"": """&amp;A151&amp;""", ""targetId"": """&amp;B151&amp;""", ""shortDescription"": """&amp;C151&amp;""", ""fullDescriptionHtml"": """&amp;D151&amp;""", ""direction"": """&amp;E151&amp;"""},")</f>
+        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G152" s="0" t="str">
+        <f aca="false">IF(E152="","","{""sourceId"": """&amp;A152&amp;""", ""targetId"": """&amp;B152&amp;""", ""shortDescription"": """&amp;C152&amp;""", ""fullDescriptionHtml"": """&amp;D152&amp;""", ""direction"": """&amp;E152&amp;"""},")</f>
+        <v>{"sourceId": "MANON_CHAMACK", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G153" s="0" t="str">
+        <f aca="false">IF(E153="","","{""sourceId"": """&amp;A153&amp;""", ""targetId"": """&amp;B153&amp;""", ""shortDescription"": """&amp;C153&amp;""", ""fullDescriptionHtml"": """&amp;D153&amp;""", ""direction"": """&amp;E153&amp;"""},")</f>
+        <v>{"sourceId": "FRED_HAPRELE", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G154" s="0" t="str">
+        <f aca="false">IF(E154="","","{""sourceId"": """&amp;A154&amp;""", ""targetId"": """&amp;B154&amp;""", ""shortDescription"": """&amp;C154&amp;""", ""fullDescriptionHtml"": """&amp;D154&amp;""", ""direction"": """&amp;E154&amp;"""},")</f>
+        <v>{"sourceId": "JAGGED_STONE", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G155" s="0" t="str">
+        <f aca="false">IF(E155="","","{""sourceId"": """&amp;A155&amp;""", ""targetId"": """&amp;B155&amp;""", ""shortDescription"": """&amp;C155&amp;""", ""fullDescriptionHtml"": """&amp;D155&amp;""", ""direction"": """&amp;E155&amp;"""},")</f>
+        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G156" s="0" t="str">
+        <f aca="false">IF(E156="","","{""sourceId"": """&amp;A156&amp;""", ""targetId"": """&amp;B156&amp;""", ""shortDescription"": """&amp;C156&amp;""", ""fullDescriptionHtml"": """&amp;D156&amp;""", ""direction"": """&amp;E156&amp;"""},")</f>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G157" s="0" t="str">
+        <f aca="false">IF(E157="","","{""sourceId"": """&amp;A157&amp;""", ""targetId"": """&amp;B157&amp;""", ""shortDescription"": """&amp;C157&amp;""", ""fullDescriptionHtml"": """&amp;D157&amp;""", ""direction"": """&amp;E157&amp;"""},")</f>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G158" s="0" t="str">
+        <f aca="false">IF(E158="","","{""sourceId"": """&amp;A158&amp;""", ""targetId"": """&amp;B158&amp;""", ""shortDescription"": """&amp;C158&amp;""", ""fullDescriptionHtml"": """&amp;D158&amp;""", ""direction"": """&amp;E158&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G159" s="0" t="str">
+        <f aca="false">IF(E159="","","{""sourceId"": """&amp;A159&amp;""", ""targetId"": """&amp;B159&amp;""", ""shortDescription"": """&amp;C159&amp;""", ""fullDescriptionHtml"": """&amp;D159&amp;""", ""direction"": """&amp;E159&amp;"""},")</f>
+        <v>{"sourceId": "WANG_CHENG", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G160" s="0" t="str">
+        <f aca="false">IF(E160="","","{""sourceId"": """&amp;A160&amp;""", ""targetId"": """&amp;B160&amp;""", ""shortDescription"": """&amp;C160&amp;""", ""fullDescriptionHtml"": """&amp;D160&amp;""", ""direction"": """&amp;E160&amp;"""},")</f>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="E161" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G161" s="0" t="str">
+        <f aca="false">IF(E161="","","{""sourceId"": """&amp;A161&amp;""", ""targetId"": """&amp;B161&amp;""", ""shortDescription"": """&amp;C161&amp;""", ""fullDescriptionHtml"": """&amp;D161&amp;""", ""direction"": """&amp;E161&amp;"""},")</f>
+        <v>{"sourceId": "", "targetId": "", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G162" s="0" t="str">
+        <f aca="false">IF(E162="","","{""sourceId"": """&amp;A162&amp;""", ""targetId"": """&amp;B162&amp;""", ""shortDescription"": """&amp;C162&amp;""", ""fullDescriptionHtml"": """&amp;D162&amp;""", ""direction"": """&amp;E162&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G163" s="0" t="str">
+        <f aca="false">IF(E163="","","{""sourceId"": """&amp;A163&amp;""", ""targetId"": """&amp;B163&amp;""", ""shortDescription"": """&amp;C163&amp;""", ""fullDescriptionHtml"": """&amp;D163&amp;""", ""direction"": """&amp;E163&amp;"""},")</f>
+        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G164" s="0" t="str">
+        <f aca="false">IF(E164="","","{""sourceId"": """&amp;A164&amp;""", ""targetId"": """&amp;B164&amp;""", ""shortDescription"": """&amp;C164&amp;""", ""fullDescriptionHtml"": """&amp;D164&amp;""", ""direction"": """&amp;E164&amp;"""},")</f>
+        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G165" s="0" t="str">
+        <f aca="false">IF(E165="","","{""sourceId"": """&amp;A165&amp;""", ""targetId"": """&amp;B165&amp;""", ""shortDescription"": """&amp;C165&amp;""", ""fullDescriptionHtml"": """&amp;D165&amp;""", ""direction"": """&amp;E165&amp;"""},")</f>
+        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G166" s="0" t="str">
+        <f aca="false">IF(E166="","","{""sourceId"": """&amp;A166&amp;""", ""targetId"": """&amp;B166&amp;""", ""shortDescription"": """&amp;C166&amp;""", ""fullDescriptionHtml"": """&amp;D166&amp;""", ""direction"": """&amp;E166&amp;"""},")</f>
+        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G167" s="0" t="str">
+        <f aca="false">IF(E167="","","{""sourceId"": """&amp;A167&amp;""", ""targetId"": """&amp;B167&amp;""", ""shortDescription"": """&amp;C167&amp;""", ""fullDescriptionHtml"": """&amp;D167&amp;""", ""direction"": """&amp;E167&amp;"""},")</f>
+        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G168" s="0" t="str">
+        <f aca="false">IF(E168="","","{""sourceId"": """&amp;A168&amp;""", ""targetId"": """&amp;B168&amp;""", ""shortDescription"": """&amp;C168&amp;""", ""fullDescriptionHtml"": """&amp;D168&amp;""", ""direction"": """&amp;E168&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G169" s="0" t="str">
+        <f aca="false">IF(E169="","","{""sourceId"": """&amp;A169&amp;""", ""targetId"": """&amp;B169&amp;""", ""shortDescription"": """&amp;C169&amp;""", ""fullDescriptionHtml"": """&amp;D169&amp;""", ""direction"": """&amp;E169&amp;"""},")</f>
+        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G170" s="0" t="str">
+        <f aca="false">IF(E170="","","{""sourceId"": """&amp;A170&amp;""", ""targetId"": """&amp;B170&amp;""", ""shortDescription"": """&amp;C170&amp;""", ""fullDescriptionHtml"": """&amp;D170&amp;""", ""direction"": """&amp;E170&amp;"""},")</f>
+        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G171" s="0" t="str">
+        <f aca="false">IF(E171="","","{""sourceId"": """&amp;A171&amp;""", ""targetId"": """&amp;B171&amp;""", ""shortDescription"": """&amp;C171&amp;""", ""fullDescriptionHtml"": """&amp;D171&amp;""", ""direction"": """&amp;E171&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G172" s="0" t="str">
+        <f aca="false">IF(E172="","","{""sourceId"": """&amp;A172&amp;""", ""targetId"": """&amp;B172&amp;""", ""shortDescription"": """&amp;C172&amp;""", ""fullDescriptionHtml"": """&amp;D172&amp;""", ""direction"": """&amp;E172&amp;"""},")</f>
+        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G173" s="0" t="str">
+        <f aca="false">IF(E173="","","{""sourceId"": """&amp;A173&amp;""", ""targetId"": """&amp;B173&amp;""", ""shortDescription"": """&amp;C173&amp;""", ""fullDescriptionHtml"": """&amp;D173&amp;""", ""direction"": """&amp;E173&amp;"""},")</f>
+        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G174" s="0" t="str">
+        <f aca="false">IF(E174="","","{""sourceId"": """&amp;A174&amp;""", ""targetId"": """&amp;B174&amp;""", ""shortDescription"": """&amp;C174&amp;""", ""fullDescriptionHtml"": """&amp;D174&amp;""", ""direction"": """&amp;E174&amp;"""},")</f>
+        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G175" s="0" t="str">
+        <f aca="false">IF(E175="","","{""sourceId"": """&amp;A175&amp;""", ""targetId"": """&amp;B175&amp;""", ""shortDescription"": """&amp;C175&amp;""", ""fullDescriptionHtml"": """&amp;D175&amp;""", ""direction"": """&amp;E175&amp;"""},")</f>
+        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G176" s="0" t="str">
+        <f aca="false">IF(E176="","","{""sourceId"": """&amp;A176&amp;""", ""targetId"": """&amp;B176&amp;""", ""shortDescription"": """&amp;C176&amp;""", ""fullDescriptionHtml"": """&amp;D176&amp;""", ""direction"": """&amp;E176&amp;"""},")</f>
+        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G177" s="0" t="str">
+        <f aca="false">IF(E177="","","{""sourceId"": """&amp;A177&amp;""", ""targetId"": """&amp;B177&amp;""", ""shortDescription"": """&amp;C177&amp;""", ""fullDescriptionHtml"": """&amp;D177&amp;""", ""direction"": """&amp;E177&amp;"""},")</f>
+        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G178" s="0" t="str">
+        <f aca="false">IF(E178="","","{""sourceId"": """&amp;A178&amp;""", ""targetId"": """&amp;B178&amp;""", ""shortDescription"": """&amp;C178&amp;""", ""fullDescriptionHtml"": """&amp;D178&amp;""", ""direction"": """&amp;E178&amp;"""},")</f>
+        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G179" s="0" t="str">
+        <f aca="false">IF(E179="","","{""sourceId"": """&amp;A179&amp;""", ""targetId"": """&amp;B179&amp;""", ""shortDescription"": """&amp;C179&amp;""", ""fullDescriptionHtml"": """&amp;D179&amp;""", ""direction"": """&amp;E179&amp;"""},")</f>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G180" s="0" t="str">
+        <f aca="false">IF(E180="","","{""sourceId"": """&amp;A180&amp;""", ""targetId"": """&amp;B180&amp;""", ""shortDescription"": """&amp;C180&amp;""", ""fullDescriptionHtml"": """&amp;D180&amp;""", ""direction"": """&amp;E180&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G181" s="0" t="str">
+        <f aca="false">IF(E181="","","{""sourceId"": """&amp;A181&amp;""", ""targetId"": """&amp;B181&amp;""", ""shortDescription"": """&amp;C181&amp;""", ""fullDescriptionHtml"": """&amp;D181&amp;""", ""direction"": """&amp;E181&amp;"""},")</f>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G182" s="0" t="str">
+        <f aca="false">IF(E182="","","{""sourceId"": """&amp;A182&amp;""", ""targetId"": """&amp;B182&amp;""", ""shortDescription"": """&amp;C182&amp;""", ""fullDescriptionHtml"": """&amp;D182&amp;""", ""direction"": """&amp;E182&amp;"""},")</f>
+        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G183" s="0" t="str">
+        <f aca="false">IF(E183="","","{""sourceId"": """&amp;A183&amp;""", ""targetId"": """&amp;B183&amp;""", ""shortDescription"": """&amp;C183&amp;""", ""fullDescriptionHtml"": """&amp;D183&amp;""", ""direction"": """&amp;E183&amp;"""},")</f>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G184" s="0" t="str">
+        <f aca="false">IF(E184="","","{""sourceId"": """&amp;A184&amp;""", ""targetId"": """&amp;B184&amp;""", ""shortDescription"": """&amp;C184&amp;""", ""fullDescriptionHtml"": """&amp;D184&amp;""", ""direction"": """&amp;E184&amp;"""},")</f>
+        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G185" s="0" t="str">
+        <f aca="false">IF(E185="","","{""sourceId"": """&amp;A185&amp;""", ""targetId"": """&amp;B185&amp;""", ""shortDescription"": """&amp;C185&amp;""", ""fullDescriptionHtml"": """&amp;D185&amp;""", ""direction"": """&amp;E185&amp;"""},")</f>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G186" s="0" t="str">
+        <f aca="false">IF(E186="","","{""sourceId"": """&amp;A186&amp;""", ""targetId"": """&amp;B186&amp;""", ""shortDescription"": """&amp;C186&amp;""", ""fullDescriptionHtml"": """&amp;D186&amp;""", ""direction"": """&amp;E186&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G187" s="0" t="str">
+        <f aca="false">IF(E187="","","{""sourceId"": """&amp;A187&amp;""", ""targetId"": """&amp;B187&amp;""", ""shortDescription"": """&amp;C187&amp;""", ""fullDescriptionHtml"": """&amp;D187&amp;""", ""direction"": """&amp;E187&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G188" s="0" t="str">
+        <f aca="false">IF(E188="","","{""sourceId"": """&amp;A188&amp;""", ""targetId"": """&amp;B188&amp;""", ""shortDescription"": """&amp;C188&amp;""", ""fullDescriptionHtml"": """&amp;D188&amp;""", ""direction"": """&amp;E188&amp;"""},")</f>
+        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G189" s="0" t="str">
+        <f aca="false">IF(E189="","","{""sourceId"": """&amp;A189&amp;""", ""targetId"": """&amp;B189&amp;""", ""shortDescription"": """&amp;C189&amp;""", ""fullDescriptionHtml"": """&amp;D189&amp;""", ""direction"": """&amp;E189&amp;"""},")</f>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G190" s="0" t="str">
+        <f aca="false">IF(E190="","","{""sourceId"": """&amp;A190&amp;""", ""targetId"": """&amp;B190&amp;""", ""shortDescription"": """&amp;C190&amp;""", ""fullDescriptionHtml"": """&amp;D190&amp;""", ""direction"": """&amp;E190&amp;"""},")</f>
+        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G191" s="0" t="str">
+        <f aca="false">IF(E191="","","{""sourceId"": """&amp;A191&amp;""", ""targetId"": """&amp;B191&amp;""", ""shortDescription"": """&amp;C191&amp;""", ""fullDescriptionHtml"": """&amp;D191&amp;""", ""direction"": """&amp;E191&amp;"""},")</f>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G192" s="0" t="str">
+        <f aca="false">IF(E192="","","{""sourceId"": """&amp;A192&amp;""", ""targetId"": """&amp;B192&amp;""", ""shortDescription"": """&amp;C192&amp;""", ""fullDescriptionHtml"": """&amp;D192&amp;""", ""direction"": """&amp;E192&amp;"""},")</f>
+        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G193" s="0" t="str">
+        <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
+        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G194" s="0" t="str">
+        <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G195" s="0" t="str">
+        <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G196" s="0" t="str">
+        <f aca="false">IF(E196="","","{""sourceId"": """&amp;A196&amp;""", ""targetId"": """&amp;B196&amp;""", ""shortDescription"": """&amp;C196&amp;""", ""fullDescriptionHtml"": """&amp;D196&amp;""", ""direction"": """&amp;E196&amp;"""},")</f>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G197" s="0" t="str">
+        <f aca="false">IF(E197="","","{""sourceId"": """&amp;A197&amp;""", ""targetId"": """&amp;B197&amp;""", ""shortDescription"": """&amp;C197&amp;""", ""fullDescriptionHtml"": """&amp;D197&amp;""", ""direction"": """&amp;E197&amp;"""},")</f>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G198" s="0" t="str">
+        <f aca="false">IF(E198="","","{""sourceId"": """&amp;A198&amp;""", ""targetId"": """&amp;B198&amp;""", ""shortDescription"": """&amp;C198&amp;""", ""fullDescriptionHtml"": """&amp;D198&amp;""", ""direction"": """&amp;E198&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G199" s="0" t="str">
+        <f aca="false">IF(E199="","","{""sourceId"": """&amp;A199&amp;""", ""targetId"": """&amp;B199&amp;""", ""shortDescription"": """&amp;C199&amp;""", ""fullDescriptionHtml"": """&amp;D199&amp;""", ""direction"": """&amp;E199&amp;"""},")</f>
+        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G200" s="0" t="str">
+        <f aca="false">IF(E200="","","{""sourceId"": """&amp;A200&amp;""", ""targetId"": """&amp;B200&amp;""", ""shortDescription"": """&amp;C200&amp;""", ""fullDescriptionHtml"": """&amp;D200&amp;""", ""direction"": """&amp;E200&amp;"""},")</f>
+        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G201" s="0" t="str">
+        <f aca="false">IF(E201="","","{""sourceId"": """&amp;A201&amp;""", ""targetId"": """&amp;B201&amp;""", ""shortDescription"": """&amp;C201&amp;""", ""fullDescriptionHtml"": """&amp;D201&amp;""", ""direction"": """&amp;E201&amp;"""},")</f>
+        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G202" s="0" t="str">
+        <f aca="false">IF(E202="","","{""sourceId"": """&amp;A202&amp;""", ""targetId"": """&amp;B202&amp;""", ""shortDescription"": """&amp;C202&amp;""", ""fullDescriptionHtml"": """&amp;D202&amp;""", ""direction"": """&amp;E202&amp;"""},")</f>
+        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G203" s="0" t="str">
+        <f aca="false">IF(E203="","","{""sourceId"": """&amp;A203&amp;""", ""targetId"": """&amp;B203&amp;""", ""shortDescription"": """&amp;C203&amp;""", ""fullDescriptionHtml"": """&amp;D203&amp;""", ""direction"": """&amp;E203&amp;"""},")</f>
+        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G204" s="0" t="str">
+        <f aca="false">IF(E204="","","{""sourceId"": """&amp;A204&amp;""", ""targetId"": """&amp;B204&amp;""", ""shortDescription"": """&amp;C204&amp;""", ""fullDescriptionHtml"": """&amp;D204&amp;""", ""direction"": """&amp;E204&amp;"""},")</f>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G205" s="0" t="str">
+        <f aca="false">IF(E205="","","{""sourceId"": """&amp;A205&amp;""", ""targetId"": """&amp;B205&amp;""", ""shortDescription"": """&amp;C205&amp;""", ""fullDescriptionHtml"": """&amp;D205&amp;""", ""direction"": """&amp;E205&amp;"""},")</f>
+        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G206" s="0" t="str">
+        <f aca="false">IF(E206="","","{""sourceId"": """&amp;A206&amp;""", ""targetId"": """&amp;B206&amp;""", ""shortDescription"": """&amp;C206&amp;""", ""fullDescriptionHtml"": """&amp;D206&amp;""", ""direction"": """&amp;E206&amp;"""},")</f>
+        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G207" s="0" t="str">
+        <f aca="false">IF(E207="","","{""sourceId"": """&amp;A207&amp;""", ""targetId"": """&amp;B207&amp;""", ""shortDescription"": """&amp;C207&amp;""", ""fullDescriptionHtml"": """&amp;D207&amp;""", ""direction"": """&amp;E207&amp;"""},")</f>
+        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G208" s="0" t="str">
+        <f aca="false">IF(E208="","","{""sourceId"": """&amp;A208&amp;""", ""targetId"": """&amp;B208&amp;""", ""shortDescription"": """&amp;C208&amp;""", ""fullDescriptionHtml"": """&amp;D208&amp;""", ""direction"": """&amp;E208&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G209" s="0" t="str">
+        <f aca="false">IF(E209="","","{""sourceId"": """&amp;A209&amp;""", ""targetId"": """&amp;B209&amp;""", ""shortDescription"": """&amp;C209&amp;""", ""fullDescriptionHtml"": """&amp;D209&amp;""", ""direction"": """&amp;E209&amp;"""},")</f>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G210" s="0" t="str">
+        <f aca="false">IF(E210="","","{""sourceId"": """&amp;A210&amp;""", ""targetId"": """&amp;B210&amp;""", ""shortDescription"": """&amp;C210&amp;""", ""fullDescriptionHtml"": """&amp;D210&amp;""", ""direction"": """&amp;E210&amp;"""},")</f>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G211" s="0" t="str">
+        <f aca="false">IF(E211="","","{""sourceId"": """&amp;A211&amp;""", ""targetId"": """&amp;B211&amp;""", ""shortDescription"": """&amp;C211&amp;""", ""fullDescriptionHtml"": """&amp;D211&amp;""", ""direction"": """&amp;E211&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G212" s="0" t="str">
+        <f aca="false">IF(E212="","","{""sourceId"": """&amp;A212&amp;""", ""targetId"": """&amp;B212&amp;""", ""shortDescription"": """&amp;C212&amp;""", ""fullDescriptionHtml"": """&amp;D212&amp;""", ""direction"": """&amp;E212&amp;"""},")</f>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G213" s="0" t="str">
+        <f aca="false">IF(E213="","","{""sourceId"": """&amp;A213&amp;""", ""targetId"": """&amp;B213&amp;""", ""shortDescription"": """&amp;C213&amp;""", ""fullDescriptionHtml"": """&amp;D213&amp;""", ""direction"": """&amp;E213&amp;"""},")</f>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G214" s="0" t="str">
+        <f aca="false">IF(E214="","","{""sourceId"": """&amp;A214&amp;""", ""targetId"": """&amp;B214&amp;""", ""shortDescription"": """&amp;C214&amp;""", ""fullDescriptionHtml"": """&amp;D214&amp;""", ""direction"": """&amp;E214&amp;"""},")</f>
+        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G215" s="0" t="str">
+        <f aca="false">IF(E215="","","{""sourceId"": """&amp;A215&amp;""", ""targetId"": """&amp;B215&amp;""", ""shortDescription"": """&amp;C215&amp;""", ""fullDescriptionHtml"": """&amp;D215&amp;""", ""direction"": """&amp;E215&amp;"""},")</f>
+        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G216" s="0" t="str">
+        <f aca="false">IF(E216="","","{""sourceId"": """&amp;A216&amp;""", ""targetId"": """&amp;B216&amp;""", ""shortDescription"": """&amp;C216&amp;""", ""fullDescriptionHtml"": """&amp;D216&amp;""", ""direction"": """&amp;E216&amp;"""},")</f>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G217" s="0" t="str">
+        <f aca="false">IF(E217="","","{""sourceId"": """&amp;A217&amp;""", ""targetId"": """&amp;B217&amp;""", ""shortDescription"": """&amp;C217&amp;""", ""fullDescriptionHtml"": """&amp;D217&amp;""", ""direction"": """&amp;E217&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G218" s="0" t="str">
+        <f aca="false">IF(E218="","","{""sourceId"": """&amp;A218&amp;""", ""targetId"": """&amp;B218&amp;""", ""shortDescription"": """&amp;C218&amp;""", ""fullDescriptionHtml"": """&amp;D218&amp;""", ""direction"": """&amp;E218&amp;"""},")</f>
+        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G219" s="0" t="str">
+        <f aca="false">IF(E219="","","{""sourceId"": """&amp;A219&amp;""", ""targetId"": """&amp;B219&amp;""", ""shortDescription"": """&amp;C219&amp;""", ""fullDescriptionHtml"": """&amp;D219&amp;""", ""direction"": """&amp;E219&amp;"""},")</f>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G220" s="0" t="str">
+        <f aca="false">IF(E220="","","{""sourceId"": """&amp;A220&amp;""", ""targetId"": """&amp;B220&amp;""", ""shortDescription"": """&amp;C220&amp;""", ""fullDescriptionHtml"": """&amp;D220&amp;""", ""direction"": """&amp;E220&amp;"""},")</f>
+        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G221" s="0" t="str">
+        <f aca="false">IF(E221="","","{""sourceId"": """&amp;A221&amp;""", ""targetId"": """&amp;B221&amp;""", ""shortDescription"": """&amp;C221&amp;""", ""fullDescriptionHtml"": """&amp;D221&amp;""", ""direction"": """&amp;E221&amp;"""},")</f>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G222" s="0" t="str">
+        <f aca="false">IF(E222="","","{""sourceId"": """&amp;A222&amp;""", ""targetId"": """&amp;B222&amp;""", ""shortDescription"": """&amp;C222&amp;""", ""fullDescriptionHtml"": """&amp;D222&amp;""", ""direction"": """&amp;E222&amp;"""},")</f>
+        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G223" s="0" t="str">
+        <f aca="false">IF(E223="","","{""sourceId"": """&amp;A223&amp;""", ""targetId"": """&amp;B223&amp;""", ""shortDescription"": """&amp;C223&amp;""", ""fullDescriptionHtml"": """&amp;D223&amp;""", ""direction"": """&amp;E223&amp;"""},")</f>
+        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G224" s="0" t="str">
+        <f aca="false">IF(E224="","","{""sourceId"": """&amp;A224&amp;""", ""targetId"": """&amp;B224&amp;""", ""shortDescription"": """&amp;C224&amp;""", ""fullDescriptionHtml"": """&amp;D224&amp;""", ""direction"": """&amp;E224&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G225" s="0" t="str">
+        <f aca="false">IF(E225="","","{""sourceId"": """&amp;A225&amp;""", ""targetId"": """&amp;B225&amp;""", ""shortDescription"": """&amp;C225&amp;""", ""fullDescriptionHtml"": """&amp;D225&amp;""", ""direction"": """&amp;E225&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G226" s="0" t="str">
+        <f aca="false">IF(E226="","","{""sourceId"": """&amp;A226&amp;""", ""targetId"": """&amp;B226&amp;""", ""shortDescription"": """&amp;C226&amp;""", ""fullDescriptionHtml"": """&amp;D226&amp;""", ""direction"": """&amp;E226&amp;"""},")</f>
+        <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0"/>
+      <c r="B227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="520">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1715,8 +1715,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1094"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6086,10 +6086,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ263"/>
+  <dimension ref="A1:AMJ262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G226" activeCellId="0" sqref="G2:G240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8475,546 +8475,550 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
+      <c r="A161" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G161" s="0" t="str">
         <f aca="false">IF(E161="","","{""sourceId"": """&amp;A161&amp;""", ""targetId"": """&amp;B161&amp;""", ""shortDescription"": """&amp;C161&amp;""", ""fullDescriptionHtml"": """&amp;D161&amp;""", ""direction"": """&amp;E161&amp;"""},")</f>
-        <v>{"sourceId": "", "targetId": "", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>139</v>
+        <v>347</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G162" s="0" t="str">
         <f aca="false">IF(E162="","","{""sourceId"": """&amp;A162&amp;""", ""targetId"": """&amp;B162&amp;""", ""shortDescription"": """&amp;C162&amp;""", ""fullDescriptionHtml"": """&amp;D162&amp;""", ""direction"": """&amp;E162&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G163" s="0" t="str">
         <f aca="false">IF(E163="","","{""sourceId"": """&amp;A163&amp;""", ""targetId"": """&amp;B163&amp;""", ""shortDescription"": """&amp;C163&amp;""", ""fullDescriptionHtml"": """&amp;D163&amp;""", ""direction"": """&amp;E163&amp;"""},")</f>
-        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G164" s="0" t="str">
         <f aca="false">IF(E164="","","{""sourceId"": """&amp;A164&amp;""", ""targetId"": """&amp;B164&amp;""", ""shortDescription"": """&amp;C164&amp;""", ""fullDescriptionHtml"": """&amp;D164&amp;""", ""direction"": """&amp;E164&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G165" s="0" t="str">
         <f aca="false">IF(E165="","","{""sourceId"": """&amp;A165&amp;""", ""targetId"": """&amp;B165&amp;""", ""shortDescription"": """&amp;C165&amp;""", ""fullDescriptionHtml"": """&amp;D165&amp;""", ""direction"": """&amp;E165&amp;"""},")</f>
-        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G166" s="0" t="str">
         <f aca="false">IF(E166="","","{""sourceId"": """&amp;A166&amp;""", ""targetId"": """&amp;B166&amp;""", ""shortDescription"": """&amp;C166&amp;""", ""fullDescriptionHtml"": """&amp;D166&amp;""", ""direction"": """&amp;E166&amp;"""},")</f>
-        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>363</v>
+        <v>229</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G167" s="0" t="str">
         <f aca="false">IF(E167="","","{""sourceId"": """&amp;A167&amp;""", ""targetId"": """&amp;B167&amp;""", ""shortDescription"": """&amp;C167&amp;""", ""fullDescriptionHtml"": """&amp;D167&amp;""", ""direction"": """&amp;E167&amp;"""},")</f>
-        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G168" s="0" t="str">
         <f aca="false">IF(E168="","","{""sourceId"": """&amp;A168&amp;""", ""targetId"": """&amp;B168&amp;""", ""shortDescription"": """&amp;C168&amp;""", ""fullDescriptionHtml"": """&amp;D168&amp;""", ""direction"": """&amp;E168&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">IF(E169="","","{""sourceId"": """&amp;A169&amp;""", ""targetId"": """&amp;B169&amp;""", ""shortDescription"": """&amp;C169&amp;""", ""fullDescriptionHtml"": """&amp;D169&amp;""", ""direction"": """&amp;E169&amp;"""},")</f>
-        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G170" s="0" t="str">
         <f aca="false">IF(E170="","","{""sourceId"": """&amp;A170&amp;""", ""targetId"": """&amp;B170&amp;""", ""shortDescription"": """&amp;C170&amp;""", ""fullDescriptionHtml"": """&amp;D170&amp;""", ""direction"": """&amp;E170&amp;"""},")</f>
-        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G171" s="0" t="str">
         <f aca="false">IF(E171="","","{""sourceId"": """&amp;A171&amp;""", ""targetId"": """&amp;B171&amp;""", ""shortDescription"": """&amp;C171&amp;""", ""fullDescriptionHtml"": """&amp;D171&amp;""", ""direction"": """&amp;E171&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G172" s="0" t="str">
         <f aca="false">IF(E172="","","{""sourceId"": """&amp;A172&amp;""", ""targetId"": """&amp;B172&amp;""", ""shortDescription"": """&amp;C172&amp;""", ""fullDescriptionHtml"": """&amp;D172&amp;""", ""direction"": """&amp;E172&amp;"""},")</f>
-        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G173" s="0" t="str">
         <f aca="false">IF(E173="","","{""sourceId"": """&amp;A173&amp;""", ""targetId"": """&amp;B173&amp;""", ""shortDescription"": """&amp;C173&amp;""", ""fullDescriptionHtml"": """&amp;D173&amp;""", ""direction"": """&amp;E173&amp;"""},")</f>
-        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G174" s="0" t="str">
         <f aca="false">IF(E174="","","{""sourceId"": """&amp;A174&amp;""", ""targetId"": """&amp;B174&amp;""", ""shortDescription"": """&amp;C174&amp;""", ""fullDescriptionHtml"": """&amp;D174&amp;""", ""direction"": """&amp;E174&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G175" s="0" t="str">
         <f aca="false">IF(E175="","","{""sourceId"": """&amp;A175&amp;""", ""targetId"": """&amp;B175&amp;""", ""shortDescription"": """&amp;C175&amp;""", ""fullDescriptionHtml"": """&amp;D175&amp;""", ""direction"": """&amp;E175&amp;"""},")</f>
-        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>397</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
       <c r="E176" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G176" s="0" t="str">
         <f aca="false">IF(E176="","","{""sourceId"": """&amp;A176&amp;""", ""targetId"": """&amp;B176&amp;""", ""shortDescription"": """&amp;C176&amp;""", ""fullDescriptionHtml"": """&amp;D176&amp;""", ""direction"": """&amp;E176&amp;"""},")</f>
-        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C177" s="0"/>
-      <c r="D177" s="0"/>
+        <v>405</v>
+      </c>
       <c r="E177" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G177" s="0" t="str">
         <f aca="false">IF(E177="","","{""sourceId"": """&amp;A177&amp;""", ""targetId"": """&amp;B177&amp;""", ""shortDescription"": """&amp;C177&amp;""", ""fullDescriptionHtml"": """&amp;D177&amp;""", ""direction"": """&amp;E177&amp;"""},")</f>
-        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G178" s="0" t="str">
         <f aca="false">IF(E178="","","{""sourceId"": """&amp;A178&amp;""", ""targetId"": """&amp;B178&amp;""", ""shortDescription"": """&amp;C178&amp;""", ""fullDescriptionHtml"": """&amp;D178&amp;""", ""direction"": """&amp;E178&amp;"""},")</f>
-        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>407</v>
+        <v>151</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G179" s="0" t="str">
         <f aca="false">IF(E179="","","{""sourceId"": """&amp;A179&amp;""", ""targetId"": """&amp;B179&amp;""", ""shortDescription"": """&amp;C179&amp;""", ""fullDescriptionHtml"": """&amp;D179&amp;""", ""direction"": """&amp;E179&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G180" s="0" t="str">
         <f aca="false">IF(E180="","","{""sourceId"": """&amp;A180&amp;""", ""targetId"": """&amp;B180&amp;""", ""shortDescription"": """&amp;C180&amp;""", ""fullDescriptionHtml"": """&amp;D180&amp;""", ""direction"": """&amp;E180&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>269</v>
+        <v>415</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G181" s="0" t="str">
         <f aca="false">IF(E181="","","{""sourceId"": """&amp;A181&amp;""", ""targetId"": """&amp;B181&amp;""", ""shortDescription"": """&amp;C181&amp;""", ""fullDescriptionHtml"": """&amp;D181&amp;""", ""direction"": """&amp;E181&amp;"""},")</f>
-        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G182" s="0" t="str">
         <f aca="false">IF(E182="","","{""sourceId"": """&amp;A182&amp;""", ""targetId"": """&amp;B182&amp;""", ""shortDescription"": """&amp;C182&amp;""", ""fullDescriptionHtml"": """&amp;D182&amp;""", ""direction"": """&amp;E182&amp;"""},")</f>
-        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G183" s="0" t="str">
         <f aca="false">IF(E183="","","{""sourceId"": """&amp;A183&amp;""", ""targetId"": """&amp;B183&amp;""", ""shortDescription"": """&amp;C183&amp;""", ""fullDescriptionHtml"": """&amp;D183&amp;""", ""direction"": """&amp;E183&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>423</v>
+        <v>197</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G184" s="0" t="str">
         <f aca="false">IF(E184="","","{""sourceId"": """&amp;A184&amp;""", ""targetId"": """&amp;B184&amp;""", ""shortDescription"": """&amp;C184&amp;""", ""fullDescriptionHtml"": """&amp;D184&amp;""", ""direction"": """&amp;E184&amp;"""},")</f>
-        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>193</v>
+      <c r="A185" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G185" s="0" t="str">
         <f aca="false">IF(E185="","","{""sourceId"": """&amp;A185&amp;""", ""targetId"": """&amp;B185&amp;""", ""shortDescription"": """&amp;C185&amp;""", ""fullDescriptionHtml"": """&amp;D185&amp;""", ""direction"": """&amp;E185&amp;"""},")</f>
-        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="s">
-        <v>125</v>
+      <c r="A186" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G186" s="0" t="str">
         <f aca="false">IF(E186="","","{""sourceId"": """&amp;A186&amp;""", ""targetId"": """&amp;B186&amp;""", ""shortDescription"": """&amp;C186&amp;""", ""fullDescriptionHtml"": """&amp;D186&amp;""", ""direction"": """&amp;E186&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>185</v>
+        <v>427</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G187" s="0" t="str">
         <f aca="false">IF(E187="","","{""sourceId"": """&amp;A187&amp;""", ""targetId"": """&amp;B187&amp;""", ""shortDescription"": """&amp;C187&amp;""", ""fullDescriptionHtml"": """&amp;D187&amp;""", ""direction"": """&amp;E187&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G188" s="0" t="str">
         <f aca="false">IF(E188="","","{""sourceId"": """&amp;A188&amp;""", ""targetId"": """&amp;B188&amp;""", ""shortDescription"": """&amp;C188&amp;""", ""fullDescriptionHtml"": """&amp;D188&amp;""", ""direction"": """&amp;E188&amp;"""},")</f>
-        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G189" s="0" t="str">
         <f aca="false">IF(E189="","","{""sourceId"": """&amp;A189&amp;""", ""targetId"": """&amp;B189&amp;""", ""shortDescription"": """&amp;C189&amp;""", ""fullDescriptionHtml"": """&amp;D189&amp;""", ""direction"": """&amp;E189&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G190" s="0" t="str">
         <f aca="false">IF(E190="","","{""sourceId"": """&amp;A190&amp;""", ""targetId"": """&amp;B190&amp;""", ""shortDescription"": """&amp;C190&amp;""", ""fullDescriptionHtml"": """&amp;D190&amp;""", ""direction"": """&amp;E190&amp;"""},")</f>
-        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G191" s="0" t="str">
         <f aca="false">IF(E191="","","{""sourceId"": """&amp;A191&amp;""", ""targetId"": """&amp;B191&amp;""", ""shortDescription"": """&amp;C191&amp;""", ""fullDescriptionHtml"": """&amp;D191&amp;""", ""direction"": """&amp;E191&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G192" s="0" t="str">
         <f aca="false">IF(E192="","","{""sourceId"": """&amp;A192&amp;""", ""targetId"": """&amp;B192&amp;""", ""shortDescription"": """&amp;C192&amp;""", ""fullDescriptionHtml"": """&amp;D192&amp;""", ""direction"": """&amp;E192&amp;"""},")</f>
-        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>445</v>
+        <v>243</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
-        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>271</v>
+      <c r="A196" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>277</v>
+        <v>137</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">IF(E196="","","{""sourceId"": """&amp;A196&amp;""", ""targetId"": """&amp;B196&amp;""", ""shortDescription"": """&amp;C196&amp;""", ""fullDescriptionHtml"": """&amp;D196&amp;""", ""direction"": """&amp;E196&amp;"""},")</f>
-        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6" t="s">
-        <v>125</v>
+      <c r="A197" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>137</v>
@@ -9024,177 +9028,177 @@
       </c>
       <c r="G197" s="0" t="str">
         <f aca="false">IF(E197="","","{""sourceId"": """&amp;A197&amp;""", ""targetId"": """&amp;B197&amp;""", ""shortDescription"": """&amp;C197&amp;""", ""fullDescriptionHtml"": """&amp;D197&amp;""", ""direction"": """&amp;E197&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>179</v>
+        <v>447</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>137</v>
+        <v>449</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G198" s="0" t="str">
         <f aca="false">IF(E198="","","{""sourceId"": """&amp;A198&amp;""", ""targetId"": """&amp;B198&amp;""", ""shortDescription"": """&amp;C198&amp;""", ""fullDescriptionHtml"": """&amp;D198&amp;""", ""direction"": """&amp;E198&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G199" s="0" t="str">
         <f aca="false">IF(E199="","","{""sourceId"": """&amp;A199&amp;""", ""targetId"": """&amp;B199&amp;""", ""shortDescription"": """&amp;C199&amp;""", ""fullDescriptionHtml"": """&amp;D199&amp;""", ""direction"": """&amp;E199&amp;"""},")</f>
-        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G200" s="0" t="str">
         <f aca="false">IF(E200="","","{""sourceId"": """&amp;A200&amp;""", ""targetId"": """&amp;B200&amp;""", ""shortDescription"": """&amp;C200&amp;""", ""fullDescriptionHtml"": """&amp;D200&amp;""", ""direction"": """&amp;E200&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G201" s="0" t="str">
         <f aca="false">IF(E201="","","{""sourceId"": """&amp;A201&amp;""", ""targetId"": """&amp;B201&amp;""", ""shortDescription"": """&amp;C201&amp;""", ""fullDescriptionHtml"": """&amp;D201&amp;""", ""direction"": """&amp;E201&amp;"""},")</f>
-        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G202" s="0" t="str">
         <f aca="false">IF(E202="","","{""sourceId"": """&amp;A202&amp;""", ""targetId"": """&amp;B202&amp;""", ""shortDescription"": """&amp;C202&amp;""", ""fullDescriptionHtml"": """&amp;D202&amp;""", ""direction"": """&amp;E202&amp;"""},")</f>
-        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>469</v>
+        <v>251</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G203" s="0" t="str">
         <f aca="false">IF(E203="","","{""sourceId"": """&amp;A203&amp;""", ""targetId"": """&amp;B203&amp;""", ""shortDescription"": """&amp;C203&amp;""", ""fullDescriptionHtml"": """&amp;D203&amp;""", ""direction"": """&amp;E203&amp;"""},")</f>
-        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G204" s="0" t="str">
         <f aca="false">IF(E204="","","{""sourceId"": """&amp;A204&amp;""", ""targetId"": """&amp;B204&amp;""", ""shortDescription"": """&amp;C204&amp;""", ""fullDescriptionHtml"": """&amp;D204&amp;""", ""direction"": """&amp;E204&amp;"""},")</f>
-        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G205" s="0" t="str">
         <f aca="false">IF(E205="","","{""sourceId"": """&amp;A205&amp;""", ""targetId"": """&amp;B205&amp;""", ""shortDescription"": """&amp;C205&amp;""", ""fullDescriptionHtml"": """&amp;D205&amp;""", ""direction"": """&amp;E205&amp;"""},")</f>
-        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G206" s="0" t="str">
         <f aca="false">IF(E206="","","{""sourceId"": """&amp;A206&amp;""", ""targetId"": """&amp;B206&amp;""", ""shortDescription"": """&amp;C206&amp;""", ""fullDescriptionHtml"": """&amp;D206&amp;""", ""direction"": """&amp;E206&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>477</v>
+      <c r="A207" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G207" s="0" t="str">
         <f aca="false">IF(E207="","","{""sourceId"": """&amp;A207&amp;""", ""targetId"": """&amp;B207&amp;""", ""shortDescription"": """&amp;C207&amp;""", ""fullDescriptionHtml"": """&amp;D207&amp;""", ""direction"": """&amp;E207&amp;"""},")</f>
-        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>121</v>
+      <c r="A208" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>411</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G208" s="0" t="str">
         <f aca="false">IF(E208="","","{""sourceId"": """&amp;A208&amp;""", ""targetId"": """&amp;B208&amp;""", ""shortDescription"": """&amp;C208&amp;""", ""fullDescriptionHtml"": """&amp;D208&amp;""", ""direction"": """&amp;E208&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>411</v>
@@ -9204,273 +9208,263 @@
       </c>
       <c r="G209" s="0" t="str">
         <f aca="false">IF(E209="","","{""sourceId"": """&amp;A209&amp;""", ""targetId"": """&amp;B209&amp;""", ""shortDescription"": """&amp;C209&amp;""", ""fullDescriptionHtml"": """&amp;D209&amp;""", ""direction"": """&amp;E209&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>417</v>
+        <v>151</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>411</v>
+        <v>159</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G210" s="0" t="str">
         <f aca="false">IF(E210="","","{""sourceId"": """&amp;A210&amp;""", ""targetId"": """&amp;B210&amp;""", ""shortDescription"": """&amp;C210&amp;""", ""fullDescriptionHtml"": """&amp;D210&amp;""", ""direction"": """&amp;E210&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G211" s="0" t="str">
         <f aca="false">IF(E211="","","{""sourceId"": """&amp;A211&amp;""", ""targetId"": """&amp;B211&amp;""", ""shortDescription"": """&amp;C211&amp;""", ""fullDescriptionHtml"": """&amp;D211&amp;""", ""direction"": """&amp;E211&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G212" s="0" t="str">
         <f aca="false">IF(E212="","","{""sourceId"": """&amp;A212&amp;""", ""targetId"": """&amp;B212&amp;""", ""shortDescription"": """&amp;C212&amp;""", ""fullDescriptionHtml"": """&amp;D212&amp;""", ""direction"": """&amp;E212&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>229</v>
+        <v>479</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>237</v>
+        <v>481</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G213" s="0" t="str">
         <f aca="false">IF(E213="","","{""sourceId"": """&amp;A213&amp;""", ""targetId"": """&amp;B213&amp;""", ""shortDescription"": """&amp;C213&amp;""", ""fullDescriptionHtml"": """&amp;D213&amp;""", ""direction"": """&amp;E213&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>479</v>
+        <v>171</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>481</v>
+        <v>177</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G214" s="0" t="str">
         <f aca="false">IF(E214="","","{""sourceId"": """&amp;A214&amp;""", ""targetId"": """&amp;B214&amp;""", ""shortDescription"": """&amp;C214&amp;""", ""fullDescriptionHtml"": """&amp;D214&amp;""", ""direction"": """&amp;E214&amp;"""},")</f>
-        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G215" s="0" t="str">
         <f aca="false">IF(E215="","","{""sourceId"": """&amp;A215&amp;""", ""targetId"": """&amp;B215&amp;""", ""shortDescription"": """&amp;C215&amp;""", ""fullDescriptionHtml"": """&amp;D215&amp;""", ""direction"": """&amp;E215&amp;"""},")</f>
-        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G216" s="0" t="str">
         <f aca="false">IF(E216="","","{""sourceId"": """&amp;A216&amp;""", ""targetId"": """&amp;B216&amp;""", ""shortDescription"": """&amp;C216&amp;""", ""fullDescriptionHtml"": """&amp;D216&amp;""", ""direction"": """&amp;E216&amp;"""},")</f>
-        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>151</v>
+        <v>483</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>161</v>
+        <v>485</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G217" s="0" t="str">
         <f aca="false">IF(E217="","","{""sourceId"": """&amp;A217&amp;""", ""targetId"": """&amp;B217&amp;""", ""shortDescription"": """&amp;C217&amp;""", ""fullDescriptionHtml"": """&amp;D217&amp;""", ""direction"": """&amp;E217&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>483</v>
+        <v>179</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>485</v>
+        <v>187</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G218" s="0" t="str">
         <f aca="false">IF(E218="","","{""sourceId"": """&amp;A218&amp;""", ""targetId"": """&amp;B218&amp;""", ""shortDescription"": """&amp;C218&amp;""", ""fullDescriptionHtml"": """&amp;D218&amp;""", ""direction"": """&amp;E218&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>179</v>
+        <v>487</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>187</v>
+        <v>489</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G219" s="0" t="str">
         <f aca="false">IF(E219="","","{""sourceId"": """&amp;A219&amp;""", ""targetId"": """&amp;B219&amp;""", ""shortDescription"": """&amp;C219&amp;""", ""fullDescriptionHtml"": """&amp;D219&amp;""", ""direction"": """&amp;E219&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>487</v>
+        <v>433</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G220" s="0" t="str">
         <f aca="false">IF(E220="","","{""sourceId"": """&amp;A220&amp;""", ""targetId"": """&amp;B220&amp;""", ""shortDescription"": """&amp;C220&amp;""", ""fullDescriptionHtml"": """&amp;D220&amp;""", ""direction"": """&amp;E220&amp;"""},")</f>
-        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G221" s="0" t="str">
         <f aca="false">IF(E221="","","{""sourceId"": """&amp;A221&amp;""", ""targetId"": """&amp;B221&amp;""", ""shortDescription"": """&amp;C221&amp;""", ""fullDescriptionHtml"": """&amp;D221&amp;""", ""direction"": """&amp;E221&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G222" s="0" t="str">
         <f aca="false">IF(E222="","","{""sourceId"": """&amp;A222&amp;""", ""targetId"": """&amp;B222&amp;""", ""shortDescription"": """&amp;C222&amp;""", ""fullDescriptionHtml"": """&amp;D222&amp;""", ""direction"": """&amp;E222&amp;"""},")</f>
-        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>497</v>
+      <c r="A223" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G223" s="0" t="str">
         <f aca="false">IF(E223="","","{""sourceId"": """&amp;A223&amp;""", ""targetId"": """&amp;B223&amp;""", ""shortDescription"": """&amp;C223&amp;""", ""fullDescriptionHtml"": """&amp;D223&amp;""", ""direction"": """&amp;E223&amp;"""},")</f>
-        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>123</v>
+      <c r="A224" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G224" s="0" t="str">
         <f aca="false">IF(E224="","","{""sourceId"": """&amp;A224&amp;""", ""targetId"": """&amp;B224&amp;""", ""shortDescription"": """&amp;C224&amp;""", ""fullDescriptionHtml"": """&amp;D224&amp;""", ""direction"": """&amp;E224&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>163</v>
+        <v>501</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>519</v>
       </c>
       <c r="G225" s="0" t="str">
         <f aca="false">IF(E225="","","{""sourceId"": """&amp;A225&amp;""", ""targetId"": """&amp;B225&amp;""", ""shortDescription"": """&amp;C225&amp;""", ""fullDescriptionHtml"": """&amp;D225&amp;""", ""direction"": """&amp;E225&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G226" s="0" t="str">
-        <f aca="false">IF(E226="","","{""sourceId"": """&amp;A226&amp;""", ""targetId"": """&amp;B226&amp;""", ""shortDescription"": """&amp;C226&amp;""", ""fullDescriptionHtml"": """&amp;D226&amp;""", ""direction"": """&amp;E226&amp;"""},")</f>
-        <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A226" s="0"/>
+      <c r="B226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0"/>
-      <c r="B227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0"/>
+      <c r="A229" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
@@ -9634,11 +9628,6 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6" t="s">
         <v>81</v>
       </c>
     </row>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="523">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -266,6 +266,12 @@
     <t xml:space="preserve">#FFD0E7</t>
   </si>
   <si>
+    <t xml:space="preserve">KWAMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwami</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKUMA</t>
   </si>
   <si>
@@ -1581,6 +1587,9 @@
   </si>
   <si>
     <t xml:space="preserve">DIRECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
   </si>
 </sst>
 </file>
@@ -1713,13 +1722,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1094"/>
+  <dimension ref="A1:AMJ1095"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G241" activeCellId="0" sqref="G2:G345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.81"/>
@@ -2165,56 +2174,71 @@
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A22&amp;""", ""name"": """&amp;B22&amp;""", ""description"": """&amp;C22&amp;""", ""imageFilename"": """&amp;A22&amp;".webp"", ""color"": """&amp;D22&amp;""", ""group"": """&amp;E22&amp;"""},"</f>
+        <v>{"id": "KWAMI", "name": "Kwami", "description": "", "imageFilename": "KWAMI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A23&amp;""", ""name"": """&amp;B23&amp;""", ""description"": """&amp;C23&amp;""", ""imageFilename"": """&amp;A23&amp;".webp"", ""color"": """&amp;D23&amp;""", ""group"": """&amp;E23&amp;"""},"</f>
         <v>{"id": "AKUMA", "name": "Akuma", "description": "", "imageFilename": "AKUMA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-    </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A24&amp;""", ""name"": """&amp;B24&amp;""", ""description"": """&amp;C24&amp;""", ""imageFilename"": """&amp;A24&amp;".webp"", ""color"": """&amp;D24&amp;""", ""group"": """&amp;E24&amp;"""},"</f>
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A25&amp;""", ""name"": """&amp;B25&amp;""", ""description"": """&amp;C25&amp;""", ""imageFilename"": """&amp;A25&amp;".webp"", ""color"": """&amp;D25&amp;""", ""group"": """&amp;E25&amp;"""},"</f>
         <v>{"id": "JEANNE_D_ARC", "name": "Jeanne d'Arc", "description": "", "imageFilename": "JEANNE_D_ARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A27&amp;""", ""name"": """&amp;B27&amp;""", ""description"": """&amp;C27&amp;""", ""imageFilename"": """&amp;A27&amp;".webp"", ""color"": """&amp;D27&amp;""", ""group"": """&amp;E27&amp;"""},"</f>
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A28&amp;""", ""name"": """&amp;B28&amp;""", ""description"": """&amp;C28&amp;""", ""imageFilename"": """&amp;A28&amp;".webp"", ""color"": """&amp;D28&amp;""", ""group"": """&amp;E28&amp;"""},"</f>
         <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
@@ -2223,25 +2247,10 @@
       <c r="A30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A31&amp;""", ""name"": """&amp;B31&amp;""", ""description"": """&amp;C31&amp;""", ""imageFilename"": """&amp;A31&amp;".webp"", ""color"": """&amp;D31&amp;""", ""group"": """&amp;E31&amp;"""},"</f>
-        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
-      </c>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -2255,11 +2264,11 @@
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A32&amp;""", ""name"": """&amp;B32&amp;""", ""description"": """&amp;C32&amp;""", ""imageFilename"": """&amp;A32&amp;".webp"", ""color"": """&amp;D32&amp;""", ""group"": """&amp;E32&amp;"""},"</f>
-        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MARINETTE_DUPAIN_CHENG", "name": "Marinette Dupain-Cheng", "description": "", "imageFilename": "MARINETTE_DUPAIN_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -2273,7 +2282,7 @@
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A33&amp;""", ""name"": """&amp;B33&amp;""", ""description"": """&amp;C33&amp;""", ""imageFilename"": """&amp;A33&amp;".webp"", ""color"": """&amp;D33&amp;""", ""group"": """&amp;E33&amp;"""},"</f>
-        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADYBUG", "name": "Ladybug", "description": "", "imageFilename": "LADYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,11 +2300,11 @@
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A34&amp;""", ""name"": """&amp;B34&amp;""", ""description"": """&amp;C34&amp;""", ""imageFilename"": """&amp;A34&amp;".webp"", ""color"": """&amp;D34&amp;""", ""group"": """&amp;E34&amp;"""},"</f>
-        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_NOIRE", "name": "Lady Noire", "description": "", "imageFilename": "LADY_NOIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="0" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -2309,7 +2318,7 @@
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A35&amp;""", ""name"": """&amp;B35&amp;""", ""description"": """&amp;C35&amp;""", ""imageFilename"": """&amp;A35&amp;".webp"", ""color"": """&amp;D35&amp;""", ""group"": """&amp;E35&amp;"""},"</f>
-        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIMOUSE", "name": "Multimouse", "description": "", "imageFilename": "MULTIMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,11 +2336,11 @@
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A36&amp;""", ""name"": """&amp;B36&amp;""", ""description"": """&amp;C36&amp;""", ""imageFilename"": """&amp;A36&amp;".webp"", ""color"": """&amp;D36&amp;""", ""group"": """&amp;E36&amp;"""},"</f>
-        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIFOX", "name": "Multifox", "description": "", "imageFilename": "MULTIFOX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -2345,7 +2354,7 @@
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A37&amp;""", ""name"": """&amp;B37&amp;""", ""description"": """&amp;C37&amp;""", ""imageFilename"": """&amp;A37&amp;".webp"", ""color"": """&amp;D37&amp;""", ""group"": """&amp;E37&amp;"""},"</f>
-        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTINOIR", "name": "Multinoir", "description": "", "imageFilename": "MULTINOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,7 +2364,6 @@
       <c r="B38" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="6"/>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2364,16 +2372,17 @@
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A38&amp;""", ""name"": """&amp;B38&amp;""", ""description"": """&amp;C38&amp;""", ""imageFilename"": """&amp;A38&amp;".webp"", ""color"": """&amp;D38&amp;""", ""group"": """&amp;E38&amp;"""},"</f>
-        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MULTIBUG", "name": "Multibug", "description": "", "imageFilename": "MULTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
@@ -2382,7 +2391,7 @@
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A39&amp;""", ""name"": """&amp;B39&amp;""", ""description"": """&amp;C39&amp;""", ""imageFilename"": """&amp;A39&amp;".webp"", ""color"": """&amp;D39&amp;""", ""group"": """&amp;E39&amp;"""},"</f>
-        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DRAGON_BUG", "name": "Dragon Bug", "description": "", "imageFilename": "DRAGON_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A40&amp;""", ""name"": """&amp;B40&amp;""", ""description"": """&amp;C40&amp;""", ""imageFilename"": """&amp;A40&amp;".webp"", ""color"": """&amp;D40&amp;""", ""group"": """&amp;E40&amp;"""},"</f>
-        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_BEE", "name": "Lady Bee", "description": "", "imageFilename": "LADY_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2418,11 +2427,11 @@
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A41&amp;""", ""name"": """&amp;B41&amp;""", ""description"": """&amp;C41&amp;""", ""imageFilename"": """&amp;A41&amp;".webp"", ""color"": """&amp;D41&amp;""", ""group"": """&amp;E41&amp;"""},"</f>
-        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGABUG", "name": "Pegabug", "description": "", "imageFilename": "PEGABUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="0" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -2436,7 +2445,7 @@
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A42&amp;""", ""name"": """&amp;B42&amp;""", ""description"": """&amp;C42&amp;""", ""imageFilename"": """&amp;A42&amp;".webp"", ""color"": """&amp;D42&amp;""", ""group"": """&amp;E42&amp;"""},"</f>
-        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNYBUG", "name": "Pennybug", "description": "", "imageFilename": "PENNYBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,11 +2463,11 @@
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A43&amp;""", ""name"": """&amp;B43&amp;""", ""description"": """&amp;C43&amp;""", ""imageFilename"": """&amp;A43&amp;".webp"", ""color"": """&amp;D43&amp;""", ""group"": """&amp;E43&amp;"""},"</f>
-        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_AGRESTE", "name": "Adrien Agreste", "description": "", "imageFilename": "ADRIEN_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -2472,7 +2481,7 @@
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A44&amp;""", ""name"": """&amp;B44&amp;""", ""description"": """&amp;C44&amp;""", ""imageFilename"": """&amp;A44&amp;".webp"", ""color"": """&amp;D44&amp;""", ""group"": """&amp;E44&amp;"""},"</f>
-        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_NOIR", "name": "Cat Noir", "description": "", "imageFilename": "CAT_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2499,7 @@
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A45&amp;""", ""name"": """&amp;B45&amp;""", ""description"": """&amp;C45&amp;""", ""imageFilename"": """&amp;A45&amp;".webp"", ""color"": """&amp;D45&amp;""", ""group"": """&amp;E45&amp;"""},"</f>
-        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MISTER_BUG", "name": "Mister Bug", "description": "", "imageFilename": "MISTER_BUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2517,7 @@
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A46&amp;""", ""name"": """&amp;B46&amp;""", ""description"": """&amp;C46&amp;""", ""imageFilename"": """&amp;A46&amp;".webp"", ""color"": """&amp;D46&amp;""", ""group"": """&amp;E46&amp;"""},"</f>
-        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ASPIK", "name": "Aspik", "description": "", "imageFilename": "ASPIK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,11 +2535,11 @@
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A47&amp;""", ""name"": """&amp;B47&amp;""", ""description"": """&amp;C47&amp;""", ""imageFilename"": """&amp;A47&amp;".webp"", ""color"": """&amp;D47&amp;""", ""group"": """&amp;E47&amp;"""},"</f>
-        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SNAKE_NOIR", "name": "Snake Noir", "description": "", "imageFilename": "SNAKE_NOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -2544,7 +2553,7 @@
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A48&amp;""", ""name"": """&amp;B48&amp;""", ""description"": """&amp;C48&amp;""", ""imageFilename"": """&amp;A48&amp;".webp"", ""color"": """&amp;D48&amp;""", ""group"": """&amp;E48&amp;"""},"</f>
-        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_WALKER", "name": "Cat Walker", "description": "", "imageFilename": "CAT_WALKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2571,7 @@
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A49&amp;""", ""name"": """&amp;B49&amp;""", ""description"": """&amp;C49&amp;""", ""imageFilename"": """&amp;A49&amp;".webp"", ""color"": """&amp;D49&amp;""", ""group"": """&amp;E49&amp;"""},"</f>
-        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAT_BLANC", "name": "Cat Blanc", "description": "", "imageFilename": "CAT_BLANC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,11 +2589,11 @@
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A50&amp;""", ""name"": """&amp;B50&amp;""", ""description"": """&amp;C50&amp;""", ""imageFilename"": """&amp;A50&amp;".webp"", ""color"": """&amp;D50&amp;""", ""group"": """&amp;E50&amp;"""},"</f>
-        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "EPHEMERAL", "name": "Ephemeral", "description": "", "imageFilename": "EPHEMERAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -2598,7 +2607,7 @@
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A51&amp;""", ""name"": """&amp;B51&amp;""", ""description"": """&amp;C51&amp;""", ""imageFilename"": """&amp;A51&amp;".webp"", ""color"": """&amp;D51&amp;""", ""group"": """&amp;E51&amp;"""},"</f>
-        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALYA_CESAIRE", "name": "Alya Césaire", "description": "", "imageFilename": "ALYA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2617,6 @@
       <c r="B52" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="6"/>
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +2625,7 @@
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A52&amp;""", ""name"": """&amp;B52&amp;""", ""description"": """&amp;C52&amp;""", ""imageFilename"": """&amp;A52&amp;".webp"", ""color"": """&amp;D52&amp;""", ""group"": """&amp;E52&amp;"""},"</f>
-        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_ROUGE", "name": "Rena Rouge", "description": "", "imageFilename": "RENA_ROUGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +2644,7 @@
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A53&amp;""", ""name"": """&amp;B53&amp;""", ""description"": """&amp;C53&amp;""", ""imageFilename"": """&amp;A53&amp;".webp"", ""color"": """&amp;D53&amp;""", ""group"": """&amp;E53&amp;"""},"</f>
-        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_FURTIVE", "name": "Rena Furtive", "description": "", "imageFilename": "RENA_FURTIVE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,6 +2654,7 @@
       <c r="B54" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="C54" s="6"/>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
@@ -2654,7 +2663,7 @@
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A54&amp;""", ""name"": """&amp;B54&amp;""", ""description"": """&amp;C54&amp;""", ""imageFilename"": """&amp;A54&amp;".webp"", ""color"": """&amp;D54&amp;""", ""group"": """&amp;E54&amp;"""},"</f>
-        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARABELLA", "name": "Scarabella", "description": "", "imageFilename": "SCARABELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2681,7 @@
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A55&amp;""", ""name"": """&amp;B55&amp;""", ""description"": """&amp;C55&amp;""", ""imageFilename"": """&amp;A55&amp;".webp"", ""color"": """&amp;D55&amp;""", ""group"": """&amp;E55&amp;"""},"</f>
-        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LADY_WIFI", "name": "Lady Wifi", "description": "", "imageFilename": "LADY_WIFI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2699,7 @@
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A56&amp;""", ""name"": """&amp;B56&amp;""", ""description"": """&amp;C56&amp;""", ""imageFilename"": """&amp;A56&amp;".webp"", ""color"": """&amp;D56&amp;""", ""group"": """&amp;E56&amp;"""},"</f>
-        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RENA_RAGE", "name": "Rena Rage", "description": "", "imageFilename": "RENA_RAGE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2717,7 @@
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A57&amp;""", ""name"": """&amp;B57&amp;""", ""description"": """&amp;C57&amp;""", ""imageFilename"": """&amp;A57&amp;".webp"", ""color"": """&amp;D57&amp;""", ""group"": """&amp;E57&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "OBLIVIO", "name": "Oblivio", "description": "", "imageFilename": "OBLIVIO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2735,7 @@
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A58&amp;""", ""name"": """&amp;B58&amp;""", ""description"": """&amp;C58&amp;""", ""imageFilename"": """&amp;A58&amp;".webp"", ""color"": """&amp;D58&amp;""", ""group"": """&amp;E58&amp;"""},"</f>
-        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE", "name": "Gabriel Agreste", "description": "", "imageFilename": "GABRIEL_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +2753,7 @@
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A59&amp;""", ""name"": """&amp;B59&amp;""", ""description"": """&amp;C59&amp;""", ""imageFilename"": """&amp;A59&amp;".webp"", ""color"": """&amp;D59&amp;""", ""group"": """&amp;E59&amp;"""},"</f>
-        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HAWK_MOTH", "name": "Hawk Moth", "description": "", "imageFilename": "HAWK_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2771,7 @@
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A60&amp;""", ""name"": """&amp;B60&amp;""", ""description"": """&amp;C60&amp;""", ""imageFilename"": """&amp;A60&amp;".webp"", ""color"": """&amp;D60&amp;""", ""group"": """&amp;E60&amp;"""},"</f>
-        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOW_MOTH", "name": "Shadow Moth", "description": "", "imageFilename": "SHADOW_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2789,7 @@
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A61&amp;""", ""name"": """&amp;B61&amp;""", ""description"": """&amp;C61&amp;""", ""imageFilename"": """&amp;A61&amp;".webp"", ""color"": """&amp;D61&amp;""", ""group"": """&amp;E61&amp;"""},"</f>
-        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SCARLET_MOTH", "name": "Scarlet Moth", "description": "", "imageFilename": "SCARLET_MOTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2807,7 @@
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A62&amp;""", ""name"": """&amp;B62&amp;""", ""description"": """&amp;C62&amp;""", ""imageFilename"": """&amp;A62&amp;".webp"", ""color"": """&amp;D62&amp;""", ""group"": """&amp;E62&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHADOWNOIR", "name": "Shadownoir", "description": "", "imageFilename": "SHADOWNOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,7 +2817,6 @@
       <c r="B63" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="6"/>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
@@ -2817,7 +2825,7 @@
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A63&amp;""", ""name"": """&amp;B63&amp;""", ""description"": """&amp;C63&amp;""", ""imageFilename"": """&amp;A63&amp;".webp"", ""color"": """&amp;D63&amp;""", ""group"": """&amp;E63&amp;"""},"</f>
-        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR", "name": "The Collector", "description": "", "imageFilename": "THE_COLLECTOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,7 +2844,7 @@
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A64&amp;""", ""name"": """&amp;B64&amp;""", ""description"": """&amp;C64&amp;""", ""imageFilename"": """&amp;A64&amp;".webp"", ""color"": """&amp;D64&amp;""", ""group"": """&amp;E64&amp;"""},"</f>
-        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHLOE_BOURGEOIS", "name": "Chloé Bourgeois", "description": "", "imageFilename": "CHLOE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2863,7 @@
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A65&amp;""", ""name"": """&amp;B65&amp;""", ""description"": """&amp;C65&amp;""", ""imageFilename"": """&amp;A65&amp;".webp"", ""color"": """&amp;D65&amp;""", ""group"": """&amp;E65&amp;"""},"</f>
-        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BEE", "name": "Queen Bee", "description": "", "imageFilename": "QUEEN_BEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,7 +2882,7 @@
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A66&amp;""", ""name"": """&amp;B66&amp;""", ""description"": """&amp;C66&amp;""", ""imageFilename"": """&amp;A66&amp;".webp"", ""color"": """&amp;D66&amp;""", ""group"": """&amp;E66&amp;"""},"</f>
-        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANTIBUG", "name": "Antibug", "description": "", "imageFilename": "ANTIBUG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,7 +2901,7 @@
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A67&amp;""", ""name"": """&amp;B67&amp;""", ""description"": """&amp;C67&amp;""", ""imageFilename"": """&amp;A67&amp;".webp"", ""color"": """&amp;D67&amp;""", ""group"": """&amp;E67&amp;"""},"</f>
-        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_WASP", "name": "Queen Wasp", "description": "", "imageFilename": "QUEEN_WASP.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2920,7 @@
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A68&amp;""", ""name"": """&amp;B68&amp;""", ""description"": """&amp;C68&amp;""", ""imageFilename"": """&amp;A68&amp;".webp"", ""color"": """&amp;D68&amp;""", ""group"": """&amp;E68&amp;"""},"</f>
-        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACLE_QUEEN", "name": "Miracle Queen", "description": "", "imageFilename": "MIRACLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,6 +2930,7 @@
       <c r="B69" s="0" t="s">
         <v>164</v>
       </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2939,7 @@
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A69&amp;""", ""name"": """&amp;B69&amp;""", ""description"": """&amp;C69&amp;""", ""imageFilename"": """&amp;A69&amp;".webp"", ""color"": """&amp;D69&amp;""", ""group"": """&amp;E69&amp;"""},"</f>
-        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QUEEN_BANANA", "name": "Queen Banana", "description": "", "imageFilename": "QUEEN_BANANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,7 +2957,7 @@
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A70&amp;""", ""name"": """&amp;B70&amp;""", ""description"": """&amp;C70&amp;""", ""imageFilename"": """&amp;A70&amp;".webp"", ""color"": """&amp;D70&amp;""", ""group"": """&amp;E70&amp;"""},"</f>
-        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PENALTY", "name": "Penalty", "description": "", "imageFilename": "PENALTY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +2975,7 @@
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A71&amp;""", ""name"": """&amp;B71&amp;""", ""description"": """&amp;C71&amp;""", ""imageFilename"": """&amp;A71&amp;".webp"", ""color"": """&amp;D71&amp;""", ""group"": """&amp;E71&amp;"""},"</f>
-        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOE_LEE", "name": "Zoé Lee", "description": "", "imageFilename": "ZOE_LEE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,7 +2993,7 @@
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A72&amp;""", ""name"": """&amp;B72&amp;""", ""description"": """&amp;C72&amp;""", ""imageFilename"": """&amp;A72&amp;".webp"", ""color"": """&amp;D72&amp;""", ""group"": """&amp;E72&amp;"""},"</f>
-        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VESPERIA", "name": "Vesperia", "description": "", "imageFilename": "VESPERIA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,7 +3011,7 @@
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A73&amp;""", ""name"": """&amp;B73&amp;""", ""description"": """&amp;C73&amp;""", ""imageFilename"": """&amp;A73&amp;".webp"", ""color"": """&amp;D73&amp;""", ""group"": """&amp;E73&amp;"""},"</f>
-        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SOLE_CRUSHER", "name": "Sole Crusher", "description": "", "imageFilename": "SOLE_CRUSHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3029,7 @@
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A74&amp;""", ""name"": """&amp;B74&amp;""", ""description"": """&amp;C74&amp;""", ""imageFilename"": """&amp;A74&amp;".webp"", ""color"": """&amp;D74&amp;""", ""group"": """&amp;E74&amp;"""},"</f>
-        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_FU", "name": "Wang Fu", "description": "", "imageFilename": "WANG_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3047,7 @@
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A75&amp;""", ""name"": """&amp;B75&amp;""", ""description"": """&amp;C75&amp;""", ""imageFilename"": """&amp;A75&amp;".webp"", ""color"": """&amp;D75&amp;""", ""group"": """&amp;E75&amp;"""},"</f>
-        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JADE_TURTLE", "name": "Jade Turtle", "description": "", "imageFilename": "JADE_TURTLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3056,7 +3065,7 @@
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A76&amp;""", ""name"": """&amp;B76&amp;""", ""description"": """&amp;C76&amp;""", ""imageFilename"": """&amp;A76&amp;".webp"", ""color"": """&amp;D76&amp;""", ""group"": """&amp;E76&amp;"""},"</f>
-        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEACOCK_MIRACULOUS_HOLDER", "name": "Peacock Miraculous holder", "description": "", "imageFilename": "PEACOCK_MIRACULOUS_HOLDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,7 +3083,7 @@
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A77&amp;""", ""name"": """&amp;B77&amp;""", ""description"": """&amp;C77&amp;""", ""imageFilename"": """&amp;A77&amp;".webp"", ""color"": """&amp;D77&amp;""", ""group"": """&amp;E77&amp;"""},"</f>
-        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FURIOUS_FU", "name": "Furious Fu", "description": "", "imageFilename": "FURIOUS_FU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,7 +3101,7 @@
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A78&amp;""", ""name"": """&amp;B78&amp;""", ""description"": """&amp;C78&amp;""", ""imageFilename"": """&amp;A78&amp;".webp"", ""color"": """&amp;D78&amp;""", ""group"": """&amp;E78&amp;"""},"</f>
-        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NINO_LAHIFFE", "name": "Nino Lahiffe", "description": "", "imageFilename": "NINO_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3119,7 @@
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A79&amp;""", ""name"": """&amp;B79&amp;""", ""description"": """&amp;C79&amp;""", ""imageFilename"": """&amp;A79&amp;".webp"", ""color"": """&amp;D79&amp;""", ""group"": """&amp;E79&amp;"""},"</f>
-        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CARAPACE", "name": "Carapace", "description": "", "imageFilename": "CARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,7 +3137,7 @@
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A80&amp;""", ""name"": """&amp;B80&amp;""", ""description"": """&amp;C80&amp;""", ""imageFilename"": """&amp;A80&amp;".webp"", ""color"": """&amp;D80&amp;""", ""group"": """&amp;E80&amp;"""},"</f>
-        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_BUBBLER", "name": "The Bubbler", "description": "", "imageFilename": "THE_BUBBLER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3146,7 +3155,7 @@
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A81&amp;""", ""name"": """&amp;B81&amp;""", ""description"": """&amp;C81&amp;""", ""imageFilename"": """&amp;A81&amp;".webp"", ""color"": """&amp;D81&amp;""", ""group"": """&amp;E81&amp;"""},"</f>
-        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SHELL_SHOCK", "name": "Shell Shock", "description": "", "imageFilename": "SHELL_SHOCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3173,7 @@
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A82&amp;""", ""name"": """&amp;B82&amp;""", ""description"": """&amp;C82&amp;""", ""imageFilename"": """&amp;A82&amp;".webp"", ""color"": """&amp;D82&amp;""", ""group"": """&amp;E82&amp;"""},"</f>
-        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROCKETEAR", "name": "Rocketear", "description": "", "imageFilename": "ROCKETEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +3191,7 @@
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A83&amp;""", ""name"": """&amp;B83&amp;""", ""description"": """&amp;C83&amp;""", ""imageFilename"": """&amp;A83&amp;".webp"", ""color"": """&amp;D83&amp;""", ""group"": """&amp;E83&amp;"""},"</f>
-        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTININO", "name": "Sentinino", "description": "", "imageFilename": "SENTININO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3209,7 @@
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A84&amp;""", ""name"": """&amp;B84&amp;""", ""description"": """&amp;C84&amp;""", ""imageFilename"": """&amp;A84&amp;".webp"", ""color"": """&amp;D84&amp;""", ""group"": """&amp;E84&amp;"""},"</f>
-        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SENTICARAPACE", "name": "Senticarapace", "description": "", "imageFilename": "SENTICARAPACE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,7 +3227,7 @@
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A85&amp;""", ""name"": """&amp;B85&amp;""", ""description"": """&amp;C85&amp;""", ""imageFilename"": """&amp;A85&amp;".webp"", ""color"": """&amp;D85&amp;""", ""group"": """&amp;E85&amp;"""},"</f>
-        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHALIE_SANCOEUR", "name": "Nathalie Sancoeur", "description": "", "imageFilename": "NATHALIE_SANCOEUR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,7 +3245,7 @@
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A86&amp;""", ""name"": """&amp;B86&amp;""", ""description"": """&amp;C86&amp;""", ""imageFilename"": """&amp;A86&amp;".webp"", ""color"": """&amp;D86&amp;""", ""group"": """&amp;E86&amp;"""},"</f>
-        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAYURA", "name": "Mayura", "description": "", "imageFilename": "MAYURA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +3263,7 @@
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A87&amp;""", ""name"": """&amp;B87&amp;""", ""description"": """&amp;C87&amp;""", ""imageFilename"": """&amp;A87&amp;".webp"", ""color"": """&amp;D87&amp;""", ""group"": """&amp;E87&amp;"""},"</f>
-        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CATALYST", "name": "Catalyst", "description": "", "imageFilename": "CATALYST.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3281,7 @@
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A88&amp;""", ""name"": """&amp;B88&amp;""", ""description"": """&amp;C88&amp;""", ""imageFilename"": """&amp;A88&amp;".webp"", ""color"": """&amp;D88&amp;""", ""group"": """&amp;E88&amp;"""},"</f>
-        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FELIX_GRAHAM_DE_VANILY", "name": "Félix Graham de Vanily", "description": "", "imageFilename": "FELIX_GRAHAM_DE_VANILY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3299,7 @@
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A89&amp;""", ""name"": """&amp;B89&amp;""", ""description"": """&amp;C89&amp;""", ""imageFilename"": """&amp;A89&amp;".webp"", ""color"": """&amp;D89&amp;""", ""group"": """&amp;E89&amp;"""},"</f>
-        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FLAIRMIDABLE", "name": "Flairmidable", "description": "", "imageFilename": "FLAIRMIDABLE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,7 +3317,7 @@
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A90&amp;""", ""name"": """&amp;B90&amp;""", ""description"": """&amp;C90&amp;""", ""imageFilename"": """&amp;A90&amp;".webp"", ""color"": """&amp;D90&amp;""", ""group"": """&amp;E90&amp;"""},"</f>
-        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MYLENE_HAPRELE", "name": "Mylène Haprèle", "description": "", "imageFilename": "MYLENE_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3335,7 @@
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A91&amp;""", ""name"": """&amp;B91&amp;""", ""description"": """&amp;C91&amp;""", ""imageFilename"": """&amp;A91&amp;".webp"", ""color"": """&amp;D91&amp;""", ""group"": """&amp;E91&amp;"""},"</f>
-        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "POLYMOUSE", "name": "Polymouse", "description": "", "imageFilename": "POLYMOUSE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3353,7 @@
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A92&amp;""", ""name"": """&amp;B92&amp;""", ""description"": """&amp;C92&amp;""", ""imageFilename"": """&amp;A92&amp;".webp"", ""color"": """&amp;D92&amp;""", ""group"": """&amp;E92&amp;"""},"</f>
-        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HORRIFICATOR", "name": "Horrificator", "description": "", "imageFilename": "HORRIFICATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3362,7 +3371,7 @@
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A93&amp;""", ""name"": """&amp;B93&amp;""", ""description"": """&amp;C93&amp;""", ""imageFilename"": """&amp;A93&amp;".webp"", ""color"": """&amp;D93&amp;""", ""group"": """&amp;E93&amp;"""},"</f>
-        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "IVAN_BRUEL", "name": "Ivan Bruel", "description": "", "imageFilename": "IVAN_BRUEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,7 +3389,7 @@
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A94&amp;""", ""name"": """&amp;B94&amp;""", ""description"": """&amp;C94&amp;""", ""imageFilename"": """&amp;A94&amp;".webp"", ""color"": """&amp;D94&amp;""", ""group"": """&amp;E94&amp;"""},"</f>
-        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MINOTAUROX", "name": "Minotaurox", "description": "", "imageFilename": "MINOTAUROX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3407,7 @@
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A95&amp;""", ""name"": """&amp;B95&amp;""", ""description"": """&amp;C95&amp;""", ""imageFilename"": """&amp;A95&amp;".webp"", ""color"": """&amp;D95&amp;""", ""group"": """&amp;E95&amp;"""},"</f>
-        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STONEHEART", "name": "Stoneheart", "description": "", "imageFilename": "STONEHEART.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3425,7 @@
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A96&amp;""", ""name"": """&amp;B96&amp;""", ""description"": """&amp;C96&amp;""", ""imageFilename"": """&amp;A96&amp;".webp"", ""color"": """&amp;D96&amp;""", ""group"": """&amp;E96&amp;"""},"</f>
-        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JULEKA_COUFFAINE", "name": "Juleka Couffaine", "description": "", "imageFilename": "JULEKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3443,7 @@
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A97&amp;""", ""name"": """&amp;B97&amp;""", ""description"": """&amp;C97&amp;""", ""imageFilename"": """&amp;A97&amp;".webp"", ""color"": """&amp;D97&amp;""", ""group"": """&amp;E97&amp;"""},"</f>
-        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PURPLE_TIGRESS", "name": "Purple Tigress", "description": "", "imageFilename": "PURPLE_TIGRESS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,7 +3461,7 @@
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A98&amp;""", ""name"": """&amp;B98&amp;""", ""description"": """&amp;C98&amp;""", ""imageFilename"": """&amp;A98&amp;".webp"", ""color"": """&amp;D98&amp;""", ""group"": """&amp;E98&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "REFLEKTA", "name": "Reflekta", "description": "", "imageFilename": "REFLEKTA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3479,7 @@
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A99&amp;""", ""name"": """&amp;B99&amp;""", ""description"": """&amp;C99&amp;""", ""imageFilename"": """&amp;A99&amp;".webp"", ""color"": """&amp;D99&amp;""", ""group"": """&amp;E99&amp;"""},"</f>
-        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (Adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL", "name": "Alix Kubdel", "description": "", "imageFilename": "ALIX_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +3497,7 @@
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A100&amp;""", ""name"": """&amp;B100&amp;""", ""description"": """&amp;C100&amp;""", ""imageFilename"": """&amp;A100&amp;".webp"", ""color"": """&amp;D100&amp;""", ""group"": """&amp;E100&amp;"""},"</f>
-        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALIX_KUBDEL_ADULT", "name": "Alix Kubdel (Adult)", "description": "", "imageFilename": "ALIX_KUBDEL_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,7 +3515,7 @@
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A101&amp;""", ""name"": """&amp;B101&amp;""", ""description"": """&amp;C101&amp;""", ""imageFilename"": """&amp;A101&amp;".webp"", ""color"": """&amp;D101&amp;""", ""group"": """&amp;E101&amp;"""},"</f>
-        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BUNNYX", "name": "Bunnyx", "description": "", "imageFilename": "BUNNYX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,7 +3533,7 @@
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A102&amp;""", ""name"": """&amp;B102&amp;""", ""description"": """&amp;C102&amp;""", ""imageFilename"": """&amp;A102&amp;".webp"", ""color"": """&amp;D102&amp;""", ""group"": """&amp;E102&amp;"""},"</f>
-        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMEBREAKER", "name": "Timebreaker", "description": "", "imageFilename": "TIMEBREAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3551,7 @@
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A103&amp;""", ""name"": """&amp;B103&amp;""", ""description"": """&amp;C103&amp;""", ""imageFilename"": """&amp;A103&amp;".webp"", ""color"": """&amp;D103&amp;""", ""group"": """&amp;E103&amp;"""},"</f>
-        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KAGAMI_TSURUGI", "name": "Kagami Tsurugi", "description": "", "imageFilename": "KAGAMI_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3560,7 +3569,7 @@
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A104&amp;""", ""name"": """&amp;B104&amp;""", ""description"": """&amp;C104&amp;""", ""imageFilename"": """&amp;A104&amp;".webp"", ""color"": """&amp;D104&amp;""", ""group"": """&amp;E104&amp;"""},"</f>
-        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RYUKO", "name": "Ryuko", "description": "", "imageFilename": "RYUKO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,7 +3587,7 @@
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A105&amp;""", ""name"": """&amp;B105&amp;""", ""description"": """&amp;C105&amp;""", ""imageFilename"": """&amp;A105&amp;".webp"", ""color"": """&amp;D105&amp;""", ""group"": """&amp;E105&amp;"""},"</f>
-        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "RIPOSTE", "name": "Riposte", "description": "", "imageFilename": "RIPOSTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,7 +3605,7 @@
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A106&amp;""", ""name"": """&amp;B106&amp;""", ""description"": """&amp;C106&amp;""", ""imageFilename"": """&amp;A106&amp;".webp"", ""color"": """&amp;D106&amp;""", ""group"": """&amp;E106&amp;"""},"</f>
-        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ONI_CHAN", "name": "Oni-Chan", "description": "", "imageFilename": "ONI_CHAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3623,7 @@
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A107&amp;""", ""name"": """&amp;B107&amp;""", ""description"": """&amp;C107&amp;""", ""imageFilename"": """&amp;A107&amp;".webp"", ""color"": """&amp;D107&amp;""", ""group"": """&amp;E107&amp;"""},"</f>
-        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LIES", "name": "Lies", "description": "", "imageFilename": "LIES.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,7 +3641,7 @@
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A108&amp;""", ""name"": """&amp;B108&amp;""", ""description"": """&amp;C108&amp;""", ""imageFilename"": """&amp;A108&amp;".webp"", ""color"": """&amp;D108&amp;""", ""group"": """&amp;E108&amp;"""},"</f>
-        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LUKA_COUFFAINE", "name": "Luka Couffaine", "description": "", "imageFilename": "LUKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,7 +3659,7 @@
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A109&amp;""", ""name"": """&amp;B109&amp;""", ""description"": """&amp;C109&amp;""", ""imageFilename"": """&amp;A109&amp;".webp"", ""color"": """&amp;D109&amp;""", ""group"": """&amp;E109&amp;"""},"</f>
-        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VIPERION", "name": "Viperion", "description": "", "imageFilename": "VIPERION.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,7 +3677,7 @@
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A110&amp;""", ""name"": """&amp;B110&amp;""", ""description"": """&amp;C110&amp;""", ""imageFilename"": """&amp;A110&amp;".webp"", ""color"": """&amp;D110&amp;""", ""group"": """&amp;E110&amp;"""},"</f>
-        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SILENCER", "name": "Silencer", "description": "", "imageFilename": "SILENCER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3686,7 +3695,7 @@
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A111&amp;""", ""name"": """&amp;B111&amp;""", ""description"": """&amp;C111&amp;""", ""imageFilename"": """&amp;A111&amp;".webp"", ""color"": """&amp;D111&amp;""", ""group"": """&amp;E111&amp;"""},"</f>
-        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TRUTH", "name": "Truth", "description": "", "imageFilename": "TRUTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,7 +3713,7 @@
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A112&amp;""", ""name"": """&amp;B112&amp;""", ""description"": """&amp;C112&amp;""", ""imageFilename"": """&amp;A112&amp;".webp"", ""color"": """&amp;D112&amp;""", ""group"": """&amp;E112&amp;"""},"</f>
-        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAX_KANTE", "name": "Max Kanté", "description": "", "imageFilename": "MAX_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,7 +3731,7 @@
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A113&amp;""", ""name"": """&amp;B113&amp;""", ""description"": """&amp;C113&amp;""", ""imageFilename"": """&amp;A113&amp;".webp"", ""color"": """&amp;D113&amp;""", ""group"": """&amp;E113&amp;"""},"</f>
-        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PEGASUS", "name": "Pegasus", "description": "", "imageFilename": "PEGASUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,7 +3749,7 @@
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A114&amp;""", ""name"": """&amp;B114&amp;""", ""description"": """&amp;C114&amp;""", ""imageFilename"": """&amp;A114&amp;".webp"", ""color"": """&amp;D114&amp;""", ""group"": """&amp;E114&amp;"""},"</f>
-        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GAMER", "name": "Gamer", "description": "", "imageFilename": "GAMER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,7 +3767,7 @@
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A115&amp;""", ""name"": """&amp;B115&amp;""", ""description"": """&amp;C115&amp;""", ""imageFilename"": """&amp;A115&amp;".webp"", ""color"": """&amp;D115&amp;""", ""group"": """&amp;E115&amp;"""},"</f>
-        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NATHANIEL_KURTZBERG", "name": "Nathaniel Kurtzberg", "description": "", "imageFilename": "NATHANIEL_KURTZBERG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,7 +3785,7 @@
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A116&amp;""", ""name"": """&amp;B116&amp;""", ""description"": """&amp;C116&amp;""", ""imageFilename"": """&amp;A116&amp;".webp"", ""color"": """&amp;D116&amp;""", ""group"": """&amp;E116&amp;"""},"</f>
-        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPRIKID", "name": "Caprikid", "description": "", "imageFilename": "CAPRIKID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,7 +3803,7 @@
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A117&amp;""", ""name"": """&amp;B117&amp;""", ""description"": """&amp;C117&amp;""", ""imageFilename"": """&amp;A117&amp;".webp"", ""color"": """&amp;D117&amp;""", ""group"": """&amp;E117&amp;"""},"</f>
-        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_EVILLUSTRATOR", "name": "The Evillustrator", "description": "", "imageFilename": "THE_EVILLUSTRATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3821,7 @@
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A118&amp;""", ""name"": """&amp;B118&amp;""", ""description"": """&amp;C118&amp;""", ""imageFilename"": """&amp;A118&amp;".webp"", ""color"": """&amp;D118&amp;""", ""group"": """&amp;E118&amp;"""},"</f>
-        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LE_CHIEN_KIM", "name": "Lê Chiến Kim", "description": "", "imageFilename": "LE_CHIEN_KIM.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3830,7 +3839,7 @@
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A119&amp;""", ""name"": """&amp;B119&amp;""", ""description"": """&amp;C119&amp;""", ""imageFilename"": """&amp;A119&amp;".webp"", ""color"": """&amp;D119&amp;""", ""group"": """&amp;E119&amp;"""},"</f>
-        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_MONKEY", "name": "King Monkey", "description": "", "imageFilename": "KING_MONKEY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3857,7 @@
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A120&amp;""", ""name"": """&amp;B120&amp;""", ""description"": """&amp;C120&amp;""", ""imageFilename"": """&amp;A120&amp;".webp"", ""color"": """&amp;D120&amp;""", ""group"": """&amp;E120&amp;"""},"</f>
-        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_CUPID", "name": "Dark Cupid", "description": "", "imageFilename": "DARK_CUPID.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,7 +3875,7 @@
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A121&amp;""", ""name"": """&amp;B121&amp;""", ""description"": """&amp;C121&amp;""", ""imageFilename"": """&amp;A121&amp;".webp"", ""color"": """&amp;D121&amp;""", ""group"": """&amp;E121&amp;"""},"</f>
-        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MARC_ANCIEL", "name": "Marc Anciel", "description": "", "imageFilename": "MARC_ANCIEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3884,7 +3893,7 @@
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A122&amp;""", ""name"": """&amp;B122&amp;""", ""description"": """&amp;C122&amp;""", ""imageFilename"": """&amp;A122&amp;".webp"", ""color"": """&amp;D122&amp;""", ""group"": """&amp;E122&amp;"""},"</f>
-        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROOSTER_BOLD", "name": "Rooster Bold", "description": "", "imageFilename": "ROOSTER_BOLD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,7 +3911,7 @@
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A123&amp;""", ""name"": """&amp;B123&amp;""", ""description"": """&amp;C123&amp;""", ""imageFilename"": """&amp;A123&amp;".webp"", ""color"": """&amp;D123&amp;""", ""group"": """&amp;E123&amp;"""},"</f>
-        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "REVERSER", "name": "Reverser", "description": "", "imageFilename": "REVERSER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3929,7 @@
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A124&amp;""", ""name"": """&amp;B124&amp;""", ""description"": """&amp;C124&amp;""", ""imageFilename"": """&amp;A124&amp;".webp"", ""color"": """&amp;D124&amp;""", ""group"": """&amp;E124&amp;"""},"</f>
-        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SABRINA_RAINCOMPRIX", "name": "Sabrina Raincomprix", "description": "", "imageFilename": "SABRINA_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3938,7 +3947,7 @@
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A125&amp;""", ""name"": """&amp;B125&amp;""", ""description"": """&amp;C125&amp;""", ""imageFilename"": """&amp;A125&amp;".webp"", ""color"": """&amp;D125&amp;""", ""group"": """&amp;E125&amp;"""},"</f>
-        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MISS_HOUND", "name": "Miss Hound", "description": "", "imageFilename": "MISS_HOUND.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,7 +3965,7 @@
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A126&amp;""", ""name"": """&amp;B126&amp;""", ""description"": """&amp;C126&amp;""", ""imageFilename"": """&amp;A126&amp;".webp"", ""color"": """&amp;D126&amp;""", ""group"": """&amp;E126&amp;"""},"</f>
-        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VANISHER", "name": "Vanisher", "description": "", "imageFilename": "VANISHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3983,7 @@
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A127&amp;""", ""name"": """&amp;B127&amp;""", ""description"": """&amp;C127&amp;""", ""imageFilename"": """&amp;A127&amp;".webp"", ""color"": """&amp;D127&amp;""", ""group"": """&amp;E127&amp;"""},"</f>
-        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MIRACULER", "name": "Miraculer", "description": "", "imageFilename": "MIRACULER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,7 +4001,7 @@
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A128&amp;""", ""name"": """&amp;B128&amp;""", ""description"": """&amp;C128&amp;""", ""imageFilename"": """&amp;A128&amp;".webp"", ""color"": """&amp;D128&amp;""", ""group"": """&amp;E128&amp;"""},"</f>
-        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROSE_LAVILLANT", "name": "Rose Lavillant", "description": "", "imageFilename": "ROSE_LAVILLANT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,25 +4019,25 @@
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A129&amp;""", ""name"": """&amp;B129&amp;""", ""description"": """&amp;C129&amp;""", ""imageFilename"": """&amp;A129&amp;".webp"", ""color"": """&amp;D129&amp;""", ""group"": """&amp;E129&amp;"""},"</f>
+        <v>{"id": "PIGELLA", "name": "Pigella", "description": "", "imageFilename": "PIGELLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A130&amp;""", ""name"": """&amp;B130&amp;""", ""description"": """&amp;C130&amp;""", ""imageFilename"": """&amp;A130&amp;".webp"", ""color"": """&amp;D130&amp;""", ""group"": """&amp;E130&amp;"""},"</f>
         <v>{"id": "PRINCESS_FRAGRANCE", "name": "Princess Fragrance", "description": "", "imageFilename": "PRINCESS_FRAGRANCE.webp", "color": "#000000", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A131&amp;""", ""name"": """&amp;B131&amp;""", ""description"": """&amp;C131&amp;""", ""imageFilename"": """&amp;A131&amp;".webp"", ""color"": """&amp;D131&amp;""", ""group"": """&amp;E131&amp;"""},"</f>
-        <v>{"id": "AURORE_BEAUREAL", "name": "Aurore Beauréal", "description": "", "imageFilename": "AURORE_BEAUREAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +4055,7 @@
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A132&amp;""", ""name"": """&amp;B132&amp;""", ""description"": """&amp;C132&amp;""", ""imageFilename"": """&amp;A132&amp;".webp"", ""color"": """&amp;D132&amp;""", ""group"": """&amp;E132&amp;"""},"</f>
-        <v>{"id": "STORMY_WEATHER", "name": "Stormy Weather", "description": "", "imageFilename": "STORMY_WEATHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "AURORE_BEAUREAL", "name": "Aurore Beauréal", "description": "", "imageFilename": "AURORE_BEAUREAL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +4073,7 @@
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A133&amp;""", ""name"": """&amp;B133&amp;""", ""description"": """&amp;C133&amp;""", ""imageFilename"": """&amp;A133&amp;".webp"", ""color"": """&amp;D133&amp;""", ""group"": """&amp;E133&amp;"""},"</f>
-        <v>{"id": "JEAN_DUPARC", "name": "Jean Duparc", "description": "", "imageFilename": "JEAN_DUPARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STORMY_WEATHER", "name": "Stormy Weather", "description": "", "imageFilename": "STORMY_WEATHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,7 +4091,7 @@
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A134&amp;""", ""name"": """&amp;B134&amp;""", ""description"": """&amp;C134&amp;""", ""imageFilename"": """&amp;A134&amp;".webp"", ""color"": """&amp;D134&amp;""", ""group"": """&amp;E134&amp;"""},"</f>
-        <v>{"id": "MAGICIAN_OF_MISFORTUNE", "name": "Magician of Misfortune", "description": "", "imageFilename": "MAGICIAN_OF_MISFORTUNE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JEAN_DUPARC", "name": "Jean Duparc", "description": "", "imageFilename": "JEAN_DUPARC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4109,7 @@
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A135&amp;""", ""name"": """&amp;B135&amp;""", ""description"": """&amp;C135&amp;""", ""imageFilename"": """&amp;A135&amp;".webp"", ""color"": """&amp;D135&amp;""", ""group"": """&amp;E135&amp;"""},"</f>
-        <v>{"id": "XAVIER_RAMIER", "name": "Xavier Ramier", "description": "", "imageFilename": "XAVIER_RAMIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MAGICIAN_OF_MISFORTUNE", "name": "Magician of Misfortune", "description": "", "imageFilename": "MAGICIAN_OF_MISFORTUNE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +4127,7 @@
       </c>
       <c r="G136" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A136&amp;""", ""name"": """&amp;B136&amp;""", ""description"": """&amp;C136&amp;""", ""imageFilename"": """&amp;A136&amp;".webp"", ""color"": """&amp;D136&amp;""", ""group"": """&amp;E136&amp;"""},"</f>
-        <v>{"id": "MR__PIGEON", "name": "Mr. Pigeon", "description": "", "imageFilename": "MR__PIGEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "XAVIER_RAMIER", "name": "Xavier Ramier", "description": "", "imageFilename": "XAVIER_RAMIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4145,7 @@
       </c>
       <c r="G137" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A137&amp;""", ""name"": """&amp;B137&amp;""", ""description"": """&amp;C137&amp;""", ""imageFilename"": """&amp;A137&amp;".webp"", ""color"": """&amp;D137&amp;""", ""group"": """&amp;E137&amp;"""},"</f>
-        <v>{"id": "VINCENT_AZA", "name": "Vincent Aza", "description": "", "imageFilename": "VINCENT_AZA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MR__PIGEON", "name": "Mr. Pigeon", "description": "", "imageFilename": "MR__PIGEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4163,7 @@
       </c>
       <c r="G138" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A138&amp;""", ""name"": """&amp;B138&amp;""", ""description"": """&amp;C138&amp;""", ""imageFilename"": """&amp;A138&amp;".webp"", ""color"": """&amp;D138&amp;""", ""group"": """&amp;E138&amp;"""},"</f>
-        <v>{"id": "PIXELATOR", "name": "Pixelator", "description": "", "imageFilename": "PIXELATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VINCENT_AZA", "name": "Vincent Aza", "description": "", "imageFilename": "VINCENT_AZA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,7 +4181,7 @@
       </c>
       <c r="G139" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A139&amp;""", ""name"": """&amp;B139&amp;""", ""description"": """&amp;C139&amp;""", ""imageFilename"": """&amp;A139&amp;".webp"", ""color"": """&amp;D139&amp;""", ""group"": """&amp;E139&amp;"""},"</f>
-        <v>{"id": "THEO_BARBOT", "name": "Théo Barbot", "description": "", "imageFilename": "THEO_BARBOT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PIXELATOR", "name": "Pixelator", "description": "", "imageFilename": "PIXELATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +4199,7 @@
       </c>
       <c r="G140" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A140&amp;""", ""name"": """&amp;B140&amp;""", ""description"": """&amp;C140&amp;""", ""imageFilename"": """&amp;A140&amp;".webp"", ""color"": """&amp;D140&amp;""", ""group"": """&amp;E140&amp;"""},"</f>
-        <v>{"id": "COPYCAT", "name": "Copycat", "description": "", "imageFilename": "COPYCAT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THEO_BARBOT", "name": "Théo Barbot", "description": "", "imageFilename": "THEO_BARBOT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4217,7 @@
       </c>
       <c r="G141" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A141&amp;""", ""name"": """&amp;B141&amp;""", ""description"": """&amp;C141&amp;""", ""imageFilename"": """&amp;A141&amp;".webp"", ""color"": """&amp;D141&amp;""", ""group"": """&amp;E141&amp;"""},"</f>
-        <v>{"id": "SIMON_GRIMAULT", "name": "Simon Grimault", "description": "", "imageFilename": "SIMON_GRIMAULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "COPYCAT", "name": "Copycat", "description": "", "imageFilename": "COPYCAT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4235,7 @@
       </c>
       <c r="G142" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A142&amp;""", ""name"": """&amp;B142&amp;""", ""description"": """&amp;C142&amp;""", ""imageFilename"": """&amp;A142&amp;".webp"", ""color"": """&amp;D142&amp;""", ""group"": """&amp;E142&amp;"""},"</f>
-        <v>{"id": "SIMON_SAYS", "name": "Simon Says", "description": "", "imageFilename": "SIMON_SAYS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SIMON_GRIMAULT", "name": "Simon Grimault", "description": "", "imageFilename": "SIMON_GRIMAULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,7 +4253,7 @@
       </c>
       <c r="G143" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A143&amp;""", ""name"": """&amp;B143&amp;""", ""description"": """&amp;C143&amp;""", ""imageFilename"": """&amp;A143&amp;".webp"", ""color"": """&amp;D143&amp;""", ""group"": """&amp;E143&amp;"""},"</f>
-        <v>{"id": "ROGER_RAINCOMPRIX", "name": "Roger Raincomprix", "description": "", "imageFilename": "ROGER_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SIMON_SAYS", "name": "Simon Says", "description": "", "imageFilename": "SIMON_SAYS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +4271,7 @@
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A144&amp;""", ""name"": """&amp;B144&amp;""", ""description"": """&amp;C144&amp;""", ""imageFilename"": """&amp;A144&amp;".webp"", ""color"": """&amp;D144&amp;""", ""group"": """&amp;E144&amp;"""},"</f>
-        <v>{"id": "ROGERCOP", "name": "Rogercop", "description": "", "imageFilename": "ROGERCOP.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROGER_RAINCOMPRIX", "name": "Roger Raincomprix", "description": "", "imageFilename": "ROGER_RAINCOMPRIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4289,7 @@
       </c>
       <c r="G145" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A145&amp;""", ""name"": """&amp;B145&amp;""", ""description"": """&amp;C145&amp;""", ""imageFilename"": """&amp;A145&amp;".webp"", ""color"": """&amp;D145&amp;""", ""group"": """&amp;E145&amp;"""},"</f>
-        <v>{"id": "OTIS_CESAIRE", "name": "Otis Césaire", "description": "", "imageFilename": "OTIS_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROGERCOP", "name": "Rogercop", "description": "", "imageFilename": "ROGERCOP.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4307,7 @@
       </c>
       <c r="G146" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A146&amp;""", ""name"": """&amp;B146&amp;""", ""description"": """&amp;C146&amp;""", ""imageFilename"": """&amp;A146&amp;".webp"", ""color"": """&amp;D146&amp;""", ""group"": """&amp;E146&amp;"""},"</f>
-        <v>{"id": "ANIMAN", "name": "Animan", "description": "", "imageFilename": "ANIMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "OTIS_CESAIRE", "name": "Otis Césaire", "description": "", "imageFilename": "OTIS_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,7 +4325,7 @@
       </c>
       <c r="G147" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A147&amp;""", ""name"": """&amp;B147&amp;""", ""description"": """&amp;C147&amp;""", ""imageFilename"": """&amp;A147&amp;".webp"", ""color"": """&amp;D147&amp;""", ""group"": """&amp;E147&amp;"""},"</f>
-        <v>{"id": "ARMAND_D_ARGENCOURT", "name": "Armand D'Argencourt", "description": "", "imageFilename": "ARMAND_D_ARGENCOURT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN", "name": "Animan", "description": "", "imageFilename": "ANIMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,7 +4343,7 @@
       </c>
       <c r="G148" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A148&amp;""", ""name"": """&amp;B148&amp;""", ""description"": """&amp;C148&amp;""", ""imageFilename"": """&amp;A148&amp;".webp"", ""color"": """&amp;D148&amp;""", ""group"": """&amp;E148&amp;"""},"</f>
-        <v>{"id": "DARKBLADE", "name": "Darkblade", "description": "", "imageFilename": "DARKBLADE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ARMAND_D_ARGENCOURT", "name": "Armand D'Argencourt", "description": "", "imageFilename": "ARMAND_D_ARGENCOURT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +4361,7 @@
       </c>
       <c r="G149" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A149&amp;""", ""name"": """&amp;B149&amp;""", ""description"": """&amp;C149&amp;""", ""imageFilename"": """&amp;A149&amp;".webp"", ""color"": """&amp;D149&amp;""", ""group"": """&amp;E149&amp;"""},"</f>
-        <v>{"id": "JALIL_KUBDEL", "name": "Jalil Kubdel", "description": "", "imageFilename": "JALIL_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DARKBLADE", "name": "Darkblade", "description": "", "imageFilename": "DARKBLADE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,7 +4379,7 @@
       </c>
       <c r="G150" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A150&amp;""", ""name"": """&amp;B150&amp;""", ""description"": """&amp;C150&amp;""", ""imageFilename"": """&amp;A150&amp;".webp"", ""color"": """&amp;D150&amp;""", ""group"": """&amp;E150&amp;"""},"</f>
-        <v>{"id": "THE_PHARAOH", "name": "The Pharaoh", "description": "", "imageFilename": "THE_PHARAOH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JALIL_KUBDEL", "name": "Jalil Kubdel", "description": "", "imageFilename": "JALIL_KUBDEL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4397,7 @@
       </c>
       <c r="G151" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A151&amp;""", ""name"": """&amp;B151&amp;""", ""description"": """&amp;C151&amp;""", ""imageFilename"": """&amp;A151&amp;".webp"", ""color"": """&amp;D151&amp;""", ""group"": """&amp;E151&amp;"""},"</f>
-        <v>{"id": "MANON_CHAMACK", "name": "Manon Chamack", "description": "", "imageFilename": "MANON_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_PHARAOH", "name": "The Pharaoh", "description": "", "imageFilename": "THE_PHARAOH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4415,7 @@
       </c>
       <c r="G152" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A152&amp;""", ""name"": """&amp;B152&amp;""", ""description"": """&amp;C152&amp;""", ""imageFilename"": """&amp;A152&amp;".webp"", ""color"": """&amp;D152&amp;""", ""group"": """&amp;E152&amp;"""},"</f>
-        <v>{"id": "THE_PUPPETEER", "name": "The Puppeteer", "description": "", "imageFilename": "THE_PUPPETEER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MANON_CHAMACK", "name": "Manon Chamack", "description": "", "imageFilename": "MANON_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4433,7 @@
       </c>
       <c r="G153" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A153&amp;""", ""name"": """&amp;B153&amp;""", ""description"": """&amp;C153&amp;""", ""imageFilename"": """&amp;A153&amp;".webp"", ""color"": """&amp;D153&amp;""", ""group"": """&amp;E153&amp;"""},"</f>
-        <v>{"id": "FRED_HAPRELE", "name": "Fred Haprèle", "description": "", "imageFilename": "FRED_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_PUPPETEER", "name": "The Puppeteer", "description": "", "imageFilename": "THE_PUPPETEER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,7 +4451,7 @@
       </c>
       <c r="G154" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A154&amp;""", ""name"": """&amp;B154&amp;""", ""description"": """&amp;C154&amp;""", ""imageFilename"": """&amp;A154&amp;".webp"", ""color"": """&amp;D154&amp;""", ""group"": """&amp;E154&amp;"""},"</f>
-        <v>{"id": "THE_MIME", "name": "The Mime", "description": "", "imageFilename": "THE_MIME.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FRED_HAPRELE", "name": "Fred Haprèle", "description": "", "imageFilename": "FRED_HAPRELE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +4469,7 @@
       </c>
       <c r="G155" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A155&amp;""", ""name"": """&amp;B155&amp;""", ""description"": """&amp;C155&amp;""", ""imageFilename"": """&amp;A155&amp;".webp"", ""color"": """&amp;D155&amp;""", ""group"": """&amp;E155&amp;"""},"</f>
-        <v>{"id": "JAGGED_STONE", "name": "Jagged Stone", "description": "", "imageFilename": "JAGGED_STONE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_MIME", "name": "The Mime", "description": "", "imageFilename": "THE_MIME.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +4487,7 @@
       </c>
       <c r="G156" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A156&amp;""", ""name"": """&amp;B156&amp;""", ""description"": """&amp;C156&amp;""", ""imageFilename"": """&amp;A156&amp;".webp"", ""color"": """&amp;D156&amp;""", ""group"": """&amp;E156&amp;"""},"</f>
-        <v>{"id": "GUITAR_VILLAIN", "name": "Guitar Villain", "description": "", "imageFilename": "GUITAR_VILLAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "JAGGED_STONE", "name": "Jagged Stone", "description": "", "imageFilename": "JAGGED_STONE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4505,7 @@
       </c>
       <c r="G157" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A157&amp;""", ""name"": """&amp;B157&amp;""", ""description"": """&amp;C157&amp;""", ""imageFilename"": """&amp;A157&amp;".webp"", ""color"": """&amp;D157&amp;""", ""group"": """&amp;E157&amp;"""},"</f>
-        <v>{"id": "WANG_CHENG", "name": "Wang Cheng", "description": "", "imageFilename": "WANG_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GUITAR_VILLAIN", "name": "Guitar Villain", "description": "", "imageFilename": "GUITAR_VILLAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,7 +4523,7 @@
       </c>
       <c r="G158" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A158&amp;""", ""name"": """&amp;B158&amp;""", ""description"": """&amp;C158&amp;""", ""imageFilename"": """&amp;A158&amp;".webp"", ""color"": """&amp;D158&amp;""", ""group"": """&amp;E158&amp;"""},"</f>
-        <v>{"id": "KUNG_FOOD", "name": "Kung Food", "description": "", "imageFilename": "KUNG_FOOD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_CHENG", "name": "Wang Cheng", "description": "", "imageFilename": "WANG_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4541,7 @@
       </c>
       <c r="G159" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A159&amp;""", ""name"": """&amp;B159&amp;""", ""description"": """&amp;C159&amp;""", ""imageFilename"": """&amp;A159&amp;".webp"", ""color"": """&amp;D159&amp;""", ""group"": """&amp;E159&amp;"""},"</f>
-        <v>{"id": "LILA_ROSSI", "name": "Lila Rossi", "description": "", "imageFilename": "LILA_ROSSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KUNG_FOOD", "name": "Kung Food", "description": "", "imageFilename": "KUNG_FOOD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,7 +4559,7 @@
       </c>
       <c r="G160" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A160&amp;""", ""name"": """&amp;B160&amp;""", ""description"": """&amp;C160&amp;""", ""imageFilename"": """&amp;A160&amp;".webp"", ""color"": """&amp;D160&amp;""", ""group"": """&amp;E160&amp;"""},"</f>
-        <v>{"id": "VOLPINA", "name": "Volpina", "description": "", "imageFilename": "VOLPINA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "LILA_ROSSI", "name": "Lila Rossi", "description": "", "imageFilename": "LILA_ROSSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,7 +4577,7 @@
       </c>
       <c r="G161" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A161&amp;""", ""name"": """&amp;B161&amp;""", ""description"": """&amp;C161&amp;""", ""imageFilename"": """&amp;A161&amp;".webp"", ""color"": """&amp;D161&amp;""", ""group"": """&amp;E161&amp;"""},"</f>
-        <v>{"id": "CHAMELEON", "name": "Chameleon", "description": "", "imageFilename": "CHAMELEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VOLPINA", "name": "Volpina", "description": "", "imageFilename": "VOLPINA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,7 +4595,7 @@
       </c>
       <c r="G162" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A162&amp;""", ""name"": """&amp;B162&amp;""", ""description"": """&amp;C162&amp;""", ""imageFilename"": """&amp;A162&amp;".webp"", ""color"": """&amp;D162&amp;""", ""group"": """&amp;E162&amp;"""},"</f>
-        <v>{"id": "NADJA_CHAMACK", "name": "Nadja Chamack", "description": "", "imageFilename": "NADJA_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHAMELEON", "name": "Chameleon", "description": "", "imageFilename": "CHAMELEON.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,7 +4613,7 @@
       </c>
       <c r="G163" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A163&amp;""", ""name"": """&amp;B163&amp;""", ""description"": """&amp;C163&amp;""", ""imageFilename"": """&amp;A163&amp;".webp"", ""color"": """&amp;D163&amp;""", ""group"": """&amp;E163&amp;"""},"</f>
-        <v>{"id": "PRIME_QUEEN", "name": "Prime Queen", "description": "", "imageFilename": "PRIME_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NADJA_CHAMACK", "name": "Nadja Chamack", "description": "", "imageFilename": "NADJA_CHAMACK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,7 +4631,7 @@
       </c>
       <c r="G164" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A164&amp;""", ""name"": """&amp;B164&amp;""", ""description"": """&amp;C164&amp;""", ""imageFilename"": """&amp;A164&amp;".webp"", ""color"": """&amp;D164&amp;""", ""group"": """&amp;E164&amp;"""},"</f>
-        <v>{"id": "ANDRE", "name": "André", "description": "", "imageFilename": "ANDRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PRIME_QUEEN", "name": "Prime Queen", "description": "", "imageFilename": "PRIME_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4649,7 @@
       </c>
       <c r="G165" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A165&amp;""", ""name"": """&amp;B165&amp;""", ""description"": """&amp;C165&amp;""", ""imageFilename"": """&amp;A165&amp;".webp"", ""color"": """&amp;D165&amp;""", ""group"": """&amp;E165&amp;"""},"</f>
-        <v>{"id": "GLACIATOR", "name": "Glaciator", "description": "", "imageFilename": "GLACIATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANDRE", "name": "André", "description": "", "imageFilename": "ANDRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4667,7 @@
       </c>
       <c r="G166" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A166&amp;""", ""name"": """&amp;B166&amp;""", ""description"": """&amp;C166&amp;""", ""imageFilename"": """&amp;A166&amp;".webp"", ""color"": """&amp;D166&amp;""", ""group"": """&amp;E166&amp;"""},"</f>
-        <v>{"id": "BUTLER_JEAN", "name": "Butler Jean", "description": "", "imageFilename": "BUTLER_JEAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GLACIATOR", "name": "Glaciator", "description": "", "imageFilename": "GLACIATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4685,7 @@
       </c>
       <c r="G167" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A167&amp;""", ""name"": """&amp;B167&amp;""", ""description"": """&amp;C167&amp;""", ""imageFilename"": """&amp;A167&amp;".webp"", ""color"": """&amp;D167&amp;""", ""group"": """&amp;E167&amp;"""},"</f>
-        <v>{"id": "DESPAIR_BEAR", "name": "Despair Bear", "description": "", "imageFilename": "DESPAIR_BEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BUTLER_JEAN", "name": "Butler Jean", "description": "", "imageFilename": "BUTLER_JEAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4694,7 +4703,7 @@
       </c>
       <c r="G168" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A168&amp;""", ""name"": """&amp;B168&amp;""", ""description"": """&amp;C168&amp;""", ""imageFilename"": """&amp;A168&amp;".webp"", ""color"": """&amp;D168&amp;""", ""group"": """&amp;E168&amp;"""},"</f>
-        <v>{"id": "PENNY_ROLLING", "name": "Penny Rolling", "description": "", "imageFilename": "PENNY_ROLLING.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DESPAIR_BEAR", "name": "Despair Bear", "description": "", "imageFilename": "DESPAIR_BEAR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +4721,7 @@
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A169&amp;""", ""name"": """&amp;B169&amp;""", ""description"": """&amp;C169&amp;""", ""imageFilename"": """&amp;A169&amp;".webp"", ""color"": """&amp;D169&amp;""", ""group"": """&amp;E169&amp;"""},"</f>
-        <v>{"id": "TROUBLEMAKER", "name": "Troublemaker", "description": "", "imageFilename": "TROUBLEMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNY_ROLLING", "name": "Penny Rolling", "description": "", "imageFilename": "PENNY_ROLLING.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +4739,7 @@
       </c>
       <c r="G170" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A170&amp;""", ""name"": """&amp;B170&amp;""", ""description"": """&amp;C170&amp;""", ""imageFilename"": """&amp;A170&amp;".webp"", ""color"": """&amp;D170&amp;""", ""group"": """&amp;E170&amp;"""},"</f>
-        <v>{"id": "AUGUST", "name": "August", "description": "", "imageFilename": "AUGUST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TROUBLEMAKER", "name": "Troublemaker", "description": "", "imageFilename": "TROUBLEMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,7 +4757,7 @@
       </c>
       <c r="G171" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A171&amp;""", ""name"": """&amp;B171&amp;""", ""description"": """&amp;C171&amp;""", ""imageFilename"": """&amp;A171&amp;".webp"", ""color"": """&amp;D171&amp;""", ""group"": """&amp;E171&amp;"""},"</f>
-        <v>{"id": "GIGANTITAN", "name": "Gigantitan", "description": "", "imageFilename": "GIGANTITAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "AUGUST", "name": "August", "description": "", "imageFilename": "AUGUST.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4766,7 +4775,7 @@
       </c>
       <c r="G172" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A172&amp;""", ""name"": """&amp;B172&amp;""", ""description"": """&amp;C172&amp;""", ""imageFilename"": """&amp;A172&amp;".webp"", ""color"": """&amp;D172&amp;""", ""group"": """&amp;E172&amp;"""},"</f>
-        <v>{"id": "GINA_DUPAIN", "name": "Gina Dupain", "description": "", "imageFilename": "GINA_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GIGANTITAN", "name": "Gigantitan", "description": "", "imageFilename": "GIGANTITAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4793,7 @@
       </c>
       <c r="G173" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A173&amp;""", ""name"": """&amp;B173&amp;""", ""description"": """&amp;C173&amp;""", ""imageFilename"": """&amp;A173&amp;".webp"", ""color"": """&amp;D173&amp;""", ""group"": """&amp;E173&amp;"""},"</f>
-        <v>{"id": "BEFANA", "name": "Befana", "description": "", "imageFilename": "BEFANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GINA_DUPAIN", "name": "Gina Dupain", "description": "", "imageFilename": "GINA_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,7 +4811,7 @@
       </c>
       <c r="G174" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A174&amp;""", ""name"": """&amp;B174&amp;""", ""description"": """&amp;C174&amp;""", ""imageFilename"": """&amp;A174&amp;".webp"", ""color"": """&amp;D174&amp;""", ""group"": """&amp;E174&amp;"""},"</f>
-        <v>{"id": "CLARA_NIGHTINGALE", "name": "Clara Nightingale", "description": "", "imageFilename": "CLARA_NIGHTINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BEFANA", "name": "Befana", "description": "", "imageFilename": "BEFANA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4829,7 @@
       </c>
       <c r="G175" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A175&amp;""", ""name"": """&amp;B175&amp;""", ""description"": """&amp;C175&amp;""", ""imageFilename"": """&amp;A175&amp;".webp"", ""color"": """&amp;D175&amp;""", ""group"": """&amp;E175&amp;"""},"</f>
-        <v>{"id": "FRIGHTNINGALE", "name": "Frightningale", "description": "", "imageFilename": "FRIGHTNINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CLARA_NIGHTINGALE", "name": "Clara Nightingale", "description": "", "imageFilename": "CLARA_NIGHTINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,7 +4847,7 @@
       </c>
       <c r="G176" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A176&amp;""", ""name"": """&amp;B176&amp;""", ""description"": """&amp;C176&amp;""", ""imageFilename"": """&amp;A176&amp;".webp"", ""color"": """&amp;D176&amp;""", ""group"": """&amp;E176&amp;"""},"</f>
-        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FRIGHTNINGALE", "name": "Frightningale", "description": "", "imageFilename": "FRIGHTNINGALE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4865,7 @@
       </c>
       <c r="G177" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A177&amp;""", ""name"": """&amp;B177&amp;""", ""description"": """&amp;C177&amp;""", ""imageFilename"": """&amp;A177&amp;".webp"", ""color"": """&amp;D177&amp;""", ""group"": """&amp;E177&amp;"""},"</f>
-        <v>{"id": "GORIZILLA", "name": "Gorizilla", "description": "", "imageFilename": "GORIZILLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,7 +4883,7 @@
       </c>
       <c r="G178" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A178&amp;""", ""name"": """&amp;B178&amp;""", ""description"": """&amp;C178&amp;""", ""imageFilename"": """&amp;A178&amp;".webp"", ""color"": """&amp;D178&amp;""", ""group"": """&amp;E178&amp;"""},"</f>
-        <v>{"id": "MARKOV", "name": "Markov", "description": "", "imageFilename": "MARKOV.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GORIZILLA", "name": "Gorizilla", "description": "", "imageFilename": "GORIZILLA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,7 +4901,7 @@
       </c>
       <c r="G179" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A179&amp;""", ""name"": """&amp;B179&amp;""", ""description"": """&amp;C179&amp;""", ""imageFilename"": """&amp;A179&amp;".webp"", ""color"": """&amp;D179&amp;""", ""group"": """&amp;E179&amp;"""},"</f>
-        <v>{"id": "ROBOSTUS", "name": "Robostus", "description": "", "imageFilename": "ROBOSTUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MARKOV", "name": "Markov", "description": "", "imageFilename": "MARKOV.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +4919,7 @@
       </c>
       <c r="G180" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A180&amp;""", ""name"": """&amp;B180&amp;""", ""description"": """&amp;C180&amp;""", ""imageFilename"": """&amp;A180&amp;".webp"", ""color"": """&amp;D180&amp;""", ""group"": """&amp;E180&amp;"""},"</f>
-        <v>{"id": "ELLA_AND_ETTA_CESAIRE", "name": "Ella and Etta Césaire", "description": "", "imageFilename": "ELLA_AND_ETTA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROBOSTUS", "name": "Robostus", "description": "", "imageFilename": "ROBOSTUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +4937,7 @@
       </c>
       <c r="G181" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A181&amp;""", ""name"": """&amp;B181&amp;""", ""description"": """&amp;C181&amp;""", ""imageFilename"": """&amp;A181&amp;".webp"", ""color"": """&amp;D181&amp;""", ""group"": """&amp;E181&amp;"""},"</f>
-        <v>{"id": "SAPOTIS", "name": "Sapotis", "description": "", "imageFilename": "SAPOTIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ELLA_AND_ETTA_CESAIRE", "name": "Ella and Etta Césaire", "description": "", "imageFilename": "ELLA_AND_ETTA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,7 +4955,7 @@
       </c>
       <c r="G182" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A182&amp;""", ""name"": """&amp;B182&amp;""", ""description"": """&amp;C182&amp;""", ""imageFilename"": """&amp;A182&amp;".webp"", ""color"": """&amp;D182&amp;""", ""group"": """&amp;E182&amp;"""},"</f>
-        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SAPOTIS", "name": "Sapotis", "description": "", "imageFilename": "SAPOTIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +4973,7 @@
       </c>
       <c r="G183" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A183&amp;""", ""name"": """&amp;B183&amp;""", ""description"": """&amp;C183&amp;""", ""imageFilename"": """&amp;A183&amp;".webp"", ""color"": """&amp;D183&amp;""", ""group"": """&amp;E183&amp;"""},"</f>
-        <v>{"id": "DARK_OWL", "name": "Dark Owl", "description": "", "imageFilename": "DARK_OWL.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +4991,7 @@
       </c>
       <c r="G184" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A184&amp;""", ""name"": """&amp;B184&amp;""", ""description"": """&amp;C184&amp;""", ""imageFilename"": """&amp;A184&amp;".webp"", ""color"": """&amp;D184&amp;""", ""group"": """&amp;E184&amp;"""},"</f>
-        <v>{"id": "ONDINE", "name": "Ondine", "description": "", "imageFilename": "ONDINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_OWL", "name": "Dark Owl", "description": "", "imageFilename": "DARK_OWL.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +5009,7 @@
       </c>
       <c r="G185" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A185&amp;""", ""name"": """&amp;B185&amp;""", ""description"": """&amp;C185&amp;""", ""imageFilename"": """&amp;A185&amp;".webp"", ""color"": """&amp;D185&amp;""", ""group"": """&amp;E185&amp;"""},"</f>
-        <v>{"id": "SYREN", "name": "Syren", "description": "", "imageFilename": "SYREN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ONDINE", "name": "Ondine", "description": "", "imageFilename": "ONDINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +5027,7 @@
       </c>
       <c r="G186" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A186&amp;""", ""name"": """&amp;B186&amp;""", ""description"": """&amp;C186&amp;""", ""imageFilename"": """&amp;A186&amp;".webp"", ""color"": """&amp;D186&amp;""", ""group"": """&amp;E186&amp;"""},"</f>
-        <v>{"id": "CALINE_BUSTIER", "name": "Caline Bustier", "description": "", "imageFilename": "CALINE_BUSTIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SYREN", "name": "Syren", "description": "", "imageFilename": "SYREN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5045,7 @@
       </c>
       <c r="G187" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A187&amp;""", ""name"": """&amp;B187&amp;""", ""description"": """&amp;C187&amp;""", ""imageFilename"": """&amp;A187&amp;".webp"", ""color"": """&amp;D187&amp;""", ""group"": """&amp;E187&amp;"""},"</f>
-        <v>{"id": "ZOMBIZOU", "name": "Zombizou", "description": "", "imageFilename": "ZOMBIZOU.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CALINE_BUSTIER", "name": "Caline Bustier", "description": "", "imageFilename": "CALINE_BUSTIER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5054,7 +5063,7 @@
       </c>
       <c r="G188" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A188&amp;""", ""name"": """&amp;B188&amp;""", ""description"": """&amp;C188&amp;""", ""imageFilename"": """&amp;A188&amp;".webp"", ""color"": """&amp;D188&amp;""", ""group"": """&amp;E188&amp;"""},"</f>
-        <v>{"id": "ANARKA_COUFFAINE", "name": "Anarka Couffaine", "description": "", "imageFilename": "ANARKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOMBIZOU", "name": "Zombizou", "description": "", "imageFilename": "ZOMBIZOU.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5081,7 @@
       </c>
       <c r="G189" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A189&amp;""", ""name"": """&amp;B189&amp;""", ""description"": """&amp;C189&amp;""", ""imageFilename"": """&amp;A189&amp;".webp"", ""color"": """&amp;D189&amp;""", ""group"": """&amp;E189&amp;"""},"</f>
-        <v>{"id": "CAPTAIN_HARDROCK", "name": "Captain Hardrock", "description": "", "imageFilename": "CAPTAIN_HARDROCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANARKA_COUFFAINE", "name": "Anarka Couffaine", "description": "", "imageFilename": "ANARKA_COUFFAINE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,7 +5099,7 @@
       </c>
       <c r="G190" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A190&amp;""", ""name"": """&amp;B190&amp;""", ""description"": """&amp;C190&amp;""", ""imageFilename"": """&amp;A190&amp;".webp"", ""color"": """&amp;D190&amp;""", ""group"": """&amp;E190&amp;"""},"</f>
-        <v>{"id": "PHILIPPE", "name": "Philippe", "description": "", "imageFilename": "PHILIPPE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPTAIN_HARDROCK", "name": "Captain Hardrock", "description": "", "imageFilename": "CAPTAIN_HARDROCK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,7 +5117,7 @@
       </c>
       <c r="G191" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A191&amp;""", ""name"": """&amp;B191&amp;""", ""description"": """&amp;C191&amp;""", ""imageFilename"": """&amp;A191&amp;".webp"", ""color"": """&amp;D191&amp;""", ""group"": """&amp;E191&amp;"""},"</f>
-        <v>{"id": "FROZER", "name": "Frozer", "description": "", "imageFilename": "FROZER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PHILIPPE", "name": "Philippe", "description": "", "imageFilename": "PHILIPPE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,7 +5135,7 @@
       </c>
       <c r="G192" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A192&amp;""", ""name"": """&amp;B192&amp;""", ""description"": """&amp;C192&amp;""", ""imageFilename"": """&amp;A192&amp;".webp"", ""color"": """&amp;D192&amp;""", ""group"": """&amp;E192&amp;"""},"</f>
-        <v>{"id": "AUDREY_BOURGEOIS", "name": "Audrey Bourgeois", "description": "", "imageFilename": "AUDREY_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FROZER", "name": "Frozer", "description": "", "imageFilename": "FROZER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5153,7 @@
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A193&amp;""", ""name"": """&amp;B193&amp;""", ""description"": """&amp;C193&amp;""", ""imageFilename"": """&amp;A193&amp;".webp"", ""color"": """&amp;D193&amp;""", ""group"": """&amp;E193&amp;"""},"</f>
-        <v>{"id": "STYLE_QUEEN", "name": "Style Queen", "description": "", "imageFilename": "STYLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "AUDREY_BOURGEOIS", "name": "Audrey Bourgeois", "description": "", "imageFilename": "AUDREY_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5171,7 @@
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A194&amp;""", ""name"": """&amp;B194&amp;""", ""description"": """&amp;C194&amp;""", ""imageFilename"": """&amp;A194&amp;".webp"", ""color"": """&amp;D194&amp;""", ""group"": """&amp;E194&amp;"""},"</f>
-        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STYLE_QUEEN", "name": "Style Queen", "description": "", "imageFilename": "STYLE_QUEEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,7 +5189,7 @@
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A195&amp;""", ""name"": """&amp;B195&amp;""", ""description"": """&amp;C195&amp;""", ""imageFilename"": """&amp;A195&amp;".webp"", ""color"": """&amp;D195&amp;""", ""group"": """&amp;E195&amp;"""},"</f>
-        <v>{"id": "NORA_CESAIRE", "name": "Nora Césaire", "description": "", "imageFilename": "NORA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +5207,7 @@
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A196&amp;""", ""name"": """&amp;B196&amp;""", ""description"": """&amp;C196&amp;""", ""imageFilename"": """&amp;A196&amp;".webp"", ""color"": """&amp;D196&amp;""", ""group"": """&amp;E196&amp;"""},"</f>
-        <v>{"id": "ANANSI", "name": "Anansi", "description": "", "imageFilename": "ANANSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "NORA_CESAIRE", "name": "Nora Césaire", "description": "", "imageFilename": "NORA_CESAIRE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5225,7 @@
       </c>
       <c r="G197" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A197&amp;""", ""name"": """&amp;B197&amp;""", ""description"": """&amp;C197&amp;""", ""imageFilename"": """&amp;A197&amp;".webp"", ""color"": """&amp;D197&amp;""", ""group"": """&amp;E197&amp;"""},"</f>
-        <v>{"id": "ANDRE_BOURGEOIS", "name": "André Bourgeois", "description": "", "imageFilename": "ANDRE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANANSI", "name": "Anansi", "description": "", "imageFilename": "ANANSI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,15 +5243,15 @@
       </c>
       <c r="G198" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A198&amp;""", ""name"": """&amp;B198&amp;""", ""description"": """&amp;C198&amp;""", ""imageFilename"": """&amp;A198&amp;".webp"", ""color"": """&amp;D198&amp;""", ""group"": """&amp;E198&amp;"""},"</f>
-        <v>{"id": "MALEDIKTATOR", "name": "Malediktator", "description": "", "imageFilename": "MALEDIKTATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANDRE_BOURGEOIS", "name": "André Bourgeois", "description": "", "imageFilename": "ANDRE_BOURGEOIS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
@@ -5252,15 +5261,15 @@
       </c>
       <c r="G199" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A199&amp;""", ""name"": """&amp;B199&amp;""", ""description"": """&amp;C199&amp;""", ""imageFilename"": """&amp;A199&amp;".webp"", ""color"": """&amp;D199&amp;""", ""group"": """&amp;E199&amp;"""},"</f>
-        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MALEDIKTATOR", "name": "Malediktator", "description": "", "imageFilename": "MALEDIKTATOR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -5270,7 +5279,7 @@
       </c>
       <c r="G200" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A200&amp;""", ""name"": """&amp;B200&amp;""", ""description"": """&amp;C200&amp;""", ""imageFilename"": """&amp;A200&amp;".webp"", ""color"": """&amp;D200&amp;""", ""group"": """&amp;E200&amp;"""},"</f>
-        <v>{"id": "UNNAMED_BOY", "name": "Unnamed Boy", "description": "", "imageFilename": "UNNAMED_BOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5297,7 @@
       </c>
       <c r="G201" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A201&amp;""", ""name"": """&amp;B201&amp;""", ""description"": """&amp;C201&amp;""", ""imageFilename"": """&amp;A201&amp;".webp"", ""color"": """&amp;D201&amp;""", ""group"": """&amp;E201&amp;"""},"</f>
-        <v>{"id": "SANDBOY", "name": "Sandboy", "description": "", "imageFilename": "SANDBOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "UNNAMED_BOY", "name": "Unnamed Boy", "description": "", "imageFilename": "UNNAMED_BOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,7 +5315,7 @@
       </c>
       <c r="G202" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A202&amp;""", ""name"": """&amp;B202&amp;""", ""description"": """&amp;C202&amp;""", ""imageFilename"": """&amp;A202&amp;".webp"", ""color"": """&amp;D202&amp;""", ""group"": """&amp;E202&amp;"""},"</f>
-        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SANDBOY", "name": "Sandboy", "description": "", "imageFilename": "SANDBOY.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,7 +5333,7 @@
       </c>
       <c r="G203" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A203&amp;""", ""name"": """&amp;B203&amp;""", ""description"": """&amp;C203&amp;""", ""imageFilename"": """&amp;A203&amp;".webp"", ""color"": """&amp;D203&amp;""", ""group"": """&amp;E203&amp;"""},"</f>
-        <v>{"id": "SANTA_CLAWS", "name": "Santa Claws", "description": "", "imageFilename": "SANTA_CLAWS.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,7 +5351,7 @@
       </c>
       <c r="G204" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A204&amp;""", ""name"": """&amp;B204&amp;""", ""description"": """&amp;C204&amp;""", ""imageFilename"": """&amp;A204&amp;".webp"", ""color"": """&amp;D204&amp;""", ""group"": """&amp;E204&amp;"""},"</f>
-        <v>{"id": "THOMAS_ASTRUC", "name": "Thomas Astruc", "description": "", "imageFilename": "THOMAS_ASTRUC.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SANTA_CLAWS", "name": "Santa Claws", "description": "", "imageFilename": "SANTA_CLAWS.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5369,7 @@
       </c>
       <c r="G205" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A205&amp;""", ""name"": """&amp;B205&amp;""", ""description"": """&amp;C205&amp;""", ""imageFilename"": """&amp;A205&amp;".webp"", ""color"": """&amp;D205&amp;""", ""group"": """&amp;E205&amp;"""},"</f>
-        <v>{"id": "ANIMAESTRO", "name": "Animaestro", "description": "", "imageFilename": "ANIMAESTRO.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THOMAS_ASTRUC", "name": "Thomas Astruc", "description": "", "imageFilename": "THOMAS_ASTRUC.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,7 +5387,7 @@
       </c>
       <c r="G206" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A206&amp;""", ""name"": """&amp;B206&amp;""", ""description"": """&amp;C206&amp;""", ""imageFilename"": """&amp;A206&amp;".webp"", ""color"": """&amp;D206&amp;""", ""group"": """&amp;E206&amp;"""},"</f>
-        <v>{"id": "ROLLAND_DUPAIN", "name": "Rolland Dupain", "description": "", "imageFilename": "ROLLAND_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAESTRO", "name": "Animaestro", "description": "", "imageFilename": "ANIMAESTRO.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,7 +5405,7 @@
       </c>
       <c r="G207" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A207&amp;""", ""name"": """&amp;B207&amp;""", ""description"": """&amp;C207&amp;""", ""imageFilename"": """&amp;A207&amp;".webp"", ""color"": """&amp;D207&amp;""", ""group"": """&amp;E207&amp;"""},"</f>
-        <v>{"id": "BAKERIX", "name": "Bakerix", "description": "", "imageFilename": "BAKERIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ROLLAND_DUPAIN", "name": "Rolland Dupain", "description": "", "imageFilename": "ROLLAND_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,7 +5423,7 @@
       </c>
       <c r="G208" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A208&amp;""", ""name"": """&amp;B208&amp;""", ""description"": """&amp;C208&amp;""", ""imageFilename"": """&amp;A208&amp;".webp"", ""color"": """&amp;D208&amp;""", ""group"": """&amp;E208&amp;"""},"</f>
-        <v>{"id": "SIMPLEMAN", "name": "Simpleman", "description": "", "imageFilename": "SIMPLEMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BAKERIX", "name": "Bakerix", "description": "", "imageFilename": "BAKERIX.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5441,7 @@
       </c>
       <c r="G209" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A209&amp;""", ""name"": """&amp;B209&amp;""", ""description"": """&amp;C209&amp;""", ""imageFilename"": """&amp;A209&amp;".webp"", ""color"": """&amp;D209&amp;""", ""group"": """&amp;E209&amp;"""},"</f>
-        <v>{"id": "MARIANNE_LENOIR", "name": "Marianne Lenoir", "description": "", "imageFilename": "MARIANNE_LENOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SIMPLEMAN", "name": "Simpleman", "description": "", "imageFilename": "SIMPLEMAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,7 +5459,7 @@
       </c>
       <c r="G210" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A210&amp;""", ""name"": """&amp;B210&amp;""", ""description"": """&amp;C210&amp;""", ""imageFilename"": """&amp;A210&amp;".webp"", ""color"": """&amp;D210&amp;""", ""group"": """&amp;E210&amp;"""},"</f>
-        <v>{"id": "BACKWARDER", "name": "Backwarder", "description": "", "imageFilename": "BACKWARDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MARIANNE_LENOIR", "name": "Marianne Lenoir", "description": "", "imageFilename": "MARIANNE_LENOIR.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,7 +5477,7 @@
       </c>
       <c r="G211" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A211&amp;""", ""name"": """&amp;B211&amp;""", ""description"": """&amp;C211&amp;""", ""imageFilename"": """&amp;A211&amp;".webp"", ""color"": """&amp;D211&amp;""", ""group"": """&amp;E211&amp;"""},"</f>
-        <v>{"id": "TOM_DUPAIN", "name": "Tom Dupain", "description": "", "imageFilename": "TOM_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BACKWARDER", "name": "Backwarder", "description": "", "imageFilename": "BACKWARDER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,7 +5495,7 @@
       </c>
       <c r="G212" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A212&amp;""", ""name"": """&amp;B212&amp;""", ""description"": """&amp;C212&amp;""", ""imageFilename"": """&amp;A212&amp;".webp"", ""color"": """&amp;D212&amp;""", ""group"": """&amp;E212&amp;"""},"</f>
-        <v>{"id": "WEREDAD", "name": "Weredad", "description": "", "imageFilename": "WEREDAD.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TOM_DUPAIN", "name": "Tom Dupain", "description": "", "imageFilename": "TOM_DUPAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +5513,7 @@
       </c>
       <c r="G213" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A213&amp;""", ""name"": """&amp;B213&amp;""", ""description"": """&amp;C213&amp;""", ""imageFilename"": """&amp;A213&amp;".webp"", ""color"": """&amp;D213&amp;""", ""group"": """&amp;E213&amp;"""},"</f>
-        <v>{"id": "VIVICA", "name": "Vivica", "description": "", "imageFilename": "VIVICA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WEREDAD", "name": "Weredad", "description": "", "imageFilename": "WEREDAD.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5522,7 +5531,7 @@
       </c>
       <c r="G214" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A214&amp;""", ""name"": """&amp;B214&amp;""", ""description"": """&amp;C214&amp;""", ""imageFilename"": """&amp;A214&amp;".webp"", ""color"": """&amp;D214&amp;""", ""group"": """&amp;E214&amp;"""},"</f>
-        <v>{"id": "DESPERADA", "name": "Desperada", "description": "", "imageFilename": "DESPERADA.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "VIVICA", "name": "Vivica", "description": "", "imageFilename": "VIVICA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5549,7 @@
       </c>
       <c r="G215" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A215&amp;""", ""name"": """&amp;B215&amp;""", ""description"": """&amp;C215&amp;""", ""imageFilename"": """&amp;A215&amp;".webp"", ""color"": """&amp;D215&amp;""", ""group"": """&amp;E215&amp;"""},"</f>
-        <v>{"id": "CHRIS_LAHIFFE", "name": "Chris Lahiffe", "description": "", "imageFilename": "CHRIS_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DESPERADA", "name": "Desperada", "description": "", "imageFilename": "DESPERADA.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5558,7 +5567,7 @@
       </c>
       <c r="G216" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A216&amp;""", ""name"": """&amp;B216&amp;""", ""description"": """&amp;C216&amp;""", ""imageFilename"": """&amp;A216&amp;".webp"", ""color"": """&amp;D216&amp;""", ""group"": """&amp;E216&amp;"""},"</f>
-        <v>{"id": "CHRIS_LAHIFFE_ADULT", "name": "Chris Lahiffe (Adult)", "description": "", "imageFilename": "CHRIS_LAHIFFE_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRIS_LAHIFFE", "name": "Chris Lahiffe", "description": "", "imageFilename": "CHRIS_LAHIFFE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5585,7 @@
       </c>
       <c r="G217" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A217&amp;""", ""name"": """&amp;B217&amp;""", ""description"": """&amp;C217&amp;""", ""imageFilename"": """&amp;A217&amp;".webp"", ""color"": """&amp;D217&amp;""", ""group"": """&amp;E217&amp;"""},"</f>
-        <v>{"id": "CHRISTMASTER", "name": "Christmaster", "description": "", "imageFilename": "CHRISTMASTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRIS_LAHIFFE_ADULT", "name": "Chris Lahiffe (Adult)", "description": "", "imageFilename": "CHRIS_LAHIFFE_ADULT.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,7 +5603,7 @@
       </c>
       <c r="G218" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A218&amp;""", ""name"": """&amp;B218&amp;""", ""description"": """&amp;C218&amp;""", ""imageFilename"": """&amp;A218&amp;".webp"", ""color"": """&amp;D218&amp;""", ""group"": """&amp;E218&amp;"""},"</f>
-        <v>{"id": "TIMETAGGER", "name": "Timetagger", "description": "", "imageFilename": "TIMETAGGER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRISTMASTER", "name": "Christmaster", "description": "", "imageFilename": "CHRISTMASTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,7 +5621,7 @@
       </c>
       <c r="G219" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A219&amp;""", ""name"": """&amp;B219&amp;""", ""description"": """&amp;C219&amp;""", ""imageFilename"": """&amp;A219&amp;".webp"", ""color"": """&amp;D219&amp;""", ""group"": """&amp;E219&amp;"""},"</f>
-        <v>{"id": "CLAUDIE_KANTE", "name": "Claudie Kanté", "description": "", "imageFilename": "CLAUDIE_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMETAGGER", "name": "Timetagger", "description": "", "imageFilename": "TIMETAGGER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,7 +5639,7 @@
       </c>
       <c r="G220" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A220&amp;""", ""name"": """&amp;B220&amp;""", ""description"": """&amp;C220&amp;""", ""imageFilename"": """&amp;A220&amp;".webp"", ""color"": """&amp;D220&amp;""", ""group"": """&amp;E220&amp;"""},"</f>
-        <v>{"id": "STARTRAIN", "name": "Startrain", "description": "", "imageFilename": "STARTRAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "CLAUDIE_KANTE", "name": "Claudie Kanté", "description": "", "imageFilename": "CLAUDIE_KANTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +5657,7 @@
       </c>
       <c r="G221" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A221&amp;""", ""name"": """&amp;B221&amp;""", ""description"": """&amp;C221&amp;""", ""imageFilename"": """&amp;A221&amp;".webp"", ""color"": """&amp;D221&amp;""", ""group"": """&amp;E221&amp;"""},"</f>
-        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "STARTRAIN", "name": "Startrain", "description": "", "imageFilename": "STARTRAIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,7 +5675,7 @@
       </c>
       <c r="G222" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A222&amp;""", ""name"": """&amp;B222&amp;""", ""description"": """&amp;C222&amp;""", ""imageFilename"": """&amp;A222&amp;".webp"", ""color"": """&amp;D222&amp;""", ""group"": """&amp;E222&amp;"""},"</f>
-        <v>{"id": "KWAMIBUSTER", "name": "Kwamibuster", "description": "", "imageFilename": "KWAMIBUSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5693,7 @@
       </c>
       <c r="G223" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A223&amp;""", ""name"": """&amp;B223&amp;""", ""description"": """&amp;C223&amp;""", ""imageFilename"": """&amp;A223&amp;".webp"", ""color"": """&amp;D223&amp;""", ""group"": """&amp;E223&amp;"""},"</f>
-        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "KWAMIBUSTER", "name": "Kwamibuster", "description": "", "imageFilename": "KWAMIBUSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5702,7 +5711,7 @@
       </c>
       <c r="G224" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A224&amp;""", ""name"": """&amp;B224&amp;""", ""description"": """&amp;C224&amp;""", ""imageFilename"": """&amp;A224&amp;".webp"", ""color"": """&amp;D224&amp;""", ""group"": """&amp;E224&amp;"""},"</f>
-        <v>{"id": "FEAST", "name": "Feast", "description": "", "imageFilename": "FEAST.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5729,7 @@
       </c>
       <c r="G225" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A225&amp;""", ""name"": """&amp;B225&amp;""", ""description"": """&amp;C225&amp;""", ""imageFilename"": """&amp;A225&amp;".webp"", ""color"": """&amp;D225&amp;""", ""group"": """&amp;E225&amp;"""},"</f>
-        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "FEAST", "name": "Feast", "description": "", "imageFilename": "FEAST.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5738,7 +5747,7 @@
       </c>
       <c r="G226" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A226&amp;""", ""name"": """&amp;B226&amp;""", ""description"": """&amp;C226&amp;""", ""imageFilename"": """&amp;A226&amp;".webp"", ""color"": """&amp;D226&amp;""", ""group"": """&amp;E226&amp;"""},"</f>
-        <v>{"id": "IKARI_GOZEN", "name": "Ikari Gozen", "description": "", "imageFilename": "IKARI_GOZEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,7 +5765,7 @@
       </c>
       <c r="G227" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A227&amp;""", ""name"": """&amp;B227&amp;""", ""description"": """&amp;C227&amp;""", ""imageFilename"": """&amp;A227&amp;".webp"", ""color"": """&amp;D227&amp;""", ""group"": """&amp;E227&amp;"""},"</f>
-        <v>{"id": "WAYHEM", "name": "Wayhem", "description": "", "imageFilename": "WAYHEM.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "IKARI_GOZEN", "name": "Ikari Gozen", "description": "", "imageFilename": "IKARI_GOZEN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5783,7 @@
       </c>
       <c r="G228" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A228&amp;""", ""name"": """&amp;B228&amp;""", ""description"": """&amp;C228&amp;""", ""imageFilename"": """&amp;A228&amp;".webp"", ""color"": """&amp;D228&amp;""", ""group"": """&amp;E228&amp;"""},"</f>
-        <v>{"id": "PARTY_CRASHER", "name": "Party Crasher", "description": "", "imageFilename": "PARTY_CRASHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WAYHEM", "name": "Wayhem", "description": "", "imageFilename": "WAYHEM.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5801,7 @@
       </c>
       <c r="G229" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A229&amp;""", ""name"": """&amp;B229&amp;""", ""description"": """&amp;C229&amp;""", ""imageFilename"": """&amp;A229&amp;".webp"", ""color"": """&amp;D229&amp;""", ""group"": """&amp;E229&amp;"""},"</f>
-        <v>{"id": "HARRY_CLOWN", "name": "Harry Clown", "description": "", "imageFilename": "HARRY_CLOWN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PARTY_CRASHER", "name": "Party Crasher", "description": "", "imageFilename": "PARTY_CRASHER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,7 +5819,7 @@
       </c>
       <c r="G230" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A230&amp;""", ""name"": """&amp;B230&amp;""", ""description"": """&amp;C230&amp;""", ""imageFilename"": """&amp;A230&amp;".webp"", ""color"": """&amp;D230&amp;""", ""group"": """&amp;E230&amp;"""},"</f>
-        <v>{"id": "PSYCOMEDIAN", "name": "Psycomedian", "description": "", "imageFilename": "PSYCOMEDIAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "HARRY_CLOWN", "name": "Harry Clown", "description": "", "imageFilename": "HARRY_CLOWN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,7 +5837,7 @@
       </c>
       <c r="G231" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A231&amp;""", ""name"": """&amp;B231&amp;""", ""description"": """&amp;C231&amp;""", ""imageFilename"": """&amp;A231&amp;".webp"", ""color"": """&amp;D231&amp;""", ""group"": """&amp;E231&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE_SENTIMONSTER", "name": "Gabriel Agreste (Sentimonster)", "description": "", "imageFilename": "GABRIEL_AGRESTE_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "PSYCOMEDIAN", "name": "Psycomedian", "description": "", "imageFilename": "PSYCOMEDIAN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5855,7 @@
       </c>
       <c r="G232" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A232&amp;""", ""name"": """&amp;B232&amp;""", ""description"": """&amp;C232&amp;""", ""imageFilename"": """&amp;A232&amp;".webp"", ""color"": """&amp;D232&amp;""", ""group"": """&amp;E232&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR_SENTIMONSTER", "name": "The Collector (Sentimonster)", "description": "", "imageFilename": "THE_COLLECTOR_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE_SENTIMONSTER", "name": "Gabriel Agreste (Sentimonster)", "description": "", "imageFilename": "GABRIEL_AGRESTE_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5873,7 @@
       </c>
       <c r="G233" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A233&amp;""", ""name"": """&amp;B233&amp;""", ""description"": """&amp;C233&amp;""", ""imageFilename"": """&amp;A233&amp;".webp"", ""color"": """&amp;D233&amp;""", ""group"": """&amp;E233&amp;"""},"</f>
-        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR_SENTIMONSTER", "name": "The Collector (Sentimonster)", "description": "", "imageFilename": "THE_COLLECTOR_SENTIMONSTER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,7 +5891,7 @@
       </c>
       <c r="G234" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A234&amp;""", ""name"": """&amp;B234&amp;""", ""description"": """&amp;C234&amp;""", ""imageFilename"": """&amp;A234&amp;".webp"", ""color"": """&amp;D234&amp;""", ""group"": """&amp;E234&amp;"""},"</f>
-        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,7 +5909,7 @@
       </c>
       <c r="G235" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A235&amp;""", ""name"": """&amp;B235&amp;""", ""description"": """&amp;C235&amp;""", ""imageFilename"": """&amp;A235&amp;".webp"", ""color"": """&amp;D235&amp;""", ""group"": """&amp;E235&amp;"""},"</f>
-        <v>{"id": "SABINE_CHENG", "name": "Sabine Cheng", "description": "", "imageFilename": "SABINE_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,7 +5927,7 @@
       </c>
       <c r="G236" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A236&amp;""", ""name"": """&amp;B236&amp;""", ""description"": """&amp;C236&amp;""", ""imageFilename"": """&amp;A236&amp;".webp"", ""color"": """&amp;D236&amp;""", ""group"": """&amp;E236&amp;"""},"</f>
-        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "SABINE_CHENG", "name": "Sabine Cheng", "description": "", "imageFilename": "SABINE_CHENG.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5945,7 @@
       </c>
       <c r="G237" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A237&amp;""", ""name"": """&amp;B237&amp;""", ""description"": """&amp;C237&amp;""", ""imageFilename"": """&amp;A237&amp;".webp"", ""color"": """&amp;D237&amp;""", ""group"": """&amp;E237&amp;"""},"</f>
-        <v>{"id": "BOB_ROTH", "name": "Bob Roth", "description": "", "imageFilename": "BOB_ROTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5954,7 +5963,7 @@
       </c>
       <c r="G238" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A238&amp;""", ""name"": """&amp;B238&amp;""", ""description"": """&amp;C238&amp;""", ""imageFilename"": """&amp;A238&amp;".webp"", ""color"": """&amp;D238&amp;""", ""group"": """&amp;E238&amp;"""},"</f>
-        <v>{"id": "MOOLAK", "name": "Moolak", "description": "", "imageFilename": "MOOLAK.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "BOB_ROTH", "name": "Bob Roth", "description": "", "imageFilename": "BOB_ROTH.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,7 +5981,7 @@
       </c>
       <c r="G239" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A239&amp;""", ""name"": """&amp;B239&amp;""", ""description"": """&amp;C239&amp;""", ""imageFilename"": """&amp;A239&amp;".webp"", ""color"": """&amp;D239&amp;""", ""group"": """&amp;E239&amp;"""},"</f>
-        <v>{"id": "FROGGY", "name": "Froggy", "description": "", "imageFilename": "FROGGY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+        <v>{"id": "MOOLAK", "name": "Moolak", "description": "", "imageFilename": "MOOLAK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5990,67 +5999,82 @@
       </c>
       <c r="G240" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A240&amp;""", ""name"": """&amp;B240&amp;""", ""description"": """&amp;C240&amp;""", ""imageFilename"": """&amp;A240&amp;".webp"", ""color"": """&amp;D240&amp;""", ""group"": """&amp;E240&amp;"""},"</f>
+        <v>{"id": "FROGGY", "name": "Froggy", "description": "", "imageFilename": "FROGGY.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A241&amp;""", ""name"": """&amp;B241&amp;""", ""description"": """&amp;C241&amp;""", ""imageFilename"": """&amp;A241&amp;".webp"", ""color"": """&amp;D241&amp;""", ""group"": """&amp;E241&amp;"""},"</f>
         <v>{"id": "RISK", "name": "Risk", "description": "", "imageFilename": "RISK.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="C255" s="0" t="s">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="B256" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G255" s="0" t="str">
-        <f aca="false">"{""id"": """&amp;A255&amp;""", ""name"": """&amp;B255&amp;""", ""description"": """&amp;C255&amp;""", ""imageFilename"": """&amp;A255&amp;".webp"", ""color"": """&amp;D255&amp;""", ""group"": """&amp;E255&amp;"""},"</f>
+      <c r="C256" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A256&amp;""", ""name"": """&amp;B256&amp;""", ""description"": """&amp;C256&amp;""", ""imageFilename"": """&amp;A256&amp;".webp"", ""color"": """&amp;D256&amp;""", ""group"": """&amp;E256&amp;"""},"</f>
         <v>{"id": "LIIRI", "name": "Liiri", "description": "The Kwami of Freedom.", "imageFilename": "LIIRI.webp", "color": "#FF2400", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="0" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1088" s="6"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1089" s="6"/>
@@ -6069,6 +6093,9 @@
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1094" s="6"/>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1095" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6086,13 +6113,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ262"/>
+  <dimension ref="A1:AMJ345"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G345" activeCellId="0" sqref="G2:G345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.99"/>
@@ -6105,31 +6132,31 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">IF(E2="","","{""sourceId"": """&amp;A2&amp;""", ""targetId"": """&amp;B2&amp;""", ""shortDescription"": """&amp;C2&amp;""", ""fullDescriptionHtml"": """&amp;D2&amp;""", ""direction"": """&amp;E2&amp;"""},")</f>
@@ -6138,13 +6165,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">IF(E3="","","{""sourceId"": """&amp;A3&amp;""", ""targetId"": """&amp;B3&amp;""", ""shortDescription"": """&amp;C3&amp;""", ""fullDescriptionHtml"": """&amp;D3&amp;""", ""direction"": """&amp;E3&amp;"""},")</f>
@@ -6153,13 +6180,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">IF(E4="","","{""sourceId"": """&amp;A4&amp;""", ""targetId"": """&amp;B4&amp;""", ""shortDescription"": """&amp;C4&amp;""", ""fullDescriptionHtml"": """&amp;D4&amp;""", ""direction"": """&amp;E4&amp;"""},")</f>
@@ -6168,13 +6195,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">IF(E5="","","{""sourceId"": """&amp;A5&amp;""", ""targetId"": """&amp;B5&amp;""", ""shortDescription"": """&amp;C5&amp;""", ""fullDescriptionHtml"": """&amp;D5&amp;""", ""direction"": """&amp;E5&amp;"""},")</f>
@@ -6183,13 +6210,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">IF(E6="","","{""sourceId"": """&amp;A6&amp;""", ""targetId"": """&amp;B6&amp;""", ""shortDescription"": """&amp;C6&amp;""", ""fullDescriptionHtml"": """&amp;D6&amp;""", ""direction"": """&amp;E6&amp;"""},")</f>
@@ -6198,13 +6225,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">IF(E7="","","{""sourceId"": """&amp;A7&amp;""", ""targetId"": """&amp;B7&amp;""", ""shortDescription"": """&amp;C7&amp;""", ""fullDescriptionHtml"": """&amp;D7&amp;""", ""direction"": """&amp;E7&amp;"""},")</f>
@@ -6213,13 +6240,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">IF(E8="","","{""sourceId"": """&amp;A8&amp;""", ""targetId"": """&amp;B8&amp;""", ""shortDescription"": """&amp;C8&amp;""", ""fullDescriptionHtml"": """&amp;D8&amp;""", ""direction"": """&amp;E8&amp;"""},")</f>
@@ -6228,13 +6255,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">IF(E9="","","{""sourceId"": """&amp;A9&amp;""", ""targetId"": """&amp;B9&amp;""", ""shortDescription"": """&amp;C9&amp;""", ""fullDescriptionHtml"": """&amp;D9&amp;""", ""direction"": """&amp;E9&amp;"""},")</f>
@@ -6243,13 +6270,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">IF(E10="","","{""sourceId"": """&amp;A10&amp;""", ""targetId"": """&amp;B10&amp;""", ""shortDescription"": """&amp;C10&amp;""", ""fullDescriptionHtml"": """&amp;D10&amp;""", ""direction"": """&amp;E10&amp;"""},")</f>
@@ -6258,13 +6285,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">IF(E11="","","{""sourceId"": """&amp;A11&amp;""", ""targetId"": """&amp;B11&amp;""", ""shortDescription"": """&amp;C11&amp;""", ""fullDescriptionHtml"": """&amp;D11&amp;""", ""direction"": """&amp;E11&amp;"""},")</f>
@@ -6273,13 +6300,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">IF(E12="","","{""sourceId"": """&amp;A12&amp;""", ""targetId"": """&amp;B12&amp;""", ""shortDescription"": """&amp;C12&amp;""", ""fullDescriptionHtml"": """&amp;D12&amp;""", ""direction"": """&amp;E12&amp;"""},")</f>
@@ -6288,13 +6315,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">IF(E13="","","{""sourceId"": """&amp;A13&amp;""", ""targetId"": """&amp;B13&amp;""", ""shortDescription"": """&amp;C13&amp;""", ""fullDescriptionHtml"": """&amp;D13&amp;""", ""direction"": """&amp;E13&amp;"""},")</f>
@@ -6303,13 +6330,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">IF(E14="","","{""sourceId"": """&amp;A14&amp;""", ""targetId"": """&amp;B14&amp;""", ""shortDescription"": """&amp;C14&amp;""", ""fullDescriptionHtml"": """&amp;D14&amp;""", ""direction"": """&amp;E14&amp;"""},")</f>
@@ -6318,13 +6345,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(E15="","","{""sourceId"": """&amp;A15&amp;""", ""targetId"": """&amp;B15&amp;""", ""shortDescription"": """&amp;C15&amp;""", ""fullDescriptionHtml"": """&amp;D15&amp;""", ""direction"": """&amp;E15&amp;"""},")</f>
@@ -6333,13 +6360,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(E16="","","{""sourceId"": """&amp;A16&amp;""", ""targetId"": """&amp;B16&amp;""", ""shortDescription"": """&amp;C16&amp;""", ""fullDescriptionHtml"": """&amp;D16&amp;""", ""direction"": """&amp;E16&amp;"""},")</f>
@@ -6348,13 +6375,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">IF(E17="","","{""sourceId"": """&amp;A17&amp;""", ""targetId"": """&amp;B17&amp;""", ""shortDescription"": """&amp;C17&amp;""", ""fullDescriptionHtml"": """&amp;D17&amp;""", ""direction"": """&amp;E17&amp;"""},")</f>
@@ -6363,13 +6390,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">IF(E18="","","{""sourceId"": """&amp;A18&amp;""", ""targetId"": """&amp;B18&amp;""", ""shortDescription"": """&amp;C18&amp;""", ""fullDescriptionHtml"": """&amp;D18&amp;""", ""direction"": """&amp;E18&amp;"""},")</f>
@@ -6378,13 +6405,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">IF(E19="","","{""sourceId"": """&amp;A19&amp;""", ""targetId"": """&amp;B19&amp;""", ""shortDescription"": """&amp;C19&amp;""", ""fullDescriptionHtml"": """&amp;D19&amp;""", ""direction"": """&amp;E19&amp;"""},")</f>
@@ -6393,13 +6420,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">IF(E20="","","{""sourceId"": """&amp;A20&amp;""", ""targetId"": """&amp;B20&amp;""", ""shortDescription"": """&amp;C20&amp;""", ""fullDescriptionHtml"": """&amp;D20&amp;""", ""direction"": """&amp;E20&amp;"""},")</f>
@@ -6408,13 +6435,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">IF(E21="","","{""sourceId"": """&amp;A21&amp;""", ""targetId"": """&amp;B21&amp;""", ""shortDescription"": """&amp;C21&amp;""", ""fullDescriptionHtml"": """&amp;D21&amp;""", ""direction"": """&amp;E21&amp;"""},")</f>
@@ -6423,13 +6450,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">IF(E22="","","{""sourceId"": """&amp;A22&amp;""", ""targetId"": """&amp;B22&amp;""", ""shortDescription"": """&amp;C22&amp;""", ""fullDescriptionHtml"": """&amp;D22&amp;""", ""direction"": """&amp;E22&amp;"""},")</f>
@@ -6438,13 +6465,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">IF(E23="","","{""sourceId"": """&amp;A23&amp;""", ""targetId"": """&amp;B23&amp;""", ""shortDescription"": """&amp;C23&amp;""", ""fullDescriptionHtml"": """&amp;D23&amp;""", ""direction"": """&amp;E23&amp;"""},")</f>
@@ -6453,13 +6480,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">IF(E24="","","{""sourceId"": """&amp;A24&amp;""", ""targetId"": """&amp;B24&amp;""", ""shortDescription"": """&amp;C24&amp;""", ""fullDescriptionHtml"": """&amp;D24&amp;""", ""direction"": """&amp;E24&amp;"""},")</f>
@@ -6468,13 +6495,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">IF(E25="","","{""sourceId"": """&amp;A25&amp;""", ""targetId"": """&amp;B25&amp;""", ""shortDescription"": """&amp;C25&amp;""", ""fullDescriptionHtml"": """&amp;D25&amp;""", ""direction"": """&amp;E25&amp;"""},")</f>
@@ -6483,13 +6510,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">IF(E26="","","{""sourceId"": """&amp;A26&amp;""", ""targetId"": """&amp;B26&amp;""", ""shortDescription"": """&amp;C26&amp;""", ""fullDescriptionHtml"": """&amp;D26&amp;""", ""direction"": """&amp;E26&amp;"""},")</f>
@@ -6498,13 +6525,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">IF(E27="","","{""sourceId"": """&amp;A27&amp;""", ""targetId"": """&amp;B27&amp;""", ""shortDescription"": """&amp;C27&amp;""", ""fullDescriptionHtml"": """&amp;D27&amp;""", ""direction"": """&amp;E27&amp;"""},")</f>
@@ -6513,13 +6540,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">IF(E28="","","{""sourceId"": """&amp;A28&amp;""", ""targetId"": """&amp;B28&amp;""", ""shortDescription"": """&amp;C28&amp;""", ""fullDescriptionHtml"": """&amp;D28&amp;""", ""direction"": """&amp;E28&amp;"""},")</f>
@@ -6528,13 +6555,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">IF(E29="","","{""sourceId"": """&amp;A29&amp;""", ""targetId"": """&amp;B29&amp;""", ""shortDescription"": """&amp;C29&amp;""", ""fullDescriptionHtml"": """&amp;D29&amp;""", ""direction"": """&amp;E29&amp;"""},")</f>
@@ -6543,13 +6570,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">IF(E30="","","{""sourceId"": """&amp;A30&amp;""", ""targetId"": """&amp;B30&amp;""", ""shortDescription"": """&amp;C30&amp;""", ""fullDescriptionHtml"": """&amp;D30&amp;""", ""direction"": """&amp;E30&amp;"""},")</f>
@@ -6558,13 +6585,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">IF(E31="","","{""sourceId"": """&amp;A31&amp;""", ""targetId"": """&amp;B31&amp;""", ""shortDescription"": """&amp;C31&amp;""", ""fullDescriptionHtml"": """&amp;D31&amp;""", ""direction"": """&amp;E31&amp;"""},")</f>
@@ -6573,13 +6600,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">IF(E32="","","{""sourceId"": """&amp;A32&amp;""", ""targetId"": """&amp;B32&amp;""", ""shortDescription"": """&amp;C32&amp;""", ""fullDescriptionHtml"": """&amp;D32&amp;""", ""direction"": """&amp;E32&amp;"""},")</f>
@@ -6588,13 +6615,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">IF(E33="","","{""sourceId"": """&amp;A33&amp;""", ""targetId"": """&amp;B33&amp;""", ""shortDescription"": """&amp;C33&amp;""", ""fullDescriptionHtml"": """&amp;D33&amp;""", ""direction"": """&amp;E33&amp;"""},")</f>
@@ -6603,13 +6630,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">IF(E34="","","{""sourceId"": """&amp;A34&amp;""", ""targetId"": """&amp;B34&amp;""", ""shortDescription"": """&amp;C34&amp;""", ""fullDescriptionHtml"": """&amp;D34&amp;""", ""direction"": """&amp;E34&amp;"""},")</f>
@@ -6618,13 +6645,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">IF(E35="","","{""sourceId"": """&amp;A35&amp;""", ""targetId"": """&amp;B35&amp;""", ""shortDescription"": """&amp;C35&amp;""", ""fullDescriptionHtml"": """&amp;D35&amp;""", ""direction"": """&amp;E35&amp;"""},")</f>
@@ -6633,13 +6660,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">IF(E36="","","{""sourceId"": """&amp;A36&amp;""", ""targetId"": """&amp;B36&amp;""", ""shortDescription"": """&amp;C36&amp;""", ""fullDescriptionHtml"": """&amp;D36&amp;""", ""direction"": """&amp;E36&amp;"""},")</f>
@@ -6648,13 +6675,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">IF(E37="","","{""sourceId"": """&amp;A37&amp;""", ""targetId"": """&amp;B37&amp;""", ""shortDescription"": """&amp;C37&amp;""", ""fullDescriptionHtml"": """&amp;D37&amp;""", ""direction"": """&amp;E37&amp;"""},")</f>
@@ -6663,13 +6690,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">IF(E38="","","{""sourceId"": """&amp;A38&amp;""", ""targetId"": """&amp;B38&amp;""", ""shortDescription"": """&amp;C38&amp;""", ""fullDescriptionHtml"": """&amp;D38&amp;""", ""direction"": """&amp;E38&amp;"""},")</f>
@@ -6678,13 +6705,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">IF(E39="","","{""sourceId"": """&amp;A39&amp;""", ""targetId"": """&amp;B39&amp;""", ""shortDescription"": """&amp;C39&amp;""", ""fullDescriptionHtml"": """&amp;D39&amp;""", ""direction"": """&amp;E39&amp;"""},")</f>
@@ -6693,13 +6720,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">IF(E40="","","{""sourceId"": """&amp;A40&amp;""", ""targetId"": """&amp;B40&amp;""", ""shortDescription"": """&amp;C40&amp;""", ""fullDescriptionHtml"": """&amp;D40&amp;""", ""direction"": """&amp;E40&amp;"""},")</f>
@@ -6708,13 +6735,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">IF(E41="","","{""sourceId"": """&amp;A41&amp;""", ""targetId"": """&amp;B41&amp;""", ""shortDescription"": """&amp;C41&amp;""", ""fullDescriptionHtml"": """&amp;D41&amp;""", ""direction"": """&amp;E41&amp;"""},")</f>
@@ -6723,13 +6750,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">IF(E42="","","{""sourceId"": """&amp;A42&amp;""", ""targetId"": """&amp;B42&amp;""", ""shortDescription"": """&amp;C42&amp;""", ""fullDescriptionHtml"": """&amp;D42&amp;""", ""direction"": """&amp;E42&amp;"""},")</f>
@@ -6738,13 +6765,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">IF(E43="","","{""sourceId"": """&amp;A43&amp;""", ""targetId"": """&amp;B43&amp;""", ""shortDescription"": """&amp;C43&amp;""", ""fullDescriptionHtml"": """&amp;D43&amp;""", ""direction"": """&amp;E43&amp;"""},")</f>
@@ -6753,13 +6780,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">IF(E44="","","{""sourceId"": """&amp;A44&amp;""", ""targetId"": """&amp;B44&amp;""", ""shortDescription"": """&amp;C44&amp;""", ""fullDescriptionHtml"": """&amp;D44&amp;""", ""direction"": """&amp;E44&amp;"""},")</f>
@@ -6768,13 +6795,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">IF(E45="","","{""sourceId"": """&amp;A45&amp;""", ""targetId"": """&amp;B45&amp;""", ""shortDescription"": """&amp;C45&amp;""", ""fullDescriptionHtml"": """&amp;D45&amp;""", ""direction"": """&amp;E45&amp;"""},")</f>
@@ -6783,13 +6810,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">IF(E46="","","{""sourceId"": """&amp;A46&amp;""", ""targetId"": """&amp;B46&amp;""", ""shortDescription"": """&amp;C46&amp;""", ""fullDescriptionHtml"": """&amp;D46&amp;""", ""direction"": """&amp;E46&amp;"""},")</f>
@@ -6798,13 +6825,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">IF(E47="","","{""sourceId"": """&amp;A47&amp;""", ""targetId"": """&amp;B47&amp;""", ""shortDescription"": """&amp;C47&amp;""", ""fullDescriptionHtml"": """&amp;D47&amp;""", ""direction"": """&amp;E47&amp;"""},")</f>
@@ -6813,13 +6840,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">IF(E48="","","{""sourceId"": """&amp;A48&amp;""", ""targetId"": """&amp;B48&amp;""", ""shortDescription"": """&amp;C48&amp;""", ""fullDescriptionHtml"": """&amp;D48&amp;""", ""direction"": """&amp;E48&amp;"""},")</f>
@@ -6828,13 +6855,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">IF(E49="","","{""sourceId"": """&amp;A49&amp;""", ""targetId"": """&amp;B49&amp;""", ""shortDescription"": """&amp;C49&amp;""", ""fullDescriptionHtml"": """&amp;D49&amp;""", ""direction"": """&amp;E49&amp;"""},")</f>
@@ -6843,13 +6870,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">IF(E50="","","{""sourceId"": """&amp;A50&amp;""", ""targetId"": """&amp;B50&amp;""", ""shortDescription"": """&amp;C50&amp;""", ""fullDescriptionHtml"": """&amp;D50&amp;""", ""direction"": """&amp;E50&amp;"""},")</f>
@@ -6858,13 +6885,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">IF(E51="","","{""sourceId"": """&amp;A51&amp;""", ""targetId"": """&amp;B51&amp;""", ""shortDescription"": """&amp;C51&amp;""", ""fullDescriptionHtml"": """&amp;D51&amp;""", ""direction"": """&amp;E51&amp;"""},")</f>
@@ -6873,13 +6900,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">IF(E52="","","{""sourceId"": """&amp;A52&amp;""", ""targetId"": """&amp;B52&amp;""", ""shortDescription"": """&amp;C52&amp;""", ""fullDescriptionHtml"": """&amp;D52&amp;""", ""direction"": """&amp;E52&amp;"""},")</f>
@@ -6888,13 +6915,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(E53="","","{""sourceId"": """&amp;A53&amp;""", ""targetId"": """&amp;B53&amp;""", ""shortDescription"": """&amp;C53&amp;""", ""fullDescriptionHtml"": """&amp;D53&amp;""", ""direction"": """&amp;E53&amp;"""},")</f>
@@ -6903,13 +6930,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(E54="","","{""sourceId"": """&amp;A54&amp;""", ""targetId"": """&amp;B54&amp;""", ""shortDescription"": """&amp;C54&amp;""", ""fullDescriptionHtml"": """&amp;D54&amp;""", ""direction"": """&amp;E54&amp;"""},")</f>
@@ -6918,13 +6945,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(E55="","","{""sourceId"": """&amp;A55&amp;""", ""targetId"": """&amp;B55&amp;""", ""shortDescription"": """&amp;C55&amp;""", ""fullDescriptionHtml"": """&amp;D55&amp;""", ""direction"": """&amp;E55&amp;"""},")</f>
@@ -6933,13 +6960,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(E56="","","{""sourceId"": """&amp;A56&amp;""", ""targetId"": """&amp;B56&amp;""", ""shortDescription"": """&amp;C56&amp;""", ""fullDescriptionHtml"": """&amp;D56&amp;""", ""direction"": """&amp;E56&amp;"""},")</f>
@@ -6948,13 +6975,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">IF(E57="","","{""sourceId"": """&amp;A57&amp;""", ""targetId"": """&amp;B57&amp;""", ""shortDescription"": """&amp;C57&amp;""", ""fullDescriptionHtml"": """&amp;D57&amp;""", ""direction"": """&amp;E57&amp;"""},")</f>
@@ -6963,13 +6990,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -6978,13 +7005,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -6993,13 +7020,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -7008,13 +7035,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -7023,13 +7050,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -7038,13 +7065,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -7053,13 +7080,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -7068,13 +7095,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -7083,13 +7110,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -7098,13 +7125,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -7113,13 +7140,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -7128,13 +7155,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -7143,13 +7170,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -7158,13 +7185,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -7173,13 +7200,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -7188,13 +7215,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -7203,13 +7230,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -7218,13 +7245,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -7233,13 +7260,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -7247,63 +7274,30 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G77" s="0" t="str">
-        <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "LADYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G78" s="0" t="str">
-        <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G79" s="0" t="str">
-        <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>103</v>
+      <c r="B80" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "LADYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,14 +7305,14 @@
         <v>5</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,14 +7320,14 @@
         <v>5</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,14 +7335,14 @@
         <v>5</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "MISTER_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,104 +7350,104 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "SCARABELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>83</v>
+      <c r="B85" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
-        <v>{"sourceId": "TIKKI", "targetId": "JEANNE_D_ARC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "CAT_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "MISTER_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "SCARABELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>119</v>
+        <v>5</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "CAT_WALKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TIKKI", "targetId": "JEANNE_D_ARC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>91</v>
+      <c r="B89" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "LADY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "CAT_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>97</v>
+      <c r="B90" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,239 +7455,239 @@
         <v>10</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
-        <v>{"sourceId": "PLAGG", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "CAT_WALKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
-        <v>{"sourceId": "NOOROO", "targetId": "HAWK_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "LADY_NOIRE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
-        <v>{"sourceId": "NOOROO", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
-        <v>{"sourceId": "NOOROO", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PLAGG", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>18</v>
+      <c r="A95" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
-        <v>{"sourceId": "TRIXX", "targetId": "RENA_ROUGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NOOROO", "targetId": "HAWK_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>18</v>
+      <c r="A96" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
-        <v>{"sourceId": "TRIXX", "targetId": "RENA_FURTIVE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NOOROO", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>95</v>
+      <c r="A97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
-        <v>{"sourceId": "TRIXX", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NOOROO", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
-        <v>22</v>
+      <c r="A98" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
-        <v>{"sourceId": "POLLEN", "targetId": "QUEEN_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TRIXX", "targetId": "RENA_ROUGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
-        <v>22</v>
+      <c r="A99" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
-        <v>{"sourceId": "POLLEN", "targetId": "VESPERIA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TRIXX", "targetId": "RENA_FURTIVE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>103</v>
+      <c r="A100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
-        <v>{"sourceId": "POLLEN", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TRIXX", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
-        <v>{"sourceId": "WAYZZ", "targetId": "JADE_TURTLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "POLLEN", "targetId": "QUEEN_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
-        <v>{"sourceId": "WAYZZ", "targetId": "CARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "POLLEN", "targetId": "VESPERIA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
-        <v>{"sourceId": "WAYZZ", "targetId": "SENTICARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "POLLEN", "targetId": "LADY_BEE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
-        <v>{"sourceId": "DUUSU", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYZZ", "targetId": "JADE_TURTLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
-        <v>{"sourceId": "DUUSU", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYZZ", "targetId": "CARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
-        <v>{"sourceId": "DUUSU", "targetId": "PEACOCK_MIRACULOUS_HOLDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYZZ", "targetId": "SENTICARAPACE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,59 +7695,59 @@
         <v>30</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
-        <v>{"sourceId": "DUUSU", "targetId": "MAYURA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DUUSU", "targetId": "SHADOW_MOTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
-        <v>{"sourceId": "MULLO", "targetId": "MULTIMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DUUSU", "targetId": "SHADOWNOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>95</v>
+        <v>30</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
-        <v>{"sourceId": "MULLO", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DUUSU", "targetId": "PEACOCK_MIRACULOUS_HOLDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>97</v>
+        <v>30</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
-        <v>{"sourceId": "MULLO", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DUUSU", "targetId": "MAYURA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7761,1874 +7755,3420 @@
         <v>34</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
-        <v>{"sourceId": "MULLO", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>205</v>
+      <c r="B112" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">IF(E112="","","{""sourceId"": """&amp;A112&amp;""", ""targetId"": """&amp;B112&amp;""", ""shortDescription"": """&amp;C112&amp;""", ""fullDescriptionHtml"": """&amp;D112&amp;""", ""direction"": """&amp;E112&amp;"""},")</f>
-        <v>{"sourceId": "MULLO", "targetId": "POLYMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIFOX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>211</v>
+        <v>34</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">IF(E113="","","{""sourceId"": """&amp;A113&amp;""", ""targetId"": """&amp;B113&amp;""", ""shortDescription"": """&amp;C113&amp;""", ""fullDescriptionHtml"": """&amp;D113&amp;""", ""direction"": """&amp;E113&amp;"""},")</f>
-        <v>{"sourceId": "STOMPP", "targetId": "MINOTAUROX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MULLO", "targetId": "MULTINOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">IF(E114="","","{""sourceId"": """&amp;A114&amp;""", ""targetId"": """&amp;B114&amp;""", ""shortDescription"": """&amp;C114&amp;""", ""fullDescriptionHtml"": """&amp;D114&amp;""", ""direction"": """&amp;E114&amp;"""},")</f>
-        <v>{"sourceId": "ROAAR", "targetId": "PURPLE_TIGRESS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MULLO", "targetId": "MULTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">IF(E115="","","{""sourceId"": """&amp;A115&amp;""", ""targetId"": """&amp;B115&amp;""", ""shortDescription"": """&amp;C115&amp;""", ""fullDescriptionHtml"": """&amp;D115&amp;""", ""direction"": """&amp;E115&amp;"""},")</f>
-        <v>{"sourceId": "FLUFF", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MULLO", "targetId": "POLYMOUSE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">IF(E116="","","{""sourceId"": """&amp;A116&amp;""", ""targetId"": """&amp;B116&amp;""", ""shortDescription"": """&amp;C116&amp;""", ""fullDescriptionHtml"": """&amp;D116&amp;""", ""direction"": """&amp;E116&amp;"""},")</f>
-        <v>{"sourceId": "FLUFF", "targetId": "BUNNYX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "STOMPP", "targetId": "MINOTAUROX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">IF(E117="","","{""sourceId"": """&amp;A117&amp;""", ""targetId"": """&amp;B117&amp;""", ""shortDescription"": """&amp;C117&amp;""", ""fullDescriptionHtml"": """&amp;D117&amp;""", ""direction"": """&amp;E117&amp;"""},")</f>
-        <v>{"sourceId": "LONGG", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROAAR", "targetId": "PURPLE_TIGRESS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">IF(E118="","","{""sourceId"": """&amp;A118&amp;""", ""targetId"": """&amp;B118&amp;""", ""shortDescription"": """&amp;C118&amp;""", ""fullDescriptionHtml"": """&amp;D118&amp;""", ""direction"": """&amp;E118&amp;"""},")</f>
-        <v>{"sourceId": "LONGG", "targetId": "RYUKO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FLUFF", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">IF(E119="","","{""sourceId"": """&amp;A119&amp;""", ""targetId"": """&amp;B119&amp;""", ""shortDescription"": """&amp;C119&amp;""", ""fullDescriptionHtml"": """&amp;D119&amp;""", ""direction"": """&amp;E119&amp;"""},")</f>
-        <v>{"sourceId": "SASS", "targetId": "ASPIK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FLUFF", "targetId": "BUNNYX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">IF(E120="","","{""sourceId"": """&amp;A120&amp;""", ""targetId"": """&amp;B120&amp;""", ""shortDescription"": """&amp;C120&amp;""", ""fullDescriptionHtml"": """&amp;D120&amp;""", ""direction"": """&amp;E120&amp;"""},")</f>
-        <v>{"sourceId": "SASS", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LONGG", "targetId": "DRAGON_BUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">IF(E121="","","{""sourceId"": """&amp;A121&amp;""", ""targetId"": """&amp;B121&amp;""", ""shortDescription"": """&amp;C121&amp;""", ""fullDescriptionHtml"": """&amp;D121&amp;""", ""direction"": """&amp;E121&amp;"""},")</f>
-        <v>{"sourceId": "SASS", "targetId": "VIPERION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LONGG", "targetId": "RYUKO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">IF(E122="","","{""sourceId"": """&amp;A122&amp;""", ""targetId"": """&amp;B122&amp;""", ""shortDescription"": """&amp;C122&amp;""", ""fullDescriptionHtml"": """&amp;D122&amp;""", ""direction"": """&amp;E122&amp;"""},")</f>
-        <v>{"sourceId": "KAALKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SASS", "targetId": "ASPIK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">IF(E123="","","{""sourceId"": """&amp;A123&amp;""", ""targetId"": """&amp;B123&amp;""", ""shortDescription"": """&amp;C123&amp;""", ""fullDescriptionHtml"": """&amp;D123&amp;""", ""direction"": """&amp;E123&amp;"""},")</f>
-        <v>{"sourceId": "KAALKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SASS", "targetId": "SNAKE_NOIR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">IF(E124="","","{""sourceId"": """&amp;A124&amp;""", ""targetId"": """&amp;B124&amp;""", ""shortDescription"": """&amp;C124&amp;""", ""fullDescriptionHtml"": """&amp;D124&amp;""", ""direction"": """&amp;E124&amp;"""},")</f>
-        <v>{"sourceId": "KAALKI", "targetId": "PEGASUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SASS", "targetId": "VIPERION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>62</v>
+      <c r="A125" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">IF(E125="","","{""sourceId"": """&amp;A125&amp;""", ""targetId"": """&amp;B125&amp;""", ""shortDescription"": """&amp;C125&amp;""", ""fullDescriptionHtml"": """&amp;D125&amp;""", ""direction"": """&amp;E125&amp;"""},")</f>
-        <v>{"sourceId": "ZIGGY", "targetId": "CAPRIKID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAALKI", "targetId": "PEGABUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">IF(E126="","","{""sourceId"": """&amp;A126&amp;""", ""targetId"": """&amp;B126&amp;""", ""shortDescription"": """&amp;C126&amp;""", ""fullDescriptionHtml"": """&amp;D126&amp;""", ""direction"": """&amp;E126&amp;"""},")</f>
-        <v>{"sourceId": "XUPPU", "targetId": "KING_MONKEY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAALKI", "targetId": "PENNYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">IF(E127="","","{""sourceId"": """&amp;A127&amp;""", ""targetId"": """&amp;B127&amp;""", ""shortDescription"": """&amp;C127&amp;""", ""fullDescriptionHtml"": """&amp;D127&amp;""", ""direction"": """&amp;E127&amp;"""},")</f>
-        <v>{"sourceId": "ORIKKO", "targetId": "ROOSTER_BOLD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAALKI", "targetId": "PEGASUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6" t="s">
-        <v>73</v>
+      <c r="A128" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">IF(E128="","","{""sourceId"": """&amp;A128&amp;""", ""targetId"": """&amp;B128&amp;""", ""shortDescription"": """&amp;C128&amp;""", ""fullDescriptionHtml"": """&amp;D128&amp;""", ""direction"": """&amp;E128&amp;"""},")</f>
-        <v>{"sourceId": "BARKK", "targetId": "FLAIRMIDABLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ZIGGY", "targetId": "CAPRIKID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">IF(E129="","","{""sourceId"": """&amp;A129&amp;""", ""targetId"": """&amp;B129&amp;""", ""shortDescription"": """&amp;C129&amp;""", ""fullDescriptionHtml"": """&amp;D129&amp;""", ""direction"": """&amp;E129&amp;"""},")</f>
-        <v>{"sourceId": "BARKK", "targetId": "MISS_HOUND", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "XUPPU", "targetId": "KING_MONKEY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G130" s="0" t="str">
         <f aca="false">IF(E130="","","{""sourceId"": """&amp;A130&amp;""", ""targetId"": """&amp;B130&amp;""", ""shortDescription"": """&amp;C130&amp;""", ""fullDescriptionHtml"": """&amp;D130&amp;""", ""direction"": """&amp;E130&amp;"""},")</f>
+        <v>{"sourceId": "ORIKKO", "targetId": "ROOSTER_BOLD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G131" s="0" t="str">
+        <f aca="false">IF(E131="","","{""sourceId"": """&amp;A131&amp;""", ""targetId"": """&amp;B131&amp;""", ""shortDescription"": """&amp;C131&amp;""", ""fullDescriptionHtml"": """&amp;D131&amp;""", ""direction"": """&amp;E131&amp;"""},")</f>
+        <v>{"sourceId": "BARKK", "targetId": "FLAIRMIDABLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G132" s="0" t="str">
+        <f aca="false">IF(E132="","","{""sourceId"": """&amp;A132&amp;""", ""targetId"": """&amp;B132&amp;""", ""shortDescription"": """&amp;C132&amp;""", ""fullDescriptionHtml"": """&amp;D132&amp;""", ""direction"": """&amp;E132&amp;"""},")</f>
+        <v>{"sourceId": "BARKK", "targetId": "MISS_HOUND", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G133" s="0" t="str">
+        <f aca="false">IF(E133="","","{""sourceId"": """&amp;A133&amp;""", ""targetId"": """&amp;B133&amp;""", ""shortDescription"": """&amp;C133&amp;""", ""fullDescriptionHtml"": """&amp;D133&amp;""", ""direction"": """&amp;E133&amp;"""},")</f>
         <v>{"sourceId": "DAIZZI", "targetId": "PIGELLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
-    </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G134" s="0" t="str">
-        <f aca="false">IF(E134="","","{""sourceId"": """&amp;A134&amp;""", ""targetId"": """&amp;B134&amp;""", ""shortDescription"": """&amp;C134&amp;""", ""fullDescriptionHtml"": """&amp;D134&amp;""", ""direction"": """&amp;E134&amp;"""},")</f>
-        <v>{"sourceId": "AURORE_BEAUREAL", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G135" s="0" t="str">
-        <f aca="false">IF(E135="","","{""sourceId"": """&amp;A135&amp;""", ""targetId"": """&amp;B135&amp;""", ""shortDescription"": """&amp;C135&amp;""", ""fullDescriptionHtml"": """&amp;D135&amp;""", ""direction"": """&amp;E135&amp;"""},")</f>
-        <v>{"sourceId": "NATHANIEL_KURTZBERG", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G136" s="0" t="str">
-        <f aca="false">IF(E136="","","{""sourceId"": """&amp;A136&amp;""", ""targetId"": """&amp;B136&amp;""", ""shortDescription"": """&amp;C136&amp;""", ""fullDescriptionHtml"": """&amp;D136&amp;""", ""direction"": """&amp;E136&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
-      </c>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>291</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G137" s="0" t="str">
         <f aca="false">IF(E137="","","{""sourceId"": """&amp;A137&amp;""", ""targetId"": """&amp;B137&amp;""", ""shortDescription"": """&amp;C137&amp;""", ""fullDescriptionHtml"": """&amp;D137&amp;""", ""direction"": """&amp;E137&amp;"""},")</f>
-        <v>{"sourceId": "JEAN_DUPARC", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AURORE_BEAUREAL", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G138" s="0" t="str">
         <f aca="false">IF(E138="","","{""sourceId"": """&amp;A138&amp;""", ""targetId"": """&amp;B138&amp;""", ""shortDescription"": """&amp;C138&amp;""", ""fullDescriptionHtml"": """&amp;D138&amp;""", ""direction"": """&amp;E138&amp;"""},")</f>
-        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NATHANIEL_KURTZBERG", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>259</v>
+      <c r="A139" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G139" s="0" t="str">
         <f aca="false">IF(E139="","","{""sourceId"": """&amp;A139&amp;""", ""targetId"": """&amp;B139&amp;""", ""shortDescription"": """&amp;C139&amp;""", ""fullDescriptionHtml"": """&amp;D139&amp;""", ""direction"": """&amp;E139&amp;"""},")</f>
-        <v>{"sourceId": "LE_CHIEN_KIM", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B140" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G140" s="0" t="str">
         <f aca="false">IF(E140="","","{""sourceId"": """&amp;A140&amp;""", ""targetId"": """&amp;B140&amp;""", ""shortDescription"": """&amp;C140&amp;""", ""fullDescriptionHtml"": """&amp;D140&amp;""", ""direction"": """&amp;E140&amp;"""},")</f>
-        <v>{"sourceId": "XAVIER_RAMIER", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JEAN_DUPARC", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G141" s="0" t="str">
         <f aca="false">IF(E141="","","{""sourceId"": """&amp;A141&amp;""", ""targetId"": """&amp;B141&amp;""", ""shortDescription"": """&amp;C141&amp;""", ""fullDescriptionHtml"": """&amp;D141&amp;""", ""direction"": """&amp;E141&amp;"""},")</f>
-        <v>{"sourceId": "VINCENT_AZA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G142" s="0" t="str">
         <f aca="false">IF(E142="","","{""sourceId"": """&amp;A142&amp;""", ""targetId"": """&amp;B142&amp;""", ""shortDescription"": """&amp;C142&amp;""", ""fullDescriptionHtml"": """&amp;D142&amp;""", ""direction"": """&amp;E142&amp;"""},")</f>
-        <v>{"sourceId": "THEO_BARBOT", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LE_CHIEN_KIM", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G143" s="0" t="str">
         <f aca="false">IF(E143="","","{""sourceId"": """&amp;A143&amp;""", ""targetId"": """&amp;B143&amp;""", ""shortDescription"": """&amp;C143&amp;""", ""fullDescriptionHtml"": """&amp;D143&amp;""", ""direction"": """&amp;E143&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "XAVIER_RAMIER", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">IF(E144="","","{""sourceId"": """&amp;A144&amp;""", ""targetId"": """&amp;B144&amp;""", ""shortDescription"": """&amp;C144&amp;""", ""fullDescriptionHtml"": """&amp;D144&amp;""", ""direction"": """&amp;E144&amp;"""},")</f>
-        <v>{"sourceId": "SIMON_GRIMAULT", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "VINCENT_AZA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G145" s="0" t="str">
         <f aca="false">IF(E145="","","{""sourceId"": """&amp;A145&amp;""", ""targetId"": """&amp;B145&amp;""", ""shortDescription"": """&amp;C145&amp;""", ""fullDescriptionHtml"": """&amp;D145&amp;""", ""direction"": """&amp;E145&amp;"""},")</f>
-        <v>{"sourceId": "ROGER_RAINCOMPRIX", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "THEO_BARBOT", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
+        <v>185</v>
+      </c>
       <c r="E146" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G146" s="0" t="str">
         <f aca="false">IF(E146="","","{""sourceId"": """&amp;A146&amp;""", ""targetId"": """&amp;B146&amp;""", ""shortDescription"": """&amp;C146&amp;""", ""fullDescriptionHtml"": """&amp;D146&amp;""", ""direction"": """&amp;E146&amp;"""},")</f>
-        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G147" s="0" t="str">
         <f aca="false">IF(E147="","","{""sourceId"": """&amp;A147&amp;""", ""targetId"": """&amp;B147&amp;""", ""shortDescription"": """&amp;C147&amp;""", ""fullDescriptionHtml"": """&amp;D147&amp;""", ""direction"": """&amp;E147&amp;"""},")</f>
-        <v>{"sourceId": "OTIS_CESAIRE", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SIMON_GRIMAULT", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
+        <v>313</v>
+      </c>
       <c r="E148" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G148" s="0" t="str">
         <f aca="false">IF(E148="","","{""sourceId"": """&amp;A148&amp;""", ""targetId"": """&amp;B148&amp;""", ""shortDescription"": """&amp;C148&amp;""", ""fullDescriptionHtml"": """&amp;D148&amp;""", ""direction"": """&amp;E148&amp;"""},")</f>
-        <v>{"sourceId": "ARMAND_D_ARGENCOURT", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROGER_RAINCOMPRIX", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>323</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
       <c r="E149" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G149" s="0" t="str">
         <f aca="false">IF(E149="","","{""sourceId"": """&amp;A149&amp;""", ""targetId"": """&amp;B149&amp;""", ""shortDescription"": """&amp;C149&amp;""", ""fullDescriptionHtml"": """&amp;D149&amp;""", ""direction"": """&amp;E149&amp;"""},")</f>
-        <v>{"sourceId": "JALIL_KUBDEL", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G150" s="0" t="str">
         <f aca="false">IF(E150="","","{""sourceId"": """&amp;A150&amp;""", ""targetId"": """&amp;B150&amp;""", ""shortDescription"": """&amp;C150&amp;""", ""fullDescriptionHtml"": """&amp;D150&amp;""", ""direction"": """&amp;E150&amp;"""},")</f>
-        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "OTIS_CESAIRE", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>207</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
       <c r="E151" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G151" s="0" t="str">
         <f aca="false">IF(E151="","","{""sourceId"": """&amp;A151&amp;""", ""targetId"": """&amp;B151&amp;""", ""shortDescription"": """&amp;C151&amp;""", ""fullDescriptionHtml"": """&amp;D151&amp;""", ""direction"": """&amp;E151&amp;"""},")</f>
-        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ARMAND_D_ARGENCOURT", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G152" s="0" t="str">
         <f aca="false">IF(E152="","","{""sourceId"": """&amp;A152&amp;""", ""targetId"": """&amp;B152&amp;""", ""shortDescription"": """&amp;C152&amp;""", ""fullDescriptionHtml"": """&amp;D152&amp;""", ""direction"": """&amp;E152&amp;"""},")</f>
-        <v>{"sourceId": "MANON_CHAMACK", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JALIL_KUBDEL", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G153" s="0" t="str">
         <f aca="false">IF(E153="","","{""sourceId"": """&amp;A153&amp;""", ""targetId"": """&amp;B153&amp;""", ""shortDescription"": """&amp;C153&amp;""", ""fullDescriptionHtml"": """&amp;D153&amp;""", ""direction"": """&amp;E153&amp;"""},")</f>
-        <v>{"sourceId": "FRED_HAPRELE", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G154" s="0" t="str">
         <f aca="false">IF(E154="","","{""sourceId"": """&amp;A154&amp;""", ""targetId"": """&amp;B154&amp;""", ""shortDescription"": """&amp;C154&amp;""", ""fullDescriptionHtml"": """&amp;D154&amp;""", ""direction"": """&amp;E154&amp;"""},")</f>
-        <v>{"sourceId": "JAGGED_STONE", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G155" s="0" t="str">
         <f aca="false">IF(E155="","","{""sourceId"": """&amp;A155&amp;""", ""targetId"": """&amp;B155&amp;""", ""shortDescription"": """&amp;C155&amp;""", ""fullDescriptionHtml"": """&amp;D155&amp;""", ""direction"": """&amp;E155&amp;"""},")</f>
-        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MANON_CHAMACK", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G156" s="0" t="str">
         <f aca="false">IF(E156="","","{""sourceId"": """&amp;A156&amp;""", ""targetId"": """&amp;B156&amp;""", ""shortDescription"": """&amp;C156&amp;""", ""fullDescriptionHtml"": """&amp;D156&amp;""", ""direction"": """&amp;E156&amp;"""},")</f>
-        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FRED_HAPRELE", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G157" s="0" t="str">
         <f aca="false">IF(E157="","","{""sourceId"": """&amp;A157&amp;""", ""targetId"": """&amp;B157&amp;""", ""shortDescription"": """&amp;C157&amp;""", ""fullDescriptionHtml"": """&amp;D157&amp;""", ""direction"": """&amp;E157&amp;"""},")</f>
-        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JAGGED_STONE", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G158" s="0" t="str">
         <f aca="false">IF(E158="","","{""sourceId"": """&amp;A158&amp;""", ""targetId"": """&amp;B158&amp;""", ""shortDescription"": """&amp;C158&amp;""", ""fullDescriptionHtml"": """&amp;D158&amp;""", ""direction"": """&amp;E158&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G159" s="0" t="str">
         <f aca="false">IF(E159="","","{""sourceId"": """&amp;A159&amp;""", ""targetId"": """&amp;B159&amp;""", ""shortDescription"": """&amp;C159&amp;""", ""fullDescriptionHtml"": """&amp;D159&amp;""", ""direction"": """&amp;E159&amp;"""},")</f>
-        <v>{"sourceId": "WANG_CHENG", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G160" s="0" t="str">
         <f aca="false">IF(E160="","","{""sourceId"": """&amp;A160&amp;""", ""targetId"": """&amp;B160&amp;""", ""shortDescription"": """&amp;C160&amp;""", ""fullDescriptionHtml"": """&amp;D160&amp;""", ""direction"": """&amp;E160&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G161" s="0" t="str">
         <f aca="false">IF(E161="","","{""sourceId"": """&amp;A161&amp;""", ""targetId"": """&amp;B161&amp;""", ""shortDescription"": """&amp;C161&amp;""", ""fullDescriptionHtml"": """&amp;D161&amp;""", ""direction"": """&amp;E161&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G162" s="0" t="str">
         <f aca="false">IF(E162="","","{""sourceId"": """&amp;A162&amp;""", ""targetId"": """&amp;B162&amp;""", ""shortDescription"": """&amp;C162&amp;""", ""fullDescriptionHtml"": """&amp;D162&amp;""", ""direction"": """&amp;E162&amp;"""},")</f>
-        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WANG_CHENG", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G163" s="0" t="str">
         <f aca="false">IF(E163="","","{""sourceId"": """&amp;A163&amp;""", ""targetId"": """&amp;B163&amp;""", ""shortDescription"": """&amp;C163&amp;""", ""fullDescriptionHtml"": """&amp;D163&amp;""", ""direction"": """&amp;E163&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G164" s="0" t="str">
         <f aca="false">IF(E164="","","{""sourceId"": """&amp;A164&amp;""", ""targetId"": """&amp;B164&amp;""", ""shortDescription"": """&amp;C164&amp;""", ""fullDescriptionHtml"": """&amp;D164&amp;""", ""direction"": """&amp;E164&amp;"""},")</f>
-        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G165" s="0" t="str">
         <f aca="false">IF(E165="","","{""sourceId"": """&amp;A165&amp;""", ""targetId"": """&amp;B165&amp;""", ""shortDescription"": """&amp;C165&amp;""", ""fullDescriptionHtml"": """&amp;D165&amp;""", ""direction"": """&amp;E165&amp;"""},")</f>
-        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G166" s="0" t="str">
         <f aca="false">IF(E166="","","{""sourceId"": """&amp;A166&amp;""", ""targetId"": """&amp;B166&amp;""", ""shortDescription"": """&amp;C166&amp;""", ""fullDescriptionHtml"": """&amp;D166&amp;""", ""direction"": """&amp;E166&amp;"""},")</f>
-        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G167" s="0" t="str">
         <f aca="false">IF(E167="","","{""sourceId"": """&amp;A167&amp;""", ""targetId"": """&amp;B167&amp;""", ""shortDescription"": """&amp;C167&amp;""", ""fullDescriptionHtml"": """&amp;D167&amp;""", ""direction"": """&amp;E167&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G168" s="0" t="str">
         <f aca="false">IF(E168="","","{""sourceId"": """&amp;A168&amp;""", ""targetId"": """&amp;B168&amp;""", ""shortDescription"": """&amp;C168&amp;""", ""fullDescriptionHtml"": """&amp;D168&amp;""", ""direction"": """&amp;E168&amp;"""},")</f>
-        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">IF(E169="","","{""sourceId"": """&amp;A169&amp;""", ""targetId"": """&amp;B169&amp;""", ""shortDescription"": """&amp;C169&amp;""", ""fullDescriptionHtml"": """&amp;D169&amp;""", ""direction"": """&amp;E169&amp;"""},")</f>
-        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>375</v>
+        <v>231</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G170" s="0" t="str">
         <f aca="false">IF(E170="","","{""sourceId"": """&amp;A170&amp;""", ""targetId"": """&amp;B170&amp;""", ""shortDescription"": """&amp;C170&amp;""", ""fullDescriptionHtml"": """&amp;D170&amp;""", ""direction"": """&amp;E170&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G171" s="0" t="str">
         <f aca="false">IF(E171="","","{""sourceId"": """&amp;A171&amp;""", ""targetId"": """&amp;B171&amp;""", ""shortDescription"": """&amp;C171&amp;""", ""fullDescriptionHtml"": """&amp;D171&amp;""", ""direction"": """&amp;E171&amp;"""},")</f>
-        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G172" s="0" t="str">
         <f aca="false">IF(E172="","","{""sourceId"": """&amp;A172&amp;""", ""targetId"": """&amp;B172&amp;""", ""shortDescription"": """&amp;C172&amp;""", ""fullDescriptionHtml"": """&amp;D172&amp;""", ""direction"": """&amp;E172&amp;"""},")</f>
-        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G173" s="0" t="str">
         <f aca="false">IF(E173="","","{""sourceId"": """&amp;A173&amp;""", ""targetId"": """&amp;B173&amp;""", ""shortDescription"": """&amp;C173&amp;""", ""fullDescriptionHtml"": """&amp;D173&amp;""", ""direction"": """&amp;E173&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G174" s="0" t="str">
         <f aca="false">IF(E174="","","{""sourceId"": """&amp;A174&amp;""", ""targetId"": """&amp;B174&amp;""", ""shortDescription"": """&amp;C174&amp;""", ""fullDescriptionHtml"": """&amp;D174&amp;""", ""direction"": """&amp;E174&amp;"""},")</f>
-        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G175" s="0" t="str">
         <f aca="false">IF(E175="","","{""sourceId"": """&amp;A175&amp;""", ""targetId"": """&amp;B175&amp;""", ""shortDescription"": """&amp;C175&amp;""", ""fullDescriptionHtml"": """&amp;D175&amp;""", ""direction"": """&amp;E175&amp;"""},")</f>
-        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="C176" s="0"/>
-      <c r="D176" s="0"/>
+        <v>391</v>
+      </c>
       <c r="E176" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G176" s="0" t="str">
         <f aca="false">IF(E176="","","{""sourceId"": """&amp;A176&amp;""", ""targetId"": """&amp;B176&amp;""", ""shortDescription"": """&amp;C176&amp;""", ""fullDescriptionHtml"": """&amp;D176&amp;""", ""direction"": """&amp;E176&amp;"""},")</f>
-        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G177" s="0" t="str">
         <f aca="false">IF(E177="","","{""sourceId"": """&amp;A177&amp;""", ""targetId"": """&amp;B177&amp;""", ""shortDescription"": """&amp;C177&amp;""", ""fullDescriptionHtml"": """&amp;D177&amp;""", ""direction"": """&amp;E177&amp;"""},")</f>
-        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G178" s="0" t="str">
         <f aca="false">IF(E178="","","{""sourceId"": """&amp;A178&amp;""", ""targetId"": """&amp;B178&amp;""", ""shortDescription"": """&amp;C178&amp;""", ""fullDescriptionHtml"": """&amp;D178&amp;""", ""direction"": """&amp;E178&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>157</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
       <c r="E179" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G179" s="0" t="str">
         <f aca="false">IF(E179="","","{""sourceId"": """&amp;A179&amp;""", ""targetId"": """&amp;B179&amp;""", ""shortDescription"": """&amp;C179&amp;""", ""fullDescriptionHtml"": """&amp;D179&amp;""", ""direction"": """&amp;E179&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G180" s="0" t="str">
         <f aca="false">IF(E180="","","{""sourceId"": """&amp;A180&amp;""", ""targetId"": """&amp;B180&amp;""", ""shortDescription"": """&amp;C180&amp;""", ""fullDescriptionHtml"": """&amp;D180&amp;""", ""direction"": """&amp;E180&amp;"""},")</f>
-        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G181" s="0" t="str">
         <f aca="false">IF(E181="","","{""sourceId"": """&amp;A181&amp;""", ""targetId"": """&amp;B181&amp;""", ""shortDescription"": """&amp;C181&amp;""", ""fullDescriptionHtml"": """&amp;D181&amp;""", ""direction"": """&amp;E181&amp;"""},")</f>
-        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>417</v>
+        <v>153</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>419</v>
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G182" s="0" t="str">
         <f aca="false">IF(E182="","","{""sourceId"": """&amp;A182&amp;""", ""targetId"": """&amp;B182&amp;""", ""shortDescription"": """&amp;C182&amp;""", ""fullDescriptionHtml"": """&amp;D182&amp;""", ""direction"": """&amp;E182&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>423</v>
+        <v>271</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G183" s="0" t="str">
         <f aca="false">IF(E183="","","{""sourceId"": """&amp;A183&amp;""", ""targetId"": """&amp;B183&amp;""", ""shortDescription"": """&amp;C183&amp;""", ""fullDescriptionHtml"": """&amp;D183&amp;""", ""direction"": """&amp;E183&amp;"""},")</f>
-        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>193</v>
+        <v>415</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G184" s="0" t="str">
         <f aca="false">IF(E184="","","{""sourceId"": """&amp;A184&amp;""", ""targetId"": """&amp;B184&amp;""", ""shortDescription"": """&amp;C184&amp;""", ""fullDescriptionHtml"": """&amp;D184&amp;""", ""direction"": """&amp;E184&amp;"""},")</f>
-        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6" t="s">
-        <v>125</v>
+      <c r="A185" s="0" t="s">
+        <v>419</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>135</v>
+        <v>421</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G185" s="0" t="str">
         <f aca="false">IF(E185="","","{""sourceId"": """&amp;A185&amp;""", ""targetId"": """&amp;B185&amp;""", ""shortDescription"": """&amp;C185&amp;""", ""fullDescriptionHtml"": """&amp;D185&amp;""", ""direction"": """&amp;E185&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G186" s="0" t="str">
         <f aca="false">IF(E186="","","{""sourceId"": """&amp;A186&amp;""", ""targetId"": """&amp;B186&amp;""", ""shortDescription"": """&amp;C186&amp;""", ""fullDescriptionHtml"": """&amp;D186&amp;""", ""direction"": """&amp;E186&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>425</v>
+        <v>195</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>427</v>
+        <v>199</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G187" s="0" t="str">
         <f aca="false">IF(E187="","","{""sourceId"": """&amp;A187&amp;""", ""targetId"": """&amp;B187&amp;""", ""shortDescription"": """&amp;C187&amp;""", ""fullDescriptionHtml"": """&amp;D187&amp;""", ""direction"": """&amp;E187&amp;"""},")</f>
-        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>341</v>
+      <c r="A188" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>345</v>
+        <v>137</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G188" s="0" t="str">
         <f aca="false">IF(E188="","","{""sourceId"": """&amp;A188&amp;""", ""targetId"": """&amp;B188&amp;""", ""shortDescription"": """&amp;C188&amp;""", ""fullDescriptionHtml"": """&amp;D188&amp;""", ""direction"": """&amp;E188&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>429</v>
+        <v>181</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G189" s="0" t="str">
         <f aca="false">IF(E189="","","{""sourceId"": """&amp;A189&amp;""", ""targetId"": """&amp;B189&amp;""", ""shortDescription"": """&amp;C189&amp;""", ""fullDescriptionHtml"": """&amp;D189&amp;""", ""direction"": """&amp;E189&amp;"""},")</f>
-        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G190" s="0" t="str">
         <f aca="false">IF(E190="","","{""sourceId"": """&amp;A190&amp;""", ""targetId"": """&amp;B190&amp;""", ""shortDescription"": """&amp;C190&amp;""", ""fullDescriptionHtml"": """&amp;D190&amp;""", ""direction"": """&amp;E190&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>439</v>
+        <v>343</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G191" s="0" t="str">
         <f aca="false">IF(E191="","","{""sourceId"": """&amp;A191&amp;""", ""targetId"": """&amp;B191&amp;""", ""shortDescription"": """&amp;C191&amp;""", ""fullDescriptionHtml"": """&amp;D191&amp;""", ""direction"": """&amp;E191&amp;"""},")</f>
-        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G192" s="0" t="str">
         <f aca="false">IF(E192="","","{""sourceId"": """&amp;A192&amp;""", ""targetId"": """&amp;B192&amp;""", ""shortDescription"": """&amp;C192&amp;""", ""fullDescriptionHtml"": """&amp;D192&amp;""", ""direction"": """&amp;E192&amp;"""},")</f>
-        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>229</v>
+        <v>441</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>235</v>
+        <v>443</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>271</v>
+        <v>445</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>277</v>
+        <v>447</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
-        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6" t="s">
-        <v>125</v>
+      <c r="A196" s="0" t="s">
+        <v>241</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">IF(E196="","","{""sourceId"": """&amp;A196&amp;""", ""targetId"": """&amp;B196&amp;""", ""shortDescription"": """&amp;C196&amp;""", ""fullDescriptionHtml"": """&amp;D196&amp;""", ""direction"": """&amp;E196&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G197" s="0" t="str">
         <f aca="false">IF(E197="","","{""sourceId"": """&amp;A197&amp;""", ""targetId"": """&amp;B197&amp;""", ""shortDescription"": """&amp;C197&amp;""", ""fullDescriptionHtml"": """&amp;D197&amp;""", ""direction"": """&amp;E197&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>447</v>
+        <v>273</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>449</v>
+        <v>279</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G198" s="0" t="str">
         <f aca="false">IF(E198="","","{""sourceId"": """&amp;A198&amp;""", ""targetId"": """&amp;B198&amp;""", ""shortDescription"": """&amp;C198&amp;""", ""fullDescriptionHtml"": """&amp;D198&amp;""", ""direction"": """&amp;E198&amp;"""},")</f>
-        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>451</v>
+      <c r="A199" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G199" s="0" t="str">
         <f aca="false">IF(E199="","","{""sourceId"": """&amp;A199&amp;""", ""targetId"": """&amp;B199&amp;""", ""shortDescription"": """&amp;C199&amp;""", ""fullDescriptionHtml"": """&amp;D199&amp;""", ""direction"": """&amp;E199&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>459</v>
+        <v>181</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>461</v>
+        <v>139</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G200" s="0" t="str">
         <f aca="false">IF(E200="","","{""sourceId"": """&amp;A200&amp;""", ""targetId"": """&amp;B200&amp;""", ""shortDescription"": """&amp;C200&amp;""", ""fullDescriptionHtml"": """&amp;D200&amp;""", ""direction"": """&amp;E200&amp;"""},")</f>
-        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G201" s="0" t="str">
         <f aca="false">IF(E201="","","{""sourceId"": """&amp;A201&amp;""", ""targetId"": """&amp;B201&amp;""", ""shortDescription"": """&amp;C201&amp;""", ""fullDescriptionHtml"": """&amp;D201&amp;""", ""direction"": """&amp;E201&amp;"""},")</f>
-        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G202" s="0" t="str">
         <f aca="false">IF(E202="","","{""sourceId"": """&amp;A202&amp;""", ""targetId"": """&amp;B202&amp;""", ""shortDescription"": """&amp;C202&amp;""", ""fullDescriptionHtml"": """&amp;D202&amp;""", ""direction"": """&amp;E202&amp;"""},")</f>
-        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>247</v>
+        <v>461</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>251</v>
+        <v>463</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G203" s="0" t="str">
         <f aca="false">IF(E203="","","{""sourceId"": """&amp;A203&amp;""", ""targetId"": """&amp;B203&amp;""", ""shortDescription"": """&amp;C203&amp;""", ""fullDescriptionHtml"": """&amp;D203&amp;""", ""direction"": """&amp;E203&amp;"""},")</f>
-        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G204" s="0" t="str">
         <f aca="false">IF(E204="","","{""sourceId"": """&amp;A204&amp;""", ""targetId"": """&amp;B204&amp;""", ""shortDescription"": """&amp;C204&amp;""", ""fullDescriptionHtml"": """&amp;D204&amp;""", ""direction"": """&amp;E204&amp;"""},")</f>
-        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G205" s="0" t="str">
         <f aca="false">IF(E205="","","{""sourceId"": """&amp;A205&amp;""", ""targetId"": """&amp;B205&amp;""", ""shortDescription"": """&amp;C205&amp;""", ""fullDescriptionHtml"": """&amp;D205&amp;""", ""direction"": """&amp;E205&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>475</v>
+        <v>249</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>477</v>
+        <v>253</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G206" s="0" t="str">
         <f aca="false">IF(E206="","","{""sourceId"": """&amp;A206&amp;""", ""targetId"": """&amp;B206&amp;""", ""shortDescription"": """&amp;C206&amp;""", ""fullDescriptionHtml"": """&amp;D206&amp;""", ""direction"": """&amp;E206&amp;"""},")</f>
-        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MAX_KANTE", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>121</v>
+      <c r="A207" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>475</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G207" s="0" t="str">
         <f aca="false">IF(E207="","","{""sourceId"": """&amp;A207&amp;""", ""targetId"": """&amp;B207&amp;""", ""shortDescription"": """&amp;C207&amp;""", ""fullDescriptionHtml"": """&amp;D207&amp;""", ""direction"": """&amp;E207&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G208" s="0" t="str">
         <f aca="false">IF(E208="","","{""sourceId"": """&amp;A208&amp;""", ""targetId"": """&amp;B208&amp;""", ""shortDescription"": """&amp;C208&amp;""", ""fullDescriptionHtml"": """&amp;D208&amp;""", ""direction"": """&amp;E208&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G209" s="0" t="str">
         <f aca="false">IF(E209="","","{""sourceId"": """&amp;A209&amp;""", ""targetId"": """&amp;B209&amp;""", ""shortDescription"": """&amp;C209&amp;""", ""fullDescriptionHtml"": """&amp;D209&amp;""", ""direction"": """&amp;E209&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>159</v>
+      <c r="A210" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G210" s="0" t="str">
         <f aca="false">IF(E210="","","{""sourceId"": """&amp;A210&amp;""", ""targetId"": """&amp;B210&amp;""", ""shortDescription"": """&amp;C210&amp;""", ""fullDescriptionHtml"": """&amp;D210&amp;""", ""direction"": """&amp;E210&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>239</v>
+        <v>409</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>245</v>
+        <v>413</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G211" s="0" t="str">
         <f aca="false">IF(E211="","","{""sourceId"": """&amp;A211&amp;""", ""targetId"": """&amp;B211&amp;""", ""shortDescription"": """&amp;C211&amp;""", ""fullDescriptionHtml"": """&amp;D211&amp;""", ""direction"": """&amp;E211&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G212" s="0" t="str">
         <f aca="false">IF(E212="","","{""sourceId"": """&amp;A212&amp;""", ""targetId"": """&amp;B212&amp;""", ""shortDescription"": """&amp;C212&amp;""", ""fullDescriptionHtml"": """&amp;D212&amp;""", ""direction"": """&amp;E212&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>479</v>
+        <v>153</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G213" s="0" t="str">
         <f aca="false">IF(E213="","","{""sourceId"": """&amp;A213&amp;""", ""targetId"": """&amp;B213&amp;""", ""shortDescription"": """&amp;C213&amp;""", ""fullDescriptionHtml"": """&amp;D213&amp;""", ""direction"": """&amp;E213&amp;"""},")</f>
-        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G214" s="0" t="str">
         <f aca="false">IF(E214="","","{""sourceId"": """&amp;A214&amp;""", ""targetId"": """&amp;B214&amp;""", ""shortDescription"": """&amp;C214&amp;""", ""fullDescriptionHtml"": """&amp;D214&amp;""", ""direction"": """&amp;E214&amp;"""},")</f>
-        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G215" s="0" t="str">
         <f aca="false">IF(E215="","","{""sourceId"": """&amp;A215&amp;""", ""targetId"": """&amp;B215&amp;""", ""shortDescription"": """&amp;C215&amp;""", ""fullDescriptionHtml"": """&amp;D215&amp;""", ""direction"": """&amp;E215&amp;"""},")</f>
-        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>151</v>
+        <v>481</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>161</v>
+        <v>483</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G216" s="0" t="str">
         <f aca="false">IF(E216="","","{""sourceId"": """&amp;A216&amp;""", ""targetId"": """&amp;B216&amp;""", ""shortDescription"": """&amp;C216&amp;""", ""fullDescriptionHtml"": """&amp;D216&amp;""", ""direction"": """&amp;E216&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>483</v>
+        <v>173</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>485</v>
+        <v>179</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G217" s="0" t="str">
         <f aca="false">IF(E217="","","{""sourceId"": """&amp;A217&amp;""", ""targetId"": """&amp;B217&amp;""", ""shortDescription"": """&amp;C217&amp;""", ""fullDescriptionHtml"": """&amp;D217&amp;""", ""direction"": """&amp;E217&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G218" s="0" t="str">
         <f aca="false">IF(E218="","","{""sourceId"": """&amp;A218&amp;""", ""targetId"": """&amp;B218&amp;""", ""shortDescription"": """&amp;C218&amp;""", ""fullDescriptionHtml"": """&amp;D218&amp;""", ""direction"": """&amp;E218&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>487</v>
+        <v>153</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>489</v>
+        <v>163</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G219" s="0" t="str">
         <f aca="false">IF(E219="","","{""sourceId"": """&amp;A219&amp;""", ""targetId"": """&amp;B219&amp;""", ""shortDescription"": """&amp;C219&amp;""", ""fullDescriptionHtml"": """&amp;D219&amp;""", ""direction"": """&amp;E219&amp;"""},")</f>
-        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G220" s="0" t="str">
         <f aca="false">IF(E220="","","{""sourceId"": """&amp;A220&amp;""", ""targetId"": """&amp;B220&amp;""", ""shortDescription"": """&amp;C220&amp;""", ""fullDescriptionHtml"": """&amp;D220&amp;""", ""direction"": """&amp;E220&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>491</v>
+        <v>181</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>493</v>
+        <v>189</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G221" s="0" t="str">
         <f aca="false">IF(E221="","","{""sourceId"": """&amp;A221&amp;""", ""targetId"": """&amp;B221&amp;""", ""shortDescription"": """&amp;C221&amp;""", ""fullDescriptionHtml"": """&amp;D221&amp;""", ""direction"": """&amp;E221&amp;"""},")</f>
-        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G222" s="0" t="str">
         <f aca="false">IF(E222="","","{""sourceId"": """&amp;A222&amp;""", ""targetId"": """&amp;B222&amp;""", ""shortDescription"": """&amp;C222&amp;""", ""fullDescriptionHtml"": """&amp;D222&amp;""", ""direction"": """&amp;E222&amp;"""},")</f>
-        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>123</v>
+      <c r="A223" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>439</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G223" s="0" t="str">
         <f aca="false">IF(E223="","","{""sourceId"": """&amp;A223&amp;""", ""targetId"": """&amp;B223&amp;""", ""shortDescription"": """&amp;C223&amp;""", ""fullDescriptionHtml"": """&amp;D223&amp;""", ""direction"": """&amp;E223&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>151</v>
+        <v>493</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>163</v>
+        <v>495</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G224" s="0" t="str">
         <f aca="false">IF(E224="","","{""sourceId"": """&amp;A224&amp;""", ""targetId"": """&amp;B224&amp;""", ""shortDescription"": """&amp;C224&amp;""", ""fullDescriptionHtml"": """&amp;D224&amp;""", ""direction"": """&amp;E224&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="E225" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G225" s="0" t="str">
         <f aca="false">IF(E225="","","{""sourceId"": """&amp;A225&amp;""", ""targetId"": """&amp;B225&amp;""", ""shortDescription"": """&amp;C225&amp;""", ""fullDescriptionHtml"": """&amp;D225&amp;""", ""direction"": """&amp;E225&amp;"""},")</f>
+        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G226" s="0" t="str">
+        <f aca="false">IF(E226="","","{""sourceId"": """&amp;A226&amp;""", ""targetId"": """&amp;B226&amp;""", ""shortDescription"": """&amp;C226&amp;""", ""fullDescriptionHtml"": """&amp;D226&amp;""", ""direction"": """&amp;E226&amp;"""},")</f>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G227" s="0" t="str">
+        <f aca="false">IF(E227="","","{""sourceId"": """&amp;A227&amp;""", ""targetId"": """&amp;B227&amp;""", ""shortDescription"": """&amp;C227&amp;""", ""fullDescriptionHtml"": """&amp;D227&amp;""", ""direction"": """&amp;E227&amp;"""},")</f>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G228" s="0" t="str">
+        <f aca="false">IF(E228="","","{""sourceId"": """&amp;A228&amp;""", ""targetId"": """&amp;B228&amp;""", ""shortDescription"": """&amp;C228&amp;""", ""fullDescriptionHtml"": """&amp;D228&amp;""", ""direction"": """&amp;E228&amp;"""},")</f>
         <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0"/>
-      <c r="B226" s="0"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0"/>
-    </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="0"/>
+      <c r="B229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6" t="s">
+      <c r="B232" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G232" s="0" t="str">
+        <f aca="false">IF(E232="","","{""sourceId"": """&amp;A232&amp;""", ""targetId"": """&amp;B232&amp;""", ""shortDescription"": """&amp;C232&amp;""", ""fullDescriptionHtml"": """&amp;D232&amp;""", ""direction"": """&amp;E232&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "TIKKI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6" t="s">
+      <c r="B233" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G233" s="0" t="str">
+        <f aca="false">IF(E233="","","{""sourceId"": """&amp;A233&amp;""", ""targetId"": """&amp;B233&amp;""", ""shortDescription"": """&amp;C233&amp;""", ""fullDescriptionHtml"": """&amp;D233&amp;""", ""direction"": """&amp;E233&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "PLAGG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="s">
+      <c r="B234" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G234" s="0" t="str">
+        <f aca="false">IF(E234="","","{""sourceId"": """&amp;A234&amp;""", ""targetId"": """&amp;B234&amp;""", ""shortDescription"": """&amp;C234&amp;""", ""fullDescriptionHtml"": """&amp;D234&amp;""", ""direction"": """&amp;E234&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "NOOROO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6" t="s">
+      <c r="B235" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G235" s="0" t="str">
+        <f aca="false">IF(E235="","","{""sourceId"": """&amp;A235&amp;""", ""targetId"": """&amp;B235&amp;""", ""shortDescription"": """&amp;C235&amp;""", ""fullDescriptionHtml"": """&amp;D235&amp;""", ""direction"": """&amp;E235&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "TRIXX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6" t="s">
+      <c r="B236" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G236" s="0" t="str">
+        <f aca="false">IF(E236="","","{""sourceId"": """&amp;A236&amp;""", ""targetId"": """&amp;B236&amp;""", ""shortDescription"": """&amp;C236&amp;""", ""fullDescriptionHtml"": """&amp;D236&amp;""", ""direction"": """&amp;E236&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "POLLEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6" t="s">
+      <c r="B237" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G237" s="0" t="str">
+        <f aca="false">IF(E237="","","{""sourceId"": """&amp;A237&amp;""", ""targetId"": """&amp;B237&amp;""", ""shortDescription"": """&amp;C237&amp;""", ""fullDescriptionHtml"": """&amp;D237&amp;""", ""direction"": """&amp;E237&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "WAYZZ", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6" t="s">
+      <c r="B238" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G238" s="0" t="str">
+        <f aca="false">IF(E238="","","{""sourceId"": """&amp;A238&amp;""", ""targetId"": """&amp;B238&amp;""", ""shortDescription"": """&amp;C238&amp;""", ""fullDescriptionHtml"": """&amp;D238&amp;""", ""direction"": """&amp;E238&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "DUUSU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6" t="s">
+      <c r="B239" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G239" s="0" t="str">
+        <f aca="false">IF(E239="","","{""sourceId"": """&amp;A239&amp;""", ""targetId"": """&amp;B239&amp;""", ""shortDescription"": """&amp;C239&amp;""", ""fullDescriptionHtml"": """&amp;D239&amp;""", ""direction"": """&amp;E239&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "MULLO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6" t="s">
+      <c r="B240" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G240" s="0" t="str">
+        <f aca="false">IF(E240="","","{""sourceId"": """&amp;A240&amp;""", ""targetId"": """&amp;B240&amp;""", ""shortDescription"": """&amp;C240&amp;""", ""fullDescriptionHtml"": """&amp;D240&amp;""", ""direction"": """&amp;E240&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "STOMPP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="s">
+      <c r="B241" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G241" s="0" t="str">
+        <f aca="false">IF(E241="","","{""sourceId"": """&amp;A241&amp;""", ""targetId"": """&amp;B241&amp;""", ""shortDescription"": """&amp;C241&amp;""", ""fullDescriptionHtml"": """&amp;D241&amp;""", ""direction"": """&amp;E241&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "ROAAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6" t="s">
+      <c r="B242" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G242" s="0" t="str">
+        <f aca="false">IF(E242="","","{""sourceId"": """&amp;A242&amp;""", ""targetId"": """&amp;B242&amp;""", ""shortDescription"": """&amp;C242&amp;""", ""fullDescriptionHtml"": """&amp;D242&amp;""", ""direction"": """&amp;E242&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "FLUFF", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6" t="s">
+      <c r="B243" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G243" s="0" t="str">
+        <f aca="false">IF(E243="","","{""sourceId"": """&amp;A243&amp;""", ""targetId"": """&amp;B243&amp;""", ""shortDescription"": """&amp;C243&amp;""", ""fullDescriptionHtml"": """&amp;D243&amp;""", ""direction"": """&amp;E243&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "LONGG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6" t="s">
+      <c r="B244" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G244" s="0" t="str">
+        <f aca="false">IF(E244="","","{""sourceId"": """&amp;A244&amp;""", ""targetId"": """&amp;B244&amp;""", ""shortDescription"": """&amp;C244&amp;""", ""fullDescriptionHtml"": """&amp;D244&amp;""", ""direction"": """&amp;E244&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "SASS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6" t="s">
+      <c r="B245" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G245" s="0" t="str">
+        <f aca="false">IF(E245="","","{""sourceId"": """&amp;A245&amp;""", ""targetId"": """&amp;B245&amp;""", ""shortDescription"": """&amp;C245&amp;""", ""fullDescriptionHtml"": """&amp;D245&amp;""", ""direction"": """&amp;E245&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "KAALKI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="s">
+      <c r="B246" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G246" s="0" t="str">
+        <f aca="false">IF(E246="","","{""sourceId"": """&amp;A246&amp;""", ""targetId"": """&amp;B246&amp;""", ""shortDescription"": """&amp;C246&amp;""", ""fullDescriptionHtml"": """&amp;D246&amp;""", ""direction"": """&amp;E246&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "ZIGGY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6" t="s">
+      <c r="B247" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G247" s="0" t="str">
+        <f aca="false">IF(E247="","","{""sourceId"": """&amp;A247&amp;""", ""targetId"": """&amp;B247&amp;""", ""shortDescription"": """&amp;C247&amp;""", ""fullDescriptionHtml"": """&amp;D247&amp;""", ""direction"": """&amp;E247&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "XUPPU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6" t="s">
+      <c r="B248" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G248" s="0" t="str">
+        <f aca="false">IF(E248="","","{""sourceId"": """&amp;A248&amp;""", ""targetId"": """&amp;B248&amp;""", ""shortDescription"": """&amp;C248&amp;""", ""fullDescriptionHtml"": """&amp;D248&amp;""", ""direction"": """&amp;E248&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "ORIKKO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6" t="s">
+      <c r="B249" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G249" s="0" t="str">
+        <f aca="false">IF(E249="","","{""sourceId"": """&amp;A249&amp;""", ""targetId"": """&amp;B249&amp;""", ""shortDescription"": """&amp;C249&amp;""", ""fullDescriptionHtml"": """&amp;D249&amp;""", ""direction"": """&amp;E249&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "BARKK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6" t="s">
-        <v>81</v>
+      <c r="B250" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G250" s="0" t="str">
+        <f aca="false">IF(E250="","","{""sourceId"": """&amp;A250&amp;""", ""targetId"": """&amp;B250&amp;""", ""shortDescription"": """&amp;C250&amp;""", ""fullDescriptionHtml"": """&amp;D250&amp;""", ""direction"": """&amp;E250&amp;"""},")</f>
+        <v>{"sourceId": "KWAMI", "targetId": "DAIZZI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="A253" s="0"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G254" s="0" t="str">
+        <f aca="false">IF(E254="","","{""sourceId"": """&amp;A254&amp;""", ""targetId"": """&amp;B254&amp;""", ""shortDescription"": """&amp;C254&amp;""", ""fullDescriptionHtml"": """&amp;D254&amp;""", ""direction"": """&amp;E254&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G255" s="0" t="str">
+        <f aca="false">IF(E255="","","{""sourceId"": """&amp;A255&amp;""", ""targetId"": """&amp;B255&amp;""", ""shortDescription"": """&amp;C255&amp;""", ""fullDescriptionHtml"": """&amp;D255&amp;""", ""direction"": """&amp;E255&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G256" s="0" t="str">
+        <f aca="false">IF(E256="","","{""sourceId"": """&amp;A256&amp;""", ""targetId"": """&amp;B256&amp;""", ""shortDescription"": """&amp;C256&amp;""", ""fullDescriptionHtml"": """&amp;D256&amp;""", ""direction"": """&amp;E256&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G257" s="0" t="str">
+        <f aca="false">IF(E257="","","{""sourceId"": """&amp;A257&amp;""", ""targetId"": """&amp;B257&amp;""", ""shortDescription"": """&amp;C257&amp;""", ""fullDescriptionHtml"": """&amp;D257&amp;""", ""direction"": """&amp;E257&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G258" s="0" t="str">
+        <f aca="false">IF(E258="","","{""sourceId"": """&amp;A258&amp;""", ""targetId"": """&amp;B258&amp;""", ""shortDescription"": """&amp;C258&amp;""", ""fullDescriptionHtml"": """&amp;D258&amp;""", ""direction"": """&amp;E258&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G259" s="0" t="str">
+        <f aca="false">IF(E259="","","{""sourceId"": """&amp;A259&amp;""", ""targetId"": """&amp;B259&amp;""", ""shortDescription"": """&amp;C259&amp;""", ""fullDescriptionHtml"": """&amp;D259&amp;""", ""direction"": """&amp;E259&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G260" s="0" t="str">
+        <f aca="false">IF(E260="","","{""sourceId"": """&amp;A260&amp;""", ""targetId"": """&amp;B260&amp;""", ""shortDescription"": """&amp;C260&amp;""", ""fullDescriptionHtml"": """&amp;D260&amp;""", ""direction"": """&amp;E260&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G261" s="0" t="str">
+        <f aca="false">IF(E261="","","{""sourceId"": """&amp;A261&amp;""", ""targetId"": """&amp;B261&amp;""", ""shortDescription"": """&amp;C261&amp;""", ""fullDescriptionHtml"": """&amp;D261&amp;""", ""direction"": """&amp;E261&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G262" s="0" t="str">
+        <f aca="false">IF(E262="","","{""sourceId"": """&amp;A262&amp;""", ""targetId"": """&amp;B262&amp;""", ""shortDescription"": """&amp;C262&amp;""", ""fullDescriptionHtml"": """&amp;D262&amp;""", ""direction"": """&amp;E262&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G263" s="0" t="str">
+        <f aca="false">IF(E263="","","{""sourceId"": """&amp;A263&amp;""", ""targetId"": """&amp;B263&amp;""", ""shortDescription"": """&amp;C263&amp;""", ""fullDescriptionHtml"": """&amp;D263&amp;""", ""direction"": """&amp;E263&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G264" s="0" t="str">
+        <f aca="false">IF(E264="","","{""sourceId"": """&amp;A264&amp;""", ""targetId"": """&amp;B264&amp;""", ""shortDescription"": """&amp;C264&amp;""", ""fullDescriptionHtml"": """&amp;D264&amp;""", ""direction"": """&amp;E264&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G265" s="0" t="str">
+        <f aca="false">IF(E265="","","{""sourceId"": """&amp;A265&amp;""", ""targetId"": """&amp;B265&amp;""", ""shortDescription"": """&amp;C265&amp;""", ""fullDescriptionHtml"": """&amp;D265&amp;""", ""direction"": """&amp;E265&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G266" s="0" t="str">
+        <f aca="false">IF(E266="","","{""sourceId"": """&amp;A266&amp;""", ""targetId"": """&amp;B266&amp;""", ""shortDescription"": """&amp;C266&amp;""", ""fullDescriptionHtml"": """&amp;D266&amp;""", ""direction"": """&amp;E266&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G267" s="0" t="str">
+        <f aca="false">IF(E267="","","{""sourceId"": """&amp;A267&amp;""", ""targetId"": """&amp;B267&amp;""", ""shortDescription"": """&amp;C267&amp;""", ""fullDescriptionHtml"": """&amp;D267&amp;""", ""direction"": """&amp;E267&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G268" s="0" t="str">
+        <f aca="false">IF(E268="","","{""sourceId"": """&amp;A268&amp;""", ""targetId"": """&amp;B268&amp;""", ""shortDescription"": """&amp;C268&amp;""", ""fullDescriptionHtml"": """&amp;D268&amp;""", ""direction"": """&amp;E268&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G269" s="0" t="str">
+        <f aca="false">IF(E269="","","{""sourceId"": """&amp;A269&amp;""", ""targetId"": """&amp;B269&amp;""", ""shortDescription"": """&amp;C269&amp;""", ""fullDescriptionHtml"": """&amp;D269&amp;""", ""direction"": """&amp;E269&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G270" s="0" t="str">
+        <f aca="false">IF(E270="","","{""sourceId"": """&amp;A270&amp;""", ""targetId"": """&amp;B270&amp;""", ""shortDescription"": """&amp;C270&amp;""", ""fullDescriptionHtml"": """&amp;D270&amp;""", ""direction"": """&amp;E270&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G271" s="0" t="str">
+        <f aca="false">IF(E271="","","{""sourceId"": """&amp;A271&amp;""", ""targetId"": """&amp;B271&amp;""", ""shortDescription"": """&amp;C271&amp;""", ""fullDescriptionHtml"": """&amp;D271&amp;""", ""direction"": """&amp;E271&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G272" s="0" t="str">
+        <f aca="false">IF(E272="","","{""sourceId"": """&amp;A272&amp;""", ""targetId"": """&amp;B272&amp;""", ""shortDescription"": """&amp;C272&amp;""", ""fullDescriptionHtml"": """&amp;D272&amp;""", ""direction"": """&amp;E272&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G273" s="0" t="str">
+        <f aca="false">IF(E273="","","{""sourceId"": """&amp;A273&amp;""", ""targetId"": """&amp;B273&amp;""", ""shortDescription"": """&amp;C273&amp;""", ""fullDescriptionHtml"": """&amp;D273&amp;""", ""direction"": """&amp;E273&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G274" s="0" t="str">
+        <f aca="false">IF(E274="","","{""sourceId"": """&amp;A274&amp;""", ""targetId"": """&amp;B274&amp;""", ""shortDescription"": """&amp;C274&amp;""", ""fullDescriptionHtml"": """&amp;D274&amp;""", ""direction"": """&amp;E274&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G275" s="0" t="str">
+        <f aca="false">IF(E275="","","{""sourceId"": """&amp;A275&amp;""", ""targetId"": """&amp;B275&amp;""", ""shortDescription"": """&amp;C275&amp;""", ""fullDescriptionHtml"": """&amp;D275&amp;""", ""direction"": """&amp;E275&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G276" s="0" t="str">
+        <f aca="false">IF(E276="","","{""sourceId"": """&amp;A276&amp;""", ""targetId"": """&amp;B276&amp;""", ""shortDescription"": """&amp;C276&amp;""", ""fullDescriptionHtml"": """&amp;D276&amp;""", ""direction"": """&amp;E276&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G277" s="0" t="str">
+        <f aca="false">IF(E277="","","{""sourceId"": """&amp;A277&amp;""", ""targetId"": """&amp;B277&amp;""", ""shortDescription"": """&amp;C277&amp;""", ""fullDescriptionHtml"": """&amp;D277&amp;""", ""direction"": """&amp;E277&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G278" s="0" t="str">
+        <f aca="false">IF(E278="","","{""sourceId"": """&amp;A278&amp;""", ""targetId"": """&amp;B278&amp;""", ""shortDescription"": """&amp;C278&amp;""", ""fullDescriptionHtml"": """&amp;D278&amp;""", ""direction"": """&amp;E278&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G279" s="0" t="str">
+        <f aca="false">IF(E279="","","{""sourceId"": """&amp;A279&amp;""", ""targetId"": """&amp;B279&amp;""", ""shortDescription"": """&amp;C279&amp;""", ""fullDescriptionHtml"": """&amp;D279&amp;""", ""direction"": """&amp;E279&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G280" s="0" t="str">
+        <f aca="false">IF(E280="","","{""sourceId"": """&amp;A280&amp;""", ""targetId"": """&amp;B280&amp;""", ""shortDescription"": """&amp;C280&amp;""", ""fullDescriptionHtml"": """&amp;D280&amp;""", ""direction"": """&amp;E280&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G281" s="0" t="str">
+        <f aca="false">IF(E281="","","{""sourceId"": """&amp;A281&amp;""", ""targetId"": """&amp;B281&amp;""", ""shortDescription"": """&amp;C281&amp;""", ""fullDescriptionHtml"": """&amp;D281&amp;""", ""direction"": """&amp;E281&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G282" s="0" t="str">
+        <f aca="false">IF(E282="","","{""sourceId"": """&amp;A282&amp;""", ""targetId"": """&amp;B282&amp;""", ""shortDescription"": """&amp;C282&amp;""", ""fullDescriptionHtml"": """&amp;D282&amp;""", ""direction"": """&amp;E282&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G283" s="0" t="str">
+        <f aca="false">IF(E283="","","{""sourceId"": """&amp;A283&amp;""", ""targetId"": """&amp;B283&amp;""", ""shortDescription"": """&amp;C283&amp;""", ""fullDescriptionHtml"": """&amp;D283&amp;""", ""direction"": """&amp;E283&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G284" s="0" t="str">
+        <f aca="false">IF(E284="","","{""sourceId"": """&amp;A284&amp;""", ""targetId"": """&amp;B284&amp;""", ""shortDescription"": """&amp;C284&amp;""", ""fullDescriptionHtml"": """&amp;D284&amp;""", ""direction"": """&amp;E284&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G285" s="0" t="str">
+        <f aca="false">IF(E285="","","{""sourceId"": """&amp;A285&amp;""", ""targetId"": """&amp;B285&amp;""", ""shortDescription"": """&amp;C285&amp;""", ""fullDescriptionHtml"": """&amp;D285&amp;""", ""direction"": """&amp;E285&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G286" s="0" t="str">
+        <f aca="false">IF(E286="","","{""sourceId"": """&amp;A286&amp;""", ""targetId"": """&amp;B286&amp;""", ""shortDescription"": """&amp;C286&amp;""", ""fullDescriptionHtml"": """&amp;D286&amp;""", ""direction"": """&amp;E286&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G287" s="0" t="str">
+        <f aca="false">IF(E287="","","{""sourceId"": """&amp;A287&amp;""", ""targetId"": """&amp;B287&amp;""", ""shortDescription"": """&amp;C287&amp;""", ""fullDescriptionHtml"": """&amp;D287&amp;""", ""direction"": """&amp;E287&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G288" s="0" t="str">
+        <f aca="false">IF(E288="","","{""sourceId"": """&amp;A288&amp;""", ""targetId"": """&amp;B288&amp;""", ""shortDescription"": """&amp;C288&amp;""", ""fullDescriptionHtml"": """&amp;D288&amp;""", ""direction"": """&amp;E288&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G289" s="0" t="str">
+        <f aca="false">IF(E289="","","{""sourceId"": """&amp;A289&amp;""", ""targetId"": """&amp;B289&amp;""", ""shortDescription"": """&amp;C289&amp;""", ""fullDescriptionHtml"": """&amp;D289&amp;""", ""direction"": """&amp;E289&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G290" s="0" t="str">
+        <f aca="false">IF(E290="","","{""sourceId"": """&amp;A290&amp;""", ""targetId"": """&amp;B290&amp;""", ""shortDescription"": """&amp;C290&amp;""", ""fullDescriptionHtml"": """&amp;D290&amp;""", ""direction"": """&amp;E290&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G291" s="0" t="str">
+        <f aca="false">IF(E291="","","{""sourceId"": """&amp;A291&amp;""", ""targetId"": """&amp;B291&amp;""", ""shortDescription"": """&amp;C291&amp;""", ""fullDescriptionHtml"": """&amp;D291&amp;""", ""direction"": """&amp;E291&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G292" s="0" t="str">
+        <f aca="false">IF(E292="","","{""sourceId"": """&amp;A292&amp;""", ""targetId"": """&amp;B292&amp;""", ""shortDescription"": """&amp;C292&amp;""", ""fullDescriptionHtml"": """&amp;D292&amp;""", ""direction"": """&amp;E292&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G293" s="0" t="str">
+        <f aca="false">IF(E293="","","{""sourceId"": """&amp;A293&amp;""", ""targetId"": """&amp;B293&amp;""", ""shortDescription"": """&amp;C293&amp;""", ""fullDescriptionHtml"": """&amp;D293&amp;""", ""direction"": """&amp;E293&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G294" s="0" t="str">
+        <f aca="false">IF(E294="","","{""sourceId"": """&amp;A294&amp;""", ""targetId"": """&amp;B294&amp;""", ""shortDescription"": """&amp;C294&amp;""", ""fullDescriptionHtml"": """&amp;D294&amp;""", ""direction"": """&amp;E294&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G295" s="0" t="str">
+        <f aca="false">IF(E295="","","{""sourceId"": """&amp;A295&amp;""", ""targetId"": """&amp;B295&amp;""", ""shortDescription"": """&amp;C295&amp;""", ""fullDescriptionHtml"": """&amp;D295&amp;""", ""direction"": """&amp;E295&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G296" s="0" t="str">
+        <f aca="false">IF(E296="","","{""sourceId"": """&amp;A296&amp;""", ""targetId"": """&amp;B296&amp;""", ""shortDescription"": """&amp;C296&amp;""", ""fullDescriptionHtml"": """&amp;D296&amp;""", ""direction"": """&amp;E296&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G297" s="0" t="str">
+        <f aca="false">IF(E297="","","{""sourceId"": """&amp;A297&amp;""", ""targetId"": """&amp;B297&amp;""", ""shortDescription"": """&amp;C297&amp;""", ""fullDescriptionHtml"": """&amp;D297&amp;""", ""direction"": """&amp;E297&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G298" s="0" t="str">
+        <f aca="false">IF(E298="","","{""sourceId"": """&amp;A298&amp;""", ""targetId"": """&amp;B298&amp;""", ""shortDescription"": """&amp;C298&amp;""", ""fullDescriptionHtml"": """&amp;D298&amp;""", ""direction"": """&amp;E298&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G299" s="0" t="str">
+        <f aca="false">IF(E299="","","{""sourceId"": """&amp;A299&amp;""", ""targetId"": """&amp;B299&amp;""", ""shortDescription"": """&amp;C299&amp;""", ""fullDescriptionHtml"": """&amp;D299&amp;""", ""direction"": """&amp;E299&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G300" s="0" t="str">
+        <f aca="false">IF(E300="","","{""sourceId"": """&amp;A300&amp;""", ""targetId"": """&amp;B300&amp;""", ""shortDescription"": """&amp;C300&amp;""", ""fullDescriptionHtml"": """&amp;D300&amp;""", ""direction"": """&amp;E300&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G301" s="0" t="str">
+        <f aca="false">IF(E301="","","{""sourceId"": """&amp;A301&amp;""", ""targetId"": """&amp;B301&amp;""", ""shortDescription"": """&amp;C301&amp;""", ""fullDescriptionHtml"": """&amp;D301&amp;""", ""direction"": """&amp;E301&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G302" s="0" t="str">
+        <f aca="false">IF(E302="","","{""sourceId"": """&amp;A302&amp;""", ""targetId"": """&amp;B302&amp;""", ""shortDescription"": """&amp;C302&amp;""", ""fullDescriptionHtml"": """&amp;D302&amp;""", ""direction"": """&amp;E302&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G303" s="0" t="str">
+        <f aca="false">IF(E303="","","{""sourceId"": """&amp;A303&amp;""", ""targetId"": """&amp;B303&amp;""", ""shortDescription"": """&amp;C303&amp;""", ""fullDescriptionHtml"": """&amp;D303&amp;""", ""direction"": """&amp;E303&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G304" s="0" t="str">
+        <f aca="false">IF(E304="","","{""sourceId"": """&amp;A304&amp;""", ""targetId"": """&amp;B304&amp;""", ""shortDescription"": """&amp;C304&amp;""", ""fullDescriptionHtml"": """&amp;D304&amp;""", ""direction"": """&amp;E304&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G305" s="0" t="str">
+        <f aca="false">IF(E305="","","{""sourceId"": """&amp;A305&amp;""", ""targetId"": """&amp;B305&amp;""", ""shortDescription"": """&amp;C305&amp;""", ""fullDescriptionHtml"": """&amp;D305&amp;""", ""direction"": """&amp;E305&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G306" s="0" t="str">
+        <f aca="false">IF(E306="","","{""sourceId"": """&amp;A306&amp;""", ""targetId"": """&amp;B306&amp;""", ""shortDescription"": """&amp;C306&amp;""", ""fullDescriptionHtml"": """&amp;D306&amp;""", ""direction"": """&amp;E306&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G307" s="0" t="str">
+        <f aca="false">IF(E307="","","{""sourceId"": """&amp;A307&amp;""", ""targetId"": """&amp;B307&amp;""", ""shortDescription"": """&amp;C307&amp;""", ""fullDescriptionHtml"": """&amp;D307&amp;""", ""direction"": """&amp;E307&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G308" s="0" t="str">
+        <f aca="false">IF(E308="","","{""sourceId"": """&amp;A308&amp;""", ""targetId"": """&amp;B308&amp;""", ""shortDescription"": """&amp;C308&amp;""", ""fullDescriptionHtml"": """&amp;D308&amp;""", ""direction"": """&amp;E308&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G309" s="0" t="str">
+        <f aca="false">IF(E309="","","{""sourceId"": """&amp;A309&amp;""", ""targetId"": """&amp;B309&amp;""", ""shortDescription"": """&amp;C309&amp;""", ""fullDescriptionHtml"": """&amp;D309&amp;""", ""direction"": """&amp;E309&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G310" s="0" t="str">
+        <f aca="false">IF(E310="","","{""sourceId"": """&amp;A310&amp;""", ""targetId"": """&amp;B310&amp;""", ""shortDescription"": """&amp;C310&amp;""", ""fullDescriptionHtml"": """&amp;D310&amp;""", ""direction"": """&amp;E310&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G311" s="0" t="str">
+        <f aca="false">IF(E311="","","{""sourceId"": """&amp;A311&amp;""", ""targetId"": """&amp;B311&amp;""", ""shortDescription"": """&amp;C311&amp;""", ""fullDescriptionHtml"": """&amp;D311&amp;""", ""direction"": """&amp;E311&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G312" s="0" t="str">
+        <f aca="false">IF(E312="","","{""sourceId"": """&amp;A312&amp;""", ""targetId"": """&amp;B312&amp;""", ""shortDescription"": """&amp;C312&amp;""", ""fullDescriptionHtml"": """&amp;D312&amp;""", ""direction"": """&amp;E312&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G313" s="0" t="str">
+        <f aca="false">IF(E313="","","{""sourceId"": """&amp;A313&amp;""", ""targetId"": """&amp;B313&amp;""", ""shortDescription"": """&amp;C313&amp;""", ""fullDescriptionHtml"": """&amp;D313&amp;""", ""direction"": """&amp;E313&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G314" s="0" t="str">
+        <f aca="false">IF(E314="","","{""sourceId"": """&amp;A314&amp;""", ""targetId"": """&amp;B314&amp;""", ""shortDescription"": """&amp;C314&amp;""", ""fullDescriptionHtml"": """&amp;D314&amp;""", ""direction"": """&amp;E314&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G315" s="0" t="str">
+        <f aca="false">IF(E315="","","{""sourceId"": """&amp;A315&amp;""", ""targetId"": """&amp;B315&amp;""", ""shortDescription"": """&amp;C315&amp;""", ""fullDescriptionHtml"": """&amp;D315&amp;""", ""direction"": """&amp;E315&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G316" s="0" t="str">
+        <f aca="false">IF(E316="","","{""sourceId"": """&amp;A316&amp;""", ""targetId"": """&amp;B316&amp;""", ""shortDescription"": """&amp;C316&amp;""", ""fullDescriptionHtml"": """&amp;D316&amp;""", ""direction"": """&amp;E316&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G317" s="0" t="str">
+        <f aca="false">IF(E317="","","{""sourceId"": """&amp;A317&amp;""", ""targetId"": """&amp;B317&amp;""", ""shortDescription"": """&amp;C317&amp;""", ""fullDescriptionHtml"": """&amp;D317&amp;""", ""direction"": """&amp;E317&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G318" s="0" t="str">
+        <f aca="false">IF(E318="","","{""sourceId"": """&amp;A318&amp;""", ""targetId"": """&amp;B318&amp;""", ""shortDescription"": """&amp;C318&amp;""", ""fullDescriptionHtml"": """&amp;D318&amp;""", ""direction"": """&amp;E318&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G319" s="0" t="str">
+        <f aca="false">IF(E319="","","{""sourceId"": """&amp;A319&amp;""", ""targetId"": """&amp;B319&amp;""", ""shortDescription"": """&amp;C319&amp;""", ""fullDescriptionHtml"": """&amp;D319&amp;""", ""direction"": """&amp;E319&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G320" s="0" t="str">
+        <f aca="false">IF(E320="","","{""sourceId"": """&amp;A320&amp;""", ""targetId"": """&amp;B320&amp;""", ""shortDescription"": """&amp;C320&amp;""", ""fullDescriptionHtml"": """&amp;D320&amp;""", ""direction"": """&amp;E320&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G321" s="0" t="str">
+        <f aca="false">IF(E321="","","{""sourceId"": """&amp;A321&amp;""", ""targetId"": """&amp;B321&amp;""", ""shortDescription"": """&amp;C321&amp;""", ""fullDescriptionHtml"": """&amp;D321&amp;""", ""direction"": """&amp;E321&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G322" s="0" t="str">
+        <f aca="false">IF(E322="","","{""sourceId"": """&amp;A322&amp;""", ""targetId"": """&amp;B322&amp;""", ""shortDescription"": """&amp;C322&amp;""", ""fullDescriptionHtml"": """&amp;D322&amp;""", ""direction"": """&amp;E322&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G323" s="0" t="str">
+        <f aca="false">IF(E323="","","{""sourceId"": """&amp;A323&amp;""", ""targetId"": """&amp;B323&amp;""", ""shortDescription"": """&amp;C323&amp;""", ""fullDescriptionHtml"": """&amp;D323&amp;""", ""direction"": """&amp;E323&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G324" s="0" t="str">
+        <f aca="false">IF(E324="","","{""sourceId"": """&amp;A324&amp;""", ""targetId"": """&amp;B324&amp;""", ""shortDescription"": """&amp;C324&amp;""", ""fullDescriptionHtml"": """&amp;D324&amp;""", ""direction"": """&amp;E324&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G325" s="0" t="str">
+        <f aca="false">IF(E325="","","{""sourceId"": """&amp;A325&amp;""", ""targetId"": """&amp;B325&amp;""", ""shortDescription"": """&amp;C325&amp;""", ""fullDescriptionHtml"": """&amp;D325&amp;""", ""direction"": """&amp;E325&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G326" s="0" t="str">
+        <f aca="false">IF(E326="","","{""sourceId"": """&amp;A326&amp;""", ""targetId"": """&amp;B326&amp;""", ""shortDescription"": """&amp;C326&amp;""", ""fullDescriptionHtml"": """&amp;D326&amp;""", ""direction"": """&amp;E326&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G327" s="0" t="str">
+        <f aca="false">IF(E327="","","{""sourceId"": """&amp;A327&amp;""", ""targetId"": """&amp;B327&amp;""", ""shortDescription"": """&amp;C327&amp;""", ""fullDescriptionHtml"": """&amp;D327&amp;""", ""direction"": """&amp;E327&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G328" s="0" t="str">
+        <f aca="false">IF(E328="","","{""sourceId"": """&amp;A328&amp;""", ""targetId"": """&amp;B328&amp;""", ""shortDescription"": """&amp;C328&amp;""", ""fullDescriptionHtml"": """&amp;D328&amp;""", ""direction"": """&amp;E328&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G329" s="0" t="str">
+        <f aca="false">IF(E329="","","{""sourceId"": """&amp;A329&amp;""", ""targetId"": """&amp;B329&amp;""", ""shortDescription"": """&amp;C329&amp;""", ""fullDescriptionHtml"": """&amp;D329&amp;""", ""direction"": """&amp;E329&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G330" s="0" t="str">
+        <f aca="false">IF(E330="","","{""sourceId"": """&amp;A330&amp;""", ""targetId"": """&amp;B330&amp;""", ""shortDescription"": """&amp;C330&amp;""", ""fullDescriptionHtml"": """&amp;D330&amp;""", ""direction"": """&amp;E330&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G331" s="0" t="str">
+        <f aca="false">IF(E331="","","{""sourceId"": """&amp;A331&amp;""", ""targetId"": """&amp;B331&amp;""", ""shortDescription"": """&amp;C331&amp;""", ""fullDescriptionHtml"": """&amp;D331&amp;""", ""direction"": """&amp;E331&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G332" s="0" t="str">
+        <f aca="false">IF(E332="","","{""sourceId"": """&amp;A332&amp;""", ""targetId"": """&amp;B332&amp;""", ""shortDescription"": """&amp;C332&amp;""", ""fullDescriptionHtml"": """&amp;D332&amp;""", ""direction"": """&amp;E332&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G333" s="0" t="str">
+        <f aca="false">IF(E333="","","{""sourceId"": """&amp;A333&amp;""", ""targetId"": """&amp;B333&amp;""", ""shortDescription"": """&amp;C333&amp;""", ""fullDescriptionHtml"": """&amp;D333&amp;""", ""direction"": """&amp;E333&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G334" s="0" t="str">
+        <f aca="false">IF(E334="","","{""sourceId"": """&amp;A334&amp;""", ""targetId"": """&amp;B334&amp;""", ""shortDescription"": """&amp;C334&amp;""", ""fullDescriptionHtml"": """&amp;D334&amp;""", ""direction"": """&amp;E334&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G335" s="0" t="str">
+        <f aca="false">IF(E335="","","{""sourceId"": """&amp;A335&amp;""", ""targetId"": """&amp;B335&amp;""", ""shortDescription"": """&amp;C335&amp;""", ""fullDescriptionHtml"": """&amp;D335&amp;""", ""direction"": """&amp;E335&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G336" s="0" t="str">
+        <f aca="false">IF(E336="","","{""sourceId"": """&amp;A336&amp;""", ""targetId"": """&amp;B336&amp;""", ""shortDescription"": """&amp;C336&amp;""", ""fullDescriptionHtml"": """&amp;D336&amp;""", ""direction"": """&amp;E336&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G337" s="0" t="str">
+        <f aca="false">IF(E337="","","{""sourceId"": """&amp;A337&amp;""", ""targetId"": """&amp;B337&amp;""", ""shortDescription"": """&amp;C337&amp;""", ""fullDescriptionHtml"": """&amp;D337&amp;""", ""direction"": """&amp;E337&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G338" s="0" t="str">
+        <f aca="false">IF(E338="","","{""sourceId"": """&amp;A338&amp;""", ""targetId"": """&amp;B338&amp;""", ""shortDescription"": """&amp;C338&amp;""", ""fullDescriptionHtml"": """&amp;D338&amp;""", ""direction"": """&amp;E338&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G339" s="0" t="str">
+        <f aca="false">IF(E339="","","{""sourceId"": """&amp;A339&amp;""", ""targetId"": """&amp;B339&amp;""", ""shortDescription"": """&amp;C339&amp;""", ""fullDescriptionHtml"": """&amp;D339&amp;""", ""direction"": """&amp;E339&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G340" s="0" t="str">
+        <f aca="false">IF(E340="","","{""sourceId"": """&amp;A340&amp;""", ""targetId"": """&amp;B340&amp;""", ""shortDescription"": """&amp;C340&amp;""", ""fullDescriptionHtml"": """&amp;D340&amp;""", ""direction"": """&amp;E340&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G341" s="0" t="str">
+        <f aca="false">IF(E341="","","{""sourceId"": """&amp;A341&amp;""", ""targetId"": """&amp;B341&amp;""", ""shortDescription"": """&amp;C341&amp;""", ""fullDescriptionHtml"": """&amp;D341&amp;""", ""direction"": """&amp;E341&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G342" s="0" t="str">
+        <f aca="false">IF(E342="","","{""sourceId"": """&amp;A342&amp;""", ""targetId"": """&amp;B342&amp;""", ""shortDescription"": """&amp;C342&amp;""", ""fullDescriptionHtml"": """&amp;D342&amp;""", ""direction"": """&amp;E342&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G343" s="0" t="str">
+        <f aca="false">IF(E343="","","{""sourceId"": """&amp;A343&amp;""", ""targetId"": """&amp;B343&amp;""", ""shortDescription"": """&amp;C343&amp;""", ""fullDescriptionHtml"": """&amp;D343&amp;""", ""direction"": """&amp;E343&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G344" s="0" t="str">
+        <f aca="false">IF(E344="","","{""sourceId"": """&amp;A344&amp;""", ""targetId"": """&amp;B344&amp;""", ""shortDescription"": """&amp;C344&amp;""", ""fullDescriptionHtml"": """&amp;D344&amp;""", ""direction"": """&amp;E344&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G345" s="0" t="str">
+        <f aca="false">IF(E345="","","{""sourceId"": """&amp;A345&amp;""", ""targetId"": """&amp;B345&amp;""", ""shortDescription"": """&amp;C345&amp;""", ""fullDescriptionHtml"": """&amp;D345&amp;""", ""direction"": """&amp;E345&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
     </row>
   </sheetData>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="664">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1978,6 +1978,30 @@
   </si>
   <si>
     <t xml:space="preserve">YanLuoShi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FANG_AKUMATIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fang (Akumatized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERT_AKUMATIZED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert (Akumatized)</t>
   </si>
   <si>
     <t xml:space="preserve">EMILIE_AGRESTE</t>
@@ -2236,10 +2260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1139"/>
+  <dimension ref="A1:AMJ1143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B308" activeCellId="1" sqref="278:279 B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7656,12 +7680,48 @@
         <v>{"id": "YANLUOSHI", "name": "YanLuoShi", "description": "", "imageFilename": "YANLUOSHI.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
     </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G295" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A295&amp;""", ""name"": """&amp;B295&amp;""", ""description"": """&amp;C295&amp;""", ""imageFilename"": """&amp;A295&amp;".webp"", ""color"": """&amp;D295&amp;""", ""group"": """&amp;E295&amp;"""},"</f>
+        <v>{"id": "FANG", "name": "Fang", "description": "", "imageFilename": "FANG.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G296" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A296&amp;""", ""name"": """&amp;B296&amp;""", ""description"": """&amp;C296&amp;""", ""imageFilename"": """&amp;A296&amp;".webp"", ""color"": """&amp;D296&amp;""", ""group"": """&amp;E296&amp;"""},"</f>
+        <v>{"id": "FANG_AKUMATIZED", "name": "Fang (Akumatized)", "description": "", "imageFilename": "FANG_AKUMATIZED.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="11" t="s">
-        <v>647</v>
+      <c r="A297" s="8" t="s">
+        <v>651</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>8</v>
@@ -7671,20 +7731,44 @@
       </c>
       <c r="G297" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A297&amp;""", ""name"": """&amp;B297&amp;""", ""description"": """&amp;C297&amp;""", ""imageFilename"": """&amp;A297&amp;".webp"", ""color"": """&amp;D297&amp;""", ""group"": """&amp;E297&amp;"""},"</f>
+        <v>{"id": "ALBERT", "name": "Albert", "description": "", "imageFilename": "ALBERT.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G298" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A298&amp;""", ""name"": """&amp;B298&amp;""", ""description"": """&amp;C298&amp;""", ""imageFilename"": """&amp;A298&amp;".webp"", ""color"": """&amp;D298&amp;""", ""group"": """&amp;E298&amp;"""},"</f>
+        <v>{"id": "ALBERT_AKUMATIZED", "name": "Albert (Akumatized)", "description": "", "imageFilename": "ALBERT_AKUMATIZED.webp", "color": "#000000", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G301" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A301&amp;""", ""name"": """&amp;B301&amp;""", ""description"": """&amp;C301&amp;""", ""imageFilename"": """&amp;A301&amp;".webp"", ""color"": """&amp;D301&amp;""", ""group"": """&amp;E301&amp;"""},"</f>
         <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#000000", "group": "CHARACTER"},</v>
       </c>
-    </row>
-    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1133" s="9"/>
-    </row>
-    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1134" s="9"/>
-    </row>
-    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1135" s="9"/>
-    </row>
-    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1136" s="9"/>
     </row>
     <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1137" s="9"/>
@@ -7694,6 +7778,18 @@
     </row>
     <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1139" s="9"/>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1140" s="9"/>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1141" s="9"/>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1142" s="9"/>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1143" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7711,10 +7807,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ375"/>
+  <dimension ref="A1:AMJ389"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A327" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A279" activeCellId="0" sqref="278:279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7728,19 +7824,19 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
@@ -7754,7 +7850,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="str">
@@ -7773,7 +7869,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0" t="str">
@@ -7792,7 +7888,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0" t="str">
@@ -7811,7 +7907,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0" t="str">
@@ -7830,7 +7926,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0" t="str">
@@ -7849,7 +7945,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0" t="str">
@@ -7868,7 +7964,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0" t="str">
@@ -7887,7 +7983,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0" t="str">
@@ -7906,7 +8002,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0" t="str">
@@ -7925,7 +8021,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0" t="str">
@@ -7944,7 +8040,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="str">
@@ -7963,7 +8059,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0" t="str">
@@ -7982,7 +8078,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0" t="str">
@@ -8001,7 +8097,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0" t="str">
@@ -8020,7 +8116,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0" t="str">
@@ -8039,7 +8135,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0" t="str">
@@ -8058,7 +8154,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0" t="str">
@@ -8077,7 +8173,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0" t="str">
@@ -8096,7 +8192,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0" t="str">
@@ -8115,7 +8211,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0" t="str">
@@ -8134,7 +8230,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0" t="str">
@@ -8153,7 +8249,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0" t="str">
@@ -8172,7 +8268,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0" t="str">
@@ -8191,7 +8287,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0" t="str">
@@ -8210,7 +8306,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0" t="str">
@@ -8229,7 +8325,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="str">
@@ -8248,7 +8344,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="str">
@@ -8267,7 +8363,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="str">
@@ -8286,7 +8382,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="str">
@@ -8305,7 +8401,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="str">
@@ -8324,7 +8420,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="str">
@@ -8343,7 +8439,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="str">
@@ -8362,7 +8458,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="str">
@@ -8381,7 +8477,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="str">
@@ -8400,7 +8496,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="str">
@@ -8419,7 +8515,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="str">
@@ -8438,7 +8534,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="str">
@@ -8457,7 +8553,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="str">
@@ -8476,7 +8572,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="str">
@@ -8495,7 +8591,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="str">
@@ -8514,7 +8610,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="str">
@@ -8533,7 +8629,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="str">
@@ -8552,7 +8648,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="str">
@@ -8571,7 +8667,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="str">
@@ -8590,7 +8686,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="str">
@@ -8609,7 +8705,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="str">
@@ -8628,7 +8724,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="str">
@@ -8647,7 +8743,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="str">
@@ -8666,7 +8762,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="str">
@@ -8685,7 +8781,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="str">
@@ -8704,7 +8800,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="str">
@@ -8723,7 +8819,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="str">
@@ -8742,7 +8838,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="str">
@@ -8761,7 +8857,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="str">
@@ -8780,7 +8876,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="str">
@@ -8799,7 +8895,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="str">
@@ -8816,7 +8912,7 @@
         <v>150</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -8831,7 +8927,7 @@
         <v>154</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -8846,7 +8942,7 @@
         <v>164</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -8861,7 +8957,7 @@
         <v>166</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -8876,7 +8972,7 @@
         <v>168</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -8891,7 +8987,7 @@
         <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -8906,7 +9002,7 @@
         <v>172</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -8921,7 +9017,7 @@
         <v>178</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -8936,7 +9032,7 @@
         <v>196</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -8951,7 +9047,7 @@
         <v>176</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -8966,7 +9062,7 @@
         <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -8981,7 +9077,7 @@
         <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -8996,7 +9092,7 @@
         <v>186</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -9011,7 +9107,7 @@
         <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -9026,7 +9122,7 @@
         <v>162</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -9041,7 +9137,7 @@
         <v>212</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -9056,7 +9152,7 @@
         <v>206</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -9071,7 +9167,7 @@
         <v>208</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -9086,7 +9182,7 @@
         <v>212</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -9101,7 +9197,7 @@
         <v>192</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
@@ -9116,7 +9212,7 @@
         <v>194</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
@@ -9131,7 +9227,7 @@
         <v>160</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
@@ -9146,7 +9242,7 @@
         <v>218</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
@@ -9161,7 +9257,7 @@
         <v>232</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
@@ -9176,7 +9272,7 @@
         <v>168</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
@@ -9191,7 +9287,7 @@
         <v>238</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
@@ -9206,7 +9302,7 @@
         <v>246</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
@@ -9221,7 +9317,7 @@
         <v>256</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
@@ -9236,7 +9332,7 @@
         <v>208</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
@@ -9251,7 +9347,7 @@
         <v>212</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
@@ -9266,7 +9362,7 @@
         <v>240</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
@@ -9281,7 +9377,7 @@
         <v>260</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
@@ -9296,7 +9392,7 @@
         <v>158</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
@@ -9311,7 +9407,7 @@
         <v>160</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
@@ -9326,7 +9422,7 @@
         <v>162</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
@@ -9341,7 +9437,7 @@
         <v>164</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
@@ -9356,7 +9452,7 @@
         <v>270</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
@@ -9371,7 +9467,7 @@
         <v>276</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
@@ -9386,7 +9482,7 @@
         <v>282</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
@@ -9401,7 +9497,7 @@
         <v>172</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
@@ -9416,7 +9512,7 @@
         <v>290</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
@@ -9431,7 +9527,7 @@
         <v>166</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
@@ -9446,7 +9542,7 @@
         <v>296</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
@@ -9461,7 +9557,7 @@
         <v>180</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
@@ -9476,7 +9572,7 @@
         <v>182</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
@@ -9491,7 +9587,7 @@
         <v>306</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
@@ -9506,7 +9602,7 @@
         <v>170</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
@@ -9521,7 +9617,7 @@
         <v>172</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
@@ -9536,7 +9632,7 @@
         <v>314</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
@@ -9551,7 +9647,7 @@
         <v>320</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
@@ -9566,7 +9662,7 @@
         <v>326</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
@@ -9581,7 +9677,7 @@
         <v>332</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
@@ -9596,7 +9692,7 @@
         <v>266</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
@@ -9611,7 +9707,7 @@
         <v>338</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
@@ -9626,7 +9722,7 @@
         <v>346</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">IF(E112="","","{""sourceId"": """&amp;A112&amp;""", ""targetId"": """&amp;B112&amp;""", ""shortDescription"": """&amp;C112&amp;""", ""fullDescriptionHtml"": """&amp;D112&amp;""", ""direction"": """&amp;E112&amp;"""},")</f>
@@ -9643,7 +9739,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F113" s="0"/>
       <c r="G113" s="0" t="str">
@@ -9662,7 +9758,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F114" s="0"/>
       <c r="G114" s="0" t="str">
@@ -9681,7 +9777,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F115" s="0"/>
       <c r="G115" s="0" t="str">
@@ -9700,7 +9796,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F116" s="0"/>
       <c r="G116" s="0" t="str">
@@ -9719,7 +9815,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F117" s="0"/>
       <c r="G117" s="0" t="str">
@@ -9738,7 +9834,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F118" s="0"/>
       <c r="G118" s="0" t="str">
@@ -9757,7 +9853,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F119" s="0"/>
       <c r="G119" s="0" t="str">
@@ -9776,7 +9872,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F120" s="0"/>
       <c r="G120" s="0" t="str">
@@ -9795,7 +9891,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F121" s="0"/>
       <c r="G121" s="0" t="str">
@@ -9814,7 +9910,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F122" s="0"/>
       <c r="G122" s="0" t="str">
@@ -9833,7 +9929,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F123" s="0"/>
       <c r="G123" s="0" t="str">
@@ -9852,7 +9948,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F124" s="0"/>
       <c r="G124" s="0" t="str">
@@ -9871,7 +9967,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F125" s="0"/>
       <c r="G125" s="0" t="str">
@@ -9890,7 +9986,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F126" s="0"/>
       <c r="G126" s="0" t="str">
@@ -9909,7 +10005,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F127" s="0"/>
       <c r="G127" s="0" t="str">
@@ -9928,7 +10024,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F128" s="0"/>
       <c r="G128" s="0" t="str">
@@ -9947,7 +10043,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F129" s="0"/>
       <c r="G129" s="0" t="str">
@@ -9966,7 +10062,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F130" s="0"/>
       <c r="G130" s="0" t="str">
@@ -9985,7 +10081,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F131" s="0"/>
       <c r="G131" s="0" t="str">
@@ -10004,7 +10100,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F132" s="0"/>
       <c r="G132" s="0" t="str">
@@ -10023,7 +10119,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F133" s="0"/>
       <c r="G133" s="0" t="str">
@@ -10042,7 +10138,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F134" s="0"/>
       <c r="G134" s="0" t="str">
@@ -10061,7 +10157,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F135" s="0"/>
       <c r="G135" s="0" t="str">
@@ -10080,7 +10176,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F136" s="0"/>
       <c r="G136" s="0" t="str">
@@ -10099,7 +10195,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F137" s="0"/>
       <c r="G137" s="0" t="str">
@@ -10118,7 +10214,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F138" s="0"/>
       <c r="G138" s="0" t="str">
@@ -10137,7 +10233,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0" t="str">
@@ -10156,7 +10252,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F140" s="0"/>
       <c r="G140" s="0" t="str">
@@ -10175,7 +10271,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F141" s="0"/>
       <c r="G141" s="0" t="str">
@@ -10194,7 +10290,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F142" s="0"/>
       <c r="G142" s="0" t="str">
@@ -10213,7 +10309,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F143" s="0"/>
       <c r="G143" s="0" t="str">
@@ -10232,7 +10328,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F144" s="0"/>
       <c r="G144" s="0" t="str">
@@ -10251,7 +10347,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0" t="str">
@@ -10270,7 +10366,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0" t="str">
@@ -10289,7 +10385,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0" t="str">
@@ -10308,7 +10404,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0" t="str">
@@ -10327,7 +10423,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0" t="str">
@@ -10346,7 +10442,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0" t="str">
@@ -10365,7 +10461,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0" t="str">
@@ -10384,7 +10480,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0" t="str">
@@ -10403,7 +10499,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0" t="str">
@@ -10422,7 +10518,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0" t="str">
@@ -10441,7 +10537,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0" t="str">
@@ -10460,7 +10556,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0" t="str">
@@ -10479,7 +10575,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0" t="str">
@@ -10498,7 +10594,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0" t="str">
@@ -10517,7 +10613,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0" t="str">
@@ -10536,7 +10632,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0" t="str">
@@ -10555,7 +10651,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0" t="str">
@@ -10574,7 +10670,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0" t="str">
@@ -10593,7 +10689,7 @@
       <c r="C163" s="0"/>
       <c r="D163" s="0"/>
       <c r="E163" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G163" s="0" t="str">
         <f aca="false">IF(E163="","","{""sourceId"": """&amp;A163&amp;""", ""targetId"": """&amp;B163&amp;""", ""shortDescription"": """&amp;C163&amp;""", ""fullDescriptionHtml"": """&amp;D163&amp;""", ""direction"": """&amp;E163&amp;"""},")</f>
@@ -10610,7 +10706,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0" t="str">
@@ -10629,7 +10725,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0" t="str">
@@ -10648,7 +10744,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0" t="str">
@@ -10667,7 +10763,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0" t="str">
@@ -10686,7 +10782,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" s="0" t="str">
@@ -10705,7 +10801,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F169" s="0"/>
       <c r="G169" s="0" t="str">
@@ -10724,7 +10820,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0" t="str">
@@ -10743,7 +10839,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0" t="str">
@@ -10762,7 +10858,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0" t="str">
@@ -10781,7 +10877,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0" t="str">
@@ -10800,7 +10896,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0" t="str">
@@ -10819,7 +10915,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0" t="str">
@@ -10838,7 +10934,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0" t="str">
@@ -10857,7 +10953,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0" t="str">
@@ -10876,7 +10972,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0" t="str">
@@ -10895,7 +10991,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0" t="str">
@@ -10914,7 +11010,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0" t="str">
@@ -10933,7 +11029,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0" t="str">
@@ -10952,7 +11048,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0" t="str">
@@ -10971,7 +11067,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0" t="str">
@@ -10990,7 +11086,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0" t="str">
@@ -11009,7 +11105,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0" t="str">
@@ -11028,7 +11124,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0" t="str">
@@ -11047,7 +11143,7 @@
       <c r="C187" s="0"/>
       <c r="D187" s="0"/>
       <c r="E187" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G187" s="0" t="str">
         <f aca="false">IF(E187="","","{""sourceId"": """&amp;A187&amp;""", ""targetId"": """&amp;B187&amp;""", ""shortDescription"": """&amp;C187&amp;""", ""fullDescriptionHtml"": """&amp;D187&amp;""", ""direction"": """&amp;E187&amp;"""},")</f>
@@ -11064,7 +11160,7 @@
       <c r="C188" s="0"/>
       <c r="D188" s="0"/>
       <c r="E188" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G188" s="0" t="str">
         <f aca="false">IF(E188="","","{""sourceId"": """&amp;A188&amp;""", ""targetId"": """&amp;B188&amp;""", ""shortDescription"": """&amp;C188&amp;""", ""fullDescriptionHtml"": """&amp;D188&amp;""", ""direction"": """&amp;E188&amp;"""},")</f>
@@ -11081,7 +11177,7 @@
       <c r="C189" s="0"/>
       <c r="D189" s="0"/>
       <c r="E189" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G189" s="0" t="str">
         <f aca="false">IF(E189="","","{""sourceId"": """&amp;A189&amp;""", ""targetId"": """&amp;B189&amp;""", ""shortDescription"": """&amp;C189&amp;""", ""fullDescriptionHtml"": """&amp;D189&amp;""", ""direction"": """&amp;E189&amp;"""},")</f>
@@ -11098,7 +11194,7 @@
       <c r="C190" s="0"/>
       <c r="D190" s="0"/>
       <c r="E190" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G190" s="0" t="str">
         <f aca="false">IF(E190="","","{""sourceId"": """&amp;A190&amp;""", ""targetId"": """&amp;B190&amp;""", ""shortDescription"": """&amp;C190&amp;""", ""fullDescriptionHtml"": """&amp;D190&amp;""", ""direction"": """&amp;E190&amp;"""},")</f>
@@ -11115,7 +11211,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0" t="str">
@@ -11134,7 +11230,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="0" t="str">
@@ -11153,7 +11249,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F193" s="0"/>
       <c r="G193" s="0" t="str">
@@ -11172,7 +11268,7 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F194" s="0"/>
       <c r="G194" s="0" t="str">
@@ -11191,7 +11287,7 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F195" s="0"/>
       <c r="G195" s="0" t="str">
@@ -11210,7 +11306,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F196" s="0"/>
       <c r="G196" s="0" t="str">
@@ -11229,7 +11325,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0" t="str">
@@ -11248,7 +11344,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0" t="str">
@@ -11267,7 +11363,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0" t="str">
@@ -11286,7 +11382,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0" t="str">
@@ -11305,7 +11401,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0" t="str">
@@ -11324,7 +11420,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0" t="str">
@@ -11343,7 +11439,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0" t="str">
@@ -11362,7 +11458,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0" t="str">
@@ -11381,7 +11477,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0" t="str">
@@ -11400,7 +11496,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0" t="str">
@@ -11419,7 +11515,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0" t="str">
@@ -11438,7 +11534,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0" t="str">
@@ -11457,7 +11553,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0" t="str">
@@ -11476,7 +11572,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0" t="str">
@@ -11495,7 +11591,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0" t="str">
@@ -11514,7 +11610,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0" t="str">
@@ -11533,7 +11629,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0" t="str">
@@ -11552,7 +11648,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0" t="str">
@@ -11571,7 +11667,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0" t="str">
@@ -11590,7 +11686,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0" t="str">
@@ -11609,7 +11705,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0" t="str">
@@ -11628,7 +11724,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0" t="str">
@@ -11647,7 +11743,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0" t="str">
@@ -11666,7 +11762,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0" t="str">
@@ -11685,7 +11781,7 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0" t="str">
@@ -11704,7 +11800,7 @@
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0" t="str">
@@ -11723,7 +11819,7 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F223" s="0"/>
       <c r="G223" s="0" t="str">
@@ -11742,7 +11838,7 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F224" s="0"/>
       <c r="G224" s="0" t="str">
@@ -11761,7 +11857,7 @@
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F225" s="0"/>
       <c r="G225" s="0" t="str">
@@ -11780,7 +11876,7 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F226" s="0"/>
       <c r="G226" s="0" t="str">
@@ -11799,7 +11895,7 @@
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F227" s="0"/>
       <c r="G227" s="0" t="str">
@@ -11818,7 +11914,7 @@
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F228" s="0"/>
       <c r="G228" s="0" t="str">
@@ -11837,7 +11933,7 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F229" s="0"/>
       <c r="G229" s="0" t="str">
@@ -11856,7 +11952,7 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F230" s="0"/>
       <c r="G230" s="0" t="str">
@@ -11875,7 +11971,7 @@
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F231" s="0"/>
       <c r="G231" s="0" t="str">
@@ -11894,7 +11990,7 @@
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F232" s="0"/>
       <c r="G232" s="0" t="str">
@@ -11913,7 +12009,7 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="0" t="str">
@@ -11932,7 +12028,7 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F234" s="0"/>
       <c r="G234" s="0" t="str">
@@ -11951,7 +12047,7 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F235" s="0"/>
       <c r="G235" s="0" t="str">
@@ -11970,7 +12066,7 @@
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F236" s="0"/>
       <c r="G236" s="0" t="str">
@@ -11989,7 +12085,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F237" s="0"/>
       <c r="G237" s="0" t="str">
@@ -12008,7 +12104,7 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F238" s="0"/>
       <c r="G238" s="0" t="str">
@@ -12027,7 +12123,7 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F239" s="0"/>
       <c r="G239" s="0" t="str">
@@ -12046,7 +12142,7 @@
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F240" s="0"/>
       <c r="G240" s="0" t="str">
@@ -12065,7 +12161,7 @@
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F241" s="0"/>
       <c r="G241" s="0" t="str">
@@ -12084,7 +12180,7 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F242" s="0"/>
       <c r="G242" s="0" t="str">
@@ -12103,7 +12199,7 @@
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F243" s="0"/>
       <c r="G243" s="0" t="str">
@@ -12122,7 +12218,7 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F244" s="0"/>
       <c r="G244" s="0" t="str">
@@ -12141,7 +12237,7 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F245" s="0"/>
       <c r="G245" s="0" t="str">
@@ -12160,7 +12256,7 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F246" s="0"/>
       <c r="G246" s="0" t="str">
@@ -12179,7 +12275,7 @@
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F247" s="0"/>
       <c r="G247" s="0" t="str">
@@ -12198,7 +12294,7 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F248" s="0"/>
       <c r="G248" s="0" t="str">
@@ -12217,7 +12313,7 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F249" s="0"/>
       <c r="G249" s="0" t="str">
@@ -12236,7 +12332,7 @@
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F250" s="0"/>
       <c r="G250" s="0" t="str">
@@ -12255,7 +12351,7 @@
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F251" s="0"/>
       <c r="G251" s="0" t="str">
@@ -12274,7 +12370,7 @@
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F252" s="0"/>
       <c r="G252" s="0" t="str">
@@ -12293,7 +12389,7 @@
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F253" s="0"/>
       <c r="G253" s="0" t="str">
@@ -12312,7 +12408,7 @@
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F254" s="0"/>
       <c r="G254" s="0" t="str">
@@ -12331,7 +12427,7 @@
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F255" s="0"/>
       <c r="G255" s="0" t="str">
@@ -12350,7 +12446,7 @@
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F256" s="0"/>
       <c r="G256" s="0" t="str">
@@ -12369,7 +12465,7 @@
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F257" s="0"/>
       <c r="G257" s="0" t="str">
@@ -12388,7 +12484,7 @@
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F258" s="0"/>
       <c r="G258" s="0" t="str">
@@ -12407,7 +12503,7 @@
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F259" s="0"/>
       <c r="G259" s="0" t="str">
@@ -12426,7 +12522,7 @@
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F260" s="0"/>
       <c r="G260" s="0" t="str">
@@ -12445,7 +12541,7 @@
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F261" s="0"/>
       <c r="G261" s="0" t="str">
@@ -12464,7 +12560,7 @@
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F262" s="0"/>
       <c r="G262" s="0" t="str">
@@ -12483,7 +12579,7 @@
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F263" s="0"/>
       <c r="G263" s="0" t="str">
@@ -12502,7 +12598,7 @@
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F264" s="0"/>
       <c r="G264" s="0" t="str">
@@ -12521,7 +12617,7 @@
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F265" s="0"/>
       <c r="G265" s="0" t="str">
@@ -12540,7 +12636,7 @@
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F266" s="0"/>
       <c r="G266" s="0" t="str">
@@ -12559,7 +12655,7 @@
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F267" s="0"/>
       <c r="G267" s="0" t="str">
@@ -12578,7 +12674,7 @@
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F268" s="0"/>
       <c r="G268" s="0" t="str">
@@ -12597,7 +12693,7 @@
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F269" s="0"/>
       <c r="G269" s="0" t="str">
@@ -12616,7 +12712,7 @@
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F270" s="0"/>
       <c r="G270" s="0" t="str">
@@ -12635,7 +12731,7 @@
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F271" s="0"/>
       <c r="G271" s="0" t="str">
@@ -12654,7 +12750,7 @@
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F272" s="0"/>
       <c r="G272" s="0" t="str">
@@ -12673,7 +12769,7 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F273" s="0"/>
       <c r="G273" s="0" t="str">
@@ -12692,7 +12788,7 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F274" s="0"/>
       <c r="G274" s="0" t="str">
@@ -12711,7 +12807,7 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F275" s="0"/>
       <c r="G275" s="0" t="str">
@@ -12730,7 +12826,7 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F276" s="0"/>
       <c r="G276" s="0" t="str">
@@ -12749,7 +12845,7 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="2" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="F277" s="0"/>
       <c r="G277" s="0" t="str">
@@ -12759,40 +12855,40 @@
       <c r="AMJ277" s="2"/>
     </row>
     <row r="278" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6" t="s">
-        <v>16</v>
+      <c r="A278" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>420</v>
+        <v>649</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F278" s="0"/>
       <c r="G278" s="0" t="str">
         <f aca="false">IF(E278="","","{""sourceId"": """&amp;A278&amp;""", ""targetId"": """&amp;B278&amp;""", ""shortDescription"": """&amp;C278&amp;""", ""fullDescriptionHtml"": """&amp;D278&amp;""", ""direction"": """&amp;E278&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "FANG", "targetId": "FANG_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ278" s="2"/>
     </row>
     <row r="279" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>322</v>
+      <c r="A279" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>653</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="2" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F279" s="0"/>
       <c r="G279" s="0" t="str">
         <f aca="false">IF(E279="","","{""sourceId"": """&amp;A279&amp;""", ""targetId"": """&amp;B279&amp;""", ""shortDescription"": """&amp;C279&amp;""", ""fullDescriptionHtml"": """&amp;D279&amp;""", ""direction"": """&amp;E279&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "ALBERT", "targetId": "ALBERT_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ279" s="2"/>
     </row>
@@ -12800,18 +12896,18 @@
       <c r="A280" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>198</v>
+      <c r="B280" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F280" s="0"/>
       <c r="G280" s="0" t="str">
         <f aca="false">IF(E280="","","{""sourceId"": """&amp;A280&amp;""", ""targetId"": """&amp;B280&amp;""", ""shortDescription"": """&amp;C280&amp;""", ""fullDescriptionHtml"": """&amp;D280&amp;""", ""direction"": """&amp;E280&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ280" s="2"/>
     </row>
@@ -12819,18 +12915,18 @@
       <c r="A281" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B281" s="8" t="s">
-        <v>424</v>
+      <c r="B281" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F281" s="0"/>
       <c r="G281" s="0" t="str">
         <f aca="false">IF(E281="","","{""sourceId"": """&amp;A281&amp;""", ""targetId"": """&amp;B281&amp;""", ""shortDescription"": """&amp;C281&amp;""", ""fullDescriptionHtml"": """&amp;D281&amp;""", ""direction"": """&amp;E281&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ281" s="2"/>
     </row>
@@ -12839,17 +12935,17 @@
         <v>16</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F282" s="0"/>
       <c r="G282" s="0" t="str">
         <f aca="false">IF(E282="","","{""sourceId"": """&amp;A282&amp;""", ""targetId"": """&amp;B282&amp;""", ""shortDescription"": """&amp;C282&amp;""", ""fullDescriptionHtml"": """&amp;D282&amp;""", ""direction"": """&amp;E282&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ282" s="2"/>
     </row>
@@ -12857,18 +12953,18 @@
       <c r="A283" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>328</v>
+      <c r="B283" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F283" s="0"/>
       <c r="G283" s="0" t="str">
         <f aca="false">IF(E283="","","{""sourceId"": """&amp;A283&amp;""", ""targetId"": """&amp;B283&amp;""", ""shortDescription"": """&amp;C283&amp;""", ""fullDescriptionHtml"": """&amp;D283&amp;""", ""direction"": """&amp;E283&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ283" s="2"/>
     </row>
@@ -12876,18 +12972,18 @@
       <c r="A284" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>428</v>
+      <c r="B284" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F284" s="0"/>
       <c r="G284" s="0" t="str">
         <f aca="false">IF(E284="","","{""sourceId"": """&amp;A284&amp;""", ""targetId"": """&amp;B284&amp;""", ""shortDescription"": """&amp;C284&amp;""", ""fullDescriptionHtml"": """&amp;D284&amp;""", ""direction"": """&amp;E284&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ284" s="2"/>
     </row>
@@ -12895,18 +12991,18 @@
       <c r="A285" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B285" s="8" t="s">
-        <v>432</v>
+      <c r="B285" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F285" s="0"/>
       <c r="G285" s="0" t="str">
         <f aca="false">IF(E285="","","{""sourceId"": """&amp;A285&amp;""", ""targetId"": """&amp;B285&amp;""", ""shortDescription"": """&amp;C285&amp;""", ""fullDescriptionHtml"": """&amp;D285&amp;""", ""direction"": """&amp;E285&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ285" s="2"/>
     </row>
@@ -12915,17 +13011,17 @@
         <v>16</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F286" s="0"/>
       <c r="G286" s="0" t="str">
         <f aca="false">IF(E286="","","{""sourceId"": """&amp;A286&amp;""", ""targetId"": """&amp;B286&amp;""", ""shortDescription"": """&amp;C286&amp;""", ""fullDescriptionHtml"": """&amp;D286&amp;""", ""direction"": """&amp;E286&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ286" s="2"/>
     </row>
@@ -12933,18 +13029,18 @@
       <c r="A287" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>248</v>
+      <c r="B287" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F287" s="0"/>
       <c r="G287" s="0" t="str">
         <f aca="false">IF(E287="","","{""sourceId"": """&amp;A287&amp;""", ""targetId"": """&amp;B287&amp;""", ""shortDescription"": """&amp;C287&amp;""", ""fullDescriptionHtml"": """&amp;D287&amp;""", ""direction"": """&amp;E287&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ287" s="2"/>
     </row>
@@ -12953,17 +13049,17 @@
         <v>16</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F288" s="0"/>
       <c r="G288" s="0" t="str">
         <f aca="false">IF(E288="","","{""sourceId"": """&amp;A288&amp;""", ""targetId"": """&amp;B288&amp;""", ""shortDescription"": """&amp;C288&amp;""", ""fullDescriptionHtml"": """&amp;D288&amp;""", ""direction"": """&amp;E288&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ288" s="2"/>
     </row>
@@ -12971,18 +13067,18 @@
       <c r="A289" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>444</v>
+      <c r="B289" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F289" s="0"/>
       <c r="G289" s="0" t="str">
         <f aca="false">IF(E289="","","{""sourceId"": """&amp;A289&amp;""", ""targetId"": """&amp;B289&amp;""", ""shortDescription"": """&amp;C289&amp;""", ""fullDescriptionHtml"": """&amp;D289&amp;""", ""direction"": """&amp;E289&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ289" s="2"/>
     </row>
@@ -12990,18 +13086,18 @@
       <c r="A290" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>316</v>
+      <c r="B290" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F290" s="0"/>
       <c r="G290" s="0" t="str">
         <f aca="false">IF(E290="","","{""sourceId"": """&amp;A290&amp;""", ""targetId"": """&amp;B290&amp;""", ""shortDescription"": """&amp;C290&amp;""", ""fullDescriptionHtml"": """&amp;D290&amp;""", ""direction"": """&amp;E290&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ290" s="2"/>
     </row>
@@ -13010,17 +13106,17 @@
         <v>16</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F291" s="0"/>
       <c r="G291" s="0" t="str">
         <f aca="false">IF(E291="","","{""sourceId"": """&amp;A291&amp;""", ""targetId"": """&amp;B291&amp;""", ""shortDescription"": """&amp;C291&amp;""", ""fullDescriptionHtml"": """&amp;D291&amp;""", ""direction"": """&amp;E291&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ291" s="2"/>
     </row>
@@ -13028,18 +13124,18 @@
       <c r="A292" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>452</v>
+      <c r="B292" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F292" s="0"/>
       <c r="G292" s="0" t="str">
         <f aca="false">IF(E292="","","{""sourceId"": """&amp;A292&amp;""", ""targetId"": """&amp;B292&amp;""", ""shortDescription"": """&amp;C292&amp;""", ""fullDescriptionHtml"": """&amp;D292&amp;""", ""direction"": """&amp;E292&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ292" s="2"/>
     </row>
@@ -13048,17 +13144,17 @@
         <v>16</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F293" s="0"/>
       <c r="G293" s="0" t="str">
         <f aca="false">IF(E293="","","{""sourceId"": """&amp;A293&amp;""", ""targetId"": """&amp;B293&amp;""", ""shortDescription"": """&amp;C293&amp;""", ""fullDescriptionHtml"": """&amp;D293&amp;""", ""direction"": """&amp;E293&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ293" s="2"/>
     </row>
@@ -13066,18 +13162,18 @@
       <c r="A294" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B294" s="6" t="s">
-        <v>292</v>
+      <c r="B294" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F294" s="0"/>
       <c r="G294" s="0" t="str">
         <f aca="false">IF(E294="","","{""sourceId"": """&amp;A294&amp;""", ""targetId"": """&amp;B294&amp;""", ""shortDescription"": """&amp;C294&amp;""", ""fullDescriptionHtml"": """&amp;D294&amp;""", ""direction"": """&amp;E294&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ294" s="2"/>
     </row>
@@ -13085,18 +13181,18 @@
       <c r="A295" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>272</v>
+      <c r="B295" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F295" s="0"/>
       <c r="G295" s="0" t="str">
         <f aca="false">IF(E295="","","{""sourceId"": """&amp;A295&amp;""", ""targetId"": """&amp;B295&amp;""", ""shortDescription"": """&amp;C295&amp;""", ""fullDescriptionHtml"": """&amp;D295&amp;""", ""direction"": """&amp;E295&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ295" s="2"/>
     </row>
@@ -13104,18 +13200,18 @@
       <c r="A296" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B296" s="8" t="s">
-        <v>460</v>
+      <c r="B296" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F296" s="0"/>
       <c r="G296" s="0" t="str">
         <f aca="false">IF(E296="","","{""sourceId"": """&amp;A296&amp;""", ""targetId"": """&amp;B296&amp;""", ""shortDescription"": """&amp;C296&amp;""", ""fullDescriptionHtml"": """&amp;D296&amp;""", ""direction"": """&amp;E296&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ296" s="2"/>
     </row>
@@ -13123,18 +13219,18 @@
       <c r="A297" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B297" s="8" t="s">
-        <v>464</v>
+      <c r="B297" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F297" s="0"/>
       <c r="G297" s="0" t="str">
         <f aca="false">IF(E297="","","{""sourceId"": """&amp;A297&amp;""", ""targetId"": """&amp;B297&amp;""", ""shortDescription"": """&amp;C297&amp;""", ""fullDescriptionHtml"": """&amp;D297&amp;""", ""direction"": """&amp;E297&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ297" s="2"/>
     </row>
@@ -13143,17 +13239,17 @@
         <v>16</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F298" s="0"/>
       <c r="G298" s="0" t="str">
         <f aca="false">IF(E298="","","{""sourceId"": """&amp;A298&amp;""", ""targetId"": """&amp;B298&amp;""", ""shortDescription"": """&amp;C298&amp;""", ""fullDescriptionHtml"": """&amp;D298&amp;""", ""direction"": """&amp;E298&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ298" s="2"/>
     </row>
@@ -13161,18 +13257,18 @@
       <c r="A299" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>284</v>
+      <c r="B299" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F299" s="0"/>
       <c r="G299" s="0" t="str">
         <f aca="false">IF(E299="","","{""sourceId"": """&amp;A299&amp;""", ""targetId"": """&amp;B299&amp;""", ""shortDescription"": """&amp;C299&amp;""", ""fullDescriptionHtml"": """&amp;D299&amp;""", ""direction"": """&amp;E299&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ299" s="2"/>
     </row>
@@ -13180,18 +13276,18 @@
       <c r="A300" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>278</v>
+      <c r="B300" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F300" s="0"/>
       <c r="G300" s="0" t="str">
         <f aca="false">IF(E300="","","{""sourceId"": """&amp;A300&amp;""", ""targetId"": """&amp;B300&amp;""", ""shortDescription"": """&amp;C300&amp;""", ""fullDescriptionHtml"": """&amp;D300&amp;""", ""direction"": """&amp;E300&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ300" s="2"/>
     </row>
@@ -13200,17 +13296,17 @@
         <v>16</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F301" s="0"/>
       <c r="G301" s="0" t="str">
         <f aca="false">IF(E301="","","{""sourceId"": """&amp;A301&amp;""", ""targetId"": """&amp;B301&amp;""", ""shortDescription"": """&amp;C301&amp;""", ""fullDescriptionHtml"": """&amp;D301&amp;""", ""direction"": """&amp;E301&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ301" s="2"/>
     </row>
@@ -13219,17 +13315,17 @@
         <v>16</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" s="0" t="str">
         <f aca="false">IF(E302="","","{""sourceId"": """&amp;A302&amp;""", ""targetId"": """&amp;B302&amp;""", ""shortDescription"": """&amp;C302&amp;""", ""fullDescriptionHtml"": """&amp;D302&amp;""", ""direction"": """&amp;E302&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ302" s="2"/>
     </row>
@@ -13237,18 +13333,18 @@
       <c r="A303" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B303" s="8" t="s">
-        <v>472</v>
+      <c r="B303" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F303" s="0"/>
       <c r="G303" s="0" t="str">
         <f aca="false">IF(E303="","","{""sourceId"": """&amp;A303&amp;""", ""targetId"": """&amp;B303&amp;""", ""shortDescription"": """&amp;C303&amp;""", ""fullDescriptionHtml"": """&amp;D303&amp;""", ""direction"": """&amp;E303&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ303" s="2"/>
     </row>
@@ -13256,18 +13352,18 @@
       <c r="A304" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B304" s="8" t="s">
-        <v>476</v>
+      <c r="B304" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F304" s="0"/>
       <c r="G304" s="0" t="str">
         <f aca="false">IF(E304="","","{""sourceId"": """&amp;A304&amp;""", ""targetId"": """&amp;B304&amp;""", ""shortDescription"": """&amp;C304&amp;""", ""fullDescriptionHtml"": """&amp;D304&amp;""", ""direction"": """&amp;E304&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ304" s="2"/>
     </row>
@@ -13275,18 +13371,18 @@
       <c r="A305" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>214</v>
+      <c r="B305" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F305" s="0"/>
       <c r="G305" s="0" t="str">
         <f aca="false">IF(E305="","","{""sourceId"": """&amp;A305&amp;""", ""targetId"": """&amp;B305&amp;""", ""shortDescription"": """&amp;C305&amp;""", ""fullDescriptionHtml"": """&amp;D305&amp;""", ""direction"": """&amp;E305&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ305" s="2"/>
     </row>
@@ -13295,17 +13391,17 @@
         <v>16</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F306" s="0"/>
       <c r="G306" s="0" t="str">
         <f aca="false">IF(E306="","","{""sourceId"": """&amp;A306&amp;""", ""targetId"": """&amp;B306&amp;""", ""shortDescription"": """&amp;C306&amp;""", ""fullDescriptionHtml"": """&amp;D306&amp;""", ""direction"": """&amp;E306&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ306" s="2"/>
     </row>
@@ -13313,18 +13409,18 @@
       <c r="A307" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B307" s="8" t="s">
-        <v>486</v>
+      <c r="B307" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F307" s="0"/>
       <c r="G307" s="0" t="str">
         <f aca="false">IF(E307="","","{""sourceId"": """&amp;A307&amp;""", ""targetId"": """&amp;B307&amp;""", ""shortDescription"": """&amp;C307&amp;""", ""fullDescriptionHtml"": """&amp;D307&amp;""", ""direction"": """&amp;E307&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ307" s="2"/>
     </row>
@@ -13333,17 +13429,17 @@
         <v>16</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F308" s="0"/>
       <c r="G308" s="0" t="str">
         <f aca="false">IF(E308="","","{""sourceId"": """&amp;A308&amp;""", ""targetId"": """&amp;B308&amp;""", ""shortDescription"": """&amp;C308&amp;""", ""fullDescriptionHtml"": """&amp;D308&amp;""", ""direction"": """&amp;E308&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ308" s="2"/>
     </row>
@@ -13352,17 +13448,17 @@
         <v>16</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" s="0" t="str">
         <f aca="false">IF(E309="","","{""sourceId"": """&amp;A309&amp;""", ""targetId"": """&amp;B309&amp;""", ""shortDescription"": """&amp;C309&amp;""", ""fullDescriptionHtml"": """&amp;D309&amp;""", ""direction"": """&amp;E309&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ309" s="2"/>
     </row>
@@ -13371,17 +13467,17 @@
         <v>16</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F310" s="0"/>
       <c r="G310" s="0" t="str">
         <f aca="false">IF(E310="","","{""sourceId"": """&amp;A310&amp;""", ""targetId"": """&amp;B310&amp;""", ""shortDescription"": """&amp;C310&amp;""", ""fullDescriptionHtml"": """&amp;D310&amp;""", ""direction"": """&amp;E310&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ310" s="2"/>
     </row>
@@ -13389,18 +13485,18 @@
       <c r="A311" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>298</v>
+      <c r="B311" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F311" s="0"/>
       <c r="G311" s="0" t="str">
         <f aca="false">IF(E311="","","{""sourceId"": """&amp;A311&amp;""", ""targetId"": """&amp;B311&amp;""", ""shortDescription"": """&amp;C311&amp;""", ""fullDescriptionHtml"": """&amp;D311&amp;""", ""direction"": """&amp;E311&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ311" s="2"/>
     </row>
@@ -13409,17 +13505,17 @@
         <v>16</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F312" s="0"/>
       <c r="G312" s="0" t="str">
         <f aca="false">IF(E312="","","{""sourceId"": """&amp;A312&amp;""", ""targetId"": """&amp;B312&amp;""", ""shortDescription"": """&amp;C312&amp;""", ""fullDescriptionHtml"": """&amp;D312&amp;""", ""direction"": """&amp;E312&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ312" s="2"/>
     </row>
@@ -13427,18 +13523,18 @@
       <c r="A313" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B313" s="8" t="s">
-        <v>506</v>
+      <c r="B313" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F313" s="0"/>
       <c r="G313" s="0" t="str">
         <f aca="false">IF(E313="","","{""sourceId"": """&amp;A313&amp;""", ""targetId"": """&amp;B313&amp;""", ""shortDescription"": """&amp;C313&amp;""", ""fullDescriptionHtml"": """&amp;D313&amp;""", ""direction"": """&amp;E313&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ313" s="2"/>
     </row>
@@ -13447,17 +13543,17 @@
         <v>16</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F314" s="0"/>
       <c r="G314" s="0" t="str">
         <f aca="false">IF(E314="","","{""sourceId"": """&amp;A314&amp;""", ""targetId"": """&amp;B314&amp;""", ""shortDescription"": """&amp;C314&amp;""", ""fullDescriptionHtml"": """&amp;D314&amp;""", ""direction"": """&amp;E314&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ314" s="2"/>
     </row>
@@ -13466,17 +13562,17 @@
         <v>16</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F315" s="0"/>
       <c r="G315" s="0" t="str">
         <f aca="false">IF(E315="","","{""sourceId"": """&amp;A315&amp;""", ""targetId"": """&amp;B315&amp;""", ""shortDescription"": """&amp;C315&amp;""", ""fullDescriptionHtml"": """&amp;D315&amp;""", ""direction"": """&amp;E315&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ315" s="2"/>
     </row>
@@ -13485,17 +13581,17 @@
         <v>16</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F316" s="0"/>
       <c r="G316" s="0" t="str">
         <f aca="false">IF(E316="","","{""sourceId"": """&amp;A316&amp;""", ""targetId"": """&amp;B316&amp;""", ""shortDescription"": """&amp;C316&amp;""", ""fullDescriptionHtml"": """&amp;D316&amp;""", ""direction"": """&amp;E316&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ316" s="2"/>
     </row>
@@ -13504,17 +13600,17 @@
         <v>16</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F317" s="0"/>
       <c r="G317" s="0" t="str">
         <f aca="false">IF(E317="","","{""sourceId"": """&amp;A317&amp;""", ""targetId"": """&amp;B317&amp;""", ""shortDescription"": """&amp;C317&amp;""", ""fullDescriptionHtml"": """&amp;D317&amp;""", ""direction"": """&amp;E317&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ317" s="2"/>
     </row>
@@ -13523,17 +13619,17 @@
         <v>16</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F318" s="0"/>
       <c r="G318" s="0" t="str">
         <f aca="false">IF(E318="","","{""sourceId"": """&amp;A318&amp;""", ""targetId"": """&amp;B318&amp;""", ""shortDescription"": """&amp;C318&amp;""", ""fullDescriptionHtml"": """&amp;D318&amp;""", ""direction"": """&amp;E318&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ318" s="2"/>
     </row>
@@ -13542,17 +13638,17 @@
         <v>16</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F319" s="0"/>
       <c r="G319" s="0" t="str">
         <f aca="false">IF(E319="","","{""sourceId"": """&amp;A319&amp;""", ""targetId"": """&amp;B319&amp;""", ""shortDescription"": """&amp;C319&amp;""", ""fullDescriptionHtml"": """&amp;D319&amp;""", ""direction"": """&amp;E319&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ319" s="2"/>
     </row>
@@ -13561,17 +13657,17 @@
         <v>16</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F320" s="0"/>
       <c r="G320" s="0" t="str">
         <f aca="false">IF(E320="","","{""sourceId"": """&amp;A320&amp;""", ""targetId"": """&amp;B320&amp;""", ""shortDescription"": """&amp;C320&amp;""", ""fullDescriptionHtml"": """&amp;D320&amp;""", ""direction"": """&amp;E320&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ320" s="2"/>
     </row>
@@ -13580,17 +13676,17 @@
         <v>16</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F321" s="0"/>
       <c r="G321" s="0" t="str">
         <f aca="false">IF(E321="","","{""sourceId"": """&amp;A321&amp;""", ""targetId"": """&amp;B321&amp;""", ""shortDescription"": """&amp;C321&amp;""", ""fullDescriptionHtml"": """&amp;D321&amp;""", ""direction"": """&amp;E321&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ321" s="2"/>
     </row>
@@ -13599,17 +13695,17 @@
         <v>16</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F322" s="0"/>
       <c r="G322" s="0" t="str">
         <f aca="false">IF(E322="","","{""sourceId"": """&amp;A322&amp;""", ""targetId"": """&amp;B322&amp;""", ""shortDescription"": """&amp;C322&amp;""", ""fullDescriptionHtml"": """&amp;D322&amp;""", ""direction"": """&amp;E322&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ322" s="2"/>
     </row>
@@ -13617,18 +13713,18 @@
       <c r="A323" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>222</v>
+      <c r="B323" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F323" s="0"/>
       <c r="G323" s="0" t="str">
         <f aca="false">IF(E323="","","{""sourceId"": """&amp;A323&amp;""", ""targetId"": """&amp;B323&amp;""", ""shortDescription"": """&amp;C323&amp;""", ""fullDescriptionHtml"": """&amp;D323&amp;""", ""direction"": """&amp;E323&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ323" s="2"/>
     </row>
@@ -13636,18 +13732,18 @@
       <c r="A324" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B324" s="6" t="s">
-        <v>334</v>
+      <c r="B324" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F324" s="0"/>
       <c r="G324" s="0" t="str">
         <f aca="false">IF(E324="","","{""sourceId"": """&amp;A324&amp;""", ""targetId"": """&amp;B324&amp;""", ""shortDescription"": """&amp;C324&amp;""", ""fullDescriptionHtml"": """&amp;D324&amp;""", ""direction"": """&amp;E324&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ324" s="2"/>
     </row>
@@ -13655,18 +13751,18 @@
       <c r="A325" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B325" s="8" t="s">
-        <v>546</v>
+      <c r="B325" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F325" s="0"/>
       <c r="G325" s="0" t="str">
         <f aca="false">IF(E325="","","{""sourceId"": """&amp;A325&amp;""", ""targetId"": """&amp;B325&amp;""", ""shortDescription"": """&amp;C325&amp;""", ""fullDescriptionHtml"": """&amp;D325&amp;""", ""direction"": """&amp;E325&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ325" s="2"/>
     </row>
@@ -13674,18 +13770,18 @@
       <c r="A326" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B326" s="8" t="s">
-        <v>550</v>
+      <c r="B326" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F326" s="0"/>
       <c r="G326" s="0" t="str">
         <f aca="false">IF(E326="","","{""sourceId"": """&amp;A326&amp;""", ""targetId"": """&amp;B326&amp;""", ""shortDescription"": """&amp;C326&amp;""", ""fullDescriptionHtml"": """&amp;D326&amp;""", ""direction"": """&amp;E326&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ326" s="2"/>
     </row>
@@ -13694,17 +13790,17 @@
         <v>16</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F327" s="0"/>
       <c r="G327" s="0" t="str">
         <f aca="false">IF(E327="","","{""sourceId"": """&amp;A327&amp;""", ""targetId"": """&amp;B327&amp;""", ""shortDescription"": """&amp;C327&amp;""", ""fullDescriptionHtml"": """&amp;D327&amp;""", ""direction"": """&amp;E327&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ327" s="2"/>
     </row>
@@ -13712,18 +13808,18 @@
       <c r="A328" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>262</v>
+      <c r="B328" s="8" t="s">
+        <v>550</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F328" s="0"/>
       <c r="G328" s="0" t="str">
         <f aca="false">IF(E328="","","{""sourceId"": """&amp;A328&amp;""", ""targetId"": """&amp;B328&amp;""", ""shortDescription"": """&amp;C328&amp;""", ""fullDescriptionHtml"": """&amp;D328&amp;""", ""direction"": """&amp;E328&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ328" s="2"/>
     </row>
@@ -13731,18 +13827,18 @@
       <c r="A329" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>200</v>
+      <c r="B329" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F329" s="0"/>
       <c r="G329" s="0" t="str">
         <f aca="false">IF(E329="","","{""sourceId"": """&amp;A329&amp;""", ""targetId"": """&amp;B329&amp;""", ""shortDescription"": """&amp;C329&amp;""", ""fullDescriptionHtml"": """&amp;D329&amp;""", ""direction"": """&amp;E329&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ329" s="2"/>
     </row>
@@ -13751,17 +13847,17 @@
         <v>16</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F330" s="0"/>
       <c r="G330" s="0" t="str">
         <f aca="false">IF(E330="","","{""sourceId"": """&amp;A330&amp;""", ""targetId"": """&amp;B330&amp;""", ""shortDescription"": """&amp;C330&amp;""", ""fullDescriptionHtml"": """&amp;D330&amp;""", ""direction"": """&amp;E330&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ330" s="2"/>
     </row>
@@ -13769,18 +13865,18 @@
       <c r="A331" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B331" s="8" t="s">
-        <v>560</v>
+      <c r="B331" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F331" s="0"/>
       <c r="G331" s="0" t="str">
         <f aca="false">IF(E331="","","{""sourceId"": """&amp;A331&amp;""", ""targetId"": """&amp;B331&amp;""", ""shortDescription"": """&amp;C331&amp;""", ""fullDescriptionHtml"": """&amp;D331&amp;""", ""direction"": """&amp;E331&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ331" s="2"/>
     </row>
@@ -13788,18 +13884,18 @@
       <c r="A332" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B332" s="8" t="s">
-        <v>478</v>
+      <c r="B332" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" s="0" t="str">
         <f aca="false">IF(E332="","","{""sourceId"": """&amp;A332&amp;""", ""targetId"": """&amp;B332&amp;""", ""shortDescription"": """&amp;C332&amp;""", ""fullDescriptionHtml"": """&amp;D332&amp;""", ""direction"": """&amp;E332&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ332" s="2"/>
     </row>
@@ -13808,17 +13904,17 @@
         <v>16</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F333" s="0"/>
       <c r="G333" s="0" t="str">
         <f aca="false">IF(E333="","","{""sourceId"": """&amp;A333&amp;""", ""targetId"": """&amp;B333&amp;""", ""shortDescription"": """&amp;C333&amp;""", ""fullDescriptionHtml"": """&amp;D333&amp;""", ""direction"": """&amp;E333&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ333" s="2"/>
     </row>
@@ -13827,17 +13923,17 @@
         <v>16</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F334" s="0"/>
       <c r="G334" s="0" t="str">
         <f aca="false">IF(E334="","","{""sourceId"": """&amp;A334&amp;""", ""targetId"": """&amp;B334&amp;""", ""shortDescription"": """&amp;C334&amp;""", ""fullDescriptionHtml"": """&amp;D334&amp;""", ""direction"": """&amp;E334&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ334" s="2"/>
     </row>
@@ -13846,17 +13942,17 @@
         <v>16</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F335" s="0"/>
       <c r="G335" s="0" t="str">
         <f aca="false">IF(E335="","","{""sourceId"": """&amp;A335&amp;""", ""targetId"": """&amp;B335&amp;""", ""shortDescription"": """&amp;C335&amp;""", ""fullDescriptionHtml"": """&amp;D335&amp;""", ""direction"": """&amp;E335&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ335" s="2"/>
     </row>
@@ -13865,17 +13961,17 @@
         <v>16</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F336" s="0"/>
       <c r="G336" s="0" t="str">
         <f aca="false">IF(E336="","","{""sourceId"": """&amp;A336&amp;""", ""targetId"": """&amp;B336&amp;""", ""shortDescription"": """&amp;C336&amp;""", ""fullDescriptionHtml"": """&amp;D336&amp;""", ""direction"": """&amp;E336&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ336" s="2"/>
     </row>
@@ -13883,18 +13979,18 @@
       <c r="A337" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B337" s="6" t="s">
-        <v>308</v>
+      <c r="B337" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F337" s="0"/>
       <c r="G337" s="0" t="str">
         <f aca="false">IF(E337="","","{""sourceId"": """&amp;A337&amp;""", ""targetId"": """&amp;B337&amp;""", ""shortDescription"": """&amp;C337&amp;""", ""fullDescriptionHtml"": """&amp;D337&amp;""", ""direction"": """&amp;E337&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ337" s="2"/>
     </row>
@@ -13902,18 +13998,18 @@
       <c r="A338" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B338" s="6" t="s">
-        <v>300</v>
+      <c r="B338" s="8" t="s">
+        <v>578</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F338" s="0"/>
       <c r="G338" s="0" t="str">
         <f aca="false">IF(E338="","","{""sourceId"": """&amp;A338&amp;""", ""targetId"": """&amp;B338&amp;""", ""shortDescription"": """&amp;C338&amp;""", ""fullDescriptionHtml"": """&amp;D338&amp;""", ""direction"": """&amp;E338&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ338" s="2"/>
     </row>
@@ -13922,17 +14018,17 @@
         <v>16</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F339" s="0"/>
       <c r="G339" s="0" t="str">
         <f aca="false">IF(E339="","","{""sourceId"": """&amp;A339&amp;""", ""targetId"": """&amp;B339&amp;""", ""shortDescription"": """&amp;C339&amp;""", ""fullDescriptionHtml"": """&amp;D339&amp;""", ""direction"": """&amp;E339&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ339" s="2"/>
     </row>
@@ -13941,17 +14037,17 @@
         <v>16</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F340" s="0"/>
       <c r="G340" s="0" t="str">
         <f aca="false">IF(E340="","","{""sourceId"": """&amp;A340&amp;""", ""targetId"": """&amp;B340&amp;""", ""shortDescription"": """&amp;C340&amp;""", ""fullDescriptionHtml"": """&amp;D340&amp;""", ""direction"": """&amp;E340&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ340" s="2"/>
     </row>
@@ -13960,17 +14056,17 @@
         <v>16</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F341" s="0"/>
       <c r="G341" s="0" t="str">
         <f aca="false">IF(E341="","","{""sourceId"": """&amp;A341&amp;""", ""targetId"": """&amp;B341&amp;""", ""shortDescription"": """&amp;C341&amp;""", ""fullDescriptionHtml"": """&amp;D341&amp;""", ""direction"": """&amp;E341&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ341" s="2"/>
     </row>
@@ -13978,18 +14074,18 @@
       <c r="A342" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B342" s="8" t="s">
-        <v>582</v>
+      <c r="B342" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F342" s="0"/>
       <c r="G342" s="0" t="str">
         <f aca="false">IF(E342="","","{""sourceId"": """&amp;A342&amp;""", ""targetId"": """&amp;B342&amp;""", ""shortDescription"": """&amp;C342&amp;""", ""fullDescriptionHtml"": """&amp;D342&amp;""", ""direction"": """&amp;E342&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ342" s="2"/>
     </row>
@@ -13997,18 +14093,18 @@
       <c r="A343" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B343" s="8" t="s">
-        <v>588</v>
+      <c r="B343" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F343" s="0"/>
       <c r="G343" s="0" t="str">
         <f aca="false">IF(E343="","","{""sourceId"": """&amp;A343&amp;""", ""targetId"": """&amp;B343&amp;""", ""shortDescription"": """&amp;C343&amp;""", ""fullDescriptionHtml"": """&amp;D343&amp;""", ""direction"": """&amp;E343&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ343" s="2"/>
     </row>
@@ -14017,17 +14113,17 @@
         <v>16</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F344" s="0"/>
       <c r="G344" s="0" t="str">
         <f aca="false">IF(E344="","","{""sourceId"": """&amp;A344&amp;""", ""targetId"": """&amp;B344&amp;""", ""shortDescription"": """&amp;C344&amp;""", ""fullDescriptionHtml"": """&amp;D344&amp;""", ""direction"": """&amp;E344&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ344" s="2"/>
     </row>
@@ -14036,17 +14132,17 @@
         <v>16</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F345" s="0"/>
       <c r="G345" s="0" t="str">
         <f aca="false">IF(E345="","","{""sourceId"": """&amp;A345&amp;""", ""targetId"": """&amp;B345&amp;""", ""shortDescription"": """&amp;C345&amp;""", ""fullDescriptionHtml"": """&amp;D345&amp;""", ""direction"": """&amp;E345&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ345" s="2"/>
     </row>
@@ -14055,17 +14151,17 @@
         <v>16</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F346" s="0"/>
       <c r="G346" s="0" t="str">
         <f aca="false">IF(E346="","","{""sourceId"": """&amp;A346&amp;""", ""targetId"": """&amp;B346&amp;""", ""shortDescription"": """&amp;C346&amp;""", ""fullDescriptionHtml"": """&amp;D346&amp;""", ""direction"": """&amp;E346&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ346" s="2"/>
     </row>
@@ -14074,17 +14170,17 @@
         <v>16</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F347" s="0"/>
       <c r="G347" s="0" t="str">
         <f aca="false">IF(E347="","","{""sourceId"": """&amp;A347&amp;""", ""targetId"": """&amp;B347&amp;""", ""shortDescription"": """&amp;C347&amp;""", ""fullDescriptionHtml"": """&amp;D347&amp;""", ""direction"": """&amp;E347&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ347" s="2"/>
     </row>
@@ -14093,17 +14189,17 @@
         <v>16</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F348" s="0"/>
       <c r="G348" s="0" t="str">
         <f aca="false">IF(E348="","","{""sourceId"": """&amp;A348&amp;""", ""targetId"": """&amp;B348&amp;""", ""shortDescription"": """&amp;C348&amp;""", ""fullDescriptionHtml"": """&amp;D348&amp;""", ""direction"": """&amp;E348&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ348" s="2"/>
     </row>
@@ -14112,17 +14208,17 @@
         <v>16</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F349" s="0"/>
       <c r="G349" s="0" t="str">
         <f aca="false">IF(E349="","","{""sourceId"": """&amp;A349&amp;""", ""targetId"": """&amp;B349&amp;""", ""shortDescription"": """&amp;C349&amp;""", ""fullDescriptionHtml"": """&amp;D349&amp;""", ""direction"": """&amp;E349&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ349" s="2"/>
     </row>
@@ -14130,18 +14226,18 @@
       <c r="A350" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>186</v>
+      <c r="B350" s="8" t="s">
+        <v>590</v>
       </c>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F350" s="0"/>
       <c r="G350" s="0" t="str">
         <f aca="false">IF(E350="","","{""sourceId"": """&amp;A350&amp;""", ""targetId"": """&amp;B350&amp;""", ""shortDescription"": """&amp;C350&amp;""", ""fullDescriptionHtml"": """&amp;D350&amp;""", ""direction"": """&amp;E350&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ350" s="2"/>
     </row>
@@ -14150,17 +14246,17 @@
         <v>16</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F351" s="0"/>
       <c r="G351" s="0" t="str">
         <f aca="false">IF(E351="","","{""sourceId"": """&amp;A351&amp;""", ""targetId"": """&amp;B351&amp;""", ""shortDescription"": """&amp;C351&amp;""", ""fullDescriptionHtml"": """&amp;D351&amp;""", ""direction"": """&amp;E351&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ351" s="2"/>
     </row>
@@ -14168,18 +14264,18 @@
       <c r="A352" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B352" s="8" t="s">
-        <v>552</v>
+      <c r="B352" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F352" s="0"/>
       <c r="G352" s="0" t="str">
         <f aca="false">IF(E352="","","{""sourceId"": """&amp;A352&amp;""", ""targetId"": """&amp;B352&amp;""", ""shortDescription"": """&amp;C352&amp;""", ""fullDescriptionHtml"": """&amp;D352&amp;""", ""direction"": """&amp;E352&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ352" s="2"/>
     </row>
@@ -14187,18 +14283,18 @@
       <c r="A353" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>224</v>
+      <c r="B353" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F353" s="0"/>
       <c r="G353" s="0" t="str">
         <f aca="false">IF(E353="","","{""sourceId"": """&amp;A353&amp;""", ""targetId"": """&amp;B353&amp;""", ""shortDescription"": """&amp;C353&amp;""", ""fullDescriptionHtml"": """&amp;D353&amp;""", ""direction"": """&amp;E353&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ353" s="2"/>
     </row>
@@ -14206,18 +14302,18 @@
       <c r="A354" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B354" s="6" t="s">
-        <v>310</v>
+      <c r="B354" s="8" t="s">
+        <v>552</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F354" s="0"/>
       <c r="G354" s="0" t="str">
         <f aca="false">IF(E354="","","{""sourceId"": """&amp;A354&amp;""", ""targetId"": """&amp;B354&amp;""", ""shortDescription"": """&amp;C354&amp;""", ""fullDescriptionHtml"": """&amp;D354&amp;""", ""direction"": """&amp;E354&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ354" s="2"/>
     </row>
@@ -14226,17 +14322,17 @@
         <v>16</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F355" s="0"/>
       <c r="G355" s="0" t="str">
         <f aca="false">IF(E355="","","{""sourceId"": """&amp;A355&amp;""", ""targetId"": """&amp;B355&amp;""", ""shortDescription"": """&amp;C355&amp;""", ""fullDescriptionHtml"": """&amp;D355&amp;""", ""direction"": """&amp;E355&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ355" s="2"/>
     </row>
@@ -14244,18 +14340,18 @@
       <c r="A356" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B356" s="8" t="s">
-        <v>614</v>
+      <c r="B356" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F356" s="0"/>
       <c r="G356" s="0" t="str">
         <f aca="false">IF(E356="","","{""sourceId"": """&amp;A356&amp;""", ""targetId"": """&amp;B356&amp;""", ""shortDescription"": """&amp;C356&amp;""", ""fullDescriptionHtml"": """&amp;D356&amp;""", ""direction"": """&amp;E356&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ356" s="2"/>
     </row>
@@ -14264,17 +14360,17 @@
         <v>16</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F357" s="0"/>
       <c r="G357" s="0" t="str">
         <f aca="false">IF(E357="","","{""sourceId"": """&amp;A357&amp;""", ""targetId"": """&amp;B357&amp;""", ""shortDescription"": """&amp;C357&amp;""", ""fullDescriptionHtml"": """&amp;D357&amp;""", ""direction"": """&amp;E357&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ357" s="2"/>
     </row>
@@ -14282,18 +14378,18 @@
       <c r="A358" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B358" s="6" t="s">
-        <v>234</v>
+      <c r="B358" s="8" t="s">
+        <v>614</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F358" s="0"/>
       <c r="G358" s="0" t="str">
         <f aca="false">IF(E358="","","{""sourceId"": """&amp;A358&amp;""", ""targetId"": """&amp;B358&amp;""", ""shortDescription"": """&amp;C358&amp;""", ""fullDescriptionHtml"": """&amp;D358&amp;""", ""direction"": """&amp;E358&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ358" s="2"/>
     </row>
@@ -14302,17 +14398,17 @@
         <v>16</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F359" s="0"/>
       <c r="G359" s="0" t="str">
         <f aca="false">IF(E359="","","{""sourceId"": """&amp;A359&amp;""", ""targetId"": """&amp;B359&amp;""", ""shortDescription"": """&amp;C359&amp;""", ""fullDescriptionHtml"": """&amp;D359&amp;""", ""direction"": """&amp;E359&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ359" s="2"/>
     </row>
@@ -14320,18 +14416,18 @@
       <c r="A360" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B360" s="8" t="s">
-        <v>618</v>
+      <c r="B360" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F360" s="0"/>
       <c r="G360" s="0" t="str">
         <f aca="false">IF(E360="","","{""sourceId"": """&amp;A360&amp;""", ""targetId"": """&amp;B360&amp;""", ""shortDescription"": """&amp;C360&amp;""", ""fullDescriptionHtml"": """&amp;D360&amp;""", ""direction"": """&amp;E360&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ360" s="2"/>
     </row>
@@ -14340,17 +14436,17 @@
         <v>16</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F361" s="0"/>
       <c r="G361" s="0" t="str">
         <f aca="false">IF(E361="","","{""sourceId"": """&amp;A361&amp;""", ""targetId"": """&amp;B361&amp;""", ""shortDescription"": """&amp;C361&amp;""", ""fullDescriptionHtml"": """&amp;D361&amp;""", ""direction"": """&amp;E361&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ361" s="2"/>
     </row>
@@ -14359,17 +14455,17 @@
         <v>16</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F362" s="0"/>
       <c r="G362" s="0" t="str">
         <f aca="false">IF(E362="","","{""sourceId"": """&amp;A362&amp;""", ""targetId"": """&amp;B362&amp;""", ""shortDescription"": """&amp;C362&amp;""", ""fullDescriptionHtml"": """&amp;D362&amp;""", ""direction"": """&amp;E362&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ362" s="2"/>
     </row>
@@ -14377,18 +14473,18 @@
       <c r="A363" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B363" s="8" t="s">
-        <v>570</v>
+      <c r="B363" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F363" s="0"/>
       <c r="G363" s="0" t="str">
         <f aca="false">IF(E363="","","{""sourceId"": """&amp;A363&amp;""", ""targetId"": """&amp;B363&amp;""", ""shortDescription"": """&amp;C363&amp;""", ""fullDescriptionHtml"": """&amp;D363&amp;""", ""direction"": """&amp;E363&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ363" s="2"/>
     </row>
@@ -14397,17 +14493,17 @@
         <v>16</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F364" s="0"/>
       <c r="G364" s="0" t="str">
         <f aca="false">IF(E364="","","{""sourceId"": """&amp;A364&amp;""", ""targetId"": """&amp;B364&amp;""", ""shortDescription"": """&amp;C364&amp;""", ""fullDescriptionHtml"": """&amp;D364&amp;""", ""direction"": """&amp;E364&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ364" s="2"/>
     </row>
@@ -14416,17 +14512,17 @@
         <v>16</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>630</v>
+        <v>570</v>
       </c>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F365" s="0"/>
       <c r="G365" s="0" t="str">
         <f aca="false">IF(E365="","","{""sourceId"": """&amp;A365&amp;""", ""targetId"": """&amp;B365&amp;""", ""shortDescription"": """&amp;C365&amp;""", ""fullDescriptionHtml"": """&amp;D365&amp;""", ""direction"": """&amp;E365&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ365" s="2"/>
     </row>
@@ -14434,18 +14530,18 @@
       <c r="A366" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B366" s="6" t="s">
-        <v>188</v>
+      <c r="B366" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F366" s="0"/>
       <c r="G366" s="0" t="str">
         <f aca="false">IF(E366="","","{""sourceId"": """&amp;A366&amp;""", ""targetId"": """&amp;B366&amp;""", ""shortDescription"": """&amp;C366&amp;""", ""fullDescriptionHtml"": """&amp;D366&amp;""", ""direction"": """&amp;E366&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ366" s="2"/>
     </row>
@@ -14453,18 +14549,18 @@
       <c r="A367" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>228</v>
+      <c r="B367" s="8" t="s">
+        <v>630</v>
       </c>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F367" s="0"/>
       <c r="G367" s="0" t="str">
         <f aca="false">IF(E367="","","{""sourceId"": """&amp;A367&amp;""", ""targetId"": """&amp;B367&amp;""", ""shortDescription"": """&amp;C367&amp;""", ""fullDescriptionHtml"": """&amp;D367&amp;""", ""direction"": """&amp;E367&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ367" s="2"/>
     </row>
@@ -14472,18 +14568,18 @@
       <c r="A368" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B368" s="8" t="s">
-        <v>634</v>
+      <c r="B368" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F368" s="0"/>
       <c r="G368" s="0" t="str">
         <f aca="false">IF(E368="","","{""sourceId"": """&amp;A368&amp;""", ""targetId"": """&amp;B368&amp;""", ""shortDescription"": """&amp;C368&amp;""", ""fullDescriptionHtml"": """&amp;D368&amp;""", ""direction"": """&amp;E368&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ368" s="2"/>
     </row>
@@ -14491,18 +14587,18 @@
       <c r="A369" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B369" s="8" t="s">
-        <v>352</v>
+      <c r="B369" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F369" s="0"/>
       <c r="G369" s="0" t="str">
         <f aca="false">IF(E369="","","{""sourceId"": """&amp;A369&amp;""", ""targetId"": """&amp;B369&amp;""", ""shortDescription"": """&amp;C369&amp;""", ""fullDescriptionHtml"": """&amp;D369&amp;""", ""direction"": """&amp;E369&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TECHLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ369" s="2"/>
     </row>
@@ -14511,17 +14607,17 @@
         <v>16</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>354</v>
+        <v>634</v>
       </c>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F370" s="0"/>
       <c r="G370" s="0" t="str">
         <f aca="false">IF(E370="","","{""sourceId"": """&amp;A370&amp;""", ""targetId"": """&amp;B370&amp;""", ""shortDescription"": """&amp;C370&amp;""", ""fullDescriptionHtml"": """&amp;D370&amp;""", ""direction"": """&amp;E370&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MIRACLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ370" s="2"/>
     </row>
@@ -14530,17 +14626,17 @@
         <v>16</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>638</v>
+        <v>352</v>
       </c>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F371" s="0"/>
       <c r="G371" s="0" t="str">
         <f aca="false">IF(E371="","","{""sourceId"": """&amp;A371&amp;""", ""targetId"": """&amp;B371&amp;""", ""shortDescription"": """&amp;C371&amp;""", ""fullDescriptionHtml"": """&amp;D371&amp;""", ""direction"": """&amp;E371&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "KING_CASH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TECHLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ371" s="2"/>
     </row>
@@ -14549,54 +14645,145 @@
         <v>16</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>645</v>
+        <v>354</v>
       </c>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="2" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F372" s="0"/>
       <c r="G372" s="0" t="str">
         <f aca="false">IF(E372="","","{""sourceId"": """&amp;A372&amp;""", ""targetId"": """&amp;B372&amp;""", ""shortDescription"": """&amp;C372&amp;""", ""fullDescriptionHtml"": """&amp;D372&amp;""", ""direction"": """&amp;E372&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "YANLUOSHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MIRACLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ372" s="2"/>
     </row>
     <row r="373" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0"/>
-      <c r="B373" s="0"/>
+      <c r="A373" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>638</v>
+      </c>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
+      <c r="E373" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F373" s="0"/>
+      <c r="G373" s="0" t="str">
+        <f aca="false">IF(E373="","","{""sourceId"": """&amp;A373&amp;""", ""targetId"": """&amp;B373&amp;""", ""shortDescription"": """&amp;C373&amp;""", ""fullDescriptionHtml"": """&amp;D373&amp;""", ""direction"": """&amp;E373&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "KING_CASH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
       <c r="AMJ373" s="2"/>
     </row>
     <row r="374" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="8" t="s">
-        <v>643</v>
+      <c r="A374" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F374" s="0"/>
       <c r="G374" s="0" t="str">
         <f aca="false">IF(E374="","","{""sourceId"": """&amp;A374&amp;""", ""targetId"": """&amp;B374&amp;""", ""shortDescription"": """&amp;C374&amp;""", ""fullDescriptionHtml"": """&amp;D374&amp;""", ""direction"": """&amp;E374&amp;"""},")</f>
-        <v>{"sourceId": "MEI_SHI_STATUE", "targetId": "MEI_SHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "YANLUOSHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ374" s="2"/>
     </row>
     <row r="375" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0"/>
-      <c r="B375" s="0"/>
+      <c r="A375" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>649</v>
+      </c>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
+      <c r="E375" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F375" s="0"/>
+      <c r="G375" s="0" t="str">
+        <f aca="false">IF(E375="","","{""sourceId"": """&amp;A375&amp;""", ""targetId"": """&amp;B375&amp;""", ""shortDescription"": """&amp;C375&amp;""", ""fullDescriptionHtml"": """&amp;D375&amp;""", ""direction"": """&amp;E375&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "FANG_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
       <c r="AMJ375" s="2"/>
+    </row>
+    <row r="376" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F376" s="0"/>
+      <c r="G376" s="0" t="str">
+        <f aca="false">IF(E376="","","{""sourceId"": """&amp;A376&amp;""", ""targetId"": """&amp;B376&amp;""", ""shortDescription"": """&amp;C376&amp;""", ""fullDescriptionHtml"": """&amp;D376&amp;""", ""direction"": """&amp;E376&amp;"""},")</f>
+        <v>{"sourceId": "AKUMA", "targetId": "ALBERT_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+      </c>
+      <c r="AMJ376" s="2"/>
+    </row>
+    <row r="377" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0"/>
+      <c r="B377" s="0"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
+      <c r="E377" s="5"/>
+      <c r="AMJ377" s="2"/>
+    </row>
+    <row r="378" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
+      <c r="E378" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F378" s="0"/>
+      <c r="G378" s="0" t="str">
+        <f aca="false">IF(E378="","","{""sourceId"": """&amp;A378&amp;""", ""targetId"": """&amp;B378&amp;""", ""shortDescription"": """&amp;C378&amp;""", ""fullDescriptionHtml"": """&amp;D378&amp;""", ""direction"": """&amp;E378&amp;"""},")</f>
+        <v>{"sourceId": "MEI_SHI_STATUE", "targetId": "MEI_SHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+      </c>
+      <c r="AMJ378" s="2"/>
+    </row>
+    <row r="379" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0"/>
+      <c r="B379" s="0"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="AMJ379" s="2"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0"/>
+      <c r="B386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0"/>
+      <c r="B387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0"/>
+      <c r="B388" s="0"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Network Graph Data.xlsx
+++ b/data/Network Graph Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Node Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="969">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1898,6 +1898,60 @@
     <t xml:space="preserve">#170B30</t>
   </si>
   <si>
+    <t xml:space="preserve">ANIMAN_BALD_EAGLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Bald Eagle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#431D03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_LADYBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Ladybug)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#782328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_BEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Bear)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#782401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_GORILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Gorilla)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#6E6878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_TYRANNOSAURUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Tyrannosaurus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#98974D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMAN_CATFISH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animan (Catfish)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#3E3138</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARMAND_D_ARGENCOURT</t>
   </si>
   <si>
@@ -2853,15 +2907,6 @@
   </si>
   <si>
     <t xml:space="preserve">#D89A13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMILIE_AGRESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilie Agreste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#EAD1C8</t>
   </si>
   <si>
     <t xml:space="preserve">SourceID</t>
@@ -2923,7 +2968,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2940,12 +2985,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2983,7 +3022,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3022,10 +3061,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3105,13 +3140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1154"/>
+  <dimension ref="A1:AMJ1103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G309" activeCellId="0" sqref="G309"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A317" activeCellId="0" sqref="A317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.81"/>
@@ -6896,7 +6931,7 @@
       </c>
       <c r="G204" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A204&amp;""", ""name"": """&amp;B204&amp;""", ""description"": """&amp;C204&amp;""", ""imageFilename"": """&amp;A204&amp;".webp"", ""color"": """&amp;D204&amp;""", ""group"": """&amp;E204&amp;"""},"</f>
-        <v>{"id": "ARMAND_D_ARGENCOURT", "name": "Armand D'Argencourt", "description": "", "imageFilename": "ARMAND_D_ARGENCOURT.webp", "color": "#CDC3C8", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_BALD_EAGLE", "name": "Animan (Bald Eagle)", "description": "", "imageFilename": "ANIMAN_BALD_EAGLE.webp", "color": "#431D03", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6949,7 @@
       </c>
       <c r="G205" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A205&amp;""", ""name"": """&amp;B205&amp;""", ""description"": """&amp;C205&amp;""", ""imageFilename"": """&amp;A205&amp;".webp"", ""color"": """&amp;D205&amp;""", ""group"": """&amp;E205&amp;"""},"</f>
-        <v>{"id": "DARKBLADE", "name": "Darkblade", "description": "", "imageFilename": "DARKBLADE.webp", "color": "#A1B2B0", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_LADYBUG", "name": "Animan (Ladybug)", "description": "", "imageFilename": "ANIMAN_LADYBUG.webp", "color": "#782328", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6932,7 +6967,7 @@
       </c>
       <c r="G206" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A206&amp;""", ""name"": """&amp;B206&amp;""", ""description"": """&amp;C206&amp;""", ""imageFilename"": """&amp;A206&amp;".webp"", ""color"": """&amp;D206&amp;""", ""group"": """&amp;E206&amp;"""},"</f>
-        <v>{"id": "JALIL_KUBDEL", "name": "Jalil Kubdel", "description": "", "imageFilename": "JALIL_KUBDEL.webp", "color": "#6A3F33", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_BEAR", "name": "Animan (Bear)", "description": "", "imageFilename": "ANIMAN_BEAR.webp", "color": "#782401", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +6985,7 @@
       </c>
       <c r="G207" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A207&amp;""", ""name"": """&amp;B207&amp;""", ""description"": """&amp;C207&amp;""", ""imageFilename"": """&amp;A207&amp;".webp"", ""color"": """&amp;D207&amp;""", ""group"": """&amp;E207&amp;"""},"</f>
-        <v>{"id": "THE_PHARAOH", "name": "The Pharaoh", "description": "", "imageFilename": "THE_PHARAOH.webp", "color": "#BC8831", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_GORILLA", "name": "Animan (Gorilla)", "description": "", "imageFilename": "ANIMAN_GORILLA.webp", "color": "#6E6878", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,7 +7003,7 @@
       </c>
       <c r="G208" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A208&amp;""", ""name"": """&amp;B208&amp;""", ""description"": """&amp;C208&amp;""", ""imageFilename"": """&amp;A208&amp;".webp"", ""color"": """&amp;D208&amp;""", ""group"": """&amp;E208&amp;"""},"</f>
-        <v>{"id": "MANON_CHAMACK", "name": "Manon Chamack", "description": "", "imageFilename": "MANON_CHAMACK.webp", "color": "#814974", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_TYRANNOSAURUS", "name": "Animan (Tyrannosaurus)", "description": "", "imageFilename": "ANIMAN_TYRANNOSAURUS.webp", "color": "#98974D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,7 +7021,7 @@
       </c>
       <c r="G209" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A209&amp;""", ""name"": """&amp;B209&amp;""", ""description"": """&amp;C209&amp;""", ""imageFilename"": """&amp;A209&amp;".webp"", ""color"": """&amp;D209&amp;""", ""group"": """&amp;E209&amp;"""},"</f>
-        <v>{"id": "THE_PUPPETEER", "name": "The Puppeteer", "description": "", "imageFilename": "THE_PUPPETEER.webp", "color": "#6F867D", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAN_CATFISH", "name": "Animan (Catfish)", "description": "", "imageFilename": "ANIMAN_CATFISH.webp", "color": "#3E3138", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7004,7 +7039,7 @@
       </c>
       <c r="G210" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A210&amp;""", ""name"": """&amp;B210&amp;""", ""description"": """&amp;C210&amp;""", ""imageFilename"": """&amp;A210&amp;".webp"", ""color"": """&amp;D210&amp;""", ""group"": """&amp;E210&amp;"""},"</f>
-        <v>{"id": "FRED_HAPRELE", "name": "Fred Haprèle", "description": "", "imageFilename": "FRED_HAPRELE.webp", "color": "#1C191C", "group": "CHARACTER"},</v>
+        <v>{"id": "ARMAND_D_ARGENCOURT", "name": "Armand D'Argencourt", "description": "", "imageFilename": "ARMAND_D_ARGENCOURT.webp", "color": "#CDC3C8", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,7 +7057,7 @@
       </c>
       <c r="G211" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A211&amp;""", ""name"": """&amp;B211&amp;""", ""description"": """&amp;C211&amp;""", ""imageFilename"": """&amp;A211&amp;".webp"", ""color"": """&amp;D211&amp;""", ""group"": """&amp;E211&amp;"""},"</f>
-        <v>{"id": "THE_MIME", "name": "The Mime", "description": "", "imageFilename": "THE_MIME.webp", "color": "#ADA0CF", "group": "CHARACTER"},</v>
+        <v>{"id": "DARKBLADE", "name": "Darkblade", "description": "", "imageFilename": "DARKBLADE.webp", "color": "#A1B2B0", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,7 +7075,7 @@
       </c>
       <c r="G212" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A212&amp;""", ""name"": """&amp;B212&amp;""", ""description"": """&amp;C212&amp;""", ""imageFilename"": """&amp;A212&amp;".webp"", ""color"": """&amp;D212&amp;""", ""group"": """&amp;E212&amp;"""},"</f>
-        <v>{"id": "JAGGED_STONE", "name": "Jagged Stone", "description": "", "imageFilename": "JAGGED_STONE.webp", "color": "#563185", "group": "CHARACTER"},</v>
+        <v>{"id": "JALIL_KUBDEL", "name": "Jalil Kubdel", "description": "", "imageFilename": "JALIL_KUBDEL.webp", "color": "#6A3F33", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7058,7 +7093,7 @@
       </c>
       <c r="G213" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A213&amp;""", ""name"": """&amp;B213&amp;""", ""description"": """&amp;C213&amp;""", ""imageFilename"": """&amp;A213&amp;".webp"", ""color"": """&amp;D213&amp;""", ""group"": """&amp;E213&amp;"""},"</f>
-        <v>{"id": "GUITAR_VILLAIN", "name": "Guitar Villain", "description": "", "imageFilename": "GUITAR_VILLAIN.webp", "color": "#89376C", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_PHARAOH", "name": "The Pharaoh", "description": "", "imageFilename": "THE_PHARAOH.webp", "color": "#BC8831", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7076,7 +7111,7 @@
       </c>
       <c r="G214" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A214&amp;""", ""name"": """&amp;B214&amp;""", ""description"": """&amp;C214&amp;""", ""imageFilename"": """&amp;A214&amp;".webp"", ""color"": """&amp;D214&amp;""", ""group"": """&amp;E214&amp;"""},"</f>
-        <v>{"id": "WANG_CHENG", "name": "Wang Cheng", "description": "", "imageFilename": "WANG_CHENG.webp", "color": "#A8A7AE", "group": "CHARACTER"},</v>
+        <v>{"id": "MANON_CHAMACK", "name": "Manon Chamack", "description": "", "imageFilename": "MANON_CHAMACK.webp", "color": "#814974", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,7 +7129,7 @@
       </c>
       <c r="G215" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A215&amp;""", ""name"": """&amp;B215&amp;""", ""description"": """&amp;C215&amp;""", ""imageFilename"": """&amp;A215&amp;".webp"", ""color"": """&amp;D215&amp;""", ""group"": """&amp;E215&amp;"""},"</f>
-        <v>{"id": "KUNG_FOOD", "name": "Kung Food", "description": "", "imageFilename": "KUNG_FOOD.webp", "color": "#FA8B2A", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_PUPPETEER", "name": "The Puppeteer", "description": "", "imageFilename": "THE_PUPPETEER.webp", "color": "#6F867D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,7 +7147,7 @@
       </c>
       <c r="G216" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A216&amp;""", ""name"": """&amp;B216&amp;""", ""description"": """&amp;C216&amp;""", ""imageFilename"": """&amp;A216&amp;".webp"", ""color"": """&amp;D216&amp;""", ""group"": """&amp;E216&amp;"""},"</f>
-        <v>{"id": "LILA_ROSSI", "name": "Lila Rossi", "description": "", "imageFilename": "LILA_ROSSI.webp", "color": "#BF301F", "group": "CHARACTER"},</v>
+        <v>{"id": "FRED_HAPRELE", "name": "Fred Haprèle", "description": "", "imageFilename": "FRED_HAPRELE.webp", "color": "#1C191C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,7 +7165,7 @@
       </c>
       <c r="G217" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A217&amp;""", ""name"": """&amp;B217&amp;""", ""description"": """&amp;C217&amp;""", ""imageFilename"": """&amp;A217&amp;".webp"", ""color"": """&amp;D217&amp;""", ""group"": """&amp;E217&amp;"""},"</f>
-        <v>{"id": "VOLPINA", "name": "Volpina", "description": "", "imageFilename": "VOLPINA.webp", "color": "#FA7C01", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_MIME", "name": "The Mime", "description": "", "imageFilename": "THE_MIME.webp", "color": "#ADA0CF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7148,7 +7183,7 @@
       </c>
       <c r="G218" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A218&amp;""", ""name"": """&amp;B218&amp;""", ""description"": """&amp;C218&amp;""", ""imageFilename"": """&amp;A218&amp;".webp"", ""color"": """&amp;D218&amp;""", ""group"": """&amp;E218&amp;"""},"</f>
-        <v>{"id": "CHAMELEON", "name": "Chameleon", "description": "", "imageFilename": "CHAMELEON.webp", "color": "#B82E1D", "group": "CHARACTER"},</v>
+        <v>{"id": "JAGGED_STONE", "name": "Jagged Stone", "description": "", "imageFilename": "JAGGED_STONE.webp", "color": "#563185", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7166,7 +7201,7 @@
       </c>
       <c r="G219" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A219&amp;""", ""name"": """&amp;B219&amp;""", ""description"": """&amp;C219&amp;""", ""imageFilename"": """&amp;A219&amp;".webp"", ""color"": """&amp;D219&amp;""", ""group"": """&amp;E219&amp;"""},"</f>
-        <v>{"id": "NADJA_CHAMACK", "name": "Nadja Chamack", "description": "", "imageFilename": "NADJA_CHAMACK.webp", "color": "#8B0147", "group": "CHARACTER"},</v>
+        <v>{"id": "GUITAR_VILLAIN", "name": "Guitar Villain", "description": "", "imageFilename": "GUITAR_VILLAIN.webp", "color": "#89376C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,7 +7219,7 @@
       </c>
       <c r="G220" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A220&amp;""", ""name"": """&amp;B220&amp;""", ""description"": """&amp;C220&amp;""", ""imageFilename"": """&amp;A220&amp;".webp"", ""color"": """&amp;D220&amp;""", ""group"": """&amp;E220&amp;"""},"</f>
-        <v>{"id": "PRIME_QUEEN", "name": "Prime Queen", "description": "", "imageFilename": "PRIME_QUEEN.webp", "color": "#50F7F7", "group": "CHARACTER"},</v>
+        <v>{"id": "WANG_CHENG", "name": "Wang Cheng", "description": "", "imageFilename": "WANG_CHENG.webp", "color": "#A8A7AE", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7237,7 @@
       </c>
       <c r="G221" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A221&amp;""", ""name"": """&amp;B221&amp;""", ""description"": """&amp;C221&amp;""", ""imageFilename"": """&amp;A221&amp;".webp"", ""color"": """&amp;D221&amp;""", ""group"": """&amp;E221&amp;"""},"</f>
-        <v>{"id": "ANDRE", "name": "André", "description": "", "imageFilename": "ANDRE.webp", "color": "#706FCD", "group": "CHARACTER"},</v>
+        <v>{"id": "KUNG_FOOD", "name": "Kung Food", "description": "", "imageFilename": "KUNG_FOOD.webp", "color": "#FA8B2A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,7 +7255,7 @@
       </c>
       <c r="G222" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A222&amp;""", ""name"": """&amp;B222&amp;""", ""description"": """&amp;C222&amp;""", ""imageFilename"": """&amp;A222&amp;".webp"", ""color"": """&amp;D222&amp;""", ""group"": """&amp;E222&amp;"""},"</f>
-        <v>{"id": "GLACIATOR", "name": "Glaciator", "description": "", "imageFilename": "GLACIATOR.webp", "color": "#A29097", "group": "CHARACTER"},</v>
+        <v>{"id": "LILA_ROSSI", "name": "Lila Rossi", "description": "", "imageFilename": "LILA_ROSSI.webp", "color": "#BF301F", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,7 +7273,7 @@
       </c>
       <c r="G223" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A223&amp;""", ""name"": """&amp;B223&amp;""", ""description"": """&amp;C223&amp;""", ""imageFilename"": """&amp;A223&amp;".webp"", ""color"": """&amp;D223&amp;""", ""group"": """&amp;E223&amp;"""},"</f>
-        <v>{"id": "BUTLER_JEAN", "name": "Butler Jean", "description": "", "imageFilename": "BUTLER_JEAN.webp", "color": "#332548", "group": "CHARACTER"},</v>
+        <v>{"id": "VOLPINA", "name": "Volpina", "description": "", "imageFilename": "VOLPINA.webp", "color": "#FA7C01", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,7 +7291,7 @@
       </c>
       <c r="G224" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A224&amp;""", ""name"": """&amp;B224&amp;""", ""description"": """&amp;C224&amp;""", ""imageFilename"": """&amp;A224&amp;".webp"", ""color"": """&amp;D224&amp;""", ""group"": """&amp;E224&amp;"""},"</f>
-        <v>{"id": "DESPAIR_BEAR", "name": "Despair Bear", "description": "", "imageFilename": "DESPAIR_BEAR.webp", "color": "#BADCA9", "group": "CHARACTER"},</v>
+        <v>{"id": "CHAMELEON", "name": "Chameleon", "description": "", "imageFilename": "CHAMELEON.webp", "color": "#B82E1D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7274,7 +7309,7 @@
       </c>
       <c r="G225" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A225&amp;""", ""name"": """&amp;B225&amp;""", ""description"": """&amp;C225&amp;""", ""imageFilename"": """&amp;A225&amp;".webp"", ""color"": """&amp;D225&amp;""", ""group"": """&amp;E225&amp;"""},"</f>
-        <v>{"id": "PENNY_ROLLING", "name": "Penny Rolling", "description": "", "imageFilename": "PENNY_ROLLING.webp", "color": "#6A1338", "group": "CHARACTER"},</v>
+        <v>{"id": "NADJA_CHAMACK", "name": "Nadja Chamack", "description": "", "imageFilename": "NADJA_CHAMACK.webp", "color": "#8B0147", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,7 +7327,7 @@
       </c>
       <c r="G226" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A226&amp;""", ""name"": """&amp;B226&amp;""", ""description"": """&amp;C226&amp;""", ""imageFilename"": """&amp;A226&amp;".webp"", ""color"": """&amp;D226&amp;""", ""group"": """&amp;E226&amp;"""},"</f>
-        <v>{"id": "TROUBLEMAKER", "name": "Troublemaker", "description": "", "imageFilename": "TROUBLEMAKER.webp", "color": "#5F0D30", "group": "CHARACTER"},</v>
+        <v>{"id": "PRIME_QUEEN", "name": "Prime Queen", "description": "", "imageFilename": "PRIME_QUEEN.webp", "color": "#50F7F7", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,7 +7345,7 @@
       </c>
       <c r="G227" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A227&amp;""", ""name"": """&amp;B227&amp;""", ""description"": """&amp;C227&amp;""", ""imageFilename"": """&amp;A227&amp;".webp"", ""color"": """&amp;D227&amp;""", ""group"": """&amp;E227&amp;"""},"</f>
-        <v>{"id": "AUGUST", "name": "August", "description": "", "imageFilename": "AUGUST.webp", "color": "#53663E", "group": "CHARACTER"},</v>
+        <v>{"id": "ANDRE", "name": "André", "description": "", "imageFilename": "ANDRE.webp", "color": "#706FCD", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7363,7 @@
       </c>
       <c r="G228" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A228&amp;""", ""name"": """&amp;B228&amp;""", ""description"": """&amp;C228&amp;""", ""imageFilename"": """&amp;A228&amp;".webp"", ""color"": """&amp;D228&amp;""", ""group"": """&amp;E228&amp;"""},"</f>
-        <v>{"id": "GIGANTITAN", "name": "Gigantitan", "description": "", "imageFilename": "GIGANTITAN.webp", "color": "#DAB5FE", "group": "CHARACTER"},</v>
+        <v>{"id": "GLACIATOR", "name": "Glaciator", "description": "", "imageFilename": "GLACIATOR.webp", "color": "#A29097", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7346,7 +7381,7 @@
       </c>
       <c r="G229" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A229&amp;""", ""name"": """&amp;B229&amp;""", ""description"": """&amp;C229&amp;""", ""imageFilename"": """&amp;A229&amp;".webp"", ""color"": """&amp;D229&amp;""", ""group"": """&amp;E229&amp;"""},"</f>
-        <v>{"id": "GINA_DUPAIN", "name": "Gina Dupain", "description": "", "imageFilename": "GINA_DUPAIN.webp", "color": "#B7A4A3", "group": "CHARACTER"},</v>
+        <v>{"id": "BUTLER_JEAN", "name": "Butler Jean", "description": "", "imageFilename": "BUTLER_JEAN.webp", "color": "#332548", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7364,7 +7399,7 @@
       </c>
       <c r="G230" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A230&amp;""", ""name"": """&amp;B230&amp;""", ""description"": """&amp;C230&amp;""", ""imageFilename"": """&amp;A230&amp;".webp"", ""color"": """&amp;D230&amp;""", ""group"": """&amp;E230&amp;"""},"</f>
-        <v>{"id": "BEFANA", "name": "Befana", "description": "", "imageFilename": "BEFANA.webp", "color": "#5D7D1E", "group": "CHARACTER"},</v>
+        <v>{"id": "DESPAIR_BEAR", "name": "Despair Bear", "description": "", "imageFilename": "DESPAIR_BEAR.webp", "color": "#BADCA9", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7382,7 +7417,7 @@
       </c>
       <c r="G231" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A231&amp;""", ""name"": """&amp;B231&amp;""", ""description"": """&amp;C231&amp;""", ""imageFilename"": """&amp;A231&amp;".webp"", ""color"": """&amp;D231&amp;""", ""group"": """&amp;E231&amp;"""},"</f>
-        <v>{"id": "SABINE_CHENG_ANGELIC_MINION", "name": "Sabine Cheng (Angelic Minion)", "description": "", "imageFilename": "SABINE_CHENG_ANGELIC_MINION.webp", "color": "#E2C0A4", "group": "CHARACTER"},</v>
+        <v>{"id": "PENNY_ROLLING", "name": "Penny Rolling", "description": "", "imageFilename": "PENNY_ROLLING.webp", "color": "#6A1338", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,7 +7435,7 @@
       </c>
       <c r="G232" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A232&amp;""", ""name"": """&amp;B232&amp;""", ""description"": """&amp;C232&amp;""", ""imageFilename"": """&amp;A232&amp;".webp"", ""color"": """&amp;D232&amp;""", ""group"": """&amp;E232&amp;"""},"</f>
-        <v>{"id": "ROSE_LAVILLANT_ANGELIC_MINION", "name": "Rose Lavillant (Angelic Minion)", "description": "", "imageFilename": "ROSE_LAVILLANT_ANGELIC_MINION.webp", "color": "#D7B694", "group": "CHARACTER"},</v>
+        <v>{"id": "TROUBLEMAKER", "name": "Troublemaker", "description": "", "imageFilename": "TROUBLEMAKER.webp", "color": "#5F0D30", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7418,7 +7453,7 @@
       </c>
       <c r="G233" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A233&amp;""", ""name"": """&amp;B233&amp;""", ""description"": """&amp;C233&amp;""", ""imageFilename"": """&amp;A233&amp;".webp"", ""color"": """&amp;D233&amp;""", ""group"": """&amp;E233&amp;"""},"</f>
-        <v>{"id": "CLARA_NIGHTINGALE", "name": "Clara Nightingale", "description": "", "imageFilename": "CLARA_NIGHTINGALE.webp", "color": "#5F372C", "group": "CHARACTER"},</v>
+        <v>{"id": "AUGUST", "name": "August", "description": "", "imageFilename": "AUGUST.webp", "color": "#53663E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,7 +7471,7 @@
       </c>
       <c r="G234" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A234&amp;""", ""name"": """&amp;B234&amp;""", ""description"": """&amp;C234&amp;""", ""imageFilename"": """&amp;A234&amp;".webp"", ""color"": """&amp;D234&amp;""", ""group"": """&amp;E234&amp;"""},"</f>
-        <v>{"id": "FRIGHTNINGALE", "name": "Frightningale", "description": "", "imageFilename": "FRIGHTNINGALE.webp", "color": "#3F9999", "group": "CHARACTER"},</v>
+        <v>{"id": "GIGANTITAN", "name": "Gigantitan", "description": "", "imageFilename": "GIGANTITAN.webp", "color": "#DAB5FE", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7454,7 +7489,7 @@
       </c>
       <c r="G235" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A235&amp;""", ""name"": """&amp;B235&amp;""", ""description"": """&amp;C235&amp;""", ""imageFilename"": """&amp;A235&amp;".webp"", ""color"": """&amp;D235&amp;""", ""group"": """&amp;E235&amp;"""},"</f>
-        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#16133A", "group": "CHARACTER"},</v>
+        <v>{"id": "GINA_DUPAIN", "name": "Gina Dupain", "description": "", "imageFilename": "GINA_DUPAIN.webp", "color": "#B7A4A3", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,7 +7507,7 @@
       </c>
       <c r="G236" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A236&amp;""", ""name"": """&amp;B236&amp;""", ""description"": """&amp;C236&amp;""", ""imageFilename"": """&amp;A236&amp;".webp"", ""color"": """&amp;D236&amp;""", ""group"": """&amp;E236&amp;"""},"</f>
-        <v>{"id": "GORIZILLA", "name": "Gorizilla", "description": "", "imageFilename": "GORIZILLA.webp", "color": "#6083F2", "group": "CHARACTER"},</v>
+        <v>{"id": "BEFANA", "name": "Befana", "description": "", "imageFilename": "BEFANA.webp", "color": "#5D7D1E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,7 +7525,7 @@
       </c>
       <c r="G237" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A237&amp;""", ""name"": """&amp;B237&amp;""", ""description"": """&amp;C237&amp;""", ""imageFilename"": """&amp;A237&amp;".webp"", ""color"": """&amp;D237&amp;""", ""group"": """&amp;E237&amp;"""},"</f>
-        <v>{"id": "MARKOV", "name": "Markov", "description": "", "imageFilename": "MARKOV.webp", "color": "#4AC2CB", "group": "CHARACTER"},</v>
+        <v>{"id": "SABINE_CHENG_ANGELIC_MINION", "name": "Sabine Cheng (Angelic Minion)", "description": "", "imageFilename": "SABINE_CHENG_ANGELIC_MINION.webp", "color": "#E2C0A4", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,7 +7543,7 @@
       </c>
       <c r="G238" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A238&amp;""", ""name"": """&amp;B238&amp;""", ""description"": """&amp;C238&amp;""", ""imageFilename"": """&amp;A238&amp;".webp"", ""color"": """&amp;D238&amp;""", ""group"": """&amp;E238&amp;"""},"</f>
-        <v>{"id": "ROBOSTUS", "name": "Robostus", "description": "", "imageFilename": "ROBOSTUS.webp", "color": "#EC0112", "group": "CHARACTER"},</v>
+        <v>{"id": "ROSE_LAVILLANT_ANGELIC_MINION", "name": "Rose Lavillant (Angelic Minion)", "description": "", "imageFilename": "ROSE_LAVILLANT_ANGELIC_MINION.webp", "color": "#D7B694", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,7 +7561,7 @@
       </c>
       <c r="G239" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A239&amp;""", ""name"": """&amp;B239&amp;""", ""description"": """&amp;C239&amp;""", ""imageFilename"": """&amp;A239&amp;".webp"", ""color"": """&amp;D239&amp;""", ""group"": """&amp;E239&amp;"""},"</f>
-        <v>{"id": "ELLA_AND_ETTA_CESAIRE", "name": "Ella and Etta Césaire", "description": "", "imageFilename": "ELLA_AND_ETTA_CESAIRE.webp", "color": "#AA5827", "group": "CHARACTER"},</v>
+        <v>{"id": "CLARA_NIGHTINGALE", "name": "Clara Nightingale", "description": "", "imageFilename": "CLARA_NIGHTINGALE.webp", "color": "#5F372C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,7 +7579,7 @@
       </c>
       <c r="G240" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A240&amp;""", ""name"": """&amp;B240&amp;""", ""description"": """&amp;C240&amp;""", ""imageFilename"": """&amp;A240&amp;".webp"", ""color"": """&amp;D240&amp;""", ""group"": """&amp;E240&amp;"""},"</f>
-        <v>{"id": "SAPOTIS", "name": "Sapotis", "description": "", "imageFilename": "SAPOTIS.webp", "color": "#89172F", "group": "CHARACTER"},</v>
+        <v>{"id": "FRIGHTNINGALE", "name": "Frightningale", "description": "", "imageFilename": "FRIGHTNINGALE.webp", "color": "#3F9999", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,7 +7597,7 @@
       </c>
       <c r="G241" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A241&amp;""", ""name"": """&amp;B241&amp;""", ""description"": """&amp;C241&amp;""", ""imageFilename"": """&amp;A241&amp;".webp"", ""color"": """&amp;D241&amp;""", ""group"": """&amp;E241&amp;"""},"</f>
-        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#9A7550", "group": "CHARACTER"},</v>
+        <v>{"id": "ADRIEN_S_BODYGUARD", "name": "Adrien's Bodyguard", "description": "", "imageFilename": "ADRIEN_S_BODYGUARD.webp", "color": "#16133A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7580,7 +7615,7 @@
       </c>
       <c r="G242" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A242&amp;""", ""name"": """&amp;B242&amp;""", ""description"": """&amp;C242&amp;""", ""imageFilename"": """&amp;A242&amp;".webp"", ""color"": """&amp;D242&amp;""", ""group"": """&amp;E242&amp;"""},"</f>
-        <v>{"id": "DARK_OWL", "name": "Dark Owl", "description": "", "imageFilename": "DARK_OWL.webp", "color": "#7B5641", "group": "CHARACTER"},</v>
+        <v>{"id": "GORIZILLA", "name": "Gorizilla", "description": "", "imageFilename": "GORIZILLA.webp", "color": "#6083F2", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,7 +7633,7 @@
       </c>
       <c r="G243" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A243&amp;""", ""name"": """&amp;B243&amp;""", ""description"": """&amp;C243&amp;""", ""imageFilename"": """&amp;A243&amp;".webp"", ""color"": """&amp;D243&amp;""", ""group"": """&amp;E243&amp;"""},"</f>
-        <v>{"id": "THE_OWL", "name": "The Owl", "description": "", "imageFilename": "THE_OWL.webp", "color": "#8D3B00", "group": "CHARACTER"},</v>
+        <v>{"id": "MARKOV", "name": "Markov", "description": "", "imageFilename": "MARKOV.webp", "color": "#4AC2CB", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,7 +7651,7 @@
       </c>
       <c r="G244" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A244&amp;""", ""name"": """&amp;B244&amp;""", ""description"": """&amp;C244&amp;""", ""imageFilename"": """&amp;A244&amp;".webp"", ""color"": """&amp;D244&amp;""", ""group"": """&amp;E244&amp;"""},"</f>
-        <v>{"id": "ONDINE", "name": "Ondine", "description": "", "imageFilename": "ONDINE.webp", "color": "#910810", "group": "CHARACTER"},</v>
+        <v>{"id": "ROBOSTUS", "name": "Robostus", "description": "", "imageFilename": "ROBOSTUS.webp", "color": "#EC0112", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7634,7 +7669,7 @@
       </c>
       <c r="G245" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A245&amp;""", ""name"": """&amp;B245&amp;""", ""description"": """&amp;C245&amp;""", ""imageFilename"": """&amp;A245&amp;".webp"", ""color"": """&amp;D245&amp;""", ""group"": """&amp;E245&amp;"""},"</f>
-        <v>{"id": "SYREN", "name": "Syren", "description": "", "imageFilename": "SYREN.webp", "color": "#874581", "group": "CHARACTER"},</v>
+        <v>{"id": "ELLA_AND_ETTA_CESAIRE", "name": "Ella and Etta Césaire", "description": "", "imageFilename": "ELLA_AND_ETTA_CESAIRE.webp", "color": "#AA5827", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,7 +7687,7 @@
       </c>
       <c r="G246" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A246&amp;""", ""name"": """&amp;B246&amp;""", ""description"": """&amp;C246&amp;""", ""imageFilename"": """&amp;A246&amp;".webp"", ""color"": """&amp;D246&amp;""", ""group"": """&amp;E246&amp;"""},"</f>
-        <v>{"id": "CALINE_BUSTIER", "name": "Caline Bustier", "description": "", "imageFilename": "CALINE_BUSTIER.webp", "color": "#517C80", "group": "CHARACTER"},</v>
+        <v>{"id": "SAPOTIS", "name": "Sapotis", "description": "", "imageFilename": "SAPOTIS.webp", "color": "#89172F", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7705,7 @@
       </c>
       <c r="G247" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A247&amp;""", ""name"": """&amp;B247&amp;""", ""description"": """&amp;C247&amp;""", ""imageFilename"": """&amp;A247&amp;".webp"", ""color"": """&amp;D247&amp;""", ""group"": """&amp;E247&amp;"""},"</f>
-        <v>{"id": "ZOMBIZOU", "name": "Zombizou", "description": "", "imageFilename": "ZOMBIZOU.webp", "color": "#C595C6", "group": "CHARACTER"},</v>
+        <v>{"id": "MR__DAMOCLES", "name": "Mr. Damocles", "description": "", "imageFilename": "MR__DAMOCLES.webp", "color": "#9A7550", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7688,7 +7723,7 @@
       </c>
       <c r="G248" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A248&amp;""", ""name"": """&amp;B248&amp;""", ""description"": """&amp;C248&amp;""", ""imageFilename"": """&amp;A248&amp;".webp"", ""color"": """&amp;D248&amp;""", ""group"": """&amp;E248&amp;"""},"</f>
-        <v>{"id": "ANARKA_COUFFAINE", "name": "Anarka Couffaine", "description": "", "imageFilename": "ANARKA_COUFFAINE.webp", "color": "#A2514E", "group": "CHARACTER"},</v>
+        <v>{"id": "DARK_OWL", "name": "Dark Owl", "description": "", "imageFilename": "DARK_OWL.webp", "color": "#7B5641", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,7 +7741,7 @@
       </c>
       <c r="G249" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A249&amp;""", ""name"": """&amp;B249&amp;""", ""description"": """&amp;C249&amp;""", ""imageFilename"": """&amp;A249&amp;".webp"", ""color"": """&amp;D249&amp;""", ""group"": """&amp;E249&amp;"""},"</f>
-        <v>{"id": "CAPTAIN_HARDROCK", "name": "Captain Hardrock", "description": "", "imageFilename": "CAPTAIN_HARDROCK.webp", "color": "#DD0E16", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_OWL", "name": "The Owl", "description": "", "imageFilename": "THE_OWL.webp", "color": "#8D3B00", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,7 +7759,7 @@
       </c>
       <c r="G250" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A250&amp;""", ""name"": """&amp;B250&amp;""", ""description"": """&amp;C250&amp;""", ""imageFilename"": """&amp;A250&amp;".webp"", ""color"": """&amp;D250&amp;""", ""group"": """&amp;E250&amp;"""},"</f>
-        <v>{"id": "PHILIPPE", "name": "Philippe", "description": "", "imageFilename": "PHILIPPE.webp", "color": "#C0D4F1", "group": "CHARACTER"},</v>
+        <v>{"id": "ONDINE", "name": "Ondine", "description": "", "imageFilename": "ONDINE.webp", "color": "#910810", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7742,7 +7777,7 @@
       </c>
       <c r="G251" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A251&amp;""", ""name"": """&amp;B251&amp;""", ""description"": """&amp;C251&amp;""", ""imageFilename"": """&amp;A251&amp;".webp"", ""color"": """&amp;D251&amp;""", ""group"": """&amp;E251&amp;"""},"</f>
-        <v>{"id": "FROZER", "name": "Frozer", "description": "", "imageFilename": "FROZER.webp", "color": "#309DC5", "group": "CHARACTER"},</v>
+        <v>{"id": "SYREN", "name": "Syren", "description": "", "imageFilename": "SYREN.webp", "color": "#874581", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7760,7 +7795,7 @@
       </c>
       <c r="G252" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A252&amp;""", ""name"": """&amp;B252&amp;""", ""description"": """&amp;C252&amp;""", ""imageFilename"": """&amp;A252&amp;".webp"", ""color"": """&amp;D252&amp;""", ""group"": """&amp;E252&amp;"""},"</f>
-        <v>{"id": "AUDREY_BOURGEOIS", "name": "Audrey Bourgeois", "description": "", "imageFilename": "AUDREY_BOURGEOIS.webp", "color": "#B77A22", "group": "CHARACTER"},</v>
+        <v>{"id": "CALINE_BUSTIER", "name": "Caline Bustier", "description": "", "imageFilename": "CALINE_BUSTIER.webp", "color": "#517C80", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7778,7 +7813,7 @@
       </c>
       <c r="G253" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A253&amp;""", ""name"": """&amp;B253&amp;""", ""description"": """&amp;C253&amp;""", ""imageFilename"": """&amp;A253&amp;".webp"", ""color"": """&amp;D253&amp;""", ""group"": """&amp;E253&amp;"""},"</f>
-        <v>{"id": "STYLE_QUEEN", "name": "Style Queen", "description": "", "imageFilename": "STYLE_QUEEN.webp", "color": "#CDA12C", "group": "CHARACTER"},</v>
+        <v>{"id": "ZOMBIZOU", "name": "Zombizou", "description": "", "imageFilename": "ZOMBIZOU.webp", "color": "#C595C6", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,7 +7831,7 @@
       </c>
       <c r="G254" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A254&amp;""", ""name"": """&amp;B254&amp;""", ""description"": """&amp;C254&amp;""", ""imageFilename"": """&amp;A254&amp;".webp"", ""color"": """&amp;D254&amp;""", ""group"": """&amp;E254&amp;"""},"</f>
-        <v>{"id": "NORA_CESAIRE", "name": "Nora Césaire", "description": "", "imageFilename": "NORA_CESAIRE.webp", "color": "#DB9F03", "group": "CHARACTER"},</v>
+        <v>{"id": "ANARKA_COUFFAINE", "name": "Anarka Couffaine", "description": "", "imageFilename": "ANARKA_COUFFAINE.webp", "color": "#A2514E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,7 +7849,7 @@
       </c>
       <c r="G255" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A255&amp;""", ""name"": """&amp;B255&amp;""", ""description"": """&amp;C255&amp;""", ""imageFilename"": """&amp;A255&amp;".webp"", ""color"": """&amp;D255&amp;""", ""group"": """&amp;E255&amp;"""},"</f>
-        <v>{"id": "ANANSI", "name": "Anansi", "description": "", "imageFilename": "ANANSI.webp", "color": "#D6BA07", "group": "CHARACTER"},</v>
+        <v>{"id": "CAPTAIN_HARDROCK", "name": "Captain Hardrock", "description": "", "imageFilename": "CAPTAIN_HARDROCK.webp", "color": "#DD0E16", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7832,7 +7867,7 @@
       </c>
       <c r="G256" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A256&amp;""", ""name"": """&amp;B256&amp;""", ""description"": """&amp;C256&amp;""", ""imageFilename"": """&amp;A256&amp;".webp"", ""color"": """&amp;D256&amp;""", ""group"": """&amp;E256&amp;"""},"</f>
-        <v>{"id": "ANDRE_BOURGEOIS", "name": "André Bourgeois", "description": "", "imageFilename": "ANDRE_BOURGEOIS.webp", "color": "#33282E", "group": "CHARACTER"},</v>
+        <v>{"id": "PHILIPPE", "name": "Philippe", "description": "", "imageFilename": "PHILIPPE.webp", "color": "#C0D4F1", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,7 +7885,7 @@
       </c>
       <c r="G257" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A257&amp;""", ""name"": """&amp;B257&amp;""", ""description"": """&amp;C257&amp;""", ""imageFilename"": """&amp;A257&amp;".webp"", ""color"": """&amp;D257&amp;""", ""group"": """&amp;E257&amp;"""},"</f>
-        <v>{"id": "MALEDIKTATOR", "name": "Malediktator", "description": "", "imageFilename": "MALEDIKTATOR.webp", "color": "#5D8EED", "group": "CHARACTER"},</v>
+        <v>{"id": "FROZER", "name": "Frozer", "description": "", "imageFilename": "FROZER.webp", "color": "#309DC5", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,7 +7903,7 @@
       </c>
       <c r="G258" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A258&amp;""", ""name"": """&amp;B258&amp;""", ""description"": """&amp;C258&amp;""", ""imageFilename"": """&amp;A258&amp;".webp"", ""color"": """&amp;D258&amp;""", ""group"": """&amp;E258&amp;"""},"</f>
-        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#FCB9C7", "group": "CHARACTER"},</v>
+        <v>{"id": "AUDREY_BOURGEOIS", "name": "Audrey Bourgeois", "description": "", "imageFilename": "AUDREY_BOURGEOIS.webp", "color": "#B77A22", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,7 +7921,7 @@
       </c>
       <c r="G259" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A259&amp;""", ""name"": """&amp;B259&amp;""", ""description"": """&amp;C259&amp;""", ""imageFilename"": """&amp;A259&amp;".webp"", ""color"": """&amp;D259&amp;""", ""group"": """&amp;E259&amp;"""},"</f>
-        <v>{"id": "UNNAMED_BOY", "name": "Unnamed Boy", "description": "", "imageFilename": "UNNAMED_BOY.webp", "color": "#0D8A8D", "group": "CHARACTER"},</v>
+        <v>{"id": "STYLE_QUEEN", "name": "Style Queen", "description": "", "imageFilename": "STYLE_QUEEN.webp", "color": "#CDA12C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,7 +7939,7 @@
       </c>
       <c r="G260" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A260&amp;""", ""name"": """&amp;B260&amp;""", ""description"": """&amp;C260&amp;""", ""imageFilename"": """&amp;A260&amp;".webp"", ""color"": """&amp;D260&amp;""", ""group"": """&amp;E260&amp;"""},"</f>
-        <v>{"id": "SANDBOY", "name": "Sandboy", "description": "", "imageFilename": "SANDBOY.webp", "color": "#393763", "group": "CHARACTER"},</v>
+        <v>{"id": "NORA_CESAIRE", "name": "Nora Césaire", "description": "", "imageFilename": "NORA_CESAIRE.webp", "color": "#DB9F03", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,7 +7957,7 @@
       </c>
       <c r="G261" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A261&amp;""", ""name"": """&amp;B261&amp;""", ""description"": """&amp;C261&amp;""", ""imageFilename"": """&amp;A261&amp;".webp"", ""color"": """&amp;D261&amp;""", ""group"": """&amp;E261&amp;"""},"</f>
-        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#C32851", "group": "CHARACTER"},</v>
+        <v>{"id": "ANANSI", "name": "Anansi", "description": "", "imageFilename": "ANANSI.webp", "color": "#D6BA07", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,7 +7975,7 @@
       </c>
       <c r="G262" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A262&amp;""", ""name"": """&amp;B262&amp;""", ""description"": """&amp;C262&amp;""", ""imageFilename"": """&amp;A262&amp;".webp"", ""color"": """&amp;D262&amp;""", ""group"": """&amp;E262&amp;"""},"</f>
-        <v>{"id": "SANTA_CLAWS", "name": "Santa Claws", "description": "", "imageFilename": "SANTA_CLAWS.webp", "color": "#812426", "group": "CHARACTER"},</v>
+        <v>{"id": "ANDRE_BOURGEOIS", "name": "André Bourgeois", "description": "", "imageFilename": "ANDRE_BOURGEOIS.webp", "color": "#33282E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7958,7 +7993,7 @@
       </c>
       <c r="G263" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A263&amp;""", ""name"": """&amp;B263&amp;""", ""description"": """&amp;C263&amp;""", ""imageFilename"": """&amp;A263&amp;".webp"", ""color"": """&amp;D263&amp;""", ""group"": """&amp;E263&amp;"""},"</f>
-        <v>{"id": "THOMAS_ASTRUC", "name": "Thomas Astruc", "description": "", "imageFilename": "THOMAS_ASTRUC.webp", "color": "#1A171A", "group": "CHARACTER"},</v>
+        <v>{"id": "MALEDIKTATOR", "name": "Malediktator", "description": "", "imageFilename": "MALEDIKTATOR.webp", "color": "#5D8EED", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7976,7 +8011,7 @@
       </c>
       <c r="G264" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A264&amp;""", ""name"": """&amp;B264&amp;""", ""description"": """&amp;C264&amp;""", ""imageFilename"": """&amp;A264&amp;".webp"", ""color"": """&amp;D264&amp;""", ""group"": """&amp;E264&amp;"""},"</f>
-        <v>{"id": "ANIMAESTRO", "name": "Animaestro", "description": "", "imageFilename": "ANIMAESTRO.webp", "color": "#1C2B18", "group": "CHARACTER"},</v>
+        <v>{"id": "HEART_HUNTER", "name": "Heart Hunter", "description": "", "imageFilename": "HEART_HUNTER.webp", "color": "#FCB9C7", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,7 +8029,7 @@
       </c>
       <c r="G265" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A265&amp;""", ""name"": """&amp;B265&amp;""", ""description"": """&amp;C265&amp;""", ""imageFilename"": """&amp;A265&amp;".webp"", ""color"": """&amp;D265&amp;""", ""group"": """&amp;E265&amp;"""},"</f>
-        <v>{"id": "ROLLAND_DUPAIN", "name": "Rolland Dupain", "description": "", "imageFilename": "ROLLAND_DUPAIN.webp", "color": "#A8A5AC", "group": "CHARACTER"},</v>
+        <v>{"id": "UNNAMED_BOY", "name": "Unnamed Boy", "description": "", "imageFilename": "UNNAMED_BOY.webp", "color": "#0D8A8D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,7 +8047,7 @@
       </c>
       <c r="G266" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A266&amp;""", ""name"": """&amp;B266&amp;""", ""description"": """&amp;C266&amp;""", ""imageFilename"": """&amp;A266&amp;".webp"", ""color"": """&amp;D266&amp;""", ""group"": """&amp;E266&amp;"""},"</f>
-        <v>{"id": "BAKERIX", "name": "Bakerix", "description": "", "imageFilename": "BAKERIX.webp", "color": "#B86E2E", "group": "CHARACTER"},</v>
+        <v>{"id": "SANDBOY", "name": "Sandboy", "description": "", "imageFilename": "SANDBOY.webp", "color": "#393763", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8030,7 +8065,7 @@
       </c>
       <c r="G267" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A267&amp;""", ""name"": """&amp;B267&amp;""", ""description"": """&amp;C267&amp;""", ""imageFilename"": """&amp;A267&amp;".webp"", ""color"": """&amp;D267&amp;""", ""group"": """&amp;E267&amp;"""},"</f>
-        <v>{"id": "SIMPLEMAN", "name": "Simpleman", "description": "", "imageFilename": "SIMPLEMAN.webp", "color": "#5B5189", "group": "CHARACTER"},</v>
+        <v>{"id": "SANTA_CLAUS", "name": "Santa Claus", "description": "", "imageFilename": "SANTA_CLAUS.webp", "color": "#C32851", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,7 +8083,7 @@
       </c>
       <c r="G268" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A268&amp;""", ""name"": """&amp;B268&amp;""", ""description"": """&amp;C268&amp;""", ""imageFilename"": """&amp;A268&amp;".webp"", ""color"": """&amp;D268&amp;""", ""group"": """&amp;E268&amp;"""},"</f>
-        <v>{"id": "MARIANNE_LENOIR", "name": "Marianne Lenoir", "description": "", "imageFilename": "MARIANNE_LENOIR.webp", "color": "#BF9A60", "group": "CHARACTER"},</v>
+        <v>{"id": "SANTA_CLAWS", "name": "Santa Claws", "description": "", "imageFilename": "SANTA_CLAWS.webp", "color": "#812426", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8066,7 +8101,7 @@
       </c>
       <c r="G269" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A269&amp;""", ""name"": """&amp;B269&amp;""", ""description"": """&amp;C269&amp;""", ""imageFilename"": """&amp;A269&amp;".webp"", ""color"": """&amp;D269&amp;""", ""group"": """&amp;E269&amp;"""},"</f>
-        <v>{"id": "BACKWARDER", "name": "Backwarder", "description": "", "imageFilename": "BACKWARDER.webp", "color": "#9C6C1F", "group": "CHARACTER"},</v>
+        <v>{"id": "THOMAS_ASTRUC", "name": "Thomas Astruc", "description": "", "imageFilename": "THOMAS_ASTRUC.webp", "color": "#1A171A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,7 +8119,7 @@
       </c>
       <c r="G270" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A270&amp;""", ""name"": """&amp;B270&amp;""", ""description"": """&amp;C270&amp;""", ""imageFilename"": """&amp;A270&amp;".webp"", ""color"": """&amp;D270&amp;""", ""group"": """&amp;E270&amp;"""},"</f>
-        <v>{"id": "TOM_DUPAIN", "name": "Tom Dupain", "description": "", "imageFilename": "TOM_DUPAIN.webp", "color": "#7FACFE", "group": "CHARACTER"},</v>
+        <v>{"id": "ANIMAESTRO", "name": "Animaestro", "description": "", "imageFilename": "ANIMAESTRO.webp", "color": "#1C2B18", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8102,7 +8137,7 @@
       </c>
       <c r="G271" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A271&amp;""", ""name"": """&amp;B271&amp;""", ""description"": """&amp;C271&amp;""", ""imageFilename"": """&amp;A271&amp;".webp"", ""color"": """&amp;D271&amp;""", ""group"": """&amp;E271&amp;"""},"</f>
-        <v>{"id": "WEREDAD", "name": "Weredad", "description": "", "imageFilename": "WEREDAD.webp", "color": "#564538", "group": "CHARACTER"},</v>
+        <v>{"id": "ROLLAND_DUPAIN", "name": "Rolland Dupain", "description": "", "imageFilename": "ROLLAND_DUPAIN.webp", "color": "#A8A5AC", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,7 +8155,7 @@
       </c>
       <c r="G272" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A272&amp;""", ""name"": """&amp;B272&amp;""", ""description"": """&amp;C272&amp;""", ""imageFilename"": """&amp;A272&amp;".webp"", ""color"": """&amp;D272&amp;""", ""group"": """&amp;E272&amp;"""},"</f>
-        <v>{"id": "VIVICA", "name": "Vivica", "description": "", "imageFilename": "VIVICA.webp", "color": "#372C30", "group": "CHARACTER"},</v>
+        <v>{"id": "BAKERIX", "name": "Bakerix", "description": "", "imageFilename": "BAKERIX.webp", "color": "#B86E2E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,7 +8173,7 @@
       </c>
       <c r="G273" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A273&amp;""", ""name"": """&amp;B273&amp;""", ""description"": """&amp;C273&amp;""", ""imageFilename"": """&amp;A273&amp;".webp"", ""color"": """&amp;D273&amp;""", ""group"": """&amp;E273&amp;"""},"</f>
-        <v>{"id": "DESPERADA", "name": "Desperada", "description": "", "imageFilename": "DESPERADA.webp", "color": "#815E2F", "group": "CHARACTER"},</v>
+        <v>{"id": "SIMPLEMAN", "name": "Simpleman", "description": "", "imageFilename": "SIMPLEMAN.webp", "color": "#5B5189", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,7 +8191,7 @@
       </c>
       <c r="G274" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A274&amp;""", ""name"": """&amp;B274&amp;""", ""description"": """&amp;C274&amp;""", ""imageFilename"": """&amp;A274&amp;".webp"", ""color"": """&amp;D274&amp;""", ""group"": """&amp;E274&amp;"""},"</f>
-        <v>{"id": "CHRIS_LAHIFFE", "name": "Chris Lahiffe", "description": "", "imageFilename": "CHRIS_LAHIFFE.webp", "color": "#852D1C", "group": "CHARACTER"},</v>
+        <v>{"id": "MARIANNE_LENOIR", "name": "Marianne Lenoir", "description": "", "imageFilename": "MARIANNE_LENOIR.webp", "color": "#BF9A60", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,7 +8209,7 @@
       </c>
       <c r="G275" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A275&amp;""", ""name"": """&amp;B275&amp;""", ""description"": """&amp;C275&amp;""", ""imageFilename"": """&amp;A275&amp;".webp"", ""color"": """&amp;D275&amp;""", ""group"": """&amp;E275&amp;"""},"</f>
-        <v>{"id": "CHRIS_LAHIFFE_ADULT", "name": "Chris Lahiffe (Adult)", "description": "", "imageFilename": "CHRIS_LAHIFFE_ADULT.webp", "color": "#A1C22A", "group": "CHARACTER"},</v>
+        <v>{"id": "BACKWARDER", "name": "Backwarder", "description": "", "imageFilename": "BACKWARDER.webp", "color": "#9C6C1F", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8192,7 +8227,7 @@
       </c>
       <c r="G276" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A276&amp;""", ""name"": """&amp;B276&amp;""", ""description"": """&amp;C276&amp;""", ""imageFilename"": """&amp;A276&amp;".webp"", ""color"": """&amp;D276&amp;""", ""group"": """&amp;E276&amp;"""},"</f>
-        <v>{"id": "CHRISTMASTER", "name": "Christmaster", "description": "", "imageFilename": "CHRISTMASTER.webp", "color": "#DD100B", "group": "CHARACTER"},</v>
+        <v>{"id": "TOM_DUPAIN", "name": "Tom Dupain", "description": "", "imageFilename": "TOM_DUPAIN.webp", "color": "#7FACFE", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,7 +8245,7 @@
       </c>
       <c r="G277" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A277&amp;""", ""name"": """&amp;B277&amp;""", ""description"": """&amp;C277&amp;""", ""imageFilename"": """&amp;A277&amp;".webp"", ""color"": """&amp;D277&amp;""", ""group"": """&amp;E277&amp;"""},"</f>
-        <v>{"id": "TIMETAGGER", "name": "Timetagger", "description": "", "imageFilename": "TIMETAGGER.webp", "color": "#6B70C7", "group": "CHARACTER"},</v>
+        <v>{"id": "WEREDAD", "name": "Weredad", "description": "", "imageFilename": "WEREDAD.webp", "color": "#564538", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8228,7 +8263,7 @@
       </c>
       <c r="G278" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A278&amp;""", ""name"": """&amp;B278&amp;""", ""description"": """&amp;C278&amp;""", ""imageFilename"": """&amp;A278&amp;".webp"", ""color"": """&amp;D278&amp;""", ""group"": """&amp;E278&amp;"""},"</f>
-        <v>{"id": "CLAUDIE_KANTE", "name": "Claudie Kanté", "description": "", "imageFilename": "CLAUDIE_KANTE.webp", "color": "#942158", "group": "CHARACTER"},</v>
+        <v>{"id": "VIVICA", "name": "Vivica", "description": "", "imageFilename": "VIVICA.webp", "color": "#372C30", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,7 +8281,7 @@
       </c>
       <c r="G279" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A279&amp;""", ""name"": """&amp;B279&amp;""", ""description"": """&amp;C279&amp;""", ""imageFilename"": """&amp;A279&amp;".webp"", ""color"": """&amp;D279&amp;""", ""group"": """&amp;E279&amp;"""},"</f>
-        <v>{"id": "STARTRAIN", "name": "Startrain", "description": "", "imageFilename": "STARTRAIN.webp", "color": "#70D8FE", "group": "CHARACTER"},</v>
+        <v>{"id": "DESPERADA", "name": "Desperada", "description": "", "imageFilename": "DESPERADA.webp", "color": "#815E2F", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8264,7 +8299,7 @@
       </c>
       <c r="G280" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A280&amp;""", ""name"": """&amp;B280&amp;""", ""description"": """&amp;C280&amp;""", ""imageFilename"": """&amp;A280&amp;".webp"", ""color"": """&amp;D280&amp;""", ""group"": """&amp;E280&amp;"""},"</f>
-        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#47153D", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRIS_LAHIFFE", "name": "Chris Lahiffe", "description": "", "imageFilename": "CHRIS_LAHIFFE.webp", "color": "#852D1C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8317,7 @@
       </c>
       <c r="G281" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A281&amp;""", ""name"": """&amp;B281&amp;""", ""description"": """&amp;C281&amp;""", ""imageFilename"": """&amp;A281&amp;".webp"", ""color"": """&amp;D281&amp;""", ""group"": """&amp;E281&amp;"""},"</f>
-        <v>{"id": "KWAMIBUSTER", "name": "Kwamibuster", "description": "", "imageFilename": "KWAMIBUSTER.webp", "color": "#E343B8", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRIS_LAHIFFE_ADULT", "name": "Chris Lahiffe (Adult)", "description": "", "imageFilename": "CHRIS_LAHIFFE_ADULT.webp", "color": "#A1C22A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,7 +8335,7 @@
       </c>
       <c r="G282" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A282&amp;""", ""name"": """&amp;B282&amp;""", ""description"": """&amp;C282&amp;""", ""imageFilename"": """&amp;A282&amp;".webp"", ""color"": """&amp;D282&amp;""", ""group"": """&amp;E282&amp;"""},"</f>
-        <v>{"id": "DORMANT_SENTIMONSTER_STATUE", "name": "Dormant Sentimonster (Statue)", "description": "", "imageFilename": "DORMANT_SENTIMONSTER_STATUE.webp", "color": "#7F6B6C", "group": "CHARACTER"},</v>
+        <v>{"id": "CHRISTMASTER", "name": "Christmaster", "description": "", "imageFilename": "CHRISTMASTER.webp", "color": "#DD100B", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8318,7 +8353,7 @@
       </c>
       <c r="G283" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A283&amp;""", ""name"": """&amp;B283&amp;""", ""description"": """&amp;C283&amp;""", ""imageFilename"": """&amp;A283&amp;".webp"", ""color"": """&amp;D283&amp;""", ""group"": """&amp;E283&amp;"""},"</f>
-        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#0D3EC2", "group": "CHARACTER"},</v>
+        <v>{"id": "TIMETAGGER", "name": "Timetagger", "description": "", "imageFilename": "TIMETAGGER.webp", "color": "#6B70C7", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8336,7 +8371,7 @@
       </c>
       <c r="G284" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A284&amp;""", ""name"": """&amp;B284&amp;""", ""description"": """&amp;C284&amp;""", ""imageFilename"": """&amp;A284&amp;".webp"", ""color"": """&amp;D284&amp;""", ""group"": """&amp;E284&amp;"""},"</f>
-        <v>{"id": "FEAST", "name": "Feast", "description": "", "imageFilename": "FEAST.webp", "color": "#5E56B1", "group": "CHARACTER"},</v>
+        <v>{"id": "CLAUDIE_KANTE", "name": "Claudie Kanté", "description": "", "imageFilename": "CLAUDIE_KANTE.webp", "color": "#942158", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8354,7 +8389,7 @@
       </c>
       <c r="G285" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A285&amp;""", ""name"": """&amp;B285&amp;""", ""description"": """&amp;C285&amp;""", ""imageFilename"": """&amp;A285&amp;".webp"", ""color"": """&amp;D285&amp;""", ""group"": """&amp;E285&amp;"""},"</f>
-        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#ECE7DF", "group": "CHARACTER"},</v>
+        <v>{"id": "STARTRAIN", "name": "Startrain", "description": "", "imageFilename": "STARTRAIN.webp", "color": "#70D8FE", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8372,7 +8407,7 @@
       </c>
       <c r="G286" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A286&amp;""", ""name"": """&amp;B286&amp;""", ""description"": """&amp;C286&amp;""", ""imageFilename"": """&amp;A286&amp;".webp"", ""color"": """&amp;D286&amp;""", ""group"": """&amp;E286&amp;"""},"</f>
-        <v>{"id": "IKARI_GOZEN", "name": "Ikari Gozen", "description": "", "imageFilename": "IKARI_GOZEN.webp", "color": "#AD2D3A", "group": "CHARACTER"},</v>
+        <v>{"id": "MS__MENDELEIEV", "name": "Ms. Mendeleiev", "description": "", "imageFilename": "MS__MENDELEIEV.webp", "color": "#47153D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,7 +8425,7 @@
       </c>
       <c r="G287" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A287&amp;""", ""name"": """&amp;B287&amp;""", ""description"": """&amp;C287&amp;""", ""imageFilename"": """&amp;A287&amp;".webp"", ""color"": """&amp;D287&amp;""", ""group"": """&amp;E287&amp;"""},"</f>
-        <v>{"id": "WAYHEM", "name": "Wayhem", "description": "", "imageFilename": "WAYHEM.webp", "color": "#BB8247", "group": "CHARACTER"},</v>
+        <v>{"id": "KWAMIBUSTER", "name": "Kwamibuster", "description": "", "imageFilename": "KWAMIBUSTER.webp", "color": "#E343B8", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,7 +8443,7 @@
       </c>
       <c r="G288" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A288&amp;""", ""name"": """&amp;B288&amp;""", ""description"": """&amp;C288&amp;""", ""imageFilename"": """&amp;A288&amp;".webp"", ""color"": """&amp;D288&amp;""", ""group"": """&amp;E288&amp;"""},"</f>
-        <v>{"id": "PARTY_CRASHER", "name": "Party Crasher", "description": "", "imageFilename": "PARTY_CRASHER.webp", "color": "#F669EB", "group": "CHARACTER"},</v>
+        <v>{"id": "DORMANT_SENTIMONSTER_STATUE", "name": "Dormant Sentimonster (Statue)", "description": "", "imageFilename": "DORMANT_SENTIMONSTER_STATUE.webp", "color": "#7F6B6C", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8426,7 +8461,7 @@
       </c>
       <c r="G289" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A289&amp;""", ""name"": """&amp;B289&amp;""", ""description"": """&amp;C289&amp;""", ""imageFilename"": """&amp;A289&amp;".webp"", ""color"": """&amp;D289&amp;""", ""group"": """&amp;E289&amp;"""},"</f>
-        <v>{"id": "HARRY_CLOWN", "name": "Harry Clown", "description": "", "imageFilename": "HARRY_CLOWN.webp", "color": "#792B24", "group": "CHARACTER"},</v>
+        <v>{"id": "DORMANT_SENTIMONSTER", "name": "Dormant Sentimonster", "description": "", "imageFilename": "DORMANT_SENTIMONSTER.webp", "color": "#0D3EC2", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,7 +8479,7 @@
       </c>
       <c r="G290" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A290&amp;""", ""name"": """&amp;B290&amp;""", ""description"": """&amp;C290&amp;""", ""imageFilename"": """&amp;A290&amp;".webp"", ""color"": """&amp;D290&amp;""", ""group"": """&amp;E290&amp;"""},"</f>
-        <v>{"id": "PSYCOMEDIAN", "name": "Psycomedian", "description": "", "imageFilename": "PSYCOMEDIAN.webp", "color": "#AD070E", "group": "CHARACTER"},</v>
+        <v>{"id": "FEAST", "name": "Feast", "description": "", "imageFilename": "FEAST.webp", "color": "#5E56B1", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8462,7 +8497,7 @@
       </c>
       <c r="G291" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A291&amp;""", ""name"": """&amp;B291&amp;""", ""description"": """&amp;C291&amp;""", ""imageFilename"": """&amp;A291&amp;".webp"", ""color"": """&amp;D291&amp;""", ""group"": """&amp;E291&amp;"""},"</f>
-        <v>{"id": "GABRIEL_AGRESTE_SENTIMONSTER", "name": "Gabriel Agreste (Sentimonster)", "description": "", "imageFilename": "GABRIEL_AGRESTE_SENTIMONSTER.webp", "color": "#151A1D", "group": "CHARACTER"},</v>
+        <v>{"id": "TOMOE_TSURUGI", "name": "Tomoe Tsurugi", "description": "", "imageFilename": "TOMOE_TSURUGI.webp", "color": "#ECE7DF", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +8515,7 @@
       </c>
       <c r="G292" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A292&amp;""", ""name"": """&amp;B292&amp;""", ""description"": """&amp;C292&amp;""", ""imageFilename"": """&amp;A292&amp;".webp"", ""color"": """&amp;D292&amp;""", ""group"": """&amp;E292&amp;"""},"</f>
-        <v>{"id": "THE_COLLECTOR_SENTIMONSTER", "name": "The Collector (Sentimonster)", "description": "", "imageFilename": "THE_COLLECTOR_SENTIMONSTER.webp", "color": "#AA819E", "group": "CHARACTER"},</v>
+        <v>{"id": "IKARI_GOZEN", "name": "Ikari Gozen", "description": "", "imageFilename": "IKARI_GOZEN.webp", "color": "#AD2D3A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8498,7 +8533,7 @@
       </c>
       <c r="G293" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A293&amp;""", ""name"": """&amp;B293&amp;""", ""description"": """&amp;C293&amp;""", ""imageFilename"": """&amp;A293&amp;".webp"", ""color"": """&amp;D293&amp;""", ""group"": """&amp;E293&amp;"""},"</f>
-        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#E4A778", "group": "CHARACTER"},</v>
+        <v>{"id": "WAYHEM", "name": "Wayhem", "description": "", "imageFilename": "WAYHEM.webp", "color": "#BB8247", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,7 +8551,7 @@
       </c>
       <c r="G294" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A294&amp;""", ""name"": """&amp;B294&amp;""", ""description"": """&amp;C294&amp;""", ""imageFilename"": """&amp;A294&amp;".webp"", ""color"": """&amp;D294&amp;""", ""group"": """&amp;E294&amp;"""},"</f>
-        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#14130D", "group": "CHARACTER"},</v>
+        <v>{"id": "PARTY_CRASHER", "name": "Party Crasher", "description": "", "imageFilename": "PARTY_CRASHER.webp", "color": "#F669EB", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8534,7 +8569,7 @@
       </c>
       <c r="G295" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A295&amp;""", ""name"": """&amp;B295&amp;""", ""description"": """&amp;C295&amp;""", ""imageFilename"": """&amp;A295&amp;".webp"", ""color"": """&amp;D295&amp;""", ""group"": """&amp;E295&amp;"""},"</f>
-        <v>{"id": "SABINE_CHENG", "name": "Sabine Cheng", "description": "", "imageFilename": "SABINE_CHENG.webp", "color": "#1A1831", "group": "CHARACTER"},</v>
+        <v>{"id": "HARRY_CLOWN", "name": "Harry Clown", "description": "", "imageFilename": "HARRY_CLOWN.webp", "color": "#792B24", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8552,7 +8587,7 @@
       </c>
       <c r="G296" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A296&amp;""", ""name"": """&amp;B296&amp;""", ""description"": """&amp;C296&amp;""", ""imageFilename"": """&amp;A296&amp;".webp"", ""color"": """&amp;D296&amp;""", ""group"": """&amp;E296&amp;"""},"</f>
-        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#5DB684", "group": "CHARACTER"},</v>
+        <v>{"id": "PSYCOMEDIAN", "name": "Psycomedian", "description": "", "imageFilename": "PSYCOMEDIAN.webp", "color": "#AD070E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8570,7 +8605,7 @@
       </c>
       <c r="G297" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A297&amp;""", ""name"": """&amp;B297&amp;""", ""description"": """&amp;C297&amp;""", ""imageFilename"": """&amp;A297&amp;".webp"", ""color"": """&amp;D297&amp;""", ""group"": """&amp;E297&amp;"""},"</f>
-        <v>{"id": "BOB_ROTH", "name": "Bob Roth", "description": "", "imageFilename": "BOB_ROTH.webp", "color": "#DA3F81", "group": "CHARACTER"},</v>
+        <v>{"id": "GABRIEL_AGRESTE_SENTIMONSTER", "name": "Gabriel Agreste (Sentimonster)", "description": "", "imageFilename": "GABRIEL_AGRESTE_SENTIMONSTER.webp", "color": "#151A1D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,7 +8623,7 @@
       </c>
       <c r="G298" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A298&amp;""", ""name"": """&amp;B298&amp;""", ""description"": """&amp;C298&amp;""", ""imageFilename"": """&amp;A298&amp;".webp"", ""color"": """&amp;D298&amp;""", ""group"": """&amp;E298&amp;"""},"</f>
-        <v>{"id": "MOOLAK", "name": "Moolak", "description": "", "imageFilename": "MOOLAK.webp", "color": "#AF690A", "group": "CHARACTER"},</v>
+        <v>{"id": "THE_COLLECTOR_SENTIMONSTER", "name": "The Collector (Sentimonster)", "description": "", "imageFilename": "THE_COLLECTOR_SENTIMONSTER.webp", "color": "#AA819E", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,7 +8641,7 @@
       </c>
       <c r="G299" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A299&amp;""", ""name"": """&amp;B299&amp;""", ""description"": """&amp;C299&amp;""", ""imageFilename"": """&amp;A299&amp;".webp"", ""color"": """&amp;D299&amp;""", ""group"": """&amp;E299&amp;"""},"</f>
-        <v>{"id": "FROGGY", "name": "Froggy", "description": "", "imageFilename": "FROGGY.webp", "color": "#A09026", "group": "CHARACTER"},</v>
+        <v>{"id": "ALEC_CATALDI", "name": "Alec Cataldi", "description": "", "imageFilename": "ALEC_CATALDI.webp", "color": "#E4A778", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,7 +8659,7 @@
       </c>
       <c r="G300" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A300&amp;""", ""name"": """&amp;B300&amp;""", ""description"": """&amp;C300&amp;""", ""imageFilename"": """&amp;A300&amp;".webp"", ""color"": """&amp;D300&amp;""", ""group"": """&amp;E300&amp;"""},"</f>
-        <v>{"id": "RISK", "name": "Risk", "description": "", "imageFilename": "RISK.webp", "color": "#D1FF35", "group": "CHARACTER"},</v>
+        <v>{"id": "WISHMAKER", "name": "Wishmaker", "description": "", "imageFilename": "WISHMAKER.webp", "color": "#14130D", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,7 +8677,7 @@
       </c>
       <c r="G301" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A301&amp;""", ""name"": """&amp;B301&amp;""", ""description"": """&amp;C301&amp;""", ""imageFilename"": """&amp;A301&amp;".webp"", ""color"": """&amp;D301&amp;""", ""group"": """&amp;E301&amp;"""},"</f>
-        <v>{"id": "CASH", "name": "Cash", "description": "", "imageFilename": "CASH.webp", "color": "#4B5C58", "group": "CHARACTER"},</v>
+        <v>{"id": "SABINE_CHENG", "name": "Sabine Cheng", "description": "", "imageFilename": "SABINE_CHENG.webp", "color": "#1A1831", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8660,7 +8695,7 @@
       </c>
       <c r="G302" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A302&amp;""", ""name"": """&amp;B302&amp;""", ""description"": """&amp;C302&amp;""", ""imageFilename"": """&amp;A302&amp;".webp"", ""color"": """&amp;D302&amp;""", ""group"": """&amp;E302&amp;"""},"</f>
-        <v>{"id": "KING_CASH", "name": "King Cash", "description": "", "imageFilename": "KING_CASH.webp", "color": "#847560", "group": "CHARACTER"},</v>
+        <v>{"id": "QILIN", "name": "Qilin", "description": "", "imageFilename": "QILIN.webp", "color": "#5DB684", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8670,118 +8705,115 @@
       <c r="B303" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="C303" s="0" t="s">
+      <c r="D303" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G303" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A303&amp;""", ""name"": """&amp;B303&amp;""", ""description"": """&amp;C303&amp;""", ""imageFilename"": """&amp;A303&amp;".webp"", ""color"": """&amp;D303&amp;""", ""group"": """&amp;E303&amp;"""},"</f>
-        <v>{"id": "MEI_SHI", "name": "Mei Shi", "description": "The lion protector of the Prodigious.", "imageFilename": "MEI_SHI.webp", "color": "#00C5EF", "group": "CHARACTER"},</v>
+        <v>{"id": "BOB_ROTH", "name": "Bob Roth", "description": "", "imageFilename": "BOB_ROTH.webp", "color": "#DA3F81", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="B304" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="D304" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G304" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A304&amp;""", ""name"": """&amp;B304&amp;""", ""description"": """&amp;C304&amp;""", ""imageFilename"": """&amp;A304&amp;".webp"", ""color"": """&amp;D304&amp;""", ""group"": """&amp;E304&amp;"""},"</f>
-        <v>{"id": "MEI_SHI_STATUE", "name": "Mei Shi (Statue)", "description": "The lion protector of the Prodigious.", "imageFilename": "MEI_SHI_STATUE.webp", "color": "#0E2D5F", "group": "CHARACTER"},</v>
+        <v>{"id": "MOOLAK", "name": "Moolak", "description": "", "imageFilename": "MOOLAK.webp", "color": "#AF690A", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="B305" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="D305" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G305" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A305&amp;""", ""name"": """&amp;B305&amp;""", ""description"": """&amp;C305&amp;""", ""imageFilename"": """&amp;A305&amp;".webp"", ""color"": """&amp;D305&amp;""", ""group"": """&amp;E305&amp;"""},"</f>
-        <v>{"id": "YANLUOSHI", "name": "YanLuoShi", "description": "", "imageFilename": "YANLUOSHI.webp", "color": "#AD3C92", "group": "CHARACTER"},</v>
+        <v>{"id": "FROGGY", "name": "Froggy", "description": "", "imageFilename": "FROGGY.webp", "color": "#A09026", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="D306" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G306" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A306&amp;""", ""name"": """&amp;B306&amp;""", ""description"": """&amp;C306&amp;""", ""imageFilename"": """&amp;A306&amp;".webp"", ""color"": """&amp;D306&amp;""", ""group"": """&amp;E306&amp;"""},"</f>
-        <v>{"id": "FANG", "name": "Fang", "description": "", "imageFilename": "FANG.webp", "color": "#63525C", "group": "CHARACTER"},</v>
+        <v>{"id": "RISK", "name": "Risk", "description": "", "imageFilename": "RISK.webp", "color": "#D1FF35", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="B307" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="D307" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G307" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A307&amp;""", ""name"": """&amp;B307&amp;""", ""description"": """&amp;C307&amp;""", ""imageFilename"": """&amp;A307&amp;".webp"", ""color"": """&amp;D307&amp;""", ""group"": """&amp;E307&amp;"""},"</f>
-        <v>{"id": "FANG_AKUMATIZED", "name": "Fang (Akumatized)", "description": "", "imageFilename": "FANG_AKUMATIZED.webp", "color": "#973E63", "group": "CHARACTER"},</v>
+        <v>{"id": "CASH", "name": "Cash", "description": "", "imageFilename": "CASH.webp", "color": "#4B5C58", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="D308" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G308" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A308&amp;""", ""name"": """&amp;B308&amp;""", ""description"": """&amp;C308&amp;""", ""imageFilename"": """&amp;A308&amp;".webp"", ""color"": """&amp;D308&amp;""", ""group"": """&amp;E308&amp;"""},"</f>
-        <v>{"id": "ALBERT", "name": "Albert", "description": "", "imageFilename": "ALBERT.webp", "color": "#19B1D0", "group": "CHARACTER"},</v>
+        <v>{"id": "KING_CASH", "name": "King Cash", "description": "", "imageFilename": "KING_CASH.webp", "color": "#847560", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="C309" s="0" t="s">
         <v>942</v>
       </c>
       <c r="D309" s="1" t="s">
@@ -8792,47 +8824,140 @@
       </c>
       <c r="G309" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A309&amp;""", ""name"": """&amp;B309&amp;""", ""description"": """&amp;C309&amp;""", ""imageFilename"": """&amp;A309&amp;".webp"", ""color"": """&amp;D309&amp;""", ""group"": """&amp;E309&amp;"""},"</f>
-        <v>{"id": "ALBERT_AKUMATIZED", "name": "Albert (Akumatized)", "description": "", "imageFilename": "ALBERT_AKUMATIZED.webp", "color": "#D89A13", "group": "CHARACTER"},</v>
+        <v>{"id": "MEI_SHI", "name": "Mei Shi", "description": "The lion protector of the Prodigious.", "imageFilename": "MEI_SHI.webp", "color": "#00C5EF", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G310" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A310&amp;""", ""name"": """&amp;B310&amp;""", ""description"": """&amp;C310&amp;""", ""imageFilename"": """&amp;A310&amp;".webp"", ""color"": """&amp;D310&amp;""", ""group"": """&amp;E310&amp;"""},"</f>
+        <v>{"id": "MEI_SHI_STATUE", "name": "Mei Shi (Statue)", "description": "The lion protector of the Prodigious.", "imageFilename": "MEI_SHI_STATUE.webp", "color": "#0E2D5F", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A311&amp;""", ""name"": """&amp;B311&amp;""", ""description"": """&amp;C311&amp;""", ""imageFilename"": """&amp;A311&amp;".webp"", ""color"": """&amp;D311&amp;""", ""group"": """&amp;E311&amp;"""},"</f>
+        <v>{"id": "YANLUOSHI", "name": "YanLuoShi", "description": "", "imageFilename": "YANLUOSHI.webp", "color": "#AD3C92", "group": "CHARACTER"},</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="10" t="s">
-        <v>944</v>
+      <c r="A312" s="8" t="s">
+        <v>950</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G312" s="0" t="str">
         <f aca="false">"{""id"": """&amp;A312&amp;""", ""name"": """&amp;B312&amp;""", ""description"": """&amp;C312&amp;""", ""imageFilename"": """&amp;A312&amp;".webp"", ""color"": """&amp;D312&amp;""", ""group"": """&amp;E312&amp;"""},"</f>
-        <v>{"id": "EMILIE_AGRESTE", "name": "Emilie Agreste", "description": "", "imageFilename": "EMILIE_AGRESTE.webp", "color": "#EAD1C8", "group": "CHARACTER"},</v>
-      </c>
-    </row>
-    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1148" s="7"/>
-    </row>
-    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1149" s="7"/>
-    </row>
-    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1150" s="7"/>
-    </row>
-    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1151" s="7"/>
-    </row>
-    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1152" s="7"/>
-    </row>
-    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1153" s="7"/>
-    </row>
-    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1154" s="7"/>
+        <v>{"id": "FANG", "name": "Fang", "description": "", "imageFilename": "FANG.webp", "color": "#63525C", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A313&amp;""", ""name"": """&amp;B313&amp;""", ""description"": """&amp;C313&amp;""", ""imageFilename"": """&amp;A313&amp;".webp"", ""color"": """&amp;D313&amp;""", ""group"": """&amp;E313&amp;"""},"</f>
+        <v>{"id": "FANG_AKUMATIZED", "name": "Fang (Akumatized)", "description": "", "imageFilename": "FANG_AKUMATIZED.webp", "color": "#973E63", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G314" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A314&amp;""", ""name"": """&amp;B314&amp;""", ""description"": """&amp;C314&amp;""", ""imageFilename"": """&amp;A314&amp;".webp"", ""color"": """&amp;D314&amp;""", ""group"": """&amp;E314&amp;"""},"</f>
+        <v>{"id": "ALBERT", "name": "Albert", "description": "", "imageFilename": "ALBERT.webp", "color": "#19B1D0", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="8" t="s">
+        <v>959</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G315" s="0" t="str">
+        <f aca="false">"{""id"": """&amp;A315&amp;""", ""name"": """&amp;B315&amp;""", ""description"": """&amp;C315&amp;""", ""imageFilename"": """&amp;A315&amp;".webp"", ""color"": """&amp;D315&amp;""", ""group"": """&amp;E315&amp;"""},"</f>
+        <v>{"id": "ALBERT_AKUMATIZED", "name": "Albert (Akumatized)", "description": "", "imageFilename": "ALBERT_AKUMATIZED.webp", "color": "#D89A13", "group": "CHARACTER"},</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1097" s="7"/>
+    </row>
+    <row r="1098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1098" s="7"/>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1099" s="7"/>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1100" s="7"/>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1101" s="7"/>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1102" s="7"/>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1103" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8850,13 +8975,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ401"/>
+  <dimension ref="A1:AMJ396"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A318" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D390" activeCellId="0" sqref="D390"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G396" activeCellId="0" sqref="G396"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.89"/>
@@ -8867,19 +8992,19 @@
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
@@ -8893,7 +9018,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="str">
@@ -8912,7 +9037,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0" t="str">
@@ -8931,7 +9056,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0" t="str">
@@ -8950,7 +9075,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0" t="str">
@@ -8969,7 +9094,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0" t="str">
@@ -8988,7 +9113,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0" t="str">
@@ -9007,7 +9132,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0" t="str">
@@ -9026,7 +9151,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0" t="str">
@@ -9045,7 +9170,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0" t="str">
@@ -9064,7 +9189,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0" t="str">
@@ -9083,7 +9208,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0" t="str">
@@ -9102,7 +9227,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0" t="str">
@@ -9121,7 +9246,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0" t="str">
@@ -9140,7 +9265,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0" t="str">
@@ -9159,7 +9284,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0" t="str">
@@ -9178,7 +9303,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0" t="str">
@@ -9197,7 +9322,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0" t="str">
@@ -9216,7 +9341,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0" t="str">
@@ -9235,7 +9360,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0" t="str">
@@ -9254,7 +9379,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0" t="str">
@@ -9273,7 +9398,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0" t="str">
@@ -9292,7 +9417,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0" t="str">
@@ -9311,7 +9436,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0" t="str">
@@ -9330,7 +9455,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0" t="str">
@@ -9349,7 +9474,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0" t="str">
@@ -9368,7 +9493,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0" t="str">
@@ -9387,7 +9512,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0" t="str">
@@ -9406,7 +9531,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0" t="str">
@@ -9425,7 +9550,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0" t="str">
@@ -9444,7 +9569,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0" t="str">
@@ -9463,7 +9588,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="str">
@@ -9482,7 +9607,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0" t="str">
@@ -9501,7 +9626,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0" t="str">
@@ -9520,7 +9645,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0" t="str">
@@ -9539,7 +9664,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0" t="str">
@@ -9558,7 +9683,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0" t="str">
@@ -9577,7 +9702,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0" t="str">
@@ -9596,7 +9721,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0" t="str">
@@ -9615,7 +9740,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0" t="str">
@@ -9634,7 +9759,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0" t="str">
@@ -9653,7 +9778,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0" t="str">
@@ -9672,7 +9797,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0" t="str">
@@ -9691,7 +9816,7 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0" t="str">
@@ -9710,7 +9835,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0" t="str">
@@ -9729,7 +9854,7 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0" t="str">
@@ -9748,7 +9873,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0" t="str">
@@ -9767,7 +9892,7 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0" t="str">
@@ -9786,7 +9911,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="0" t="str">
@@ -9805,7 +9930,7 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F50" s="0"/>
       <c r="G50" s="0" t="str">
@@ -9824,7 +9949,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F51" s="0"/>
       <c r="G51" s="0" t="str">
@@ -9843,7 +9968,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F52" s="0"/>
       <c r="G52" s="0" t="str">
@@ -9862,7 +9987,7 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F53" s="0"/>
       <c r="G53" s="0" t="str">
@@ -9881,7 +10006,7 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F54" s="0"/>
       <c r="G54" s="0" t="str">
@@ -9900,7 +10025,7 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F55" s="0"/>
       <c r="G55" s="0" t="str">
@@ -9919,7 +10044,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F56" s="0"/>
       <c r="G56" s="0" t="str">
@@ -9938,7 +10063,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0" t="str">
@@ -9955,7 +10080,7 @@
         <v>154</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(E58="","","{""sourceId"": """&amp;A58&amp;""", ""targetId"": """&amp;B58&amp;""", ""shortDescription"": """&amp;C58&amp;""", ""fullDescriptionHtml"": """&amp;D58&amp;""", ""direction"": """&amp;E58&amp;"""},")</f>
@@ -9970,7 +10095,7 @@
         <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(E59="","","{""sourceId"": """&amp;A59&amp;""", ""targetId"": """&amp;B59&amp;""", ""shortDescription"": """&amp;C59&amp;""", ""fullDescriptionHtml"": """&amp;D59&amp;""", ""direction"": """&amp;E59&amp;"""},")</f>
@@ -9985,7 +10110,7 @@
         <v>175</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(E60="","","{""sourceId"": """&amp;A60&amp;""", ""targetId"": """&amp;B60&amp;""", ""shortDescription"": """&amp;C60&amp;""", ""fullDescriptionHtml"": """&amp;D60&amp;""", ""direction"": """&amp;E60&amp;"""},")</f>
@@ -10000,7 +10125,7 @@
         <v>178</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(E61="","","{""sourceId"": """&amp;A61&amp;""", ""targetId"": """&amp;B61&amp;""", ""shortDescription"": """&amp;C61&amp;""", ""fullDescriptionHtml"": """&amp;D61&amp;""", ""direction"": """&amp;E61&amp;"""},")</f>
@@ -10015,7 +10140,7 @@
         <v>181</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(E62="","","{""sourceId"": """&amp;A62&amp;""", ""targetId"": """&amp;B62&amp;""", ""shortDescription"": """&amp;C62&amp;""", ""fullDescriptionHtml"": """&amp;D62&amp;""", ""direction"": """&amp;E62&amp;"""},")</f>
@@ -10030,7 +10155,7 @@
         <v>184</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(E63="","","{""sourceId"": """&amp;A63&amp;""", ""targetId"": """&amp;B63&amp;""", ""shortDescription"": """&amp;C63&amp;""", ""fullDescriptionHtml"": """&amp;D63&amp;""", ""direction"": """&amp;E63&amp;"""},")</f>
@@ -10045,7 +10170,7 @@
         <v>187</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(E64="","","{""sourceId"": """&amp;A64&amp;""", ""targetId"": """&amp;B64&amp;""", ""shortDescription"": """&amp;C64&amp;""", ""fullDescriptionHtml"": """&amp;D64&amp;""", ""direction"": """&amp;E64&amp;"""},")</f>
@@ -10060,7 +10185,7 @@
         <v>208</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(E65="","","{""sourceId"": """&amp;A65&amp;""", ""targetId"": """&amp;B65&amp;""", ""shortDescription"": """&amp;C65&amp;""", ""fullDescriptionHtml"": """&amp;D65&amp;""", ""direction"": """&amp;E65&amp;"""},")</f>
@@ -10075,7 +10200,7 @@
         <v>244</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(E66="","","{""sourceId"": """&amp;A66&amp;""", ""targetId"": """&amp;B66&amp;""", ""shortDescription"": """&amp;C66&amp;""", ""fullDescriptionHtml"": """&amp;D66&amp;""", ""direction"": """&amp;E66&amp;"""},")</f>
@@ -10090,7 +10215,7 @@
         <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(E67="","","{""sourceId"": """&amp;A67&amp;""", ""targetId"": """&amp;B67&amp;""", ""shortDescription"": """&amp;C67&amp;""", ""fullDescriptionHtml"": """&amp;D67&amp;""", ""direction"": """&amp;E67&amp;"""},")</f>
@@ -10105,7 +10230,7 @@
         <v>214</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(E68="","","{""sourceId"": """&amp;A68&amp;""", ""targetId"": """&amp;B68&amp;""", ""shortDescription"": """&amp;C68&amp;""", ""fullDescriptionHtml"": """&amp;D68&amp;""", ""direction"": """&amp;E68&amp;"""},")</f>
@@ -10120,7 +10245,7 @@
         <v>217</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(E69="","","{""sourceId"": """&amp;A69&amp;""", ""targetId"": """&amp;B69&amp;""", ""shortDescription"": """&amp;C69&amp;""", ""fullDescriptionHtml"": """&amp;D69&amp;""", ""direction"": """&amp;E69&amp;"""},")</f>
@@ -10135,7 +10260,7 @@
         <v>163</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(E70="","","{""sourceId"": """&amp;A70&amp;""", ""targetId"": """&amp;B70&amp;""", ""shortDescription"": """&amp;C70&amp;""", ""fullDescriptionHtml"": """&amp;D70&amp;""", ""direction"": """&amp;E70&amp;"""},")</f>
@@ -10150,7 +10275,7 @@
         <v>172</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(E71="","","{""sourceId"": """&amp;A71&amp;""", ""targetId"": """&amp;B71&amp;""", ""shortDescription"": """&amp;C71&amp;""", ""fullDescriptionHtml"": """&amp;D71&amp;""", ""direction"": """&amp;E71&amp;"""},")</f>
@@ -10165,7 +10290,7 @@
         <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(E72="","","{""sourceId"": """&amp;A72&amp;""", ""targetId"": """&amp;B72&amp;""", ""shortDescription"": """&amp;C72&amp;""", ""fullDescriptionHtml"": """&amp;D72&amp;""", ""direction"": """&amp;E72&amp;"""},")</f>
@@ -10180,7 +10305,7 @@
         <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(E73="","","{""sourceId"": """&amp;A73&amp;""", ""targetId"": """&amp;B73&amp;""", ""shortDescription"": """&amp;C73&amp;""", ""fullDescriptionHtml"": """&amp;D73&amp;""", ""direction"": """&amp;E73&amp;"""},")</f>
@@ -10195,7 +10320,7 @@
         <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(E74="","","{""sourceId"": """&amp;A74&amp;""", ""targetId"": """&amp;B74&amp;""", ""shortDescription"": """&amp;C74&amp;""", ""fullDescriptionHtml"": """&amp;D74&amp;""", ""direction"": """&amp;E74&amp;"""},")</f>
@@ -10210,7 +10335,7 @@
         <v>268</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">IF(E75="","","{""sourceId"": """&amp;A75&amp;""", ""targetId"": """&amp;B75&amp;""", ""shortDescription"": """&amp;C75&amp;""", ""fullDescriptionHtml"": """&amp;D75&amp;""", ""direction"": """&amp;E75&amp;"""},")</f>
@@ -10225,7 +10350,7 @@
         <v>238</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(E76="","","{""sourceId"": """&amp;A76&amp;""", ""targetId"": """&amp;B76&amp;""", ""shortDescription"": """&amp;C76&amp;""", ""fullDescriptionHtml"": """&amp;D76&amp;""", ""direction"": """&amp;E76&amp;"""},")</f>
@@ -10240,7 +10365,7 @@
         <v>241</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">IF(E77="","","{""sourceId"": """&amp;A77&amp;""", ""targetId"": """&amp;B77&amp;""", ""shortDescription"": """&amp;C77&amp;""", ""fullDescriptionHtml"": """&amp;D77&amp;""", ""direction"": """&amp;E77&amp;"""},")</f>
@@ -10255,7 +10380,7 @@
         <v>169</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">IF(E78="","","{""sourceId"": """&amp;A78&amp;""", ""targetId"": """&amp;B78&amp;""", ""shortDescription"": """&amp;C78&amp;""", ""fullDescriptionHtml"": """&amp;D78&amp;""", ""direction"": """&amp;E78&amp;"""},")</f>
@@ -10270,7 +10395,7 @@
         <v>277</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">IF(E79="","","{""sourceId"": """&amp;A79&amp;""", ""targetId"": """&amp;B79&amp;""", ""shortDescription"": """&amp;C79&amp;""", ""fullDescriptionHtml"": """&amp;D79&amp;""", ""direction"": """&amp;E79&amp;"""},")</f>
@@ -10285,7 +10410,7 @@
         <v>298</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(E80="","","{""sourceId"": """&amp;A80&amp;""", ""targetId"": """&amp;B80&amp;""", ""shortDescription"": """&amp;C80&amp;""", ""fullDescriptionHtml"": """&amp;D80&amp;""", ""direction"": """&amp;E80&amp;"""},")</f>
@@ -10300,7 +10425,7 @@
         <v>181</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(E81="","","{""sourceId"": """&amp;A81&amp;""", ""targetId"": """&amp;B81&amp;""", ""shortDescription"": """&amp;C81&amp;""", ""fullDescriptionHtml"": """&amp;D81&amp;""", ""direction"": """&amp;E81&amp;"""},")</f>
@@ -10315,7 +10440,7 @@
         <v>307</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(E82="","","{""sourceId"": """&amp;A82&amp;""", ""targetId"": """&amp;B82&amp;""", ""shortDescription"": """&amp;C82&amp;""", ""fullDescriptionHtml"": """&amp;D82&amp;""", ""direction"": """&amp;E82&amp;"""},")</f>
@@ -10330,7 +10455,7 @@
         <v>319</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(E83="","","{""sourceId"": """&amp;A83&amp;""", ""targetId"": """&amp;B83&amp;""", ""shortDescription"": """&amp;C83&amp;""", ""fullDescriptionHtml"": """&amp;D83&amp;""", ""direction"": """&amp;E83&amp;"""},")</f>
@@ -10345,7 +10470,7 @@
         <v>334</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">IF(E84="","","{""sourceId"": """&amp;A84&amp;""", ""targetId"": """&amp;B84&amp;""", ""shortDescription"": """&amp;C84&amp;""", ""fullDescriptionHtml"": """&amp;D84&amp;""", ""direction"": """&amp;E84&amp;"""},")</f>
@@ -10360,7 +10485,7 @@
         <v>262</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">IF(E85="","","{""sourceId"": """&amp;A85&amp;""", ""targetId"": """&amp;B85&amp;""", ""shortDescription"": """&amp;C85&amp;""", ""fullDescriptionHtml"": """&amp;D85&amp;""", ""direction"": """&amp;E85&amp;"""},")</f>
@@ -10375,7 +10500,7 @@
         <v>268</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">IF(E86="","","{""sourceId"": """&amp;A86&amp;""", ""targetId"": """&amp;B86&amp;""", ""shortDescription"": """&amp;C86&amp;""", ""fullDescriptionHtml"": """&amp;D86&amp;""", ""direction"": """&amp;E86&amp;"""},")</f>
@@ -10390,7 +10515,7 @@
         <v>310</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">IF(E87="","","{""sourceId"": """&amp;A87&amp;""", ""targetId"": """&amp;B87&amp;""", ""shortDescription"": """&amp;C87&amp;""", ""fullDescriptionHtml"": """&amp;D87&amp;""", ""direction"": """&amp;E87&amp;"""},")</f>
@@ -10405,7 +10530,7 @@
         <v>340</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">IF(E88="","","{""sourceId"": """&amp;A88&amp;""", ""targetId"": """&amp;B88&amp;""", ""shortDescription"": """&amp;C88&amp;""", ""fullDescriptionHtml"": """&amp;D88&amp;""", ""direction"": """&amp;E88&amp;"""},")</f>
@@ -10420,7 +10545,7 @@
         <v>166</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(E89="","","{""sourceId"": """&amp;A89&amp;""", ""targetId"": """&amp;B89&amp;""", ""shortDescription"": """&amp;C89&amp;""", ""fullDescriptionHtml"": """&amp;D89&amp;""", ""direction"": """&amp;E89&amp;"""},")</f>
@@ -10435,7 +10560,7 @@
         <v>169</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">IF(E90="","","{""sourceId"": """&amp;A90&amp;""", ""targetId"": """&amp;B90&amp;""", ""shortDescription"": """&amp;C90&amp;""", ""fullDescriptionHtml"": """&amp;D90&amp;""", ""direction"": """&amp;E90&amp;"""},")</f>
@@ -10450,7 +10575,7 @@
         <v>172</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(E91="","","{""sourceId"": """&amp;A91&amp;""", ""targetId"": """&amp;B91&amp;""", ""shortDescription"": """&amp;C91&amp;""", ""fullDescriptionHtml"": """&amp;D91&amp;""", ""direction"": """&amp;E91&amp;"""},")</f>
@@ -10465,7 +10590,7 @@
         <v>175</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(E92="","","{""sourceId"": """&amp;A92&amp;""", ""targetId"": """&amp;B92&amp;""", ""shortDescription"": """&amp;C92&amp;""", ""fullDescriptionHtml"": """&amp;D92&amp;""", ""direction"": """&amp;E92&amp;"""},")</f>
@@ -10480,7 +10605,7 @@
         <v>355</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(E93="","","{""sourceId"": """&amp;A93&amp;""", ""targetId"": """&amp;B93&amp;""", ""shortDescription"": """&amp;C93&amp;""", ""fullDescriptionHtml"": """&amp;D93&amp;""", ""direction"": """&amp;E93&amp;"""},")</f>
@@ -10495,7 +10620,7 @@
         <v>364</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">IF(E94="","","{""sourceId"": """&amp;A94&amp;""", ""targetId"": """&amp;B94&amp;""", ""shortDescription"": """&amp;C94&amp;""", ""fullDescriptionHtml"": """&amp;D94&amp;""", ""direction"": """&amp;E94&amp;"""},")</f>
@@ -10510,7 +10635,7 @@
         <v>373</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(E95="","","{""sourceId"": """&amp;A95&amp;""", ""targetId"": """&amp;B95&amp;""", ""shortDescription"": """&amp;C95&amp;""", ""fullDescriptionHtml"": """&amp;D95&amp;""", ""direction"": """&amp;E95&amp;"""},")</f>
@@ -10525,7 +10650,7 @@
         <v>187</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">IF(E96="","","{""sourceId"": """&amp;A96&amp;""", ""targetId"": """&amp;B96&amp;""", ""shortDescription"": """&amp;C96&amp;""", ""fullDescriptionHtml"": """&amp;D96&amp;""", ""direction"": """&amp;E96&amp;"""},")</f>
@@ -10540,7 +10665,7 @@
         <v>385</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(E97="","","{""sourceId"": """&amp;A97&amp;""", ""targetId"": """&amp;B97&amp;""", ""shortDescription"": """&amp;C97&amp;""", ""fullDescriptionHtml"": """&amp;D97&amp;""", ""direction"": """&amp;E97&amp;"""},")</f>
@@ -10555,7 +10680,7 @@
         <v>178</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(E98="","","{""sourceId"": """&amp;A98&amp;""", ""targetId"": """&amp;B98&amp;""", ""shortDescription"": """&amp;C98&amp;""", ""fullDescriptionHtml"": """&amp;D98&amp;""", ""direction"": """&amp;E98&amp;"""},")</f>
@@ -10570,7 +10695,7 @@
         <v>394</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(E99="","","{""sourceId"": """&amp;A99&amp;""", ""targetId"": """&amp;B99&amp;""", ""shortDescription"": """&amp;C99&amp;""", ""fullDescriptionHtml"": """&amp;D99&amp;""", ""direction"": """&amp;E99&amp;"""},")</f>
@@ -10585,7 +10710,7 @@
         <v>211</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(E100="","","{""sourceId"": """&amp;A100&amp;""", ""targetId"": """&amp;B100&amp;""", ""shortDescription"": """&amp;C100&amp;""", ""fullDescriptionHtml"": """&amp;D100&amp;""", ""direction"": """&amp;E100&amp;"""},")</f>
@@ -10600,7 +10725,7 @@
         <v>214</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(E101="","","{""sourceId"": """&amp;A101&amp;""", ""targetId"": """&amp;B101&amp;""", ""shortDescription"": """&amp;C101&amp;""", ""fullDescriptionHtml"": """&amp;D101&amp;""", ""direction"": """&amp;E101&amp;"""},")</f>
@@ -10615,7 +10740,7 @@
         <v>409</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">IF(E102="","","{""sourceId"": """&amp;A102&amp;""", ""targetId"": """&amp;B102&amp;""", ""shortDescription"": """&amp;C102&amp;""", ""fullDescriptionHtml"": """&amp;D102&amp;""", ""direction"": """&amp;E102&amp;"""},")</f>
@@ -10630,7 +10755,7 @@
         <v>184</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">IF(E103="","","{""sourceId"": """&amp;A103&amp;""", ""targetId"": """&amp;B103&amp;""", ""shortDescription"": """&amp;C103&amp;""", ""fullDescriptionHtml"": """&amp;D103&amp;""", ""direction"": """&amp;E103&amp;"""},")</f>
@@ -10645,7 +10770,7 @@
         <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(E104="","","{""sourceId"": """&amp;A104&amp;""", ""targetId"": """&amp;B104&amp;""", ""shortDescription"": """&amp;C104&amp;""", ""fullDescriptionHtml"": """&amp;D104&amp;""", ""direction"": """&amp;E104&amp;"""},")</f>
@@ -10660,7 +10785,7 @@
         <v>421</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(E105="","","{""sourceId"": """&amp;A105&amp;""", ""targetId"": """&amp;B105&amp;""", ""shortDescription"": """&amp;C105&amp;""", ""fullDescriptionHtml"": """&amp;D105&amp;""", ""direction"": """&amp;E105&amp;"""},")</f>
@@ -10675,7 +10800,7 @@
         <v>430</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(E106="","","{""sourceId"": """&amp;A106&amp;""", ""targetId"": """&amp;B106&amp;""", ""shortDescription"": """&amp;C106&amp;""", ""fullDescriptionHtml"": """&amp;D106&amp;""", ""direction"": """&amp;E106&amp;"""},")</f>
@@ -10690,7 +10815,7 @@
         <v>439</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">IF(E107="","","{""sourceId"": """&amp;A107&amp;""", ""targetId"": """&amp;B107&amp;""", ""shortDescription"": """&amp;C107&amp;""", ""fullDescriptionHtml"": """&amp;D107&amp;""", ""direction"": """&amp;E107&amp;"""},")</f>
@@ -10705,7 +10830,7 @@
         <v>448</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">IF(E108="","","{""sourceId"": """&amp;A108&amp;""", ""targetId"": """&amp;B108&amp;""", ""shortDescription"": """&amp;C108&amp;""", ""fullDescriptionHtml"": """&amp;D108&amp;""", ""direction"": """&amp;E108&amp;"""},")</f>
@@ -10720,7 +10845,7 @@
         <v>349</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(E109="","","{""sourceId"": """&amp;A109&amp;""", ""targetId"": """&amp;B109&amp;""", ""shortDescription"": """&amp;C109&amp;""", ""fullDescriptionHtml"": """&amp;D109&amp;""", ""direction"": """&amp;E109&amp;"""},")</f>
@@ -10735,7 +10860,7 @@
         <v>457</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">IF(E110="","","{""sourceId"": """&amp;A110&amp;""", ""targetId"": """&amp;B110&amp;""", ""shortDescription"": """&amp;C110&amp;""", ""fullDescriptionHtml"": """&amp;D110&amp;""", ""direction"": """&amp;E110&amp;"""},")</f>
@@ -10750,7 +10875,7 @@
         <v>469</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(E111="","","{""sourceId"": """&amp;A111&amp;""", ""targetId"": """&amp;B111&amp;""", ""shortDescription"": """&amp;C111&amp;""", ""fullDescriptionHtml"": """&amp;D111&amp;""", ""direction"": """&amp;E111&amp;"""},")</f>
@@ -10767,7 +10892,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F112" s="0"/>
       <c r="G112" s="0" t="str">
@@ -10786,7 +10911,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F113" s="0"/>
       <c r="G113" s="0" t="str">
@@ -10805,7 +10930,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F114" s="0"/>
       <c r="G114" s="0" t="str">
@@ -10824,7 +10949,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F115" s="0"/>
       <c r="G115" s="0" t="str">
@@ -10843,7 +10968,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F116" s="0"/>
       <c r="G116" s="0" t="str">
@@ -10862,7 +10987,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F117" s="0"/>
       <c r="G117" s="0" t="str">
@@ -10881,7 +11006,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F118" s="0"/>
       <c r="G118" s="0" t="str">
@@ -10900,7 +11025,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F119" s="0"/>
       <c r="G119" s="0" t="str">
@@ -10919,7 +11044,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F120" s="0"/>
       <c r="G120" s="0" t="str">
@@ -10938,7 +11063,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F121" s="0"/>
       <c r="G121" s="0" t="str">
@@ -10957,7 +11082,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F122" s="0"/>
       <c r="G122" s="0" t="str">
@@ -10976,7 +11101,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F123" s="0"/>
       <c r="G123" s="0" t="str">
@@ -10995,7 +11120,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F124" s="0"/>
       <c r="G124" s="0" t="str">
@@ -11014,7 +11139,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F125" s="0"/>
       <c r="G125" s="0" t="str">
@@ -11033,7 +11158,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F126" s="0"/>
       <c r="G126" s="0" t="str">
@@ -11052,7 +11177,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F127" s="0"/>
       <c r="G127" s="0" t="str">
@@ -11071,7 +11196,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F128" s="0"/>
       <c r="G128" s="0" t="str">
@@ -11090,7 +11215,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F129" s="0"/>
       <c r="G129" s="0" t="str">
@@ -11109,7 +11234,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F130" s="0"/>
       <c r="G130" s="0" t="str">
@@ -11128,7 +11253,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F131" s="0"/>
       <c r="G131" s="0" t="str">
@@ -11147,7 +11272,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F132" s="0"/>
       <c r="G132" s="0" t="str">
@@ -11166,7 +11291,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F133" s="0"/>
       <c r="G133" s="0" t="str">
@@ -11185,7 +11310,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F134" s="0"/>
       <c r="G134" s="0" t="str">
@@ -11204,7 +11329,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F135" s="0"/>
       <c r="G135" s="0" t="str">
@@ -11223,7 +11348,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F136" s="0"/>
       <c r="G136" s="0" t="str">
@@ -11242,7 +11367,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F137" s="0"/>
       <c r="G137" s="0" t="str">
@@ -11261,7 +11386,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F138" s="0"/>
       <c r="G138" s="0" t="str">
@@ -11280,7 +11405,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0" t="str">
@@ -11299,7 +11424,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F140" s="0"/>
       <c r="G140" s="0" t="str">
@@ -11318,7 +11443,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F141" s="0"/>
       <c r="G141" s="0" t="str">
@@ -11337,7 +11462,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F142" s="0"/>
       <c r="G142" s="0" t="str">
@@ -11356,7 +11481,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F143" s="0"/>
       <c r="G143" s="0" t="str">
@@ -11375,7 +11500,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F144" s="0"/>
       <c r="G144" s="0" t="str">
@@ -11394,7 +11519,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F145" s="0"/>
       <c r="G145" s="0" t="str">
@@ -11413,7 +11538,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0" t="str">
@@ -11432,7 +11557,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F147" s="0"/>
       <c r="G147" s="0" t="str">
@@ -11451,7 +11576,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F148" s="0"/>
       <c r="G148" s="0" t="str">
@@ -11470,7 +11595,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F149" s="0"/>
       <c r="G149" s="0" t="str">
@@ -11489,7 +11614,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0" t="str">
@@ -11508,7 +11633,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F151" s="0"/>
       <c r="G151" s="0" t="str">
@@ -11527,7 +11652,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F152" s="0"/>
       <c r="G152" s="0" t="str">
@@ -11546,7 +11671,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F153" s="0"/>
       <c r="G153" s="0" t="str">
@@ -11565,7 +11690,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F154" s="0"/>
       <c r="G154" s="0" t="str">
@@ -11584,7 +11709,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F155" s="0"/>
       <c r="G155" s="0" t="str">
@@ -11603,7 +11728,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F156" s="0"/>
       <c r="G156" s="0" t="str">
@@ -11622,7 +11747,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F157" s="0"/>
       <c r="G157" s="0" t="str">
@@ -11641,7 +11766,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0" t="str">
@@ -11660,7 +11785,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0" t="str">
@@ -11679,7 +11804,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0" t="str">
@@ -11698,7 +11823,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0" t="str">
@@ -11717,7 +11842,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0" t="str">
@@ -11736,7 +11861,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0" t="str">
@@ -11755,7 +11880,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F164" s="0"/>
       <c r="G164" s="0" t="str">
@@ -11774,7 +11899,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F165" s="0"/>
       <c r="G165" s="0" t="str">
@@ -11793,7 +11918,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F166" s="0"/>
       <c r="G166" s="0" t="str">
@@ -11812,7 +11937,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F167" s="0"/>
       <c r="G167" s="0" t="str">
@@ -11831,7 +11956,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F168" s="0"/>
       <c r="G168" s="0" t="str">
@@ -11850,7 +11975,7 @@
       <c r="C169" s="0"/>
       <c r="D169" s="0"/>
       <c r="E169" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">IF(E169="","","{""sourceId"": """&amp;A169&amp;""", ""targetId"": """&amp;B169&amp;""", ""shortDescription"": """&amp;C169&amp;""", ""fullDescriptionHtml"": """&amp;D169&amp;""", ""direction"": """&amp;E169&amp;"""},")</f>
@@ -11867,7 +11992,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F170" s="0"/>
       <c r="G170" s="0" t="str">
@@ -11886,7 +12011,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F171" s="0"/>
       <c r="G171" s="0" t="str">
@@ -11905,7 +12030,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F172" s="0"/>
       <c r="G172" s="0" t="str">
@@ -11924,7 +12049,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F173" s="0"/>
       <c r="G173" s="0" t="str">
@@ -11943,7 +12068,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F174" s="0"/>
       <c r="G174" s="0" t="str">
@@ -11962,7 +12087,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F175" s="0"/>
       <c r="G175" s="0" t="str">
@@ -11981,7 +12106,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F176" s="0"/>
       <c r="G176" s="0" t="str">
@@ -12000,7 +12125,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F177" s="0"/>
       <c r="G177" s="0" t="str">
@@ -12019,7 +12144,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F178" s="0"/>
       <c r="G178" s="0" t="str">
@@ -12038,7 +12163,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F179" s="0"/>
       <c r="G179" s="0" t="str">
@@ -12057,7 +12182,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F180" s="0"/>
       <c r="G180" s="0" t="str">
@@ -12076,7 +12201,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F181" s="0"/>
       <c r="G181" s="0" t="str">
@@ -12095,7 +12220,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F182" s="0"/>
       <c r="G182" s="0" t="str">
@@ -12114,7 +12239,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F183" s="0"/>
       <c r="G183" s="0" t="str">
@@ -12133,7 +12258,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F184" s="0"/>
       <c r="G184" s="0" t="str">
@@ -12152,7 +12277,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F185" s="0"/>
       <c r="G185" s="0" t="str">
@@ -12171,7 +12296,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F186" s="0"/>
       <c r="G186" s="0" t="str">
@@ -12190,7 +12315,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F187" s="0"/>
       <c r="G187" s="0" t="str">
@@ -12209,7 +12334,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F188" s="0"/>
       <c r="G188" s="0" t="str">
@@ -12228,7 +12353,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F189" s="0"/>
       <c r="G189" s="0" t="str">
@@ -12247,7 +12372,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F190" s="0"/>
       <c r="G190" s="0" t="str">
@@ -12266,7 +12391,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F191" s="0"/>
       <c r="G191" s="0" t="str">
@@ -12285,7 +12410,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F192" s="0"/>
       <c r="G192" s="0" t="str">
@@ -12304,7 +12429,7 @@
       <c r="C193" s="0"/>
       <c r="D193" s="0"/>
       <c r="E193" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">IF(E193="","","{""sourceId"": """&amp;A193&amp;""", ""targetId"": """&amp;B193&amp;""", ""shortDescription"": """&amp;C193&amp;""", ""fullDescriptionHtml"": """&amp;D193&amp;""", ""direction"": """&amp;E193&amp;"""},")</f>
@@ -12321,7 +12446,7 @@
       <c r="C194" s="0"/>
       <c r="D194" s="0"/>
       <c r="E194" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">IF(E194="","","{""sourceId"": """&amp;A194&amp;""", ""targetId"": """&amp;B194&amp;""", ""shortDescription"": """&amp;C194&amp;""", ""fullDescriptionHtml"": """&amp;D194&amp;""", ""direction"": """&amp;E194&amp;"""},")</f>
@@ -12338,7 +12463,7 @@
       <c r="C195" s="0"/>
       <c r="D195" s="0"/>
       <c r="E195" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">IF(E195="","","{""sourceId"": """&amp;A195&amp;""", ""targetId"": """&amp;B195&amp;""", ""shortDescription"": """&amp;C195&amp;""", ""fullDescriptionHtml"": """&amp;D195&amp;""", ""direction"": """&amp;E195&amp;"""},")</f>
@@ -12355,7 +12480,7 @@
       <c r="C196" s="0"/>
       <c r="D196" s="0"/>
       <c r="E196" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">IF(E196="","","{""sourceId"": """&amp;A196&amp;""", ""targetId"": """&amp;B196&amp;""", ""shortDescription"": """&amp;C196&amp;""", ""fullDescriptionHtml"": """&amp;D196&amp;""", ""direction"": """&amp;E196&amp;"""},")</f>
@@ -12372,7 +12497,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F197" s="0"/>
       <c r="G197" s="0" t="str">
@@ -12391,7 +12516,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F198" s="0"/>
       <c r="G198" s="0" t="str">
@@ -12410,7 +12535,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F199" s="0"/>
       <c r="G199" s="0" t="str">
@@ -12429,7 +12554,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F200" s="0"/>
       <c r="G200" s="0" t="str">
@@ -12448,7 +12573,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F201" s="0"/>
       <c r="G201" s="0" t="str">
@@ -12467,7 +12592,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F202" s="0"/>
       <c r="G202" s="0" t="str">
@@ -12478,495 +12603,495 @@
     </row>
     <row r="203" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>628</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F203" s="0"/>
       <c r="G203" s="0" t="str">
         <f aca="false">IF(E203="","","{""sourceId"": """&amp;A203&amp;""", ""targetId"": """&amp;B203&amp;""", ""shortDescription"": """&amp;C203&amp;""", ""fullDescriptionHtml"": """&amp;D203&amp;""", ""direction"": """&amp;E203&amp;"""},")</f>
-        <v>{"sourceId": "ARMAND_D_ARGENCOURT", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_BALD_EAGLE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ203" s="2"/>
     </row>
     <row r="204" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F204" s="0"/>
       <c r="G204" s="0" t="str">
         <f aca="false">IF(E204="","","{""sourceId"": """&amp;A204&amp;""", ""targetId"": """&amp;B204&amp;""", ""shortDescription"": """&amp;C204&amp;""", ""fullDescriptionHtml"": """&amp;D204&amp;""", ""direction"": """&amp;E204&amp;"""},")</f>
-        <v>{"sourceId": "JALIL_KUBDEL", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_LADYBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ204" s="2"/>
     </row>
     <row r="205" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>388</v>
+      <c r="A205" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F205" s="0"/>
       <c r="G205" s="0" t="str">
         <f aca="false">IF(E205="","","{""sourceId"": """&amp;A205&amp;""", ""targetId"": """&amp;B205&amp;""", ""shortDescription"": """&amp;C205&amp;""", ""fullDescriptionHtml"": """&amp;D205&amp;""", ""direction"": """&amp;E205&amp;"""},")</f>
-        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ205" s="2"/>
     </row>
     <row r="206" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>358</v>
+      <c r="A206" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>634</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F206" s="0"/>
       <c r="G206" s="0" t="str">
         <f aca="false">IF(E206="","","{""sourceId"": """&amp;A206&amp;""", ""targetId"": """&amp;B206&amp;""", ""shortDescription"": """&amp;C206&amp;""", ""fullDescriptionHtml"": """&amp;D206&amp;""", ""direction"": """&amp;E206&amp;"""},")</f>
-        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_GORILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ206" s="2"/>
     </row>
     <row r="207" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>640</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F207" s="0"/>
       <c r="G207" s="0" t="str">
         <f aca="false">IF(E207="","","{""sourceId"": """&amp;A207&amp;""", ""targetId"": """&amp;B207&amp;""", ""shortDescription"": """&amp;C207&amp;""", ""fullDescriptionHtml"": """&amp;D207&amp;""", ""direction"": """&amp;E207&amp;"""},")</f>
-        <v>{"sourceId": "MANON_CHAMACK", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_TYRANNOSAURUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ207" s="2"/>
     </row>
     <row r="208" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="8" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F208" s="0"/>
       <c r="G208" s="0" t="str">
         <f aca="false">IF(E208="","","{""sourceId"": """&amp;A208&amp;""", ""targetId"": """&amp;B208&amp;""", ""shortDescription"": """&amp;C208&amp;""", ""fullDescriptionHtml"": """&amp;D208&amp;""", ""direction"": """&amp;E208&amp;"""},")</f>
-        <v>{"sourceId": "FRED_HAPRELE", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANIMAN", "targetId": "ANIMAN_CATFISH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ208" s="2"/>
     </row>
     <row r="209" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="8" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F209" s="0"/>
       <c r="G209" s="0" t="str">
         <f aca="false">IF(E209="","","{""sourceId"": """&amp;A209&amp;""", ""targetId"": """&amp;B209&amp;""", ""shortDescription"": """&amp;C209&amp;""", ""fullDescriptionHtml"": """&amp;D209&amp;""", ""direction"": """&amp;E209&amp;"""},")</f>
-        <v>{"sourceId": "JAGGED_STONE", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ARMAND_D_ARGENCOURT", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ209" s="2"/>
     </row>
     <row r="210" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>376</v>
+      <c r="A210" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>652</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F210" s="0"/>
       <c r="G210" s="0" t="str">
         <f aca="false">IF(E210="","","{""sourceId"": """&amp;A210&amp;""", ""targetId"": """&amp;B210&amp;""", ""shortDescription"": """&amp;C210&amp;""", ""fullDescriptionHtml"": """&amp;D210&amp;""", ""direction"": """&amp;E210&amp;"""},")</f>
-        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JALIL_KUBDEL", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ210" s="2"/>
     </row>
     <row r="211" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F211" s="0"/>
       <c r="G211" s="0" t="str">
         <f aca="false">IF(E211="","","{""sourceId"": """&amp;A211&amp;""", ""targetId"": """&amp;B211&amp;""", ""shortDescription"": """&amp;C211&amp;""", ""fullDescriptionHtml"": """&amp;D211&amp;""", ""direction"": """&amp;E211&amp;"""},")</f>
-        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALIX_KUBDEL", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ211" s="2"/>
     </row>
     <row r="212" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>460</v>
+        <v>358</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F212" s="0"/>
       <c r="G212" s="0" t="str">
         <f aca="false">IF(E212="","","{""sourceId"": """&amp;A212&amp;""", ""targetId"": """&amp;B212&amp;""", ""shortDescription"": """&amp;C212&amp;""", ""fullDescriptionHtml"": """&amp;D212&amp;""", ""direction"": """&amp;E212&amp;"""},")</f>
-        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MYLENE_HAPRELE", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ212" s="2"/>
     </row>
     <row r="213" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>280</v>
+      <c r="A213" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>658</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F213" s="0"/>
       <c r="G213" s="0" t="str">
         <f aca="false">IF(E213="","","{""sourceId"": """&amp;A213&amp;""", ""targetId"": """&amp;B213&amp;""", ""shortDescription"": """&amp;C213&amp;""", ""fullDescriptionHtml"": """&amp;D213&amp;""", ""direction"": """&amp;E213&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MANON_CHAMACK", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ213" s="2"/>
     </row>
     <row r="214" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="8" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F214" s="0"/>
       <c r="G214" s="0" t="str">
         <f aca="false">IF(E214="","","{""sourceId"": """&amp;A214&amp;""", ""targetId"": """&amp;B214&amp;""", ""shortDescription"": """&amp;C214&amp;""", ""fullDescriptionHtml"": """&amp;D214&amp;""", ""direction"": """&amp;E214&amp;"""},")</f>
-        <v>{"sourceId": "WANG_CHENG", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FRED_HAPRELE", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ214" s="2"/>
     </row>
     <row r="215" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="8" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F215" s="0"/>
       <c r="G215" s="0" t="str">
         <f aca="false">IF(E215="","","{""sourceId"": """&amp;A215&amp;""", ""targetId"": """&amp;B215&amp;""", ""shortDescription"": """&amp;C215&amp;""", ""fullDescriptionHtml"": """&amp;D215&amp;""", ""direction"": """&amp;E215&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JAGGED_STONE", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ215" s="2"/>
     </row>
     <row r="216" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F216" s="0"/>
       <c r="G216" s="0" t="str">
         <f aca="false">IF(E216="","","{""sourceId"": """&amp;A216&amp;""", ""targetId"": """&amp;B216&amp;""", ""shortDescription"": """&amp;C216&amp;""", ""fullDescriptionHtml"": """&amp;D216&amp;""", ""direction"": """&amp;E216&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "JULEKA_COUFFAINE", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ216" s="2"/>
     </row>
     <row r="217" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>673</v>
+      <c r="A217" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F217" s="0"/>
       <c r="G217" s="0" t="str">
         <f aca="false">IF(E217="","","{""sourceId"": """&amp;A217&amp;""", ""targetId"": """&amp;B217&amp;""", ""shortDescription"": """&amp;C217&amp;""", ""fullDescriptionHtml"": """&amp;D217&amp;""", ""direction"": """&amp;E217&amp;"""},")</f>
-        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "IVAN_BRUEL", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ217" s="2"/>
     </row>
     <row r="218" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>679</v>
+      <c r="A218" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F218" s="0"/>
       <c r="G218" s="0" t="str">
         <f aca="false">IF(E218="","","{""sourceId"": """&amp;A218&amp;""", ""targetId"": """&amp;B218&amp;""", ""shortDescription"": """&amp;C218&amp;""", ""fullDescriptionHtml"": """&amp;D218&amp;""", ""direction"": """&amp;E218&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ218" s="2"/>
     </row>
     <row r="219" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>685</v>
+      <c r="A219" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F219" s="0"/>
       <c r="G219" s="0" t="str">
         <f aca="false">IF(E219="","","{""sourceId"": """&amp;A219&amp;""", ""targetId"": """&amp;B219&amp;""", ""shortDescription"": """&amp;C219&amp;""", ""fullDescriptionHtml"": """&amp;D219&amp;""", ""direction"": """&amp;E219&amp;"""},")</f>
-        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ219" s="2"/>
     </row>
     <row r="220" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="8" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F220" s="0"/>
       <c r="G220" s="0" t="str">
         <f aca="false">IF(E220="","","{""sourceId"": """&amp;A220&amp;""", ""targetId"": """&amp;B220&amp;""", ""shortDescription"": """&amp;C220&amp;""", ""fullDescriptionHtml"": """&amp;D220&amp;""", ""direction"": """&amp;E220&amp;"""},")</f>
-        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WANG_CHENG", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ220" s="2"/>
     </row>
     <row r="221" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="8" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F221" s="0"/>
       <c r="G221" s="0" t="str">
         <f aca="false">IF(E221="","","{""sourceId"": """&amp;A221&amp;""", ""targetId"": """&amp;B221&amp;""", ""shortDescription"": """&amp;C221&amp;""", ""fullDescriptionHtml"": """&amp;D221&amp;""", ""direction"": """&amp;E221&amp;"""},")</f>
-        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ221" s="2"/>
     </row>
     <row r="222" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>391</v>
+        <v>256</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>397</v>
+        <v>271</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F222" s="0"/>
       <c r="G222" s="0" t="str">
         <f aca="false">IF(E222="","","{""sourceId"": """&amp;A222&amp;""", ""targetId"": """&amp;B222&amp;""", ""shortDescription"": """&amp;C222&amp;""", ""fullDescriptionHtml"": """&amp;D222&amp;""", ""direction"": """&amp;E222&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ222" s="2"/>
     </row>
     <row r="223" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="8" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F223" s="0"/>
       <c r="G223" s="0" t="str">
         <f aca="false">IF(E223="","","{""sourceId"": """&amp;A223&amp;""", ""targetId"": """&amp;B223&amp;""", ""shortDescription"": """&amp;C223&amp;""", ""fullDescriptionHtml"": """&amp;D223&amp;""", ""direction"": """&amp;E223&amp;"""},")</f>
-        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NADJA_CHAMACK", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ223" s="2"/>
     </row>
     <row r="224" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="8" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F224" s="0"/>
       <c r="G224" s="0" t="str">
         <f aca="false">IF(E224="","","{""sourceId"": """&amp;A224&amp;""", ""targetId"": """&amp;B224&amp;""", ""shortDescription"": """&amp;C224&amp;""", ""fullDescriptionHtml"": """&amp;D224&amp;""", ""direction"": """&amp;E224&amp;"""},")</f>
-        <v>{"sourceId": "BEFANA", "targetId": "SABINE_CHENG_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "ANDRE", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ224" s="2"/>
     </row>
     <row r="225" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B225" s="8" t="s">
         <v>703</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>709</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F225" s="0"/>
       <c r="G225" s="0" t="str">
         <f aca="false">IF(E225="","","{""sourceId"": """&amp;A225&amp;""", ""targetId"": """&amp;B225&amp;""", ""shortDescription"": """&amp;C225&amp;""", ""fullDescriptionHtml"": """&amp;D225&amp;""", ""direction"": """&amp;E225&amp;"""},")</f>
-        <v>{"sourceId": "BEFANA", "targetId": "ROSE_LAVILLANT_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "BUTLER_JEAN", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ225" s="2"/>
     </row>
     <row r="226" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="8" t="s">
-        <v>898</v>
+        <v>706</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F226" s="0"/>
       <c r="G226" s="0" t="str">
         <f aca="false">IF(E226="","","{""sourceId"": """&amp;A226&amp;""", ""targetId"": """&amp;B226&amp;""", ""shortDescription"": """&amp;C226&amp;""", ""fullDescriptionHtml"": """&amp;D226&amp;""", ""direction"": """&amp;E226&amp;"""},")</f>
-        <v>{"sourceId": "SABINE_CHENG", "targetId": "SABINE_CHENG_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PENNY_ROLLING", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ226" s="2"/>
     </row>
     <row r="227" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="8" t="s">
-        <v>466</v>
+        <v>712</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F227" s="0"/>
       <c r="G227" s="0" t="str">
         <f aca="false">IF(E227="","","{""sourceId"": """&amp;A227&amp;""", ""targetId"": """&amp;B227&amp;""", ""shortDescription"": """&amp;C227&amp;""", ""fullDescriptionHtml"": """&amp;D227&amp;""", ""direction"": """&amp;E227&amp;"""},")</f>
-        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "ROSE_LAVILLANT_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUGUST", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ227" s="2"/>
     </row>
     <row r="228" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>715</v>
+      <c r="A228" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F228" s="0"/>
       <c r="G228" s="0" t="str">
         <f aca="false">IF(E228="","","{""sourceId"": """&amp;A228&amp;""", ""targetId"": """&amp;B228&amp;""", ""shortDescription"": """&amp;C228&amp;""", ""fullDescriptionHtml"": """&amp;D228&amp;""", ""direction"": """&amp;E228&amp;"""},")</f>
-        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ228" s="2"/>
     </row>
@@ -12980,886 +13105,886 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F229" s="0"/>
       <c r="G229" s="0" t="str">
         <f aca="false">IF(E229="","","{""sourceId"": """&amp;A229&amp;""", ""targetId"": """&amp;B229&amp;""", ""shortDescription"": """&amp;C229&amp;""", ""fullDescriptionHtml"": """&amp;D229&amp;""", ""direction"": """&amp;E229&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GINA_DUPAIN", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ229" s="2"/>
     </row>
     <row r="230" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B230" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>727</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="2" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="F230" s="0"/>
       <c r="G230" s="0" t="str">
         <f aca="false">IF(E230="","","{""sourceId"": """&amp;A230&amp;""", ""targetId"": """&amp;B230&amp;""", ""shortDescription"": """&amp;C230&amp;""", ""fullDescriptionHtml"": """&amp;D230&amp;""", ""direction"": """&amp;E230&amp;"""},")</f>
-        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BEFANA", "targetId": "SABINE_CHENG_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ230" s="2"/>
     </row>
     <row r="231" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="8" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="2" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="F231" s="0"/>
       <c r="G231" s="0" t="str">
         <f aca="false">IF(E231="","","{""sourceId"": """&amp;A231&amp;""", ""targetId"": """&amp;B231&amp;""", ""shortDescription"": """&amp;C231&amp;""", ""fullDescriptionHtml"": """&amp;D231&amp;""", ""direction"": """&amp;E231&amp;"""},")</f>
-        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BEFANA", "targetId": "ROSE_LAVILLANT_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ231" s="2"/>
     </row>
     <row r="232" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="8" t="s">
-        <v>736</v>
+        <v>916</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F232" s="0"/>
       <c r="G232" s="0" t="str">
         <f aca="false">IF(E232="","","{""sourceId"": """&amp;A232&amp;""", ""targetId"": """&amp;B232&amp;""", ""shortDescription"": """&amp;C232&amp;""", ""fullDescriptionHtml"": """&amp;D232&amp;""", ""direction"": """&amp;E232&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABINE_CHENG", "targetId": "SABINE_CHENG_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ232" s="2"/>
     </row>
     <row r="233" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="8" t="s">
-        <v>736</v>
+        <v>466</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F233" s="0"/>
       <c r="G233" s="0" t="str">
         <f aca="false">IF(E233="","","{""sourceId"": """&amp;A233&amp;""", ""targetId"": """&amp;B233&amp;""", ""shortDescription"": """&amp;C233&amp;""", ""fullDescriptionHtml"": """&amp;D233&amp;""", ""direction"": """&amp;E233&amp;"""},")</f>
-        <v>{"sourceId": "MR__DAMOCLES", "targetId": "THE_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROSE_LAVILLANT", "targetId": "ROSE_LAVILLANT_ANGELIC_MINION", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ233" s="2"/>
     </row>
     <row r="234" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="8" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F234" s="0"/>
       <c r="G234" s="0" t="str">
         <f aca="false">IF(E234="","","{""sourceId"": """&amp;A234&amp;""", ""targetId"": """&amp;B234&amp;""", ""shortDescription"": """&amp;C234&amp;""", ""fullDescriptionHtml"": """&amp;D234&amp;""", ""direction"": """&amp;E234&amp;"""},")</f>
-        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLARA_NIGHTINGALE", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ234" s="2"/>
     </row>
     <row r="235" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="8" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F235" s="0"/>
       <c r="G235" s="0" t="str">
         <f aca="false">IF(E235="","","{""sourceId"": """&amp;A235&amp;""", ""targetId"": """&amp;B235&amp;""", ""shortDescription"": """&amp;C235&amp;""", ""fullDescriptionHtml"": """&amp;D235&amp;""", ""direction"": """&amp;E235&amp;"""},")</f>
-        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_S_BODYGUARD", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ235" s="2"/>
     </row>
     <row r="236" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="8" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F236" s="0"/>
       <c r="G236" s="0" t="str">
         <f aca="false">IF(E236="","","{""sourceId"": """&amp;A236&amp;""", ""targetId"": """&amp;B236&amp;""", ""shortDescription"": """&amp;C236&amp;""", ""fullDescriptionHtml"": """&amp;D236&amp;""", ""direction"": """&amp;E236&amp;"""},")</f>
-        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARKOV", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ236" s="2"/>
     </row>
     <row r="237" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="8" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F237" s="0"/>
       <c r="G237" s="0" t="str">
         <f aca="false">IF(E237="","","{""sourceId"": """&amp;A237&amp;""", ""targetId"": """&amp;B237&amp;""", ""shortDescription"": """&amp;C237&amp;""", ""fullDescriptionHtml"": """&amp;D237&amp;""", ""direction"": """&amp;E237&amp;"""},")</f>
-        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ELLA_AND_ETTA_CESAIRE", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ237" s="2"/>
     </row>
     <row r="238" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="8" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F238" s="0"/>
       <c r="G238" s="0" t="str">
         <f aca="false">IF(E238="","","{""sourceId"": """&amp;A238&amp;""", ""targetId"": """&amp;B238&amp;""", ""shortDescription"": """&amp;C238&amp;""", ""fullDescriptionHtml"": """&amp;D238&amp;""", ""direction"": """&amp;E238&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MR__DAMOCLES", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ238" s="2"/>
     </row>
     <row r="239" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>283</v>
+      <c r="A239" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>760</v>
       </c>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F239" s="0"/>
       <c r="G239" s="0" t="str">
         <f aca="false">IF(E239="","","{""sourceId"": """&amp;A239&amp;""", ""targetId"": """&amp;B239&amp;""", ""shortDescription"": """&amp;C239&amp;""", ""fullDescriptionHtml"": """&amp;D239&amp;""", ""direction"": """&amp;E239&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MR__DAMOCLES", "targetId": "THE_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ239" s="2"/>
     </row>
     <row r="240" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>451</v>
+      <c r="A240" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>766</v>
       </c>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F240" s="0"/>
       <c r="G240" s="0" t="str">
         <f aca="false">IF(E240="","","{""sourceId"": """&amp;A240&amp;""", ""targetId"": """&amp;B240&amp;""", ""shortDescription"": """&amp;C240&amp;""", ""fullDescriptionHtml"": """&amp;D240&amp;""", ""direction"": """&amp;E240&amp;"""},")</f>
-        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ONDINE", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ240" s="2"/>
     </row>
     <row r="241" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="8" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F241" s="0"/>
       <c r="G241" s="0" t="str">
         <f aca="false">IF(E241="","","{""sourceId"": """&amp;A241&amp;""", ""targetId"": """&amp;B241&amp;""", ""shortDescription"": """&amp;C241&amp;""", ""fullDescriptionHtml"": """&amp;D241&amp;""", ""direction"": """&amp;E241&amp;"""},")</f>
-        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CALINE_BUSTIER", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ241" s="2"/>
     </row>
     <row r="242" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="8" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F242" s="0"/>
       <c r="G242" s="0" t="str">
         <f aca="false">IF(E242="","","{""sourceId"": """&amp;A242&amp;""", ""targetId"": """&amp;B242&amp;""", ""shortDescription"": """&amp;C242&amp;""", ""fullDescriptionHtml"": """&amp;D242&amp;""", ""direction"": """&amp;E242&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANARKA_COUFFAINE", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ242" s="2"/>
     </row>
     <row r="243" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="8" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F243" s="0"/>
       <c r="G243" s="0" t="str">
         <f aca="false">IF(E243="","","{""sourceId"": """&amp;A243&amp;""", ""targetId"": """&amp;B243&amp;""", ""shortDescription"": """&amp;C243&amp;""", ""fullDescriptionHtml"": """&amp;D243&amp;""", ""direction"": """&amp;E243&amp;"""},")</f>
-        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "PHILIPPE", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ243" s="2"/>
     </row>
     <row r="244" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>343</v>
+      <c r="A244" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F244" s="0"/>
       <c r="G244" s="0" t="str">
         <f aca="false">IF(E244="","","{""sourceId"": """&amp;A244&amp;""", ""targetId"": """&amp;B244&amp;""", ""shortDescription"": """&amp;C244&amp;""", ""fullDescriptionHtml"": """&amp;D244&amp;""", ""direction"": """&amp;E244&amp;"""},")</f>
-        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ244" s="2"/>
     </row>
     <row r="245" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F245" s="0"/>
       <c r="G245" s="0" t="str">
         <f aca="false">IF(E245="","","{""sourceId"": """&amp;A245&amp;""", ""targetId"": """&amp;B245&amp;""", ""shortDescription"": """&amp;C245&amp;""", ""fullDescriptionHtml"": """&amp;D245&amp;""", ""direction"": """&amp;E245&amp;"""},")</f>
-        <v>{"sourceId": "RENA_ROUGE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ245" s="2"/>
     </row>
     <row r="246" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>325</v>
+        <v>451</v>
       </c>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F246" s="0"/>
       <c r="G246" s="0" t="str">
         <f aca="false">IF(E246="","","{""sourceId"": """&amp;A246&amp;""", ""targetId"": """&amp;B246&amp;""", ""shortDescription"": """&amp;C246&amp;""", ""fullDescriptionHtml"": """&amp;D246&amp;""", ""direction"": """&amp;E246&amp;"""},")</f>
-        <v>{"sourceId": "CARAPACE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARC_ANCIEL", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ246" s="2"/>
     </row>
     <row r="247" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>796</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>799</v>
       </c>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F247" s="0"/>
       <c r="G247" s="0" t="str">
         <f aca="false">IF(E247="","","{""sourceId"": """&amp;A247&amp;""", ""targetId"": """&amp;B247&amp;""", ""shortDescription"": """&amp;C247&amp;""", ""fullDescriptionHtml"": """&amp;D247&amp;""", ""direction"": """&amp;E247&amp;"""},")</f>
-        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NORA_CESAIRE", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ247" s="2"/>
     </row>
     <row r="248" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="8" t="s">
-        <v>661</v>
+        <v>799</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>667</v>
+        <v>802</v>
       </c>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F248" s="0"/>
       <c r="G248" s="0" t="str">
         <f aca="false">IF(E248="","","{""sourceId"": """&amp;A248&amp;""", ""targetId"": """&amp;B248&amp;""", ""shortDescription"": """&amp;C248&amp;""", ""fullDescriptionHtml"": """&amp;D248&amp;""", ""direction"": """&amp;E248&amp;"""},")</f>
-        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ248" s="2"/>
     </row>
     <row r="249" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="8" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F249" s="0"/>
       <c r="G249" s="0" t="str">
         <f aca="false">IF(E249="","","{""sourceId"": """&amp;A249&amp;""", ""targetId"": """&amp;B249&amp;""", ""shortDescription"": """&amp;C249&amp;""", ""fullDescriptionHtml"": """&amp;D249&amp;""", ""direction"": """&amp;E249&amp;"""},")</f>
-        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "UNNAMED_BOY", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ249" s="2"/>
     </row>
     <row r="250" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>811</v>
+      <c r="A250" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F250" s="0"/>
       <c r="G250" s="0" t="str">
         <f aca="false">IF(E250="","","{""sourceId"": """&amp;A250&amp;""", ""targetId"": """&amp;B250&amp;""", ""shortDescription"": """&amp;C250&amp;""", ""fullDescriptionHtml"": """&amp;D250&amp;""", ""direction"": """&amp;E250&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NATHALIE_SANCOEUR", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ250" s="2"/>
     </row>
     <row r="251" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>820</v>
+      <c r="A251" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F251" s="0"/>
       <c r="G251" s="0" t="str">
         <f aca="false">IF(E251="","","{""sourceId"": """&amp;A251&amp;""", ""targetId"": """&amp;B251&amp;""", ""shortDescription"": """&amp;C251&amp;""", ""fullDescriptionHtml"": """&amp;D251&amp;""", ""direction"": """&amp;E251&amp;"""},")</f>
-        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "RENA_ROUGE", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ251" s="2"/>
     </row>
     <row r="252" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>826</v>
+      <c r="A252" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F252" s="0"/>
       <c r="G252" s="0" t="str">
         <f aca="false">IF(E252="","","{""sourceId"": """&amp;A252&amp;""", ""targetId"": """&amp;B252&amp;""", ""shortDescription"": """&amp;C252&amp;""", ""fullDescriptionHtml"": """&amp;D252&amp;""", ""direction"": """&amp;E252&amp;"""},")</f>
-        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CARAPACE", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ252" s="2"/>
     </row>
     <row r="253" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>412</v>
+      <c r="A253" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>817</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F253" s="0"/>
       <c r="G253" s="0" t="str">
         <f aca="false">IF(E253="","","{""sourceId"": """&amp;A253&amp;""", ""targetId"": """&amp;B253&amp;""", ""shortDescription"": """&amp;C253&amp;""", ""fullDescriptionHtml"": """&amp;D253&amp;""", ""direction"": """&amp;E253&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SANTA_CLAUS", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ253" s="2"/>
     </row>
     <row r="254" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>400</v>
+      <c r="A254" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>685</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F254" s="0"/>
       <c r="G254" s="0" t="str">
         <f aca="false">IF(E254="","","{""sourceId"": """&amp;A254&amp;""", ""targetId"": """&amp;B254&amp;""", ""shortDescription"": """&amp;C254&amp;""", ""fullDescriptionHtml"": """&amp;D254&amp;""", ""direction"": """&amp;E254&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LILA_ROSSI", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ254" s="2"/>
     </row>
     <row r="255" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>463</v>
+      <c r="A255" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>823</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F255" s="0"/>
       <c r="G255" s="0" t="str">
         <f aca="false">IF(E255="","","{""sourceId"": """&amp;A255&amp;""", ""targetId"": """&amp;B255&amp;""", ""shortDescription"": """&amp;C255&amp;""", ""fullDescriptionHtml"": """&amp;D255&amp;""", ""direction"": """&amp;E255&amp;"""},")</f>
-        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "THOMAS_ASTRUC", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ255" s="2"/>
     </row>
     <row r="256" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>253</v>
+      <c r="A256" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>829</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F256" s="0"/>
       <c r="G256" s="0" t="str">
         <f aca="false">IF(E256="","","{""sourceId"": """&amp;A256&amp;""", ""targetId"": """&amp;B256&amp;""", ""shortDescription"": """&amp;C256&amp;""", ""fullDescriptionHtml"": """&amp;D256&amp;""", ""direction"": """&amp;E256&amp;"""},")</f>
-        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ256" s="2"/>
     </row>
     <row r="257" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>253</v>
+      <c r="A257" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>838</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F257" s="0"/>
       <c r="G257" s="0" t="str">
         <f aca="false">IF(E257="","","{""sourceId"": """&amp;A257&amp;""", ""targetId"": """&amp;B257&amp;""", ""shortDescription"": """&amp;C257&amp;""", ""fullDescriptionHtml"": """&amp;D257&amp;""", ""direction"": """&amp;E257&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MARIANNE_LENOIR", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ257" s="2"/>
     </row>
     <row r="258" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="8" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F258" s="0"/>
       <c r="G258" s="0" t="str">
         <f aca="false">IF(E258="","","{""sourceId"": """&amp;A258&amp;""", ""targetId"": """&amp;B258&amp;""", ""shortDescription"": """&amp;C258&amp;""", ""fullDescriptionHtml"": """&amp;D258&amp;""", ""direction"": """&amp;E258&amp;"""},")</f>
-        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOM_DUPAIN", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ258" s="2"/>
     </row>
     <row r="259" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>841</v>
+      <c r="A259" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F259" s="0"/>
       <c r="G259" s="0" t="str">
         <f aca="false">IF(E259="","","{""sourceId"": """&amp;A259&amp;""", ""targetId"": """&amp;B259&amp;""", ""shortDescription"": """&amp;C259&amp;""", ""fullDescriptionHtml"": """&amp;D259&amp;""", ""direction"": """&amp;E259&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ259" s="2"/>
     </row>
     <row r="260" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>850</v>
+      <c r="A260" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F260" s="0"/>
       <c r="G260" s="0" t="str">
         <f aca="false">IF(E260="","","{""sourceId"": """&amp;A260&amp;""", ""targetId"": """&amp;B260&amp;""", ""shortDescription"": """&amp;C260&amp;""", ""fullDescriptionHtml"": """&amp;D260&amp;""", ""direction"": """&amp;E260&amp;"""},")</f>
-        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "ONI_CHAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ260" s="2"/>
     </row>
     <row r="261" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>856</v>
+      <c r="A261" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F261" s="0"/>
       <c r="G261" s="0" t="str">
         <f aca="false">IF(E261="","","{""sourceId"": """&amp;A261&amp;""", ""targetId"": """&amp;B261&amp;""", ""shortDescription"": """&amp;C261&amp;""", ""fullDescriptionHtml"": """&amp;D261&amp;""", ""direction"": """&amp;E261&amp;"""},")</f>
-        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABRINA_RAINCOMPRIX", "targetId": "MIRACULER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ261" s="2"/>
     </row>
     <row r="262" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>862</v>
+      <c r="A262" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F262" s="0"/>
       <c r="G262" s="0" t="str">
         <f aca="false">IF(E262="","","{""sourceId"": """&amp;A262&amp;""", ""targetId"": """&amp;B262&amp;""", ""shortDescription"": """&amp;C262&amp;""", ""fullDescriptionHtml"": """&amp;D262&amp;""", ""direction"": """&amp;E262&amp;"""},")</f>
-        <v>{"sourceId": "DORMANT_SENTIMONSTER_STATUE", "targetId": "DORMANT_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALYA_CESAIRE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ262" s="2"/>
     </row>
     <row r="263" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>865</v>
+      <c r="A263" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F263" s="0"/>
       <c r="G263" s="0" t="str">
         <f aca="false">IF(E263="","","{""sourceId"": """&amp;A263&amp;""", ""targetId"": """&amp;B263&amp;""", ""shortDescription"": """&amp;C263&amp;""", ""fullDescriptionHtml"": """&amp;D263&amp;""", ""direction"": """&amp;E263&amp;"""},")</f>
-        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "OBLIVIO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ263" s="2"/>
     </row>
     <row r="264" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="8" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F264" s="0"/>
       <c r="G264" s="0" t="str">
         <f aca="false">IF(E264="","","{""sourceId"": """&amp;A264&amp;""", ""targetId"": """&amp;B264&amp;""", ""shortDescription"": """&amp;C264&amp;""", ""fullDescriptionHtml"": """&amp;D264&amp;""", ""direction"": """&amp;E264&amp;"""},")</f>
-        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "VIVICA", "targetId": "DESPERADA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ264" s="2"/>
     </row>
     <row r="265" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="8" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F265" s="0"/>
       <c r="G265" s="0" t="str">
         <f aca="false">IF(E265="","","{""sourceId"": """&amp;A265&amp;""", ""targetId"": """&amp;B265&amp;""", ""shortDescription"": """&amp;C265&amp;""", ""fullDescriptionHtml"": """&amp;D265&amp;""", ""direction"": """&amp;E265&amp;"""},")</f>
-        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE", "targetId": "CHRISTMASTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ265" s="2"/>
     </row>
     <row r="266" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F266" s="0"/>
       <c r="G266" s="0" t="str">
         <f aca="false">IF(E266="","","{""sourceId"": """&amp;A266&amp;""", ""targetId"": """&amp;B266&amp;""", ""shortDescription"": """&amp;C266&amp;""", ""fullDescriptionHtml"": """&amp;D266&amp;""", ""direction"": """&amp;E266&amp;"""},")</f>
-        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CLAUDIE_KANTE", "targetId": "STARTRAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ266" s="2"/>
     </row>
     <row r="267" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>220</v>
+      <c r="A267" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>874</v>
       </c>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F267" s="0"/>
       <c r="G267" s="0" t="str">
         <f aca="false">IF(E267="","","{""sourceId"": """&amp;A267&amp;""", ""targetId"": """&amp;B267&amp;""", ""shortDescription"": """&amp;C267&amp;""", ""fullDescriptionHtml"": """&amp;D267&amp;""", ""direction"": """&amp;E267&amp;"""},")</f>
-        <v>{"sourceId": "CAT_NOIR", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "MS__MENDELEIEV", "targetId": "KWAMIBUSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ267" s="2"/>
     </row>
     <row r="268" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="8" t="s">
-        <v>769</v>
+        <v>877</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F268" s="0"/>
       <c r="G268" s="0" t="str">
         <f aca="false">IF(E268="","","{""sourceId"": """&amp;A268&amp;""", ""targetId"": """&amp;B268&amp;""", ""shortDescription"": """&amp;C268&amp;""", ""fullDescriptionHtml"": """&amp;D268&amp;""", ""direction"": """&amp;E268&amp;"""},")</f>
-        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DORMANT_SENTIMONSTER_STATUE", "targetId": "DORMANT_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ268" s="2"/>
     </row>
     <row r="269" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="8" t="s">
-        <v>781</v>
+        <v>880</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F269" s="0"/>
       <c r="G269" s="0" t="str">
         <f aca="false">IF(E269="","","{""sourceId"": """&amp;A269&amp;""", ""targetId"": """&amp;B269&amp;""", ""shortDescription"": """&amp;C269&amp;""", ""fullDescriptionHtml"": """&amp;D269&amp;""", ""direction"": """&amp;E269&amp;"""},")</f>
-        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "DORMANT_SENTIMONSTER", "targetId": "FEAST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ269" s="2"/>
     </row>
     <row r="270" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>286</v>
+      <c r="A270" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>889</v>
       </c>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F270" s="0"/>
       <c r="G270" s="0" t="str">
         <f aca="false">IF(E270="","","{""sourceId"": """&amp;A270&amp;""", ""targetId"": """&amp;B270&amp;""", ""shortDescription"": """&amp;C270&amp;""", ""fullDescriptionHtml"": """&amp;D270&amp;""", ""direction"": """&amp;E270&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "TOMOE_TSURUGI", "targetId": "IKARI_GOZEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ270" s="2"/>
     </row>
     <row r="271" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>415</v>
+      <c r="A271" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>862</v>
       </c>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F271" s="0"/>
       <c r="G271" s="0" t="str">
         <f aca="false">IF(E271="","","{""sourceId"": """&amp;A271&amp;""", ""targetId"": """&amp;B271&amp;""", ""shortDescription"": """&amp;C271&amp;""", ""fullDescriptionHtml"": """&amp;D271&amp;""", ""direction"": """&amp;E271&amp;"""},")</f>
-        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHRIS_LAHIFFE_ADULT", "targetId": "TIMETAGGER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ271" s="2"/>
     </row>
     <row r="272" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>403</v>
+      <c r="A272" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>895</v>
       </c>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F272" s="0"/>
       <c r="G272" s="0" t="str">
         <f aca="false">IF(E272="","","{""sourceId"": """&amp;A272&amp;""", ""targetId"": """&amp;B272&amp;""", ""shortDescription"": """&amp;C272&amp;""", ""fullDescriptionHtml"": """&amp;D272&amp;""", ""direction"": """&amp;E272&amp;"""},")</f>
-        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WAYHEM", "targetId": "PARTY_CRASHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ272" s="2"/>
     </row>
     <row r="273" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>883</v>
+      <c r="A273" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F273" s="0"/>
       <c r="G273" s="0" t="str">
         <f aca="false">IF(E273="","","{""sourceId"": """&amp;A273&amp;""", ""targetId"": """&amp;B273&amp;""", ""shortDescription"": """&amp;C273&amp;""", ""fullDescriptionHtml"": """&amp;D273&amp;""", ""direction"": """&amp;E273&amp;"""},")</f>
-        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CAT_NOIR", "targetId": "CAT_BLANC", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ273" s="2"/>
     </row>
     <row r="274" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>313</v>
+      <c r="A274" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F274" s="0"/>
       <c r="G274" s="0" t="str">
         <f aca="false">IF(E274="","","{""sourceId"": """&amp;A274&amp;""", ""targetId"": """&amp;B274&amp;""", ""shortDescription"": """&amp;C274&amp;""", ""fullDescriptionHtml"": """&amp;D274&amp;""", ""direction"": """&amp;E274&amp;"""},")</f>
-        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "AUDREY_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ274" s="2"/>
     </row>
     <row r="275" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>301</v>
+      <c r="A275" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>805</v>
       </c>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F275" s="0"/>
       <c r="G275" s="0" t="str">
         <f aca="false">IF(E275="","","{""sourceId"": """&amp;A275&amp;""", ""targetId"": """&amp;B275&amp;""", ""shortDescription"": """&amp;C275&amp;""", ""fullDescriptionHtml"": """&amp;D275&amp;""", ""direction"": """&amp;E275&amp;"""},")</f>
-        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ANDRE_BOURGEOIS", "targetId": "HEART_HUNTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ275" s="2"/>
     </row>
@@ -13868,169 +13993,169 @@
         <v>274</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F276" s="0"/>
       <c r="G276" s="0" t="str">
         <f aca="false">IF(E276="","","{""sourceId"": """&amp;A276&amp;""", ""targetId"": """&amp;B276&amp;""", ""shortDescription"": """&amp;C276&amp;""", ""fullDescriptionHtml"": """&amp;D276&amp;""", ""direction"": """&amp;E276&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "MIRACLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ276" s="2"/>
     </row>
     <row r="277" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>889</v>
+      <c r="A277" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F277" s="0"/>
       <c r="G277" s="0" t="str">
         <f aca="false">IF(E277="","","{""sourceId"": """&amp;A277&amp;""", ""targetId"": """&amp;B277&amp;""", ""shortDescription"": """&amp;C277&amp;""", ""fullDescriptionHtml"": """&amp;D277&amp;""", ""direction"": """&amp;E277&amp;"""},")</f>
-        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "LUKA_COUFFAINE", "targetId": "TRUTH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ277" s="2"/>
     </row>
     <row r="278" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F278" s="0"/>
       <c r="G278" s="0" t="str">
         <f aca="false">IF(E278="","","{""sourceId"": """&amp;A278&amp;""", ""targetId"": """&amp;B278&amp;""", ""shortDescription"": """&amp;C278&amp;""", ""fullDescriptionHtml"": """&amp;D278&amp;""", ""direction"": """&amp;E278&amp;"""},")</f>
-        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "KAGAMI_TSURUGI", "targetId": "LIES", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ278" s="2"/>
     </row>
     <row r="279" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F279" s="0"/>
       <c r="G279" s="0" t="str">
         <f aca="false">IF(E279="","","{""sourceId"": """&amp;A279&amp;""", ""targetId"": """&amp;B279&amp;""", ""shortDescription"": """&amp;C279&amp;""", ""fullDescriptionHtml"": """&amp;D279&amp;""", ""direction"": """&amp;E279&amp;"""},")</f>
-        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "HARRY_CLOWN", "targetId": "PSYCOMEDIAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ279" s="2"/>
     </row>
     <row r="280" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>814</v>
+      <c r="A280" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F280" s="0"/>
       <c r="G280" s="0" t="str">
         <f aca="false">IF(E280="","","{""sourceId"": """&amp;A280&amp;""", ""targetId"": """&amp;B280&amp;""", ""shortDescription"": """&amp;C280&amp;""", ""fullDescriptionHtml"": """&amp;D280&amp;""", ""direction"": """&amp;E280&amp;"""},")</f>
-        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "WANG_FU", "targetId": "FURIOUS_FU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ280" s="2"/>
     </row>
     <row r="281" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>901</v>
+      <c r="A281" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F281" s="0"/>
       <c r="G281" s="0" t="str">
         <f aca="false">IF(E281="","","{""sourceId"": """&amp;A281&amp;""", ""targetId"": """&amp;B281&amp;""", ""shortDescription"": """&amp;C281&amp;""", ""fullDescriptionHtml"": """&amp;D281&amp;""", ""direction"": """&amp;E281&amp;"""},")</f>
-        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ZOE_LEE", "targetId": "SOLE_CRUSHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ281" s="2"/>
     </row>
     <row r="282" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>907</v>
+      <c r="A282" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F282" s="0"/>
       <c r="G282" s="0" t="str">
         <f aca="false">IF(E282="","","{""sourceId"": """&amp;A282&amp;""", ""targetId"": """&amp;B282&amp;""", ""shortDescription"": """&amp;C282&amp;""", ""fullDescriptionHtml"": """&amp;D282&amp;""", ""direction"": """&amp;E282&amp;"""},")</f>
-        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "QUEEN_BANANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ282" s="2"/>
     </row>
     <row r="283" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>223</v>
+      <c r="A283" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>907</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F283" s="0"/>
       <c r="G283" s="0" t="str">
         <f aca="false">IF(E283="","","{""sourceId"": """&amp;A283&amp;""", ""targetId"": """&amp;B283&amp;""", ""shortDescription"": """&amp;C283&amp;""", ""fullDescriptionHtml"": """&amp;D283&amp;""", ""direction"": """&amp;E283&amp;"""},")</f>
-        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "GABRIEL_AGRESTE_SENTIMONSTER", "targetId": "THE_COLLECTOR_SENTIMONSTER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ283" s="2"/>
     </row>
     <row r="284" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F284" s="0"/>
       <c r="G284" s="0" t="str">
         <f aca="false">IF(E284="","","{""sourceId"": """&amp;A284&amp;""", ""targetId"": """&amp;B284&amp;""", ""shortDescription"": """&amp;C284&amp;""", ""fullDescriptionHtml"": """&amp;D284&amp;""", ""direction"": """&amp;E284&amp;"""},")</f>
-        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "NINO_LAHIFFE", "targetId": "ROCKETEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ284" s="2"/>
     </row>
@@ -14044,259 +14169,259 @@
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F285" s="0"/>
       <c r="G285" s="0" t="str">
         <f aca="false">IF(E285="","","{""sourceId"": """&amp;A285&amp;""", ""targetId"": """&amp;B285&amp;""", ""shortDescription"": """&amp;C285&amp;""", ""fullDescriptionHtml"": """&amp;D285&amp;""", ""direction"": """&amp;E285&amp;"""},")</f>
-        <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ALEC_CATALDI", "targetId": "WISHMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ285" s="2"/>
     </row>
     <row r="286" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="8" t="s">
-        <v>475</v>
+        <v>826</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>478</v>
+        <v>832</v>
       </c>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F286" s="0"/>
       <c r="G286" s="0" t="str">
         <f aca="false">IF(E286="","","{""sourceId"": """&amp;A286&amp;""", ""targetId"": """&amp;B286&amp;""", ""shortDescription"": """&amp;C286&amp;""", ""fullDescriptionHtml"": """&amp;D286&amp;""", ""direction"": """&amp;E286&amp;"""},")</f>
-        <v>{"sourceId": "MIKE_ROCHIP_TECHNO_PIRATE", "targetId": "TECHLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ROLLAND_DUPAIN", "targetId": "SIMPLEMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ286" s="2"/>
     </row>
     <row r="287" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="8" t="s">
-        <v>478</v>
+        <v>916</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>481</v>
+        <v>919</v>
       </c>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F287" s="0"/>
       <c r="G287" s="0" t="str">
         <f aca="false">IF(E287="","","{""sourceId"": """&amp;A287&amp;""", ""targetId"": """&amp;B287&amp;""", ""shortDescription"": """&amp;C287&amp;""", ""fullDescriptionHtml"": """&amp;D287&amp;""", ""direction"": """&amp;E287&amp;"""},")</f>
-        <v>{"sourceId": "TECHLONIZER", "targetId": "MIRACLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "SABINE_CHENG", "targetId": "QILIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ287" s="2"/>
     </row>
     <row r="288" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="8" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F288" s="0"/>
       <c r="G288" s="0" t="str">
         <f aca="false">IF(E288="","","{""sourceId"": """&amp;A288&amp;""", ""targetId"": """&amp;B288&amp;""", ""shortDescription"": """&amp;C288&amp;""", ""fullDescriptionHtml"": """&amp;D288&amp;""", ""direction"": """&amp;E288&amp;"""},")</f>
-        <v>{"sourceId": "CASH", "targetId": "KING_CASH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "BOB_ROTH", "targetId": "MOOLAK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ288" s="2"/>
     </row>
     <row r="289" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>929</v>
+      <c r="A289" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F289" s="0"/>
       <c r="G289" s="0" t="str">
         <f aca="false">IF(E289="","","{""sourceId"": """&amp;A289&amp;""", ""targetId"": """&amp;B289&amp;""", ""shortDescription"": """&amp;C289&amp;""", ""fullDescriptionHtml"": """&amp;D289&amp;""", ""direction"": """&amp;E289&amp;"""},")</f>
-        <v>{"sourceId": "MEI_SHI_STATUE", "targetId": "YANLUOSHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "ADRIEN_AGRESTE", "targetId": "EPHEMERAL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ289" s="2"/>
     </row>
     <row r="290" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>935</v>
+      <c r="A290" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F290" s="0"/>
       <c r="G290" s="0" t="str">
         <f aca="false">IF(E290="","","{""sourceId"": """&amp;A290&amp;""", ""targetId"": """&amp;B290&amp;""", ""shortDescription"": """&amp;C290&amp;""", ""fullDescriptionHtml"": """&amp;D290&amp;""", ""direction"": """&amp;E290&amp;"""},")</f>
-        <v>{"sourceId": "FANG", "targetId": "FANG_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "CHLOE_BOURGEOIS", "targetId": "PENALTY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ290" s="2"/>
     </row>
     <row r="291" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="8" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="F291" s="0"/>
       <c r="G291" s="0" t="str">
         <f aca="false">IF(E291="","","{""sourceId"": """&amp;A291&amp;""", ""targetId"": """&amp;B291&amp;""", ""shortDescription"": """&amp;C291&amp;""", ""fullDescriptionHtml"": """&amp;D291&amp;""", ""direction"": """&amp;E291&amp;"""},")</f>
-        <v>{"sourceId": "ALBERT", "targetId": "ALBERT_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
+        <v>{"sourceId": "FROGGY", "targetId": "RISK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ291" s="2"/>
     </row>
     <row r="292" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6" t="s">
-        <v>18</v>
+      <c r="A292" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>580</v>
+        <v>478</v>
       </c>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F292" s="0"/>
       <c r="G292" s="0" t="str">
         <f aca="false">IF(E292="","","{""sourceId"": """&amp;A292&amp;""", ""targetId"": """&amp;B292&amp;""", ""shortDescription"": """&amp;C292&amp;""", ""fullDescriptionHtml"": """&amp;D292&amp;""", ""direction"": """&amp;E292&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MIKE_ROCHIP_TECHNO_PIRATE", "targetId": "TECHLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ292" s="2"/>
     </row>
     <row r="293" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>433</v>
+      <c r="A293" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F293" s="0"/>
       <c r="G293" s="0" t="str">
         <f aca="false">IF(E293="","","{""sourceId"": """&amp;A293&amp;""", ""targetId"": """&amp;B293&amp;""", ""shortDescription"": """&amp;C293&amp;""", ""fullDescriptionHtml"": """&amp;D293&amp;""", ""direction"": """&amp;E293&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "TECHLONIZER", "targetId": "MIRACLONIZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ293" s="2"/>
     </row>
     <row r="294" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>247</v>
+      <c r="A294" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>937</v>
       </c>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F294" s="0"/>
       <c r="G294" s="0" t="str">
         <f aca="false">IF(E294="","","{""sourceId"": """&amp;A294&amp;""", ""targetId"": """&amp;B294&amp;""", ""shortDescription"": """&amp;C294&amp;""", ""fullDescriptionHtml"": """&amp;D294&amp;""", ""direction"": """&amp;E294&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "CASH", "targetId": "KING_CASH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ294" s="2"/>
     </row>
     <row r="295" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6" t="s">
-        <v>18</v>
+      <c r="A295" s="8" t="s">
+        <v>944</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>586</v>
+        <v>947</v>
       </c>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F295" s="0"/>
       <c r="G295" s="0" t="str">
         <f aca="false">IF(E295="","","{""sourceId"": """&amp;A295&amp;""", ""targetId"": """&amp;B295&amp;""", ""shortDescription"": """&amp;C295&amp;""", ""fullDescriptionHtml"": """&amp;D295&amp;""", ""direction"": """&amp;E295&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MEI_SHI_STATUE", "targetId": "YANLUOSHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ295" s="2"/>
     </row>
     <row r="296" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>472</v>
+      <c r="A296" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>940</v>
       </c>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F296" s="0"/>
       <c r="G296" s="0" t="str">
         <f aca="false">IF(E296="","","{""sourceId"": """&amp;A296&amp;""", ""targetId"": """&amp;B296&amp;""", ""shortDescription"": """&amp;C296&amp;""", ""fullDescriptionHtml"": """&amp;D296&amp;""", ""direction"": """&amp;E296&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "MEI_SHI_STATUE", "targetId": "MEI_SHI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ296" s="2"/>
     </row>
     <row r="297" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>442</v>
+      <c r="A297" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>953</v>
       </c>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F297" s="0"/>
       <c r="G297" s="0" t="str">
         <f aca="false">IF(E297="","","{""sourceId"": """&amp;A297&amp;""", ""targetId"": """&amp;B297&amp;""", ""shortDescription"": """&amp;C297&amp;""", ""fullDescriptionHtml"": """&amp;D297&amp;""", ""direction"": """&amp;E297&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "FANG", "targetId": "FANG_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ297" s="2"/>
     </row>
     <row r="298" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6" t="s">
-        <v>18</v>
+      <c r="A298" s="8" t="s">
+        <v>956</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>592</v>
+        <v>959</v>
       </c>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="2" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="F298" s="0"/>
       <c r="G298" s="0" t="str">
         <f aca="false">IF(E298="","","{""sourceId"": """&amp;A298&amp;""", ""targetId"": """&amp;B298&amp;""", ""shortDescription"": """&amp;C298&amp;""", ""fullDescriptionHtml"": """&amp;D298&amp;""", ""direction"": """&amp;E298&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "ALBERT", "targetId": "ALBERT_AKUMATIZED", "shortDescription": "", "fullDescriptionHtml": "", "direction": "DIRECTED"},</v>
       </c>
       <c r="AMJ298" s="2"/>
     </row>
@@ -14305,17 +14430,17 @@
         <v>18</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F299" s="0"/>
       <c r="G299" s="0" t="str">
         <f aca="false">IF(E299="","","{""sourceId"": """&amp;A299&amp;""", ""targetId"": """&amp;B299&amp;""", ""shortDescription"": """&amp;C299&amp;""", ""fullDescriptionHtml"": """&amp;D299&amp;""", ""direction"": """&amp;E299&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STORMY_WEATHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ299" s="2"/>
     </row>
@@ -14323,18 +14448,18 @@
       <c r="A300" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B300" s="8" t="s">
-        <v>604</v>
+      <c r="B300" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F300" s="0"/>
       <c r="G300" s="0" t="str">
         <f aca="false">IF(E300="","","{""sourceId"": """&amp;A300&amp;""", ""targetId"": """&amp;B300&amp;""", ""shortDescription"": """&amp;C300&amp;""", ""fullDescriptionHtml"": """&amp;D300&amp;""", ""direction"": """&amp;E300&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_EVILLUSTRATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ300" s="2"/>
     </row>
@@ -14343,17 +14468,17 @@
         <v>18</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F301" s="0"/>
       <c r="G301" s="0" t="str">
         <f aca="false">IF(E301="","","{""sourceId"": """&amp;A301&amp;""", ""targetId"": """&amp;B301&amp;""", ""shortDescription"": """&amp;C301&amp;""", ""fullDescriptionHtml"": """&amp;D301&amp;""", ""direction"": """&amp;E301&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "LADY_WIFI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ301" s="2"/>
     </row>
@@ -14362,17 +14487,17 @@
         <v>18</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F302" s="0"/>
       <c r="G302" s="0" t="str">
         <f aca="false">IF(E302="","","{""sourceId"": """&amp;A302&amp;""", ""targetId"": """&amp;B302&amp;""", ""shortDescription"": """&amp;C302&amp;""", ""fullDescriptionHtml"": """&amp;D302&amp;""", ""direction"": """&amp;E302&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MAGICIAN_OF_MISFORTUNE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ302" s="2"/>
     </row>
@@ -14380,18 +14505,18 @@
       <c r="A303" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B303" s="8" t="s">
-        <v>616</v>
+      <c r="B303" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F303" s="0"/>
       <c r="G303" s="0" t="str">
         <f aca="false">IF(E303="","","{""sourceId"": """&amp;A303&amp;""", ""targetId"": """&amp;B303&amp;""", ""shortDescription"": """&amp;C303&amp;""", ""fullDescriptionHtml"": """&amp;D303&amp;""", ""direction"": """&amp;E303&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PRINCESS_FRAGRANCE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ303" s="2"/>
     </row>
@@ -14400,17 +14525,17 @@
         <v>18</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F304" s="0"/>
       <c r="G304" s="0" t="str">
         <f aca="false">IF(E304="","","{""sourceId"": """&amp;A304&amp;""", ""targetId"": """&amp;B304&amp;""", ""shortDescription"": """&amp;C304&amp;""", ""fullDescriptionHtml"": """&amp;D304&amp;""", ""direction"": """&amp;E304&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_CUPID", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ304" s="2"/>
     </row>
@@ -14419,17 +14544,17 @@
         <v>18</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F305" s="0"/>
       <c r="G305" s="0" t="str">
         <f aca="false">IF(E305="","","{""sourceId"": """&amp;A305&amp;""", ""targetId"": """&amp;B305&amp;""", ""shortDescription"": """&amp;C305&amp;""", ""fullDescriptionHtml"": """&amp;D305&amp;""", ""direction"": """&amp;E305&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MR__PIGEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ305" s="2"/>
     </row>
@@ -14438,17 +14563,17 @@
         <v>18</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F306" s="0"/>
       <c r="G306" s="0" t="str">
         <f aca="false">IF(E306="","","{""sourceId"": """&amp;A306&amp;""", ""targetId"": """&amp;B306&amp;""", ""shortDescription"": """&amp;C306&amp;""", ""fullDescriptionHtml"": """&amp;D306&amp;""", ""direction"": """&amp;E306&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PIXELATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ306" s="2"/>
     </row>
@@ -14457,17 +14582,17 @@
         <v>18</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F307" s="0"/>
       <c r="G307" s="0" t="str">
         <f aca="false">IF(E307="","","{""sourceId"": """&amp;A307&amp;""", ""targetId"": """&amp;B307&amp;""", ""shortDescription"": """&amp;C307&amp;""", ""fullDescriptionHtml"": """&amp;D307&amp;""", ""direction"": """&amp;E307&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "COPYCAT", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ307" s="2"/>
     </row>
@@ -14476,17 +14601,17 @@
         <v>18</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F308" s="0"/>
       <c r="G308" s="0" t="str">
         <f aca="false">IF(E308="","","{""sourceId"": """&amp;A308&amp;""", ""targetId"": """&amp;B308&amp;""", ""shortDescription"": """&amp;C308&amp;""", ""fullDescriptionHtml"": """&amp;D308&amp;""", ""direction"": """&amp;E308&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_BUBBLER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ308" s="2"/>
     </row>
@@ -14494,18 +14619,18 @@
       <c r="A309" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>358</v>
+      <c r="B309" s="8" t="s">
+        <v>610</v>
       </c>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F309" s="0"/>
       <c r="G309" s="0" t="str">
         <f aca="false">IF(E309="","","{""sourceId"": """&amp;A309&amp;""", ""targetId"": """&amp;B309&amp;""", ""shortDescription"": """&amp;C309&amp;""", ""fullDescriptionHtml"": """&amp;D309&amp;""", ""direction"": """&amp;E309&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SIMON_SAYS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ309" s="2"/>
     </row>
@@ -14514,17 +14639,17 @@
         <v>18</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F310" s="0"/>
       <c r="G310" s="0" t="str">
         <f aca="false">IF(E310="","","{""sourceId"": """&amp;A310&amp;""", ""targetId"": """&amp;B310&amp;""", ""shortDescription"": """&amp;C310&amp;""", ""fullDescriptionHtml"": """&amp;D310&amp;""", ""direction"": """&amp;E310&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ROGERCOP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ310" s="2"/>
     </row>
@@ -14532,18 +14657,18 @@
       <c r="A311" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B311" s="8" t="s">
-        <v>646</v>
+      <c r="B311" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F311" s="0"/>
       <c r="G311" s="0" t="str">
         <f aca="false">IF(E311="","","{""sourceId"": """&amp;A311&amp;""", ""targetId"": """&amp;B311&amp;""", ""shortDescription"": """&amp;C311&amp;""", ""fullDescriptionHtml"": """&amp;D311&amp;""", ""direction"": """&amp;E311&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GAMER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ311" s="2"/>
     </row>
@@ -14552,17 +14677,17 @@
         <v>18</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F312" s="0"/>
       <c r="G312" s="0" t="str">
         <f aca="false">IF(E312="","","{""sourceId"": """&amp;A312&amp;""", ""targetId"": """&amp;B312&amp;""", ""shortDescription"": """&amp;C312&amp;""", ""fullDescriptionHtml"": """&amp;D312&amp;""", ""direction"": """&amp;E312&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANIMAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ312" s="2"/>
     </row>
@@ -14570,18 +14695,18 @@
       <c r="A313" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>376</v>
+      <c r="B313" s="8" t="s">
+        <v>646</v>
       </c>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F313" s="0"/>
       <c r="G313" s="0" t="str">
         <f aca="false">IF(E313="","","{""sourceId"": """&amp;A313&amp;""", ""targetId"": """&amp;B313&amp;""", ""shortDescription"": """&amp;C313&amp;""", ""fullDescriptionHtml"": """&amp;D313&amp;""", ""direction"": """&amp;E313&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARKBLADE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ313" s="2"/>
     </row>
@@ -14589,18 +14714,18 @@
       <c r="A314" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B314" s="6" t="s">
-        <v>367</v>
+      <c r="B314" s="8" t="s">
+        <v>652</v>
       </c>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F314" s="0"/>
       <c r="G314" s="0" t="str">
         <f aca="false">IF(E314="","","{""sourceId"": """&amp;A314&amp;""", ""targetId"": """&amp;B314&amp;""", ""shortDescription"": """&amp;C314&amp;""", ""fullDescriptionHtml"": """&amp;D314&amp;""", ""direction"": """&amp;E314&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PHARAOH", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ314" s="2"/>
     </row>
@@ -14609,17 +14734,17 @@
         <v>18</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F315" s="0"/>
       <c r="G315" s="0" t="str">
         <f aca="false">IF(E315="","","{""sourceId"": """&amp;A315&amp;""", ""targetId"": """&amp;B315&amp;""", ""shortDescription"": """&amp;C315&amp;""", ""fullDescriptionHtml"": """&amp;D315&amp;""", ""direction"": """&amp;E315&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TIMEBREAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ315" s="2"/>
     </row>
@@ -14628,17 +14753,17 @@
         <v>18</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F316" s="0"/>
       <c r="G316" s="0" t="str">
         <f aca="false">IF(E316="","","{""sourceId"": """&amp;A316&amp;""", ""targetId"": """&amp;B316&amp;""", ""shortDescription"": """&amp;C316&amp;""", ""fullDescriptionHtml"": """&amp;D316&amp;""", ""direction"": """&amp;E316&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "HORRIFICATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ316" s="2"/>
     </row>
@@ -14652,12 +14777,12 @@
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F317" s="0"/>
       <c r="G317" s="0" t="str">
         <f aca="false">IF(E317="","","{""sourceId"": """&amp;A317&amp;""", ""targetId"": """&amp;B317&amp;""", ""shortDescription"": """&amp;C317&amp;""", ""fullDescriptionHtml"": """&amp;D317&amp;""", ""direction"": """&amp;E317&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_PUPPETEER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ317" s="2"/>
     </row>
@@ -14671,12 +14796,12 @@
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F318" s="0"/>
       <c r="G318" s="0" t="str">
         <f aca="false">IF(E318="","","{""sourceId"": """&amp;A318&amp;""", ""targetId"": """&amp;B318&amp;""", ""shortDescription"": """&amp;C318&amp;""", ""fullDescriptionHtml"": """&amp;D318&amp;""", ""direction"": """&amp;E318&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_MIME", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ318" s="2"/>
     </row>
@@ -14684,18 +14809,18 @@
       <c r="A319" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B319" s="6" t="s">
-        <v>271</v>
+      <c r="B319" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F319" s="0"/>
       <c r="G319" s="0" t="str">
         <f aca="false">IF(E319="","","{""sourceId"": """&amp;A319&amp;""", ""targetId"": """&amp;B319&amp;""", ""shortDescription"": """&amp;C319&amp;""", ""fullDescriptionHtml"": """&amp;D319&amp;""", ""direction"": """&amp;E319&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GUITAR_VILLAIN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ319" s="2"/>
     </row>
@@ -14703,18 +14828,18 @@
       <c r="A320" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B320" s="8" t="s">
-        <v>673</v>
+      <c r="B320" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F320" s="0"/>
       <c r="G320" s="0" t="str">
         <f aca="false">IF(E320="","","{""sourceId"": """&amp;A320&amp;""", ""targetId"": """&amp;B320&amp;""", ""shortDescription"": """&amp;C320&amp;""", ""fullDescriptionHtml"": """&amp;D320&amp;""", ""direction"": """&amp;E320&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "REFLEKTA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ320" s="2"/>
     </row>
@@ -14722,18 +14847,18 @@
       <c r="A321" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B321" s="8" t="s">
-        <v>679</v>
+      <c r="B321" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F321" s="0"/>
       <c r="G321" s="0" t="str">
         <f aca="false">IF(E321="","","{""sourceId"": """&amp;A321&amp;""", ""targetId"": """&amp;B321&amp;""", ""shortDescription"": """&amp;C321&amp;""", ""fullDescriptionHtml"": """&amp;D321&amp;""", ""direction"": """&amp;E321&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STONEHEART", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ321" s="2"/>
     </row>
@@ -14741,18 +14866,18 @@
       <c r="A322" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B322" s="8" t="s">
-        <v>685</v>
+      <c r="B322" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F322" s="0"/>
       <c r="G322" s="0" t="str">
         <f aca="false">IF(E322="","","{""sourceId"": """&amp;A322&amp;""", ""targetId"": """&amp;B322&amp;""", ""shortDescription"": """&amp;C322&amp;""", ""fullDescriptionHtml"": """&amp;D322&amp;""", ""direction"": """&amp;E322&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "VANISHER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ322" s="2"/>
     </row>
@@ -14760,18 +14885,18 @@
       <c r="A323" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B323" s="8" t="s">
-        <v>691</v>
+      <c r="B323" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F323" s="0"/>
       <c r="G323" s="0" t="str">
         <f aca="false">IF(E323="","","{""sourceId"": """&amp;A323&amp;""", ""targetId"": """&amp;B323&amp;""", ""shortDescription"": """&amp;C323&amp;""", ""fullDescriptionHtml"": """&amp;D323&amp;""", ""direction"": """&amp;E323&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANTIBUG", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ323" s="2"/>
     </row>
@@ -14780,17 +14905,17 @@
         <v>18</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F324" s="0"/>
       <c r="G324" s="0" t="str">
         <f aca="false">IF(E324="","","{""sourceId"": """&amp;A324&amp;""", ""targetId"": """&amp;B324&amp;""", ""shortDescription"": """&amp;C324&amp;""", ""fullDescriptionHtml"": """&amp;D324&amp;""", ""direction"": """&amp;E324&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "KUNG_FOOD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ324" s="2"/>
     </row>
@@ -14798,18 +14923,18 @@
       <c r="A325" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>397</v>
+      <c r="B325" s="8" t="s">
+        <v>682</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F325" s="0"/>
       <c r="G325" s="0" t="str">
         <f aca="false">IF(E325="","","{""sourceId"": """&amp;A325&amp;""", ""targetId"": """&amp;B325&amp;""", ""shortDescription"": """&amp;C325&amp;""", ""fullDescriptionHtml"": """&amp;D325&amp;""", ""direction"": """&amp;E325&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "VOLPINA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ325" s="2"/>
     </row>
@@ -14817,18 +14942,18 @@
       <c r="A326" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B326" s="8" t="s">
-        <v>703</v>
+      <c r="B326" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F326" s="0"/>
       <c r="G326" s="0" t="str">
         <f aca="false">IF(E326="","","{""sourceId"": """&amp;A326&amp;""", ""targetId"": """&amp;B326&amp;""", ""shortDescription"": """&amp;C326&amp;""", ""fullDescriptionHtml"": """&amp;D326&amp;""", ""direction"": """&amp;E326&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "THE_COLLECTOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ326" s="2"/>
     </row>
@@ -14837,17 +14962,17 @@
         <v>18</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F327" s="0"/>
       <c r="G327" s="0" t="str">
         <f aca="false">IF(E327="","","{""sourceId"": """&amp;A327&amp;""", ""targetId"": """&amp;B327&amp;""", ""shortDescription"": """&amp;C327&amp;""", ""fullDescriptionHtml"": """&amp;D327&amp;""", ""direction"": """&amp;E327&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "PRIME_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ327" s="2"/>
     </row>
@@ -14856,17 +14981,17 @@
         <v>18</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F328" s="0"/>
       <c r="G328" s="0" t="str">
         <f aca="false">IF(E328="","","{""sourceId"": """&amp;A328&amp;""", ""targetId"": """&amp;B328&amp;""", ""shortDescription"": """&amp;C328&amp;""", ""fullDescriptionHtml"": """&amp;D328&amp;""", ""direction"": """&amp;E328&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GLACIATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ328" s="2"/>
     </row>
@@ -14875,17 +15000,17 @@
         <v>18</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F329" s="0"/>
       <c r="G329" s="0" t="str">
         <f aca="false">IF(E329="","","{""sourceId"": """&amp;A329&amp;""", ""targetId"": """&amp;B329&amp;""", ""shortDescription"": """&amp;C329&amp;""", ""fullDescriptionHtml"": """&amp;D329&amp;""", ""direction"": """&amp;E329&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DESPAIR_BEAR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ329" s="2"/>
     </row>
@@ -14894,17 +15019,17 @@
         <v>18</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F330" s="0"/>
       <c r="G330" s="0" t="str">
         <f aca="false">IF(E330="","","{""sourceId"": """&amp;A330&amp;""", ""targetId"": """&amp;B330&amp;""", ""shortDescription"": """&amp;C330&amp;""", ""fullDescriptionHtml"": """&amp;D330&amp;""", ""direction"": """&amp;E330&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "TROUBLEMAKER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ330" s="2"/>
     </row>
@@ -14913,17 +15038,17 @@
         <v>18</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F331" s="0"/>
       <c r="G331" s="0" t="str">
         <f aca="false">IF(E331="","","{""sourceId"": """&amp;A331&amp;""", ""targetId"": """&amp;B331&amp;""", ""shortDescription"": """&amp;C331&amp;""", ""fullDescriptionHtml"": """&amp;D331&amp;""", ""direction"": """&amp;E331&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GIGANTITAN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ331" s="2"/>
     </row>
@@ -14931,18 +15056,18 @@
       <c r="A332" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B332" s="8" t="s">
-        <v>748</v>
+      <c r="B332" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F332" s="0"/>
       <c r="G332" s="0" t="str">
         <f aca="false">IF(E332="","","{""sourceId"": """&amp;A332&amp;""", ""targetId"": """&amp;B332&amp;""", ""shortDescription"": """&amp;C332&amp;""", ""fullDescriptionHtml"": """&amp;D332&amp;""", ""direction"": """&amp;E332&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RIPOSTE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ332" s="2"/>
     </row>
@@ -14951,17 +15076,17 @@
         <v>18</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F333" s="0"/>
       <c r="G333" s="0" t="str">
         <f aca="false">IF(E333="","","{""sourceId"": """&amp;A333&amp;""", ""targetId"": """&amp;B333&amp;""", ""shortDescription"": """&amp;C333&amp;""", ""fullDescriptionHtml"": """&amp;D333&amp;""", ""direction"": """&amp;E333&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "BEFANA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ333" s="2"/>
     </row>
@@ -14970,17 +15095,17 @@
         <v>18</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F334" s="0"/>
       <c r="G334" s="0" t="str">
         <f aca="false">IF(E334="","","{""sourceId"": """&amp;A334&amp;""", ""targetId"": """&amp;B334&amp;""", ""shortDescription"": """&amp;C334&amp;""", ""fullDescriptionHtml"": """&amp;D334&amp;""", ""direction"": """&amp;E334&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FRIGHTNINGALE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ334" s="2"/>
     </row>
@@ -14989,17 +15114,17 @@
         <v>18</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F335" s="0"/>
       <c r="G335" s="0" t="str">
         <f aca="false">IF(E335="","","{""sourceId"": """&amp;A335&amp;""", ""targetId"": """&amp;B335&amp;""", ""shortDescription"": """&amp;C335&amp;""", ""fullDescriptionHtml"": """&amp;D335&amp;""", ""direction"": """&amp;E335&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "GORIZILLA", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ335" s="2"/>
     </row>
@@ -15008,17 +15133,17 @@
         <v>18</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F336" s="0"/>
       <c r="G336" s="0" t="str">
         <f aca="false">IF(E336="","","{""sourceId"": """&amp;A336&amp;""", ""targetId"": """&amp;B336&amp;""", ""shortDescription"": """&amp;C336&amp;""", ""fullDescriptionHtml"": """&amp;D336&amp;""", ""direction"": """&amp;E336&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ROBOSTUS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ336" s="2"/>
     </row>
@@ -15026,18 +15151,18 @@
       <c r="A337" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B337" s="6" t="s">
-        <v>283</v>
+      <c r="B337" s="8" t="s">
+        <v>751</v>
       </c>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F337" s="0"/>
       <c r="G337" s="0" t="str">
         <f aca="false">IF(E337="","","{""sourceId"": """&amp;A337&amp;""", ""targetId"": """&amp;B337&amp;""", ""shortDescription"": """&amp;C337&amp;""", ""fullDescriptionHtml"": """&amp;D337&amp;""", ""direction"": """&amp;E337&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SAPOTIS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ337" s="2"/>
     </row>
@@ -15045,18 +15170,18 @@
       <c r="A338" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B338" s="6" t="s">
-        <v>451</v>
+      <c r="B338" s="8" t="s">
+        <v>757</v>
       </c>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F338" s="0"/>
       <c r="G338" s="0" t="str">
         <f aca="false">IF(E338="","","{""sourceId"": """&amp;A338&amp;""", ""targetId"": """&amp;B338&amp;""", ""shortDescription"": """&amp;C338&amp;""", ""fullDescriptionHtml"": """&amp;D338&amp;""", ""direction"": """&amp;E338&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "DARK_OWL", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ338" s="2"/>
     </row>
@@ -15065,17 +15190,17 @@
         <v>18</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F339" s="0"/>
       <c r="G339" s="0" t="str">
         <f aca="false">IF(E339="","","{""sourceId"": """&amp;A339&amp;""", ""targetId"": """&amp;B339&amp;""", ""shortDescription"": """&amp;C339&amp;""", ""fullDescriptionHtml"": """&amp;D339&amp;""", ""direction"": """&amp;E339&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SYREN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ339" s="2"/>
     </row>
@@ -15084,17 +15209,17 @@
         <v>18</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F340" s="0"/>
       <c r="G340" s="0" t="str">
         <f aca="false">IF(E340="","","{""sourceId"": """&amp;A340&amp;""", ""targetId"": """&amp;B340&amp;""", ""shortDescription"": """&amp;C340&amp;""", ""fullDescriptionHtml"": """&amp;D340&amp;""", ""direction"": """&amp;E340&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ZOMBIZOU", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ340" s="2"/>
     </row>
@@ -15103,17 +15228,17 @@
         <v>18</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F341" s="0"/>
       <c r="G341" s="0" t="str">
         <f aca="false">IF(E341="","","{""sourceId"": """&amp;A341&amp;""", ""targetId"": """&amp;B341&amp;""", ""shortDescription"": """&amp;C341&amp;""", ""fullDescriptionHtml"": """&amp;D341&amp;""", ""direction"": """&amp;E341&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CAPTAIN_HARDROCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ341" s="2"/>
     </row>
@@ -15121,18 +15246,18 @@
       <c r="A342" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B342" s="6" t="s">
-        <v>343</v>
+      <c r="B342" s="8" t="s">
+        <v>784</v>
       </c>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F342" s="0"/>
       <c r="G342" s="0" t="str">
         <f aca="false">IF(E342="","","{""sourceId"": """&amp;A342&amp;""", ""targetId"": """&amp;B342&amp;""", ""shortDescription"": """&amp;C342&amp;""", ""fullDescriptionHtml"": """&amp;D342&amp;""", ""direction"": """&amp;E342&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "FROZER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ342" s="2"/>
     </row>
@@ -15140,18 +15265,18 @@
       <c r="A343" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B343" s="6" t="s">
-        <v>250</v>
+      <c r="B343" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F343" s="0"/>
       <c r="G343" s="0" t="str">
         <f aca="false">IF(E343="","","{""sourceId"": """&amp;A343&amp;""", ""targetId"": """&amp;B343&amp;""", ""shortDescription"": """&amp;C343&amp;""", ""fullDescriptionHtml"": """&amp;D343&amp;""", ""direction"": """&amp;E343&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "STYLE_QUEEN", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ343" s="2"/>
     </row>
@@ -15160,17 +15285,17 @@
         <v>18</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F344" s="0"/>
       <c r="G344" s="0" t="str">
         <f aca="false">IF(E344="","","{""sourceId"": """&amp;A344&amp;""", ""targetId"": """&amp;B344&amp;""", ""shortDescription"": """&amp;C344&amp;""", ""fullDescriptionHtml"": """&amp;D344&amp;""", ""direction"": """&amp;E344&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SHELL_SHOCK", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "QUEEN_WASP", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ344" s="2"/>
     </row>
@@ -15178,18 +15303,18 @@
       <c r="A345" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B345" s="8" t="s">
-        <v>799</v>
+      <c r="B345" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F345" s="0"/>
       <c r="G345" s="0" t="str">
         <f aca="false">IF(E345="","","{""sourceId"": """&amp;A345&amp;""", ""targetId"": """&amp;B345&amp;""", ""shortDescription"": """&amp;C345&amp;""", ""fullDescriptionHtml"": """&amp;D345&amp;""", ""direction"": """&amp;E345&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SANTA_CLAWS", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "REVERSER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ345" s="2"/>
     </row>
@@ -15198,17 +15323,17 @@
         <v>18</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>667</v>
+        <v>796</v>
       </c>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F346" s="0"/>
       <c r="G346" s="0" t="str">
         <f aca="false">IF(E346="","","{""sourceId"": """&amp;A346&amp;""", ""targetId"": """&amp;B346&amp;""", ""shortDescription"": """&amp;C346&amp;""", ""fullDescriptionHtml"": """&amp;D346&amp;""", ""direction"": """&amp;E346&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "CHAMELEON", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "ANANSI", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ346" s="2"/>
     </row>
@@ -15217,17 +15342,17 @@
         <v>18</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F347" s="0"/>
       <c r="G347" s="0" t="str">
         <f aca="false">IF(E347="","","{""sourceId"": """&amp;A347&amp;""", ""targetId"": """&amp;B347&amp;""", ""shortDescription"": """&amp;C347&amp;""", ""fullDescriptionHtml"": """&amp;D347&amp;""", ""direction"": """&amp;E347&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "ANIMAESTRO", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "MALEDIKTATOR", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ347" s="2"/>
     </row>
@@ -15241,12 +15366,12 @@
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F348" s="0"/>
       <c r="G348" s="0" t="str">
         <f aca="false">IF(E348="","","{""sourceId"": """&amp;A348&amp;""", ""targetId"": """&amp;B348&amp;""", ""shortDescription"": """&amp;C348&amp;""", ""fullDescriptionHtml"": """&amp;D348&amp;""", ""direction"": """&amp;E348&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BAKERIX", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "SANDBOY", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ348" s="2"/>
     </row>
@@ -15254,18 +15379,18 @@
       <c r="A349" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B349" s="8" t="s">
-        <v>820</v>
+      <c r="B349" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F349" s="0"/>
       <c r="G349" s="0" t="str">
         <f aca="false">IF(E349="","","{""sourceId"": """&amp;A349&amp;""", ""targetId"": """&amp;B349&amp;""", ""shortDescription"": """&amp;C349&amp;""", ""fullDescriptionHtml"": """&amp;D349&amp;""", ""direction"": """&amp;E349&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "BACKWARDER", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "CATALYST", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ349" s="2"/>
     </row>
@@ -15273,18 +15398,18 @@
       <c r="A350" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B350" s="8" t="s">
-        <v>826</v>
+      <c r="B350" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F350" s="0"/>
       <c r="G350" s="0" t="str">
         <f aca="false">IF(E350="","","{""sourceId"": """&amp;A350&amp;""", ""targetId"": """&amp;B350&amp;""", ""shortDescription"": """&amp;C350&amp;""", ""fullDescriptionHtml"": """&amp;D350&amp;""", ""direction"": """&amp;E350&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "WEREDAD", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
+        <v>{"sourceId": "AKUMA", "targetId": "RENA_RAGE", "shortDescription": "", "fullDescriptionHtml": "", "direction": "NONE"},</v>
       </c>
       <c r="AMJ350" s="2"/>
     </row>
@@ -15293,17 +15418,17 @@
         <v>18</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F351" s="0"/>
       <c r="G351" s="0" t="str">
         <f aca="false">IF(E351="","","{""sourceId"": """&amp;A351&amp;""", ""targetId"": """&amp;B351&amp;""", ""shortDescription"": """&amp;C351&amp;""", ""fullDescriptionHtml"": """&amp;D351&amp;""", ""direction"": """&amp;E351&amp;"""},")</f>
-        <v>{"sourceId": "AKUMA", "targetId": "SILENCER", "shortDescription": "", "fullDescriptionHtml": "", "direction": 